--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO84"/>
+  <dimension ref="A1:AO88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,7 +679,7 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.07</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I5" t="n">
         <v>1.77</v>
@@ -1087,7 +1087,7 @@
         <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>2.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>3.95</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>3.3</v>
@@ -1231,19 +1231,19 @@
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O6" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
         <v>1.64</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1252,7 +1252,7 @@
         <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y6" t="n">
         <v>11.5</v>
@@ -1309,7 +1309,7 @@
         <v>200</v>
       </c>
       <c r="AN6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO6" t="n">
         <v>110</v>
@@ -1333,31 +1333,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>AC Bra</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Juventus B</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fatih Karagumruk Istanbul</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FK Backa Topola</t>
+          <t>Fatih Karagumruk Istanbul</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.32</v>
+        <v>1.67</v>
       </c>
       <c r="G9" t="n">
-        <v>2.94</v>
+        <v>1.78</v>
       </c>
       <c r="H9" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Belediye Derincespor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Ankara Demirspor</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2.72</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="I10" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>2.96</v>
+        <v>1.01</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Belediye Derincespor</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ankara Demirspor</t>
+          <t>FK Backa Topola</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>2.94</v>
       </c>
       <c r="H11" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.15</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="G12" t="n">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="H12" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="G13" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,37 +2273,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.3</v>
       </c>
-      <c r="G14" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4</v>
-      </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.28</v>
+        <v>1.54</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>TSV Havelse</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>2.76</v>
       </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I15" t="n">
-        <v>2.26</v>
+        <v>2.72</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.95</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>2.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2548,32 +2548,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="G16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K16" t="n">
         <v>4</v>
       </c>
-      <c r="H16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>2.28</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,66 +2678,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>5.4</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="I17" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="J17" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,64 +2746,64 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,36 +2813,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="G18" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G19" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,31 +3088,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Yverdon Sport</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Rapperswil-Jona</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="G20" t="n">
-        <v>1.59</v>
+        <v>1.84</v>
       </c>
       <c r="H20" t="n">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="I20" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="J20" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,36 +3218,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.24</v>
+        <v>2.04</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,66 +3353,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.26</v>
+        <v>5.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>1.72</v>
       </c>
       <c r="I22" t="n">
-        <v>3.65</v>
+        <v>1.74</v>
       </c>
       <c r="J22" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="P22" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="R22" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="S22" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="U22" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,64 +3421,64 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AA22" t="n">
-        <v>85</v>
+        <v>17.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>16.5</v>
+        <v>44</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AH22" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="AK22" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AL22" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AM22" t="n">
         <v>120</v>
       </c>
       <c r="AN22" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="AO22" t="n">
-        <v>55</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>US Pianese</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q23" t="n">
         <v>1.01</v>
@@ -3628,12 +3628,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>US Pianese</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>US Latina Calcio</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,31 +3898,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Araz Nakhchivan PFK</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Shamakhi FK</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="Q26" t="n">
         <v>1.01</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>US Latina Calcio</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FC Groningen</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.14</v>
+        <v>1.24</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,61 +4168,61 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FC Twente</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="G28" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T28" t="n">
         <v>1.76</v>
       </c>
-      <c r="H28" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4231,64 +4231,64 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,31 +4303,31 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>FC Groningen</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.56</v>
+        <v>3.25</v>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="I29" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="J29" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,31 +4438,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>FC Twente</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.24</v>
+        <v>2.38</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,36 +4568,36 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="G31" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="I31" t="n">
-        <v>2.72</v>
+        <v>3.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,36 +4703,36 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Araz Nakhchivan PFK</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Shamakhi FK</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.3</v>
+        <v>2.42</v>
       </c>
       <c r="G32" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
-        <v>1.97</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.58</v>
+        <v>3.9</v>
       </c>
       <c r="J32" t="n">
-        <v>3.25</v>
+        <v>2.76</v>
       </c>
       <c r="K32" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.84</v>
+        <v>1.42</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,36 +4838,36 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ujpest</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Kazincbarcika</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.16</v>
+        <v>1.24</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,61 +4978,61 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="G34" t="n">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="H34" t="n">
-        <v>3.45</v>
+        <v>2.42</v>
       </c>
       <c r="I34" t="n">
-        <v>3.5</v>
+        <v>2.72</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="K34" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.3</v>
+        <v>1.58</v>
       </c>
       <c r="R34" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -5041,64 +5041,64 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,31 +5113,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.22</v>
+        <v>3.3</v>
       </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H35" t="n">
-        <v>3.35</v>
+        <v>2.08</v>
       </c>
       <c r="I35" t="n">
-        <v>4.2</v>
+        <v>2.36</v>
       </c>
       <c r="J35" t="n">
-        <v>2.86</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.59</v>
+        <v>1.84</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,31 +5248,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Leixoes</t>
+          <t>Ujpest</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Kazincbarcika</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.24</v>
+        <v>2.16</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,61 +5383,61 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FK Spartak</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.69</v>
+        <v>2.44</v>
       </c>
       <c r="G37" t="n">
-        <v>980</v>
+        <v>2.48</v>
       </c>
       <c r="H37" t="n">
-        <v>1.88</v>
+        <v>3.45</v>
       </c>
       <c r="I37" t="n">
-        <v>2.44</v>
+        <v>3.5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>980</v>
+        <v>3.3</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.86</v>
+        <v>2.32</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -5446,64 +5446,64 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,66 +5513,66 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="G38" t="n">
-        <v>2.06</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I38" t="n">
         <v>4.2</v>
       </c>
-      <c r="I38" t="n">
-        <v>4.4</v>
-      </c>
       <c r="J38" t="n">
-        <v>3.55</v>
+        <v>2.86</v>
       </c>
       <c r="K38" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="R38" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -5581,64 +5581,64 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AJ38" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL38" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM38" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AO38" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,36 +5648,36 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Universitatea Cluj</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.81</v>
+        <v>1.24</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,36 +5783,36 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>FK Spartak</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="G40" t="n">
-        <v>1.39</v>
+        <v>980</v>
       </c>
       <c r="H40" t="n">
-        <v>8.800000000000001</v>
+        <v>1.87</v>
       </c>
       <c r="I40" t="n">
-        <v>10.5</v>
+        <v>2.42</v>
       </c>
       <c r="J40" t="n">
-        <v>5.8</v>
+        <v>2.94</v>
       </c>
       <c r="K40" t="n">
-        <v>6.8</v>
+        <v>980</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.78</v>
+        <v>1.68</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.45</v>
+        <v>1.86</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5908,7 +5908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,33 +5918,33 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.35</v>
+        <v>2.02</v>
       </c>
       <c r="G41" t="n">
-        <v>3.7</v>
+        <v>2.06</v>
       </c>
       <c r="H41" t="n">
-        <v>2.26</v>
+        <v>4.2</v>
       </c>
       <c r="I41" t="n">
-        <v>2.46</v>
+        <v>4.4</v>
       </c>
       <c r="J41" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K41" t="n">
         <v>3.6</v>
@@ -5953,31 +5953,31 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P41" t="n">
-        <v>1.25</v>
+        <v>1.77</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -5986,64 +5986,64 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,36 +6053,36 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Universitatea Cluj</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.86</v>
+        <v>2.1</v>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="H42" t="n">
-        <v>2.7</v>
+        <v>3.45</v>
       </c>
       <c r="I42" t="n">
-        <v>2.94</v>
+        <v>4.1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,66 +6188,66 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.7</v>
+        <v>1.36</v>
       </c>
       <c r="G43" t="n">
-        <v>3.8</v>
+        <v>1.39</v>
       </c>
       <c r="H43" t="n">
-        <v>1.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>1.92</v>
+        <v>10.5</v>
       </c>
       <c r="J43" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>4.1</v>
+        <v>2.74</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="R43" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -6256,64 +6256,64 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AM43" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AO43" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,36 +6323,36 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Hoffenheim II</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.88</v>
+        <v>2.82</v>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="I44" t="n">
-        <v>4.9</v>
+        <v>2.94</v>
       </c>
       <c r="J44" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="K44" t="n">
-        <v>6.4</v>
+        <v>3.45</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,36 +6458,36 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Athlitiki Enosi Larissa</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.1</v>
+        <v>3.35</v>
       </c>
       <c r="G45" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H45" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="I45" t="n">
-        <v>3.55</v>
+        <v>2.46</v>
       </c>
       <c r="J45" t="n">
-        <v>2.32</v>
+        <v>3.2</v>
       </c>
       <c r="K45" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>1.25</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,66 +6593,66 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CD Nacional Funchal</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="G46" t="n">
         <v>3.8</v>
       </c>
       <c r="H46" t="n">
-        <v>2.28</v>
+        <v>1.9</v>
       </c>
       <c r="I46" t="n">
-        <v>2.46</v>
+        <v>1.92</v>
       </c>
       <c r="J46" t="n">
-        <v>3.15</v>
+        <v>4.8</v>
       </c>
       <c r="K46" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P46" t="n">
-        <v>1.71</v>
+        <v>4.1</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.16</v>
+        <v>1.3</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -6661,64 +6661,64 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL46" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AM46" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AN46" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,31 +6733,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Hoffenheim II</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,31 +6868,31 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Grasshoppers Zurich</t>
+          <t>Athlitiki Enosi Larissa</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.72</v>
+        <v>2.1</v>
       </c>
       <c r="G48" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="I48" t="n">
-        <v>2.76</v>
+        <v>3.55</v>
       </c>
       <c r="J48" t="n">
-        <v>3.35</v>
+        <v>2.34</v>
       </c>
       <c r="K48" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -6907,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -6988,7 +6988,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,31 +7003,31 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.52</v>
+        <v>3.5</v>
       </c>
       <c r="G49" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H49" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="J49" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K49" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -7042,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>2.32</v>
+        <v>1.71</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7123,7 +7123,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,36 +7133,36 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -7177,10 +7177,10 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -7258,7 +7258,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,36 +7268,36 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Grasshoppers Zurich</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>2.76</v>
       </c>
       <c r="G51" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="H51" t="n">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="I51" t="n">
-        <v>1.87</v>
+        <v>2.74</v>
       </c>
       <c r="J51" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="K51" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7393,7 +7393,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,36 +7403,36 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="G52" t="n">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="H52" t="n">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="I52" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J52" t="n">
         <v>3.6</v>
       </c>
-      <c r="J52" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K52" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7528,7 +7528,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,33 +7538,33 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>2.18</v>
+        <v>4.5</v>
       </c>
       <c r="H53" t="n">
-        <v>3.45</v>
+        <v>1.84</v>
       </c>
       <c r="I53" t="n">
-        <v>4.6</v>
+        <v>1.87</v>
       </c>
       <c r="J53" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="K53" t="n">
         <v>4.5</v>
@@ -7582,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7663,7 +7663,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,36 +7673,36 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FK Novi Pazar</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="G54" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="I54" t="n">
-        <v>3.55</v>
+        <v>2.58</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="K54" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7717,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="G55" t="n">
         <v>2.54</v>
@@ -7837,7 +7837,7 @@
         <v>3.5</v>
       </c>
       <c r="K55" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q55" t="n">
         <v>1.67</v>
@@ -7933,7 +7933,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7943,36 +7943,36 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>FK Novi Pazar</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="G56" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H56" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="I56" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J56" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8068,7 +8068,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,36 +8078,36 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Forli</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.24</v>
+        <v>2.24</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8203,7 +8203,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8213,36 +8213,36 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>1.24</v>
+        <v>2.08</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8338,7 +8338,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8348,36 +8348,36 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8488,61 +8488,61 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P60" t="n">
-        <v>1.24</v>
+        <v>2.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -8551,58 +8551,58 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y60" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z60" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA60" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB60" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD60" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE60" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF60" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG60" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI60" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ60" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK60" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL60" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM60" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AN60" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO60" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
@@ -8638,7 +8638,7 @@
         <v>20</v>
       </c>
       <c r="H61" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="I61" t="n">
         <v>1.17</v>
@@ -8743,7 +8743,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8758,61 +8758,61 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>2.4</v>
+        <v>1.24</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="R62" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -8821,58 +8821,58 @@
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB62" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC62" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE62" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AF62" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG62" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH62" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI62" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ62" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AK62" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL62" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AM62" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AN62" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO62" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -8893,12 +8893,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -9013,7 +9013,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -9023,66 +9023,66 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>1.79</v>
+        <v>1.24</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="R64" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -9091,64 +9091,64 @@
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y64" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z64" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AB64" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC64" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD64" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE64" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF64" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AG64" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH64" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI64" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AJ64" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK64" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AL64" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM64" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AN64" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO64" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -9158,36 +9158,36 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -9202,10 +9202,10 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>3.2</v>
+        <v>1.24</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -9293,36 +9293,36 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -9337,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9428,36 +9428,36 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.64</v>
+        <v>2.36</v>
       </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="H67" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="I67" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="J67" t="n">
-        <v>2.54</v>
+        <v>3.2</v>
       </c>
       <c r="K67" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -9475,7 +9475,7 @@
         <v>1.25</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9553,7 +9553,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -9563,66 +9563,66 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="G68" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="H68" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I68" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K68" t="n">
         <v>3.4</v>
       </c>
-      <c r="J68" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N68" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="O68" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="P68" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="R68" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="S68" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="T68" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="U68" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -9631,64 +9631,64 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y68" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z68" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA68" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AB68" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AC68" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AD68" t="n">
         <v>15</v>
       </c>
       <c r="AE68" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO68" t="n">
         <v>55</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9698,36 +9698,36 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.1</v>
+        <v>1.22</v>
       </c>
       <c r="G69" t="n">
-        <v>2.28</v>
+        <v>1.27</v>
       </c>
       <c r="H69" t="n">
-        <v>4.3</v>
+        <v>11.5</v>
       </c>
       <c r="I69" t="n">
-        <v>4.9</v>
+        <v>14</v>
       </c>
       <c r="J69" t="n">
-        <v>2.92</v>
+        <v>7.8</v>
       </c>
       <c r="K69" t="n">
-        <v>3.25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9742,10 +9742,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.8</v>
+        <v>1.37</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -9823,7 +9823,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -9838,31 +9838,31 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H70" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I70" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J70" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K70" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -9958,7 +9958,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -9968,66 +9968,66 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="G71" t="n">
-        <v>2.26</v>
+        <v>2.56</v>
       </c>
       <c r="H71" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I71" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="J71" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K71" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P71" t="n">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.93</v>
+        <v>2.46</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -10036,64 +10036,64 @@
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y71" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA71" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD71" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE71" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF71" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG71" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI71" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ71" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK71" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL71" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM71" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN71" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO71" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -10103,36 +10103,36 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="G72" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="I72" t="n">
-        <v>3.95</v>
+        <v>4.9</v>
       </c>
       <c r="J72" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="K72" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -10147,10 +10147,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10228,7 +10228,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -10238,36 +10238,36 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -10373,36 +10373,36 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.99</v>
+        <v>2.24</v>
       </c>
       <c r="G74" t="n">
-        <v>8</v>
+        <v>2.28</v>
       </c>
       <c r="H74" t="n">
-        <v>1.6</v>
+        <v>3.65</v>
       </c>
       <c r="I74" t="n">
-        <v>2.02</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="K74" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -10417,10 +10417,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -10498,7 +10498,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -10508,36 +10508,36 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Duisburg</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -10552,10 +10552,10 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10633,7 +10633,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -10643,36 +10643,36 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.19</v>
+        <v>1.97</v>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>2.26</v>
       </c>
       <c r="H76" t="n">
-        <v>11</v>
+        <v>3.95</v>
       </c>
       <c r="I76" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="J76" t="n">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="K76" t="n">
-        <v>10.5</v>
+        <v>3.75</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -10687,10 +10687,10 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -10768,7 +10768,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -10778,36 +10778,36 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:15:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="G77" t="n">
-        <v>2.86</v>
+        <v>7.6</v>
       </c>
       <c r="H77" t="n">
-        <v>2.56</v>
+        <v>1.62</v>
       </c>
       <c r="I77" t="n">
-        <v>3.8</v>
+        <v>2.02</v>
       </c>
       <c r="J77" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="K77" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1.82</v>
+        <v>2.62</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10903,7 +10903,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -10913,66 +10913,66 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Duisburg</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>4.1</v>
+        <v>2.56</v>
       </c>
       <c r="G78" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="H78" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="I78" t="n">
-        <v>2.08</v>
+        <v>3.55</v>
       </c>
       <c r="J78" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="K78" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.12</v>
+        <v>1.73</v>
       </c>
       <c r="R78" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="V78" t="n">
         <v>0</v>
@@ -10981,64 +10981,64 @@
         <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y78" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Z78" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AA78" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AB78" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC78" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD78" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE78" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AF78" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AG78" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AH78" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI78" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AJ78" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AK78" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AL78" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AM78" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN78" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AO78" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -11048,36 +11048,36 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3.35</v>
+        <v>1.2</v>
       </c>
       <c r="G79" t="n">
-        <v>3.65</v>
+        <v>1.24</v>
       </c>
       <c r="H79" t="n">
-        <v>2.36</v>
+        <v>12.5</v>
       </c>
       <c r="I79" t="n">
-        <v>2.42</v>
+        <v>1000</v>
       </c>
       <c r="J79" t="n">
-        <v>3.35</v>
+        <v>7</v>
       </c>
       <c r="K79" t="n">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>1.86</v>
+        <v>2.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11173,7 +11173,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -11183,66 +11183,66 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Team Altamura</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="G80" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="H80" t="n">
-        <v>6</v>
+        <v>1.94</v>
       </c>
       <c r="I80" t="n">
-        <v>6.4</v>
+        <v>16</v>
       </c>
       <c r="J80" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="K80" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.52</v>
+        <v>1.72</v>
       </c>
       <c r="R80" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="V80" t="n">
         <v>0</v>
@@ -11251,64 +11251,64 @@
         <v>0</v>
       </c>
       <c r="X80" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y80" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z80" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AA80" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AB80" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AC80" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD80" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AE80" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF80" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG80" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH80" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AI80" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AJ80" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AK80" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL80" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM80" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AN80" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AO80" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -11318,36 +11318,36 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.83</v>
+        <v>2.14</v>
       </c>
       <c r="G81" t="n">
-        <v>1.94</v>
+        <v>2.86</v>
       </c>
       <c r="H81" t="n">
-        <v>5.2</v>
+        <v>2.56</v>
       </c>
       <c r="I81" t="n">
-        <v>5.9</v>
+        <v>3.8</v>
       </c>
       <c r="J81" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="K81" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -11362,10 +11362,10 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -11443,7 +11443,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -11453,66 +11453,66 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Independiente (Ecu)</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Barcelona (Ecu)</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.74</v>
+        <v>4.1</v>
       </c>
       <c r="G82" t="n">
-        <v>1.84</v>
+        <v>4.3</v>
       </c>
       <c r="H82" t="n">
-        <v>4.2</v>
+        <v>2.04</v>
       </c>
       <c r="I82" t="n">
-        <v>4.8</v>
+        <v>2.08</v>
       </c>
       <c r="J82" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K82" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P82" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T82" t="n">
         <v>1.92</v>
       </c>
-      <c r="Q82" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R82" t="n">
-        <v>0</v>
-      </c>
-      <c r="S82" t="n">
-        <v>0</v>
-      </c>
-      <c r="T82" t="n">
-        <v>0</v>
-      </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V82" t="n">
         <v>0</v>
@@ -11521,64 +11521,64 @@
         <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y82" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z82" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB82" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC82" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD82" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE82" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF82" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG82" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH82" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI82" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AK82" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL82" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM82" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN82" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AO82" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -11588,66 +11588,66 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LDU</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Univ Catolica (Ecu)</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="G83" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="H83" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="I83" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="J83" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K83" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P83" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.67</v>
+        <v>2.52</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="U83" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
@@ -11656,192 +11656,732 @@
         <v>0</v>
       </c>
       <c r="X83" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y83" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z83" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA83" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AB83" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AC83" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD83" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF83" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG83" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH83" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI83" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AJ83" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK83" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL83" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM83" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AN83" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>CD Castellon</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H85" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K85" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
           <t>Ecuadorian Serie A</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>2025-12-21</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>18:30:00</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Independiente (Ecu)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Barcelona (Ecu)</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>4</v>
+      </c>
+      <c r="K86" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>LDU</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Univ Catolica (Ecu)</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H87" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I87" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K87" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>Orense Sporting Club</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>Libertad FC</t>
         </is>
       </c>
-      <c r="F84" t="n">
+      <c r="F88" t="n">
         <v>1.83</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G88" t="n">
         <v>1.9</v>
       </c>
-      <c r="H84" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I84" t="n">
+      <c r="H88" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I88" t="n">
         <v>5.2</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J88" t="n">
         <v>3.6</v>
       </c>
-      <c r="K84" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
+      <c r="K88" t="n">
+        <v>4</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
         <v>1.66</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="Q88" t="n">
         <v>1.87</v>
       </c>
-      <c r="R84" t="n">
-        <v>0</v>
-      </c>
-      <c r="S84" t="n">
-        <v>0</v>
-      </c>
-      <c r="T84" t="n">
-        <v>0</v>
-      </c>
-      <c r="U84" t="n">
-        <v>0</v>
-      </c>
-      <c r="V84" t="n">
-        <v>0</v>
-      </c>
-      <c r="W84" t="n">
-        <v>0</v>
-      </c>
-      <c r="X84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO84" t="n">
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO88" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="I5" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="J5" t="n">
         <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>2.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G6" t="n">
         <v>2.28</v>
@@ -1216,7 +1216,7 @@
         <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1237,7 +1237,7 @@
         <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q6" t="n">
         <v>2.52</v>
@@ -1264,7 +1264,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
         <v>26</v>
@@ -1291,7 +1291,7 @@
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
         <v>100</v>
@@ -1618,13 +1618,13 @@
         <v>1.78</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I9" t="n">
         <v>6.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>4.4</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q9" t="n">
         <v>1.87</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="Q10" t="n">
         <v>1.01</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="G11" t="n">
         <v>2.94</v>
       </c>
       <c r="H11" t="n">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="I11" t="n">
         <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>1.94</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="G14" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="H14" t="n">
         <v>3.15</v>
@@ -2299,10 +2299,10 @@
         <v>3.65</v>
       </c>
       <c r="J14" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>2.72</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G16" t="n">
         <v>3.65</v>
       </c>
       <c r="H16" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I16" t="n">
         <v>2.24</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2695,10 +2695,10 @@
         <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I17" t="n">
         <v>2.24</v>
@@ -2830,16 +2830,16 @@
         <v>3.4</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="H18" t="n">
         <v>2.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
         <v>3.55</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
         <v>2.24</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J19" t="n">
         <v>4</v>
       </c>
-      <c r="J19" t="n">
-        <v>3.55</v>
-      </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G22" t="n">
         <v>5.4</v>
@@ -3376,7 +3376,7 @@
         <v>1.72</v>
       </c>
       <c r="I22" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="J22" t="n">
         <v>4.3</v>
@@ -3406,10 +3406,10 @@
         <v>1.45</v>
       </c>
       <c r="S22" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T22" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U22" t="n">
         <v>2.14</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="G23" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="I23" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G28" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I28" t="n">
         <v>3.65</v>
@@ -4201,13 +4201,13 @@
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O28" t="n">
         <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q28" t="n">
         <v>1.91</v>
@@ -4243,7 +4243,7 @@
         <v>85</v>
       </c>
       <c r="AB28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC28" t="n">
         <v>8.4</v>
@@ -4258,13 +4258,13 @@
         <v>16.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
         <v>18.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
         <v>30</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G29" t="n">
         <v>3.6</v>
       </c>
       <c r="H29" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I29" t="n">
         <v>2.3</v>
@@ -4345,7 +4345,7 @@
         <v>2.14</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G30" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H30" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I30" t="n">
         <v>5.2</v>
       </c>
       <c r="J30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K30" t="n">
         <v>4.7</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="Q30" t="n">
         <v>1.6</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="G32" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J32" t="n">
         <v>2.8</v>
       </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.76</v>
-      </c>
       <c r="K32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G37" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>3.45</v>
@@ -5407,7 +5407,7 @@
         <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,13 +5422,13 @@
         <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R37" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S37" t="n">
         <v>4.4</v>
@@ -5533,7 +5533,7 @@
         <v>2.8</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
         <v>4.2</v>
@@ -5542,7 +5542,7 @@
         <v>2.86</v>
       </c>
       <c r="K38" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G41" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H41" t="n">
         <v>4.2</v>
       </c>
       <c r="I41" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J41" t="n">
         <v>3.55</v>
       </c>
       <c r="K41" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>3.25</v>
       </c>
       <c r="O41" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P41" t="n">
         <v>1.77</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y41" t="n">
         <v>15.5</v>
@@ -6028,7 +6028,7 @@
         <v>28</v>
       </c>
       <c r="AL41" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM41" t="n">
         <v>170</v>
@@ -6067,13 +6067,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G42" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H42" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I42" t="n">
         <v>4.1</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G43" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H43" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I43" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J43" t="n">
         <v>5.8</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G44" t="n">
         <v>3.1</v>
@@ -6352,7 +6352,7 @@
         <v>3.05</v>
       </c>
       <c r="K44" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6475,19 +6475,19 @@
         <v>3.35</v>
       </c>
       <c r="G45" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H45" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I45" t="n">
         <v>2.46</v>
       </c>
       <c r="J45" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K45" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1.9</v>
       </c>
       <c r="I46" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J46" t="n">
         <v>4.8</v>
@@ -6877,19 +6877,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G48" t="n">
         <v>3.5</v>
       </c>
       <c r="H48" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I48" t="n">
         <v>3.55</v>
       </c>
       <c r="J48" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="K48" t="n">
         <v>4.2</v>
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G49" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H49" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I49" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="J49" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K49" t="n">
         <v>3.45</v>
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G53" t="n">
         <v>4.5</v>
       </c>
       <c r="H53" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="I53" t="n">
         <v>1.87</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="G54" t="n">
         <v>3.1</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G56" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H56" t="n">
         <v>3.15</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2.5</v>
       </c>
       <c r="I56" t="n">
         <v>3.55</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K56" t="n">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G57" t="n">
         <v>2.34</v>
@@ -8107,7 +8107,7 @@
         <v>3.4</v>
       </c>
       <c r="K57" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8362,19 +8362,19 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G59" t="n">
         <v>3.35</v>
       </c>
       <c r="H59" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I59" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J59" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="K59" t="n">
         <v>4.2</v>
@@ -8395,7 +8395,7 @@
         <v>1.65</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,13 +8497,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G60" t="n">
         <v>2.2</v>
       </c>
       <c r="H60" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I60" t="n">
         <v>3.65</v>
@@ -8569,7 +8569,7 @@
         <v>8.4</v>
       </c>
       <c r="AD60" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE60" t="n">
         <v>46</v>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="G61" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H61" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I61" t="n">
         <v>1.16</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1.17</v>
       </c>
       <c r="J61" t="n">
         <v>11.5</v>
@@ -8668,16 +8668,16 @@
         <v>1.27</v>
       </c>
       <c r="R61" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S61" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="T61" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U61" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>260</v>
       </c>
       <c r="AG61" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AH61" t="n">
         <v>44</v>
@@ -8737,7 +8737,7 @@
         <v>1000</v>
       </c>
       <c r="AO61" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="62">
@@ -9442,22 +9442,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="G67" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H67" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I67" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J67" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K67" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -9472,10 +9472,10 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9619,7 +9619,7 @@
         <v>4.1</v>
       </c>
       <c r="T68" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U68" t="n">
         <v>2.02</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Q70" t="n">
         <v>2.1</v>
@@ -10006,7 +10006,7 @@
         <v>1.11</v>
       </c>
       <c r="N71" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O71" t="n">
         <v>1.49</v>
@@ -10021,7 +10021,7 @@
         <v>1.23</v>
       </c>
       <c r="S71" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T71" t="n">
         <v>2.06</v>
@@ -10069,10 +10069,10 @@
         <v>22</v>
       </c>
       <c r="AI71" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AJ71" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AK71" t="n">
         <v>34</v>
@@ -10117,10 +10117,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H72" t="n">
         <v>4.3</v>
@@ -10129,7 +10129,7 @@
         <v>4.9</v>
       </c>
       <c r="J72" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K72" t="n">
         <v>3.25</v>
@@ -10285,7 +10285,7 @@
         <v>1.79</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -10387,16 +10387,16 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G74" t="n">
         <v>2.28</v>
       </c>
       <c r="H74" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J74" t="n">
         <v>3.3</v>
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
         <v>2.26</v>
@@ -10666,7 +10666,7 @@
         <v>3.95</v>
       </c>
       <c r="I76" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J76" t="n">
         <v>3.3</v>
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G77" t="n">
         <v>7.6</v>
@@ -10801,7 +10801,7 @@
         <v>1.62</v>
       </c>
       <c r="I77" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J77" t="n">
         <v>4.1</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q77" t="n">
         <v>1.33</v>
@@ -10933,16 +10933,16 @@
         <v>3.5</v>
       </c>
       <c r="H78" t="n">
-        <v>2.28</v>
+        <v>1.41</v>
       </c>
       <c r="I78" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J78" t="n">
         <v>3.05</v>
       </c>
       <c r="K78" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -10957,10 +10957,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>1.2</v>
       </c>
       <c r="G79" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H79" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="I79" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="J79" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="K79" t="n">
         <v>10</v>
@@ -11467,16 +11467,16 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="G82" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H82" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I82" t="n">
         <v>2.04</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2.08</v>
       </c>
       <c r="J82" t="n">
         <v>3.5</v>
@@ -11491,7 +11491,7 @@
         <v>1.08</v>
       </c>
       <c r="N82" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O82" t="n">
         <v>1.38</v>
@@ -11530,19 +11530,19 @@
         <v>12.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB82" t="n">
         <v>14</v>
       </c>
       <c r="AC82" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD82" t="n">
         <v>10.5</v>
       </c>
       <c r="AE82" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF82" t="n">
         <v>32</v>
@@ -11563,7 +11563,7 @@
         <v>60</v>
       </c>
       <c r="AL82" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AM82" t="n">
         <v>150</v>
@@ -11629,13 +11629,13 @@
         <v>2.9</v>
       </c>
       <c r="O83" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P83" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R83" t="n">
         <v>1.22</v>
@@ -11659,13 +11659,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y83" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA83" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB83" t="n">
         <v>6.4</v>
@@ -11674,7 +11674,7 @@
         <v>8.4</v>
       </c>
       <c r="AD83" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE83" t="n">
         <v>1000</v>
@@ -11689,13 +11689,13 @@
         <v>30</v>
       </c>
       <c r="AI83" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ83" t="n">
         <v>23</v>
       </c>
       <c r="AK83" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL83" t="n">
         <v>60</v>
@@ -11704,7 +11704,7 @@
         <v>270</v>
       </c>
       <c r="AN83" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO83" t="n">
         <v>1000</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G84" t="n">
         <v>3.65</v>
@@ -11746,7 +11746,7 @@
         <v>2.36</v>
       </c>
       <c r="I84" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="J84" t="n">
         <v>3.35</v>
@@ -11767,10 +11767,10 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -11872,16 +11872,16 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="G85" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H85" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I85" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J85" t="n">
         <v>3.4</v>
@@ -11902,7 +11902,7 @@
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q85" t="n">
         <v>2.4</v>
@@ -12007,13 +12007,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="G86" t="n">
         <v>1.84</v>
       </c>
       <c r="H86" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I86" t="n">
         <v>4.8</v>
@@ -12277,13 +12277,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G88" t="n">
         <v>1.9</v>
       </c>
       <c r="H88" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I88" t="n">
         <v>5.2</v>
@@ -12292,7 +12292,7 @@
         <v>3.6</v>
       </c>
       <c r="K88" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -679,100 +679,100 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.71</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.01</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>1.31</v>
       </c>
       <c r="G4" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H4" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="I4" t="n">
         <v>4.2</v>
@@ -952,7 +952,7 @@
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>2.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G5" t="n">
         <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="I5" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -1279,7 +1279,7 @@
         <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE6" t="n">
         <v>65</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Q9" t="n">
         <v>1.87</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="I12" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G14" t="n">
         <v>2.92</v>
@@ -2320,7 +2320,7 @@
         <v>1.55</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,37 +2422,37 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G15" t="n">
         <v>4.1</v>
       </c>
       <c r="H15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>2.06</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K15" t="n">
-        <v>7</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.02</v>
       </c>
       <c r="Q15" t="n">
         <v>1.57</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="G16" t="n">
         <v>3.65</v>
@@ -2566,7 +2566,7 @@
         <v>2.14</v>
       </c>
       <c r="I16" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J16" t="n">
         <v>3.9</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>2.24</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
         <v>3.95</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G18" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I18" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="G19" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="I19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.55</v>
       </c>
-      <c r="J19" t="n">
-        <v>4</v>
-      </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="G20" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="I20" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="K20" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="G21" t="n">
         <v>1.59</v>
@@ -3241,7 +3241,7 @@
         <v>2.66</v>
       </c>
       <c r="I21" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="J21" t="n">
         <v>4.3</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G22" t="n">
         <v>5.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="I22" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="J22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K22" t="n">
         <v>4.3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.4</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3403,10 +3403,10 @@
         <v>1.82</v>
       </c>
       <c r="R22" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S22" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T22" t="n">
         <v>1.82</v>
@@ -3430,13 +3430,13 @@
         <v>11</v>
       </c>
       <c r="AA22" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="n">
         <v>20</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
         <v>10</v>
@@ -3445,7 +3445,7 @@
         <v>17.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG22" t="n">
         <v>21</v>
@@ -3457,10 +3457,10 @@
         <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK22" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL22" t="n">
         <v>70</v>
@@ -3472,7 +3472,7 @@
         <v>75</v>
       </c>
       <c r="AO22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G23" t="n">
         <v>3.4</v>
@@ -3511,7 +3511,7 @@
         <v>2.38</v>
       </c>
       <c r="I23" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
@@ -4183,7 +4183,7 @@
         <v>2.24</v>
       </c>
       <c r="H28" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
         <v>3.65</v>
@@ -4216,7 +4216,7 @@
         <v>1.36</v>
       </c>
       <c r="S28" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T28" t="n">
         <v>1.76</v>
@@ -4231,10 +4231,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z28" t="n">
         <v>32</v>
@@ -4243,13 +4243,13 @@
         <v>85</v>
       </c>
       <c r="AB28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC28" t="n">
         <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AE28" t="n">
         <v>55</v>
@@ -4261,7 +4261,7 @@
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
         <v>55</v>
@@ -4270,7 +4270,7 @@
         <v>30</v>
       </c>
       <c r="AK28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
         <v>46</v>
@@ -4279,10 +4279,10 @@
         <v>120</v>
       </c>
       <c r="AN28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -4315,7 +4315,7 @@
         <v>3.35</v>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H29" t="n">
         <v>2.26</v>
@@ -4345,7 +4345,7 @@
         <v>2.14</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4462,7 +4462,7 @@
         <v>4.4</v>
       </c>
       <c r="K30" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H31" t="n">
         <v>2.34</v>
       </c>
       <c r="I31" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K31" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2.32</v>
       </c>
       <c r="G32" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H32" t="n">
         <v>3.1</v>
@@ -4732,7 +4732,7 @@
         <v>2.8</v>
       </c>
       <c r="K32" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="G34" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="H34" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="I34" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
         <v>3.7</v>
       </c>
       <c r="K34" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="G35" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="H35" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="I35" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="K35" t="n">
         <v>4.4</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G36" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="H36" t="n">
-        <v>2.46</v>
+        <v>4.7</v>
       </c>
       <c r="I36" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="J36" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K36" t="n">
-        <v>950</v>
+        <v>6.4</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5416,25 +5416,25 @@
         <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P37" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R37" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S37" t="n">
         <v>4.4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U37" t="n">
         <v>1.99</v>
@@ -5452,13 +5452,13 @@
         <v>11.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AA37" t="n">
         <v>70</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC37" t="n">
         <v>7.2</v>
@@ -5467,16 +5467,16 @@
         <v>15</v>
       </c>
       <c r="AE37" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF37" t="n">
         <v>15</v>
       </c>
       <c r="AG37" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI37" t="n">
         <v>65</v>
@@ -5488,13 +5488,13 @@
         <v>30</v>
       </c>
       <c r="AL37" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM37" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN37" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AO37" t="n">
         <v>55</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I38" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J38" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="K38" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="G40" t="n">
         <v>980</v>
@@ -5806,7 +5806,7 @@
         <v>1.87</v>
       </c>
       <c r="I40" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="J40" t="n">
         <v>2.94</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G41" t="n">
         <v>2.08</v>
       </c>
       <c r="H41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I41" t="n">
         <v>4.3</v>
@@ -5962,7 +5962,7 @@
         <v>1.41</v>
       </c>
       <c r="P41" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q41" t="n">
         <v>2.24</v>
@@ -5974,7 +5974,7 @@
         <v>4.2</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U41" t="n">
         <v>1.93</v>
@@ -5986,16 +5986,16 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y41" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y41" t="n">
-        <v>15.5</v>
-      </c>
       <c r="Z41" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA41" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB41" t="n">
         <v>8</v>
@@ -6004,31 +6004,31 @@
         <v>8</v>
       </c>
       <c r="AD41" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE41" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AF41" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH41" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI41" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AK41" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AL41" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM41" t="n">
         <v>170</v>
@@ -6076,10 +6076,10 @@
         <v>3.55</v>
       </c>
       <c r="I42" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J42" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K42" t="n">
         <v>3.8</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G43" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H43" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J43" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="K43" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H44" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I44" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="J44" t="n">
         <v>3.05</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="Q45" t="n">
         <v>2.1</v>
@@ -6613,7 +6613,7 @@
         <v>3.8</v>
       </c>
       <c r="H46" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="I46" t="n">
         <v>1.91</v>
@@ -6637,16 +6637,16 @@
         <v>1.09</v>
       </c>
       <c r="P46" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
         <v>1.3</v>
       </c>
       <c r="R46" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="S46" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="T46" t="n">
         <v>1.35</v>
@@ -6670,7 +6670,7 @@
         <v>22</v>
       </c>
       <c r="AA46" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB46" t="n">
         <v>36</v>
@@ -6682,7 +6682,7 @@
         <v>12.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF46" t="n">
         <v>46</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G47" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I47" t="n">
         <v>4.9</v>
       </c>
       <c r="J47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K47" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6877,40 +6877,40 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.08</v>
+        <v>2.74</v>
       </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H48" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q48" t="n">
         <v>2.12</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K48" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1.01</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G49" t="n">
         <v>3.7</v>
       </c>
       <c r="H49" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I49" t="n">
         <v>2.46</v>
@@ -7045,7 +7045,7 @@
         <v>1.71</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G51" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H51" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="I51" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="J51" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K51" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7417,19 +7417,19 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="G52" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="H52" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="I52" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="J52" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K52" t="n">
         <v>4.1</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7555,19 +7555,19 @@
         <v>4.2</v>
       </c>
       <c r="G53" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H53" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="I53" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="J53" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7690,19 +7690,19 @@
         <v>2.86</v>
       </c>
       <c r="G54" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H54" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I54" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J54" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K54" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7717,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.25</v>
+        <v>2.44</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="H55" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I55" t="n">
         <v>4.2</v>
@@ -7837,7 +7837,7 @@
         <v>3.5</v>
       </c>
       <c r="K55" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7852,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7960,16 +7960,16 @@
         <v>2.3</v>
       </c>
       <c r="G56" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>3.15</v>
       </c>
       <c r="I56" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="J56" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K56" t="n">
         <v>3.7</v>
@@ -7990,7 +7990,7 @@
         <v>1.51</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="G57" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="J57" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K57" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8233,16 +8233,16 @@
         <v>2.44</v>
       </c>
       <c r="H58" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I58" t="n">
         <v>3.6</v>
       </c>
       <c r="J58" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K58" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="G59" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H59" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="I59" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J59" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K59" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G60" t="n">
         <v>2.2</v>
@@ -8512,7 +8512,7 @@
         <v>3.7</v>
       </c>
       <c r="K60" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>1.59</v>
       </c>
       <c r="U60" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>65</v>
       </c>
       <c r="AB60" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC60" t="n">
         <v>8.4</v>
@@ -8575,7 +8575,7 @@
         <v>46</v>
       </c>
       <c r="AF60" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG60" t="n">
         <v>10.5</v>
@@ -8593,7 +8593,7 @@
         <v>20</v>
       </c>
       <c r="AL60" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM60" t="n">
         <v>55</v>
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G61" t="n">
         <v>20</v>
-      </c>
-      <c r="G61" t="n">
-        <v>21</v>
       </c>
       <c r="H61" t="n">
         <v>1.15</v>
       </c>
       <c r="I61" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="J61" t="n">
         <v>11.5</v>
       </c>
       <c r="K61" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>4.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="R61" t="n">
         <v>2.4</v>
@@ -8674,7 +8674,7 @@
         <v>1.67</v>
       </c>
       <c r="T61" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U61" t="n">
         <v>2.06</v>
@@ -8689,7 +8689,7 @@
         <v>75</v>
       </c>
       <c r="Y61" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z61" t="n">
         <v>12</v>
@@ -8698,10 +8698,10 @@
         <v>10.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AC61" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD61" t="n">
         <v>14</v>
@@ -8710,28 +8710,28 @@
         <v>13.5</v>
       </c>
       <c r="AF61" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AG61" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH61" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI61" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ61" t="n">
         <v>1000</v>
       </c>
       <c r="AK61" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AL61" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AM61" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN61" t="n">
         <v>1000</v>
@@ -9445,13 +9445,13 @@
         <v>2.32</v>
       </c>
       <c r="G67" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H67" t="n">
         <v>3.6</v>
       </c>
       <c r="I67" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="J67" t="n">
         <v>3.15</v>
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q67" t="n">
         <v>2.2</v>
@@ -9583,7 +9583,7 @@
         <v>2.4</v>
       </c>
       <c r="H68" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I68" t="n">
         <v>3.6</v>
@@ -9601,13 +9601,13 @@
         <v>1.09</v>
       </c>
       <c r="N68" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O68" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P68" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q68" t="n">
         <v>2.2</v>
@@ -9622,7 +9622,7 @@
         <v>1.93</v>
       </c>
       <c r="U68" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -9634,16 +9634,16 @@
         <v>12</v>
       </c>
       <c r="Y68" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z68" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA68" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AB68" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC68" t="n">
         <v>7.6</v>
@@ -9652,7 +9652,7 @@
         <v>15</v>
       </c>
       <c r="AE68" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF68" t="n">
         <v>14.5</v>
@@ -9661,25 +9661,25 @@
         <v>11.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI68" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ68" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK68" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL68" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM68" t="n">
         <v>140</v>
       </c>
       <c r="AN68" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO68" t="n">
         <v>55</v>
@@ -9715,10 +9715,10 @@
         <v>1.22</v>
       </c>
       <c r="G69" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H69" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="I69" t="n">
         <v>14</v>
@@ -9727,7 +9727,7 @@
         <v>7.8</v>
       </c>
       <c r="K69" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G71" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H71" t="n">
         <v>3.3</v>
@@ -10042,7 +10042,7 @@
         <v>10.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA71" t="n">
         <v>70</v>
@@ -10057,10 +10057,10 @@
         <v>15</v>
       </c>
       <c r="AE71" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF71" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG71" t="n">
         <v>12.5</v>
@@ -10072,7 +10072,7 @@
         <v>70</v>
       </c>
       <c r="AJ71" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK71" t="n">
         <v>34</v>
@@ -10084,7 +10084,7 @@
         <v>180</v>
       </c>
       <c r="AN71" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO71" t="n">
         <v>65</v>
@@ -10150,7 +10150,7 @@
         <v>1.45</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10252,22 +10252,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H73" t="n">
         <v>4.1</v>
       </c>
       <c r="I73" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J73" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K73" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -10282,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="Q73" t="n">
         <v>2.12</v>
@@ -10660,16 +10660,16 @@
         <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H76" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I76" t="n">
         <v>4.5</v>
       </c>
       <c r="J76" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K76" t="n">
         <v>3.75</v>
@@ -10687,10 +10687,10 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -10792,16 +10792,16 @@
         </is>
       </c>
       <c r="F77" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G77" t="n">
+        <v>8</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I77" t="n">
         <v>2.02</v>
-      </c>
-      <c r="G77" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1.99</v>
       </c>
       <c r="J77" t="n">
         <v>4.1</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="Q77" t="n">
         <v>1.33</v>
@@ -10927,22 +10927,22 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G78" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H78" t="n">
-        <v>1.41</v>
+        <v>2.32</v>
       </c>
       <c r="I78" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J78" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K78" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -10957,10 +10957,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="G79" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="H79" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="I79" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J79" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="K79" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11197,19 +11197,19 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="G80" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="H80" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="I80" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J80" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="K80" t="n">
         <v>1000</v>
@@ -11227,10 +11227,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -11332,22 +11332,22 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G81" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J81" t="n">
         <v>2.86</v>
       </c>
-      <c r="H81" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K81" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -11362,10 +11362,10 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -11479,7 +11479,7 @@
         <v>2.04</v>
       </c>
       <c r="J82" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K82" t="n">
         <v>3.6</v>
@@ -11506,10 +11506,10 @@
         <v>1.32</v>
       </c>
       <c r="S82" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T82" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U82" t="n">
         <v>2.02</v>
@@ -11521,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y82" t="n">
         <v>8.6</v>
@@ -11530,10 +11530,10 @@
         <v>12.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AB82" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC82" t="n">
         <v>7.8</v>
@@ -11542,37 +11542,37 @@
         <v>10.5</v>
       </c>
       <c r="AE82" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF82" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG82" t="n">
         <v>17.5</v>
       </c>
       <c r="AH82" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI82" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ82" t="n">
         <v>120</v>
       </c>
       <c r="AK82" t="n">
-        <v>60</v>
+        <v>450</v>
       </c>
       <c r="AL82" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AM82" t="n">
         <v>150</v>
       </c>
       <c r="AN82" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AO82" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="83">
@@ -11602,16 +11602,16 @@
         </is>
       </c>
       <c r="F83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G83" t="n">
         <v>1.76</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1.78</v>
       </c>
       <c r="H83" t="n">
         <v>6</v>
       </c>
       <c r="I83" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J83" t="n">
         <v>3.65</v>
@@ -11635,7 +11635,7 @@
         <v>1.63</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R83" t="n">
         <v>1.22</v>
@@ -11644,7 +11644,7 @@
         <v>5</v>
       </c>
       <c r="T83" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U83" t="n">
         <v>1.71</v>
@@ -11674,16 +11674,16 @@
         <v>8.4</v>
       </c>
       <c r="AD83" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE83" t="n">
         <v>1000</v>
       </c>
       <c r="AF83" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG83" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH83" t="n">
         <v>30</v>
@@ -11692,7 +11692,7 @@
         <v>160</v>
       </c>
       <c r="AJ83" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AK83" t="n">
         <v>24</v>
@@ -11704,7 +11704,7 @@
         <v>270</v>
       </c>
       <c r="AN83" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AO83" t="n">
         <v>1000</v>
@@ -11740,10 +11740,10 @@
         <v>3.35</v>
       </c>
       <c r="G84" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H84" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I84" t="n">
         <v>2.42</v>
@@ -11767,7 +11767,7 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q84" t="n">
         <v>2.02</v>
@@ -11872,13 +11872,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="G85" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I85" t="n">
         <v>5.8</v>
@@ -11905,7 +11905,7 @@
         <v>1.61</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -12007,13 +12007,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G86" t="n">
         <v>1.84</v>
       </c>
       <c r="H86" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I86" t="n">
         <v>4.8</v>
@@ -12037,10 +12037,10 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G87" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H87" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I87" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="J87" t="n">
         <v>3.75</v>
       </c>
       <c r="K87" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -12175,7 +12175,7 @@
         <v>2.04</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -12283,16 +12283,16 @@
         <v>1.9</v>
       </c>
       <c r="H88" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I88" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J88" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K88" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -12307,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q88" t="n">
         <v>1.87</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO88"/>
+  <dimension ref="A1:AO90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G3" t="n">
         <v>1.99</v>
@@ -826,28 +826,28 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
         <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
         <v>1.15</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="G4" t="n">
         <v>2.54</v>
@@ -955,16 +955,16 @@
         <v>980</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
         <v>2.28</v>
@@ -973,76 +973,76 @@
         <v>1.47</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="I5" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
         <v>2.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +1210,7 @@
         <v>2.26</v>
       </c>
       <c r="G6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>3.9</v>
@@ -1219,13 +1219,13 @@
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1255,64 +1255,64 @@
         <v>1.85</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="X6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB6" t="n">
         <v>7.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.01</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1615,10 +1615,10 @@
         <v>1.67</v>
       </c>
       <c r="G9" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H9" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I9" t="n">
         <v>6.4</v>
@@ -1630,94 +1630,94 @@
         <v>4.7</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q9" t="n">
         <v>1.87</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L10" t="n">
         <v>1.01</v>
       </c>
-      <c r="G10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="M10" t="n">
         <v>1.01</v>
       </c>
-      <c r="I10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="N10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.01</v>
       </c>
-      <c r="K10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
         <v>1.01</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1900,16 +1900,16 @@
         <v>6.6</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
         <v>1.87</v>
@@ -1918,76 +1918,76 @@
         <v>1.69</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2020,109 +2020,109 @@
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G13" t="n">
         <v>2.48</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
         <v>3.25</v>
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G14" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="G15" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I15" t="n">
         <v>2.7</v>
@@ -2437,7 +2437,7 @@
         <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q15" t="n">
         <v>1.57</v>
@@ -2575,94 +2575,94 @@
         <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.53</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H17" t="n">
         <v>2.14</v>
@@ -2704,100 +2704,100 @@
         <v>2.24</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
         <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2836,7 +2836,7 @@
         <v>2.24</v>
       </c>
       <c r="I18" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2845,94 +2845,94 @@
         <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.01</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G19" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H19" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>4.4</v>
@@ -2980,16 +2980,16 @@
         <v>6</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P19" t="n">
         <v>2.4</v>
@@ -2998,76 +2998,76 @@
         <v>1.44</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3100,7 +3100,7 @@
         <v>1.56</v>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="H20" t="n">
         <v>5.4</v>
@@ -3238,7 +3238,7 @@
         <v>1.59</v>
       </c>
       <c r="H21" t="n">
-        <v>2.66</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
         <v>38</v>
@@ -3247,97 +3247,97 @@
         <v>4.3</v>
       </c>
       <c r="K21" t="n">
-        <v>950</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q21" t="n">
         <v>1.57</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3385,16 +3385,16 @@
         <v>4.3</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P22" t="n">
         <v>2.16</v>
@@ -3403,7 +3403,7 @@
         <v>1.82</v>
       </c>
       <c r="R22" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S22" t="n">
         <v>3.1</v>
@@ -3415,13 +3415,13 @@
         <v>2.14</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
         <v>9.4</v>
@@ -3430,46 +3430,46 @@
         <v>11</v>
       </c>
       <c r="AA22" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AB22" t="n">
         <v>20</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AE22" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
         <v>42</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ22" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK22" t="n">
         <v>65</v>
       </c>
       <c r="AL22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN22" t="n">
         <v>70</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>75</v>
       </c>
       <c r="AO22" t="n">
         <v>9.4</v>
@@ -3520,16 +3520,16 @@
         <v>3.65</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
         <v>1.83</v>
@@ -3538,76 +3538,76 @@
         <v>2.02</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="Q24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.01</v>
       </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3772,112 +3772,112 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="Q25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T25" t="n">
         <v>1.01</v>
       </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T26" t="n">
         <v>1.01</v>
       </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4042,112 +4042,112 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P27" t="n">
         <v>1.24</v>
       </c>
       <c r="Q27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T27" t="n">
         <v>1.01</v>
       </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4177,25 +4177,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G28" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I28" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J28" t="n">
         <v>3.65</v>
       </c>
       <c r="K28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -4225,64 +4225,64 @@
         <v>2.12</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X28" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA28" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB28" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG28" t="n">
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
         <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK28" t="n">
         <v>23</v>
       </c>
       <c r="AL28" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO28" t="n">
         <v>46</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -4318,10 +4318,10 @@
         <v>3.55</v>
       </c>
       <c r="H29" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I29" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J29" t="n">
         <v>3.6</v>
@@ -4345,7 +4345,7 @@
         <v>2.14</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4450,7 +4450,7 @@
         <v>1.7</v>
       </c>
       <c r="G30" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="H30" t="n">
         <v>4.8</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="G31" t="n">
-        <v>3.45</v>
+        <v>980</v>
       </c>
       <c r="H31" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="I31" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="J31" t="n">
         <v>3.3</v>
       </c>
       <c r="K31" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4723,13 +4723,13 @@
         <v>2.66</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="I32" t="n">
         <v>4.1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K32" t="n">
         <v>3.3</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4852,112 +4852,112 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.24</v>
+        <v>1.61</v>
       </c>
       <c r="Q33" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T33" t="n">
         <v>1.01</v>
       </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="G34" t="n">
         <v>2.78</v>
       </c>
       <c r="H34" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="J34" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K34" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G40" t="n">
         <v>980</v>
       </c>
       <c r="H40" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="I40" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J40" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K40" t="n">
         <v>980</v>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q40" t="n">
         <v>1.86</v>
@@ -5947,7 +5947,7 @@
         <v>3.55</v>
       </c>
       <c r="K41" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>1.41</v>
       </c>
       <c r="P41" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q41" t="n">
         <v>2.24</v>
@@ -5974,7 +5974,7 @@
         <v>4.2</v>
       </c>
       <c r="T41" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U41" t="n">
         <v>1.93</v>
@@ -6010,7 +6010,7 @@
         <v>65</v>
       </c>
       <c r="AF41" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG41" t="n">
         <v>11</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G43" t="n">
         <v>1.39</v>
       </c>
       <c r="H43" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I43" t="n">
         <v>10</v>
       </c>
       <c r="J43" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K43" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6328,31 +6328,31 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.82</v>
+        <v>3.35</v>
       </c>
       <c r="G44" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="H44" t="n">
-        <v>2.72</v>
+        <v>2.26</v>
       </c>
       <c r="I44" t="n">
-        <v>2.96</v>
+        <v>2.44</v>
       </c>
       <c r="J44" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K44" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6463,31 +6463,31 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.35</v>
+        <v>2.82</v>
       </c>
       <c r="G45" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="H45" t="n">
-        <v>2.26</v>
+        <v>2.72</v>
       </c>
       <c r="I45" t="n">
-        <v>2.46</v>
+        <v>2.96</v>
       </c>
       <c r="J45" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K45" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6607,19 +6607,19 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G46" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H46" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="I46" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="J46" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K46" t="n">
         <v>5</v>
@@ -6643,10 +6643,10 @@
         <v>1.3</v>
       </c>
       <c r="R46" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="S46" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="T46" t="n">
         <v>1.35</v>
@@ -6670,7 +6670,7 @@
         <v>22</v>
       </c>
       <c r="AA46" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB46" t="n">
         <v>36</v>
@@ -6691,13 +6691,13 @@
         <v>18.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI46" t="n">
         <v>19</v>
       </c>
       <c r="AJ46" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK46" t="n">
         <v>36</v>
@@ -6706,13 +6706,13 @@
         <v>28</v>
       </c>
       <c r="AM46" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AN46" t="n">
         <v>14.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="47">
@@ -6754,7 +6754,7 @@
         <v>4.9</v>
       </c>
       <c r="J47" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K47" t="n">
         <v>5.7</v>
@@ -6880,10 +6880,10 @@
         <v>2.74</v>
       </c>
       <c r="G48" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H48" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I48" t="n">
         <v>3.35</v>
@@ -6892,7 +6892,7 @@
         <v>2.98</v>
       </c>
       <c r="K48" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -6907,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>3.7</v>
       </c>
       <c r="H49" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I49" t="n">
         <v>2.46</v>
@@ -7045,7 +7045,7 @@
         <v>1.71</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G53" t="n">
         <v>4.2</v>
-      </c>
-      <c r="G53" t="n">
-        <v>4.6</v>
       </c>
       <c r="H53" t="n">
         <v>1.88</v>
@@ -7567,7 +7567,7 @@
         <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7693,10 +7693,10 @@
         <v>3.05</v>
       </c>
       <c r="H54" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I54" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J54" t="n">
         <v>3.8</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8083,31 +8083,31 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="G57" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="H57" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I57" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J57" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="K57" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8218,31 +8218,31 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="G58" t="n">
-        <v>2.44</v>
+        <v>2.14</v>
       </c>
       <c r="H58" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I58" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="J58" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K58" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>1.98</v>
+        <v>2.26</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>2.68</v>
       </c>
       <c r="G59" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H59" t="n">
         <v>2.74</v>
@@ -8377,7 +8377,7 @@
         <v>3.15</v>
       </c>
       <c r="K59" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8488,61 +8488,61 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>2.4</v>
+        <v>1.24</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="R60" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -8551,64 +8551,64 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AB60" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD60" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE60" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AF60" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AG60" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH60" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI60" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AJ60" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AK60" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL60" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AM60" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AN60" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO60" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8623,127 +8623,127 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>19.5</v>
+        <v>2.16</v>
       </c>
       <c r="G61" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK61" t="n">
         <v>20</v>
       </c>
-      <c r="H61" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="J61" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K61" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N61" t="n">
-        <v>11</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P61" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R61" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S61" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T61" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U61" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V61" t="n">
-        <v>0</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" t="n">
-        <v>75</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z61" t="n">
+      <c r="AL61" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN61" t="n">
         <v>12</v>
       </c>
-      <c r="AA61" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>250</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>65</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>280</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO61" t="n">
-        <v>2.4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8758,61 +8758,61 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P62" t="n">
-        <v>1.24</v>
+        <v>4.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -8821,64 +8821,64 @@
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Y62" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE62" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AG62" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AH62" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AI62" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK62" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AL62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO62" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8893,121 +8893,121 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Debreceni VSC</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Kisvarda</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P63" t="n">
-        <v>1.24</v>
+        <v>1.77</v>
       </c>
       <c r="Q63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T63" t="n">
         <v>1.01</v>
       </c>
-      <c r="R63" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="n">
-        <v>0</v>
-      </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W63" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64">
@@ -9028,12 +9028,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -9163,12 +9163,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -9298,12 +9298,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Forli</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -9418,7 +9418,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9428,36 +9428,36 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -9472,10 +9472,10 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>1.71</v>
+        <v>1.24</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9553,7 +9553,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -9568,28 +9568,28 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="G68" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="H68" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I68" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="J68" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K68" t="n">
         <v>3.4</v>
@@ -9598,31 +9598,31 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="Q68" t="n">
         <v>2.2</v>
       </c>
       <c r="R68" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -9631,64 +9631,64 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y68" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z68" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB68" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC68" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD68" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE68" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AF68" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AG68" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH68" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AI68" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ68" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AK68" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL68" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM68" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AN68" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AO68" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9703,61 +9703,61 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.22</v>
+        <v>2.36</v>
       </c>
       <c r="G69" t="n">
-        <v>1.26</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
-        <v>12.5</v>
+        <v>3.55</v>
       </c>
       <c r="I69" t="n">
-        <v>14</v>
+        <v>3.6</v>
       </c>
       <c r="J69" t="n">
-        <v>7.8</v>
+        <v>3.35</v>
       </c>
       <c r="K69" t="n">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P69" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.37</v>
+        <v>2.2</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -9766,64 +9766,64 @@
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y69" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z69" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA69" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB69" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD69" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE69" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF69" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG69" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI69" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ69" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK69" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL69" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM69" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN69" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO69" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -9833,36 +9833,36 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="G70" t="n">
-        <v>2.22</v>
+        <v>1.24</v>
       </c>
       <c r="H70" t="n">
-        <v>3.9</v>
+        <v>12.5</v>
       </c>
       <c r="I70" t="n">
-        <v>4.6</v>
+        <v>14</v>
       </c>
       <c r="J70" t="n">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="K70" t="n">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>1.73</v>
+        <v>3.2</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.1</v>
+        <v>1.37</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -9958,7 +9958,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -9973,61 +9973,61 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.54</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>2.58</v>
+        <v>2.22</v>
       </c>
       <c r="H71" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I71" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="J71" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K71" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="R71" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -10036,64 +10036,64 @@
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y71" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA71" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB71" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AC71" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD71" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE71" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF71" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG71" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH71" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI71" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ71" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AK71" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AL71" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM71" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN71" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AO71" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -10108,28 +10108,28 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G72" t="n">
-        <v>2.28</v>
+        <v>2.56</v>
       </c>
       <c r="H72" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="I72" t="n">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="J72" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="K72" t="n">
         <v>3.25</v>
@@ -10138,31 +10138,31 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P72" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.88</v>
+        <v>2.46</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -10171,58 +10171,58 @@
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y72" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA72" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB72" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC72" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD72" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE72" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF72" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG72" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI72" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ72" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK72" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL72" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM72" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN72" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AO72" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73">
@@ -10243,31 +10243,31 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="G73" t="n">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
       <c r="H73" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I73" t="n">
         <v>4.4</v>
       </c>
       <c r="J73" t="n">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="K73" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.12</v>
+        <v>2.88</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -10373,36 +10373,36 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="G74" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H74" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I74" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="J74" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K74" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -10417,10 +10417,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -10498,7 +10498,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -10513,31 +10513,31 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -10552,10 +10552,10 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10633,7 +10633,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -10648,31 +10648,31 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -10687,10 +10687,10 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -10768,7 +10768,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -10778,36 +10778,36 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>8</v>
+        <v>2.22</v>
       </c>
       <c r="H77" t="n">
-        <v>1.6</v>
+        <v>3.85</v>
       </c>
       <c r="I77" t="n">
-        <v>2.02</v>
+        <v>4.5</v>
       </c>
       <c r="J77" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="K77" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>2.58</v>
+        <v>1.64</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.33</v>
+        <v>1.97</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10903,7 +10903,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -10913,36 +10913,36 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:15:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Duisburg</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.6</v>
+        <v>1.99</v>
       </c>
       <c r="G78" t="n">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="H78" t="n">
-        <v>2.32</v>
+        <v>1.6</v>
       </c>
       <c r="I78" t="n">
-        <v>3.2</v>
+        <v>2.02</v>
       </c>
       <c r="J78" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="K78" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -10957,10 +10957,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>1.87</v>
+        <v>2.58</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.76</v>
+        <v>1.33</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11038,7 +11038,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -11048,36 +11048,36 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>Duisburg</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.17</v>
+        <v>2.6</v>
       </c>
       <c r="G79" t="n">
-        <v>1.19</v>
+        <v>3.6</v>
       </c>
       <c r="H79" t="n">
-        <v>9.6</v>
+        <v>2.3</v>
       </c>
       <c r="I79" t="n">
-        <v>36</v>
+        <v>3.35</v>
       </c>
       <c r="J79" t="n">
-        <v>7.4</v>
+        <v>3.2</v>
       </c>
       <c r="K79" t="n">
-        <v>13</v>
+        <v>5.8</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>2.58</v>
+        <v>1.87</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11173,7 +11173,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -11183,36 +11183,36 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Team Altamura</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.74</v>
+        <v>1.17</v>
       </c>
       <c r="G80" t="n">
-        <v>2.22</v>
+        <v>1.19</v>
       </c>
       <c r="H80" t="n">
-        <v>1.82</v>
+        <v>9.6</v>
       </c>
       <c r="I80" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J80" t="n">
-        <v>2.94</v>
+        <v>7.6</v>
       </c>
       <c r="K80" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -11227,10 +11227,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>1.78</v>
+        <v>2.58</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -11323,31 +11323,31 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Team Altamura</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.12</v>
+        <v>1.74</v>
       </c>
       <c r="G81" t="n">
-        <v>2.9</v>
+        <v>2.22</v>
       </c>
       <c r="H81" t="n">
-        <v>2.76</v>
+        <v>1.82</v>
       </c>
       <c r="I81" t="n">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="J81" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="K81" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -11362,10 +11362,10 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -11443,7 +11443,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -11453,66 +11453,66 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4.4</v>
+        <v>2.16</v>
       </c>
       <c r="G82" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H82" t="n">
-        <v>2.02</v>
+        <v>2.72</v>
       </c>
       <c r="I82" t="n">
-        <v>2.04</v>
+        <v>4.1</v>
       </c>
       <c r="J82" t="n">
-        <v>3.55</v>
+        <v>2.86</v>
       </c>
       <c r="K82" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="R82" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V82" t="n">
         <v>0</v>
@@ -11521,64 +11521,64 @@
         <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Y82" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Z82" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AA82" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AB82" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AC82" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE82" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF82" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AG82" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AH82" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AI82" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AJ82" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AK82" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="AL82" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AM82" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN82" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AO82" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -11588,66 +11588,66 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.75</v>
+        <v>4.3</v>
       </c>
       <c r="G83" t="n">
-        <v>1.76</v>
+        <v>4.5</v>
       </c>
       <c r="H83" t="n">
-        <v>6</v>
+        <v>2.02</v>
       </c>
       <c r="I83" t="n">
-        <v>6.6</v>
+        <v>2.04</v>
       </c>
       <c r="J83" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K83" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N83" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="O83" t="n">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="P83" t="n">
-        <v>1.63</v>
+        <v>1.86</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.52</v>
+        <v>2.14</v>
       </c>
       <c r="R83" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="S83" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="T83" t="n">
-        <v>2.34</v>
+        <v>1.93</v>
       </c>
       <c r="U83" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
@@ -11656,64 +11656,64 @@
         <v>0</v>
       </c>
       <c r="X83" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Y83" t="n">
-        <v>15.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z83" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="AB83" t="n">
-        <v>6.4</v>
+        <v>14.5</v>
       </c>
       <c r="AC83" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD83" t="n">
-        <v>27</v>
+        <v>10.5</v>
       </c>
       <c r="AE83" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF83" t="n">
-        <v>8.800000000000001</v>
+        <v>32</v>
       </c>
       <c r="AG83" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AH83" t="n">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="AI83" t="n">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AJ83" t="n">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="AK83" t="n">
-        <v>24</v>
+        <v>420</v>
       </c>
       <c r="AL83" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AM83" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="AN83" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="AO83" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -11728,61 +11728,61 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3.35</v>
+        <v>1.74</v>
       </c>
       <c r="G84" t="n">
-        <v>3.6</v>
+        <v>1.76</v>
       </c>
       <c r="H84" t="n">
-        <v>2.38</v>
+        <v>6.2</v>
       </c>
       <c r="I84" t="n">
-        <v>2.42</v>
+        <v>6.6</v>
       </c>
       <c r="J84" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K84" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P84" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="U84" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V84" t="n">
         <v>0</v>
@@ -11791,64 +11791,64 @@
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y84" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z84" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA84" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AB84" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AC84" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD84" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF84" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG84" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH84" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI84" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AJ84" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK84" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL84" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM84" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AN84" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -11858,33 +11858,33 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.87</v>
+        <v>3.4</v>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H85" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="I85" t="n">
-        <v>5.8</v>
+        <v>2.38</v>
       </c>
       <c r="J85" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K85" t="n">
         <v>3.6</v>
@@ -11902,10 +11902,10 @@
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -11983,7 +11983,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -11993,36 +11993,36 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Independiente (Ecu)</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Barcelona (Ecu)</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="G86" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="I86" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="J86" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K86" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -12037,10 +12037,10 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.74</v>
+        <v>2.4</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -12118,7 +12118,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -12128,36 +12128,36 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LDU</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Univ Catolica (Ecu)</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.69</v>
+        <v>1.04</v>
       </c>
       <c r="G87" t="n">
-        <v>1.87</v>
+        <v>1000</v>
       </c>
       <c r="H87" t="n">
-        <v>4.7</v>
+        <v>1.04</v>
       </c>
       <c r="I87" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="J87" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="K87" t="n">
-        <v>4.5</v>
+        <v>950</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -12172,10 +12172,10 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>2.04</v>
+        <v>1.24</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -12268,120 +12268,390 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>Independiente (Ecu)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Barcelona (Ecu)</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4</v>
+      </c>
+      <c r="K88" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>LDU</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Univ Catolica (Ecu)</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H89" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K89" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>Orense Sporting Club</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>Libertad FC</t>
         </is>
       </c>
-      <c r="F88" t="n">
+      <c r="F90" t="n">
         <v>1.84</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G90" t="n">
         <v>1.9</v>
       </c>
-      <c r="H88" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J88" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K88" t="n">
-        <v>4</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
+      <c r="H90" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
         <v>1.65</v>
       </c>
-      <c r="Q88" t="n">
+      <c r="Q90" t="n">
         <v>1.87</v>
       </c>
-      <c r="R88" t="n">
-        <v>0</v>
-      </c>
-      <c r="S88" t="n">
-        <v>0</v>
-      </c>
-      <c r="T88" t="n">
-        <v>0</v>
-      </c>
-      <c r="U88" t="n">
-        <v>0</v>
-      </c>
-      <c r="V88" t="n">
-        <v>0</v>
-      </c>
-      <c r="W88" t="n">
-        <v>0</v>
-      </c>
-      <c r="X88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO88" t="n">
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO90" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -958,13 +958,13 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>1.72</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
         <v>1.72</v>
@@ -979,7 +979,7 @@
         <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1114,7 +1114,7 @@
         <v>2.12</v>
       </c>
       <c r="T5" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="U5" t="n">
         <v>1.01</v>
@@ -1345,7 +1345,7 @@
         <v>2.24</v>
       </c>
       <c r="G7" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H7" t="n">
         <v>3.95</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1795,7 +1795,7 @@
         <v>1.98</v>
       </c>
       <c r="V10" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
         <v>2.28</v>
@@ -2290,7 +2290,7 @@
         <v>1.96</v>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H14" t="n">
         <v>2.92</v>
@@ -2308,7 +2308,7 @@
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
         <v>1.91</v>
@@ -2338,7 +2338,7 @@
         <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="G15" t="n">
         <v>2.78</v>
@@ -2716,10 +2716,10 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
         <v>2.34</v>
@@ -2752,7 +2752,7 @@
         <v>13.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AA17" t="n">
         <v>28</v>
@@ -2794,10 +2794,10 @@
         <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="18">
@@ -3121,19 +3121,19 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="O20" t="n">
         <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" t="n">
         <v>1.13</v>
       </c>
       <c r="R20" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
         <v>1.13</v>
@@ -3271,7 +3271,7 @@
         <v>1.59</v>
       </c>
       <c r="S21" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -3526,16 +3526,16 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R23" t="n">
         <v>1.27</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G24" t="n">
         <v>5.2</v>
       </c>
-      <c r="G24" t="n">
-        <v>5.4</v>
-      </c>
       <c r="H24" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I24" t="n">
         <v>1.76</v>
       </c>
       <c r="J24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K24" t="n">
         <v>4.3</v>
@@ -3670,7 +3670,7 @@
         <v>2.16</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R24" t="n">
         <v>1.46</v>
@@ -3688,7 +3688,7 @@
         <v>2.3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X24" t="n">
         <v>17</v>
@@ -3718,7 +3718,7 @@
         <v>42</v>
       </c>
       <c r="AG24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
         <v>19</v>
@@ -3775,16 +3775,16 @@
         <v>1.69</v>
       </c>
       <c r="G25" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>4.7</v>
       </c>
       <c r="I25" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K25" t="n">
         <v>4.6</v>
@@ -3910,7 +3910,7 @@
         <v>2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H26" t="n">
         <v>3.6</v>
@@ -3922,7 +3922,7 @@
         <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L26" t="n">
         <v>1.38</v>
@@ -3940,7 +3940,7 @@
         <v>1.96</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R26" t="n">
         <v>1.36</v>
@@ -3973,7 +3973,7 @@
         <v>75</v>
       </c>
       <c r="AB26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC26" t="n">
         <v>8.199999999999999</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G27" t="n">
         <v>2.82</v>
@@ -4057,7 +4057,7 @@
         <v>2.78</v>
       </c>
       <c r="K27" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.37</v>
@@ -4066,22 +4066,22 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="O27" t="n">
         <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.39</v>
+        <v>2.12</v>
       </c>
       <c r="R27" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S27" t="n">
-        <v>1.39</v>
+        <v>2.12</v>
       </c>
       <c r="T27" t="n">
         <v>1.01</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="G28" t="n">
         <v>1.53</v>
@@ -4192,7 +4192,7 @@
         <v>4.1</v>
       </c>
       <c r="K28" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.35</v>
@@ -4201,13 +4201,13 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="O28" t="n">
         <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q28" t="n">
         <v>1.92</v>
@@ -4216,7 +4216,7 @@
         <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4486,7 +4486,7 @@
         <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T30" t="n">
         <v>1.01</v>
@@ -4588,7 +4588,7 @@
         <v>3.55</v>
       </c>
       <c r="H31" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I31" t="n">
         <v>2.26</v>
@@ -4855,16 +4855,16 @@
         <v>2.58</v>
       </c>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
-        <v>1.66</v>
+        <v>2.3</v>
       </c>
       <c r="I33" t="n">
         <v>2.78</v>
       </c>
       <c r="J33" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
         <v>1000</v>
@@ -4873,16 +4873,16 @@
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="O33" t="n">
         <v>1.23</v>
       </c>
       <c r="P33" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q33" t="n">
         <v>1.68</v>
@@ -4894,7 +4894,7 @@
         <v>2.58</v>
       </c>
       <c r="T33" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="U33" t="n">
         <v>1.01</v>
@@ -5161,7 +5161,7 @@
         <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T35" t="n">
         <v>1.01</v>
@@ -5269,7 +5269,7 @@
         <v>2.94</v>
       </c>
       <c r="J36" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K36" t="n">
         <v>4.3</v>
@@ -5413,13 +5413,13 @@
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
         <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P37" t="n">
         <v>1.85</v>
@@ -5548,7 +5548,7 @@
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
         <v>2.36</v>
@@ -5701,13 +5701,13 @@
         <v>1.28</v>
       </c>
       <c r="S39" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T39" t="n">
         <v>1.94</v>
       </c>
       <c r="U39" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>1.4</v>
@@ -5728,7 +5728,7 @@
         <v>65</v>
       </c>
       <c r="AB39" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC39" t="n">
         <v>7.2</v>
@@ -5800,7 +5800,7 @@
         <v>2.38</v>
       </c>
       <c r="G40" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H40" t="n">
         <v>3.45</v>
@@ -5809,22 +5809,22 @@
         <v>3.85</v>
       </c>
       <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N40" t="n">
         <v>2.94</v>
       </c>
-      <c r="K40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1.64</v>
-      </c>
       <c r="O40" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P40" t="n">
         <v>1.65</v>
@@ -5839,70 +5839,70 @@
         <v>3.9</v>
       </c>
       <c r="T40" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="U40" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="V40" t="n">
         <v>1.35</v>
       </c>
       <c r="W40" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y40" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y40" t="n">
-        <v>16</v>
-      </c>
       <c r="Z40" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AA40" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AB40" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG40" t="n">
         <v>12</v>
       </c>
-      <c r="AC40" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE40" t="n">
+      <c r="AH40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO40" t="n">
         <v>75</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="41">
@@ -5965,7 +5965,7 @@
         <v>1.65</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R41" t="n">
         <v>1.23</v>
@@ -6211,13 +6211,13 @@
         <v>4.2</v>
       </c>
       <c r="I43" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J43" t="n">
         <v>3.5</v>
       </c>
       <c r="K43" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L43" t="n">
         <v>1.47</v>
@@ -6232,7 +6232,7 @@
         <v>1.41</v>
       </c>
       <c r="P43" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q43" t="n">
         <v>2.24</v>
@@ -6247,7 +6247,7 @@
         <v>1.99</v>
       </c>
       <c r="U43" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V43" t="n">
         <v>1.3</v>
@@ -6481,13 +6481,13 @@
         <v>8.4</v>
       </c>
       <c r="I45" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="J45" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K45" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L45" t="n">
         <v>1.24</v>
@@ -6502,10 +6502,10 @@
         <v>1.16</v>
       </c>
       <c r="P45" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R45" t="n">
         <v>1.69</v>
@@ -6514,10 +6514,10 @@
         <v>2.2</v>
       </c>
       <c r="T45" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="V45" t="n">
         <v>1.11</v>
@@ -6574,7 +6574,7 @@
         <v>110</v>
       </c>
       <c r="AN45" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AO45" t="n">
         <v>120</v>
@@ -6616,7 +6616,7 @@
         <v>2.26</v>
       </c>
       <c r="I46" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J46" t="n">
         <v>3.35</v>
@@ -6889,10 +6889,10 @@
         <v>1.89</v>
       </c>
       <c r="J48" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K48" t="n">
         <v>5</v>
-      </c>
-      <c r="K48" t="n">
-        <v>5.1</v>
       </c>
       <c r="L48" t="n">
         <v>1.17</v>
@@ -6907,16 +6907,16 @@
         <v>1.1</v>
       </c>
       <c r="P48" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="n">
         <v>1.3</v>
       </c>
       <c r="R48" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="S48" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="T48" t="n">
         <v>1.36</v>
@@ -6928,7 +6928,7 @@
         <v>2.12</v>
       </c>
       <c r="W48" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X48" t="n">
         <v>50</v>
@@ -6982,7 +6982,7 @@
         <v>14.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="49">
@@ -7033,13 +7033,13 @@
         <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N49" t="n">
         <v>2.26</v>
       </c>
       <c r="O49" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P49" t="n">
         <v>2.26</v>
@@ -7285,7 +7285,7 @@
         <v>3.35</v>
       </c>
       <c r="G51" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H51" t="n">
         <v>2.36</v>
@@ -7294,7 +7294,7 @@
         <v>2.46</v>
       </c>
       <c r="J51" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K51" t="n">
         <v>3.4</v>
@@ -7333,7 +7333,7 @@
         <v>1.68</v>
       </c>
       <c r="W51" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X51" t="n">
         <v>13.5</v>
@@ -7372,13 +7372,13 @@
         <v>48</v>
       </c>
       <c r="AJ51" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK51" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL51" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM51" t="n">
         <v>160</v>
@@ -7459,7 +7459,7 @@
         <v>3.35</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U52" t="n">
         <v>1.01</v>
@@ -7573,7 +7573,7 @@
         <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
         <v>1.97</v>
@@ -7708,7 +7708,7 @@
         <v>1.01</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
         <v>2.3</v>
@@ -7741,7 +7741,7 @@
         <v>1.61</v>
       </c>
       <c r="X54" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y54" t="n">
         <v>23</v>
@@ -7828,10 +7828,10 @@
         <v>4.5</v>
       </c>
       <c r="H55" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="I55" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="J55" t="n">
         <v>4</v>
@@ -7852,7 +7852,7 @@
         <v>1.21</v>
       </c>
       <c r="P55" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q55" t="n">
         <v>1.62</v>
@@ -7864,7 +7864,7 @@
         <v>2.56</v>
       </c>
       <c r="T55" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U55" t="n">
         <v>2.38</v>
@@ -7969,7 +7969,7 @@
         <v>2.54</v>
       </c>
       <c r="J56" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K56" t="n">
         <v>4.2</v>
@@ -8122,7 +8122,7 @@
         <v>1.25</v>
       </c>
       <c r="P57" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="Q57" t="n">
         <v>1.65</v>
@@ -8230,7 +8230,7 @@
         <v>2.26</v>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H58" t="n">
         <v>3.3</v>
@@ -8263,7 +8263,7 @@
         <v>2.24</v>
       </c>
       <c r="R58" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="S58" t="n">
         <v>2.24</v>
@@ -8278,7 +8278,7 @@
         <v>1.37</v>
       </c>
       <c r="W58" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
@@ -8401,7 +8401,7 @@
         <v>1.31</v>
       </c>
       <c r="S59" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T59" t="n">
         <v>1.01</v>
@@ -8497,10 +8497,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G60" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H60" t="n">
         <v>3.25</v>
@@ -8512,7 +8512,7 @@
         <v>3.7</v>
       </c>
       <c r="K60" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L60" t="n">
         <v>1.01</v>
@@ -8530,7 +8530,7 @@
         <v>2.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R60" t="n">
         <v>1.41</v>
@@ -8548,7 +8548,7 @@
         <v>1.32</v>
       </c>
       <c r="W60" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X60" t="n">
         <v>30</v>
@@ -8635,7 +8635,7 @@
         <v>2.74</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H61" t="n">
         <v>2.76</v>
@@ -8770,13 +8770,13 @@
         <v>2.16</v>
       </c>
       <c r="G62" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I62" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3.65</v>
       </c>
       <c r="J62" t="n">
         <v>3.8</v>
@@ -8797,7 +8797,7 @@
         <v>1.22</v>
       </c>
       <c r="P62" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q62" t="n">
         <v>1.67</v>
@@ -8806,19 +8806,19 @@
         <v>1.57</v>
       </c>
       <c r="S62" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T62" t="n">
         <v>1.6</v>
       </c>
       <c r="U62" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V62" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W62" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="X62" t="n">
         <v>20</v>
@@ -8842,7 +8842,7 @@
         <v>14.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF62" t="n">
         <v>15.5</v>
@@ -8863,7 +8863,7 @@
         <v>19</v>
       </c>
       <c r="AL62" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM62" t="n">
         <v>55</v>
@@ -8914,7 +8914,7 @@
         <v>1.17</v>
       </c>
       <c r="J63" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="K63" t="n">
         <v>12</v>
@@ -8938,19 +8938,19 @@
         <v>1.27</v>
       </c>
       <c r="R63" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="S63" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="T63" t="n">
         <v>1.89</v>
       </c>
       <c r="U63" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V63" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="W63" t="n">
         <v>1.05</v>
@@ -8983,13 +8983,13 @@
         <v>250</v>
       </c>
       <c r="AG63" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AH63" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI63" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ63" t="n">
         <v>1000</v>
@@ -9007,7 +9007,7 @@
         <v>1000</v>
       </c>
       <c r="AO63" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="64">
@@ -9067,7 +9067,7 @@
         <v>1.3</v>
       </c>
       <c r="P64" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q64" t="n">
         <v>1.75</v>
@@ -9088,7 +9088,7 @@
         <v>1.31</v>
       </c>
       <c r="W64" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X64" t="n">
         <v>1000</v>
@@ -9310,7 +9310,7 @@
         <v>2.04</v>
       </c>
       <c r="G66" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H66" t="n">
         <v>2.92</v>
@@ -9358,7 +9358,7 @@
         <v>1.26</v>
       </c>
       <c r="W66" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X66" t="n">
         <v>1000</v>
@@ -9715,7 +9715,7 @@
         <v>1.98</v>
       </c>
       <c r="G69" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H69" t="n">
         <v>3.05</v>
@@ -9763,7 +9763,7 @@
         <v>1.26</v>
       </c>
       <c r="W69" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
@@ -9886,7 +9886,7 @@
         <v>1.91</v>
       </c>
       <c r="S70" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="T70" t="n">
         <v>1.87</v>
@@ -9985,7 +9985,7 @@
         <v>2.36</v>
       </c>
       <c r="G71" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H71" t="n">
         <v>3.6</v>
@@ -10003,7 +10003,7 @@
         <v>1.48</v>
       </c>
       <c r="M71" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N71" t="n">
         <v>3.1</v>
@@ -10048,7 +10048,7 @@
         <v>75</v>
       </c>
       <c r="AB71" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC71" t="n">
         <v>7.8</v>
@@ -10117,43 +10117,43 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G72" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="H72" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I72" t="n">
         <v>5.7</v>
       </c>
       <c r="J72" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K72" t="n">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="L72" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M72" t="n">
         <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O72" t="n">
         <v>1.01</v>
       </c>
       <c r="P72" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q72" t="n">
         <v>1.96</v>
       </c>
       <c r="R72" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S72" t="n">
         <v>3.35</v>
@@ -10168,7 +10168,7 @@
         <v>1.21</v>
       </c>
       <c r="W72" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="X72" t="n">
         <v>1000</v>
@@ -10261,7 +10261,7 @@
         <v>1.65</v>
       </c>
       <c r="I73" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J73" t="n">
         <v>3.3</v>
@@ -10300,7 +10300,7 @@
         <v>1.01</v>
       </c>
       <c r="V73" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W73" t="n">
         <v>1.1</v>
@@ -10411,13 +10411,13 @@
         <v>1.09</v>
       </c>
       <c r="N74" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O74" t="n">
         <v>1.4</v>
       </c>
       <c r="P74" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q74" t="n">
         <v>2.2</v>
@@ -10429,7 +10429,7 @@
         <v>4.1</v>
       </c>
       <c r="T74" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U74" t="n">
         <v>2.02</v>
@@ -10660,7 +10660,7 @@
         <v>2.46</v>
       </c>
       <c r="G76" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
         <v>3.45</v>
@@ -10696,7 +10696,7 @@
         <v>1.23</v>
       </c>
       <c r="S76" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T76" t="n">
         <v>2.04</v>
@@ -10717,7 +10717,7 @@
         <v>10.5</v>
       </c>
       <c r="Z76" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA76" t="n">
         <v>70</v>
@@ -10732,7 +10732,7 @@
         <v>15</v>
       </c>
       <c r="AE76" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF76" t="n">
         <v>14.5</v>
@@ -10753,7 +10753,7 @@
         <v>32</v>
       </c>
       <c r="AL76" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM76" t="n">
         <v>150</v>
@@ -10762,7 +10762,7 @@
         <v>32</v>
       </c>
       <c r="AO76" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77">
@@ -10792,10 +10792,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G77" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H77" t="n">
         <v>3.9</v>
@@ -10804,10 +10804,10 @@
         <v>4.3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="K77" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L77" t="n">
         <v>1.62</v>
@@ -10819,7 +10819,7 @@
         <v>1.43</v>
       </c>
       <c r="O77" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P77" t="n">
         <v>1.43</v>
@@ -10843,7 +10843,7 @@
         <v>1.3</v>
       </c>
       <c r="W77" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="X77" t="n">
         <v>1000</v>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G78" t="n">
         <v>2.2</v>
@@ -10936,7 +10936,7 @@
         <v>4.1</v>
       </c>
       <c r="I78" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J78" t="n">
         <v>3.25</v>
@@ -10948,7 +10948,7 @@
         <v>1.44</v>
       </c>
       <c r="M78" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N78" t="n">
         <v>1.77</v>
@@ -10969,13 +10969,13 @@
         <v>3.55</v>
       </c>
       <c r="T78" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U78" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V78" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W78" t="n">
         <v>1.83</v>
@@ -11071,7 +11071,7 @@
         <v>3.8</v>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J79" t="n">
         <v>3.2</v>
@@ -11197,13 +11197,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G80" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H80" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I80" t="n">
         <v>2.98</v>
@@ -11221,13 +11221,13 @@
         <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O80" t="n">
         <v>1.01</v>
       </c>
       <c r="P80" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q80" t="n">
         <v>2.02</v>
@@ -11236,7 +11236,7 @@
         <v>1.21</v>
       </c>
       <c r="S80" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T80" t="n">
         <v>1.01</v>
@@ -11245,7 +11245,7 @@
         <v>1.01</v>
       </c>
       <c r="V80" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W80" t="n">
         <v>1.33</v>
@@ -11359,7 +11359,7 @@
         <v>1.64</v>
       </c>
       <c r="O81" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P81" t="n">
         <v>1.64</v>
@@ -11368,10 +11368,10 @@
         <v>1.97</v>
       </c>
       <c r="R81" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S81" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T81" t="n">
         <v>1.01</v>
@@ -11467,112 +11467,112 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.99</v>
+        <v>3.6</v>
       </c>
       <c r="G82" t="n">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="H82" t="n">
         <v>1.6</v>
       </c>
       <c r="I82" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="J82" t="n">
         <v>4.1</v>
       </c>
       <c r="K82" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P82" t="n">
         <v>2.58</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S82" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V82" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="83">
@@ -11620,16 +11620,16 @@
         <v>5.4</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P83" t="n">
         <v>1.87</v>
@@ -11638,76 +11638,76 @@
         <v>1.76</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U83" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO83" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="84">
@@ -11743,106 +11743,106 @@
         <v>1.18</v>
       </c>
       <c r="H84" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I84" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="J84" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K84" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P84" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q84" t="n">
         <v>1.44</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="U84" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V84" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="X84" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y84" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Z84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB84" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC84" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AD84" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AE84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF84" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AG84" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH84" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AI84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ84" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK84" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL84" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN84" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AO84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="85">
@@ -12025,94 +12025,94 @@
         <v>6</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P86" t="n">
         <v>1.61</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W86" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87">
@@ -12142,16 +12142,16 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="G87" t="n">
         <v>4.4</v>
       </c>
       <c r="H87" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I87" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J87" t="n">
         <v>3.5</v>
@@ -12160,58 +12160,58 @@
         <v>3.6</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M87" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N87" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O87" t="n">
         <v>1.38</v>
       </c>
       <c r="P87" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R87" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S87" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T87" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U87" t="n">
         <v>2.04</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X87" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y87" t="n">
         <v>8.6</v>
       </c>
       <c r="Z87" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA87" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB87" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC87" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD87" t="n">
         <v>10.5</v>
@@ -12220,10 +12220,10 @@
         <v>23</v>
       </c>
       <c r="AF87" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG87" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH87" t="n">
         <v>19.5</v>
@@ -12232,19 +12232,19 @@
         <v>42</v>
       </c>
       <c r="AJ87" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AK87" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL87" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AM87" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN87" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO87" t="n">
         <v>17.5</v>
@@ -12280,7 +12280,7 @@
         <v>1.77</v>
       </c>
       <c r="G88" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H88" t="n">
         <v>6</v>
@@ -12295,7 +12295,7 @@
         <v>3.7</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M88" t="n">
         <v>1.11</v>
@@ -12319,55 +12319,55 @@
         <v>5.3</v>
       </c>
       <c r="T88" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U88" t="n">
         <v>1.69</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X88" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y88" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z88" t="n">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="AA88" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="AB88" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AC88" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD88" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE88" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF88" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG88" t="n">
         <v>11</v>
       </c>
       <c r="AH88" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI88" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ88" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK88" t="n">
         <v>24</v>
@@ -12376,13 +12376,13 @@
         <v>60</v>
       </c>
       <c r="AM88" t="n">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="AN88" t="n">
         <v>17</v>
       </c>
       <c r="AO88" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89">
@@ -12415,31 +12415,31 @@
         <v>3.4</v>
       </c>
       <c r="G89" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H89" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I89" t="n">
         <v>2.38</v>
       </c>
       <c r="J89" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K89" t="n">
         <v>3.6</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P89" t="n">
         <v>1.87</v>
@@ -12448,76 +12448,76 @@
         <v>1.98</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X89" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y89" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA89" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB89" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC89" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD89" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE89" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF89" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG89" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH89" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI89" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ89" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK89" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL89" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM89" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN89" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO89" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
@@ -12565,94 +12565,94 @@
         <v>3.55</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P90" t="n">
         <v>1.61</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T90" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U90" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V90" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W90" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X90" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z90" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB90" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC90" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD90" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF90" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG90" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ90" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK90" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL90" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="91">
@@ -12817,19 +12817,19 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="G92" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H92" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I92" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="J92" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K92" t="n">
         <v>4.2</v>
@@ -12952,16 +12952,16 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G93" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H93" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I93" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="J93" t="n">
         <v>4</v>
@@ -12982,10 +12982,10 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="G2" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -811,10 +811,10 @@
         <v>1.22</v>
       </c>
       <c r="I3" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="J3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>15</v>
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="O3" t="n">
         <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q3" t="n">
         <v>1.6</v>
@@ -850,7 +850,7 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="W3" t="n">
         <v>1.01</v>
@@ -946,37 +946,37 @@
         <v>4.4</v>
       </c>
       <c r="I4" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="O4" t="n">
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
         <v>1.78</v>
@@ -1093,25 +1093,25 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="O5" t="n">
         <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T5" t="n">
         <v>1.41</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="G6" t="n">
         <v>5.3</v>
@@ -1216,13 +1216,13 @@
         <v>1.7</v>
       </c>
       <c r="I6" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="J6" t="n">
         <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.25</v>
@@ -1231,19 +1231,19 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>2.28</v>
@@ -1252,10 +1252,10 @@
         <v>1.58</v>
       </c>
       <c r="U6" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V6" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="W6" t="n">
         <v>1.23</v>
@@ -1273,7 +1273,7 @@
         <v>18.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1285,7 +1285,7 @@
         <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
         <v>20</v>
@@ -1294,7 +1294,7 @@
         <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
         <v>140</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H7" t="n">
         <v>3.95</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
@@ -1390,10 +1390,10 @@
         <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X7" t="n">
         <v>9.4</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
         <v>2.16</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H9" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I9" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J9" t="n">
         <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.33</v>
@@ -1636,22 +1636,22 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="T9" t="n">
         <v>1.01</v>
@@ -1660,10 +1660,10 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1753,13 +1753,13 @@
         <v>1.78</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I10" t="n">
         <v>5.7</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
         <v>4.4</v>
@@ -1807,7 +1807,7 @@
         <v>19</v>
       </c>
       <c r="Z10" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
         <v>160</v>
@@ -1843,7 +1843,7 @@
         <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
         <v>140</v>
@@ -1852,7 +1852,7 @@
         <v>12</v>
       </c>
       <c r="AO10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="G12" t="n">
         <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2050,7 +2050,7 @@
         <v>1.87</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
         <v>1.33</v>
@@ -2065,7 +2065,7 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="W12" t="n">
         <v>1.44</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G13" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H13" t="n">
         <v>3.35</v>
@@ -2164,10 +2164,10 @@
         <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
         <v>5.9</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q17" t="n">
         <v>1.64</v>
@@ -2746,13 +2746,13 @@
         <v>1.38</v>
       </c>
       <c r="X17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
         <v>13.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
         <v>28</v>
@@ -2761,7 +2761,7 @@
         <v>18.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD17" t="n">
         <v>12</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H18" t="n">
         <v>2.14</v>
       </c>
       <c r="I18" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J18" t="n">
         <v>3.75</v>
@@ -2866,19 +2866,19 @@
         <v>1.41</v>
       </c>
       <c r="S18" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T18" t="n">
         <v>1.52</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -3121,22 +3121,22 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="O20" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>1.5</v>
+        <v>2.16</v>
       </c>
       <c r="Q20" t="n">
         <v>1.13</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>2.16</v>
       </c>
       <c r="S20" t="n">
-        <v>1.13</v>
+        <v>1.66</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3238,13 +3238,13 @@
         <v>2.44</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K21" t="n">
         <v>6</v>
@@ -3256,16 +3256,16 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="O21" t="n">
         <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R21" t="n">
         <v>1.59</v>
@@ -3370,13 +3370,13 @@
         <v>1.37</v>
       </c>
       <c r="G22" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="H22" t="n">
         <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J22" t="n">
         <v>4.3</v>
@@ -3400,7 +3400,7 @@
         <v>2.06</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R22" t="n">
         <v>1.41</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W22" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G23" t="n">
         <v>3.45</v>
       </c>
       <c r="H23" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I23" t="n">
         <v>2.62</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.42</v>
@@ -3526,13 +3526,13 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q23" t="n">
         <v>2.06</v>
@@ -3571,7 +3571,7 @@
         <v>17.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
         <v>17.5</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G24" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H24" t="n">
         <v>1.75</v>
       </c>
       <c r="I24" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="J24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K24" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.3</v>
       </c>
       <c r="L24" t="n">
         <v>1.35</v>
@@ -3661,7 +3661,7 @@
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.28</v>
@@ -3670,7 +3670,7 @@
         <v>2.16</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R24" t="n">
         <v>1.46</v>
@@ -3679,7 +3679,7 @@
         <v>3.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U24" t="n">
         <v>2.14</v>
@@ -3700,7 +3700,7 @@
         <v>11</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB24" t="n">
         <v>19.5</v>
@@ -3733,7 +3733,7 @@
         <v>65</v>
       </c>
       <c r="AL24" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM24" t="n">
         <v>95</v>
@@ -3742,7 +3742,7 @@
         <v>65</v>
       </c>
       <c r="AO24" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="25">
@@ -3781,10 +3781,10 @@
         <v>4.7</v>
       </c>
       <c r="I25" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>4.6</v>
@@ -3913,10 +3913,10 @@
         <v>2.22</v>
       </c>
       <c r="H26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I26" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.65</v>
       </c>
       <c r="J26" t="n">
         <v>3.65</v>
@@ -3955,7 +3955,7 @@
         <v>2.12</v>
       </c>
       <c r="V26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W26" t="n">
         <v>1.81</v>
@@ -3973,7 +3973,7 @@
         <v>75</v>
       </c>
       <c r="AB26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
         <v>8.199999999999999</v>
@@ -4000,7 +4000,7 @@
         <v>28</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL26" t="n">
         <v>38</v>
@@ -4033,67 +4033,67 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>US Pianese</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="G27" t="n">
-        <v>2.82</v>
+        <v>5.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>1.82</v>
       </c>
       <c r="I27" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="K27" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.71</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R27" t="n">
+      <c r="W27" t="n">
         <v>1.21</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.54</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4438,55 +4438,55 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>US Pianese</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="G30" t="n">
-        <v>5.7</v>
+        <v>2.82</v>
       </c>
       <c r="H30" t="n">
-        <v>1.82</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="J30" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="K30" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="O30" t="n">
         <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S30" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="T30" t="n">
         <v>1.01</v>
@@ -4495,10 +4495,10 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.71</v>
+        <v>1.27</v>
       </c>
       <c r="W30" t="n">
-        <v>1.21</v>
+        <v>1.54</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4594,7 +4594,7 @@
         <v>2.26</v>
       </c>
       <c r="J31" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K31" t="n">
         <v>3.9</v>
@@ -4762,7 +4762,7 @@
         <v>1.65</v>
       </c>
       <c r="U32" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="V32" t="n">
         <v>1.23</v>
@@ -4816,13 +4816,13 @@
         <v>27</v>
       </c>
       <c r="AM32" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN32" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
@@ -4996,7 +4996,7 @@
         <v>3.45</v>
       </c>
       <c r="I34" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
         <v>2.82</v>
@@ -5035,7 +5035,7 @@
         <v>1.46</v>
       </c>
       <c r="V34" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W34" t="n">
         <v>1.6</v>
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="H36" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="I36" t="n">
-        <v>2.94</v>
+        <v>2.78</v>
       </c>
       <c r="J36" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K36" t="n">
         <v>4.3</v>
@@ -5305,10 +5305,10 @@
         <v>2.14</v>
       </c>
       <c r="V36" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W36" t="n">
         <v>1.51</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.55</v>
       </c>
       <c r="X36" t="n">
         <v>22</v>
@@ -5350,7 +5350,7 @@
         <v>40</v>
       </c>
       <c r="AK36" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL36" t="n">
         <v>34</v>
@@ -5359,7 +5359,7 @@
         <v>70</v>
       </c>
       <c r="AN36" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO36" t="n">
         <v>19</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G37" t="n">
         <v>4.8</v>
@@ -5401,13 +5401,13 @@
         <v>2.02</v>
       </c>
       <c r="I37" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J37" t="n">
         <v>3.4</v>
       </c>
       <c r="K37" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5425,7 +5425,7 @@
         <v>1.85</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R37" t="n">
         <v>1.26</v>
@@ -5440,7 +5440,7 @@
         <v>1.84</v>
       </c>
       <c r="V37" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W37" t="n">
         <v>1.26</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G39" t="n">
         <v>2.48</v>
       </c>
-      <c r="G39" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H39" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J39" t="n">
         <v>3.2</v>
@@ -5686,13 +5686,13 @@
         <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O39" t="n">
         <v>1.43</v>
       </c>
       <c r="P39" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q39" t="n">
         <v>2.28</v>
@@ -5710,10 +5710,10 @@
         <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W39" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X39" t="n">
         <v>10.5</v>
@@ -5803,16 +5803,16 @@
         <v>2.56</v>
       </c>
       <c r="H40" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -6100,13 +6100,13 @@
         <v>1.7</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R42" t="n">
         <v>1.09</v>
       </c>
       <c r="S42" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="T42" t="n">
         <v>1.01</v>
@@ -6211,7 +6211,7 @@
         <v>4.2</v>
       </c>
       <c r="I43" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J43" t="n">
         <v>3.5</v>
@@ -6244,10 +6244,10 @@
         <v>4.2</v>
       </c>
       <c r="T43" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U43" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V43" t="n">
         <v>1.3</v>
@@ -6259,7 +6259,7 @@
         <v>11.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z43" t="n">
         <v>30</v>
@@ -6337,19 +6337,19 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I44" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J44" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K44" t="n">
         <v>3.8</v>
@@ -6370,7 +6370,7 @@
         <v>1.82</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
         <v>1.31</v>
@@ -6379,16 +6379,16 @@
         <v>3.55</v>
       </c>
       <c r="T44" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U44" t="n">
         <v>1.72</v>
       </c>
       <c r="V44" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W44" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6415,10 +6415,10 @@
         <v>70</v>
       </c>
       <c r="AF44" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG44" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH44" t="n">
         <v>28</v>
@@ -6427,10 +6427,10 @@
         <v>85</v>
       </c>
       <c r="AJ44" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK44" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL44" t="n">
         <v>55</v>
@@ -6472,13 +6472,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G45" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I45" t="n">
         <v>9.6</v>
@@ -6502,7 +6502,7 @@
         <v>1.16</v>
       </c>
       <c r="P45" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q45" t="n">
         <v>1.44</v>
@@ -6517,7 +6517,7 @@
         <v>1.87</v>
       </c>
       <c r="U45" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="V45" t="n">
         <v>1.11</v>
@@ -6544,7 +6544,7 @@
         <v>14</v>
       </c>
       <c r="AD45" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE45" t="n">
         <v>130</v>
@@ -6577,7 +6577,7 @@
         <v>4.6</v>
       </c>
       <c r="AO45" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
@@ -6616,7 +6616,7 @@
         <v>2.26</v>
       </c>
       <c r="I46" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J46" t="n">
         <v>3.35</v>
@@ -6655,7 +6655,7 @@
         <v>1.72</v>
       </c>
       <c r="V46" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="W46" t="n">
         <v>1.37</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G48" t="n">
         <v>3.8</v>
       </c>
       <c r="H48" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I48" t="n">
         <v>1.87</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.89</v>
       </c>
       <c r="J48" t="n">
         <v>4.9</v>
       </c>
       <c r="K48" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L48" t="n">
         <v>1.17</v>
@@ -6913,7 +6913,7 @@
         <v>1.3</v>
       </c>
       <c r="R48" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="S48" t="n">
         <v>1.76</v>
@@ -6925,7 +6925,7 @@
         <v>3.65</v>
       </c>
       <c r="V48" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="W48" t="n">
         <v>1.35</v>
@@ -6982,7 +6982,7 @@
         <v>14.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="49">
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G49" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I49" t="n">
         <v>4.8</v>
@@ -7027,7 +7027,7 @@
         <v>3.55</v>
       </c>
       <c r="K49" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7036,16 +7036,16 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="O49" t="n">
         <v>1.17</v>
       </c>
       <c r="P49" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R49" t="n">
         <v>1.51</v>
@@ -7063,7 +7063,7 @@
         <v>1.26</v>
       </c>
       <c r="W49" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7291,7 +7291,7 @@
         <v>2.36</v>
       </c>
       <c r="I51" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="J51" t="n">
         <v>3.2</v>
@@ -7330,7 +7330,7 @@
         <v>1.96</v>
       </c>
       <c r="V51" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W51" t="n">
         <v>1.39</v>
@@ -7450,7 +7450,7 @@
         <v>1.66</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R52" t="n">
         <v>1.23</v>
@@ -7579,7 +7579,7 @@
         <v>1.97</v>
       </c>
       <c r="O53" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P53" t="n">
         <v>1.97</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G54" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H54" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="I54" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
         <v>3.65</v>
@@ -7732,13 +7732,13 @@
         <v>1.45</v>
       </c>
       <c r="U54" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="V54" t="n">
         <v>1.5</v>
       </c>
       <c r="W54" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X54" t="n">
         <v>1000</v>
@@ -7828,10 +7828,10 @@
         <v>4.5</v>
       </c>
       <c r="H55" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I55" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="J55" t="n">
         <v>4</v>
@@ -7870,7 +7870,7 @@
         <v>2.38</v>
       </c>
       <c r="V55" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W55" t="n">
         <v>1.29</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G57" t="n">
         <v>2.56</v>
       </c>
       <c r="H57" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I57" t="n">
         <v>4.2</v>
       </c>
       <c r="J57" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K57" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8125,7 +8125,7 @@
         <v>1.94</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R57" t="n">
         <v>1.33</v>
@@ -8236,10 +8236,10 @@
         <v>3.3</v>
       </c>
       <c r="I58" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J58" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K58" t="n">
         <v>3.75</v>
@@ -8251,7 +8251,7 @@
         <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O58" t="n">
         <v>1.43</v>
@@ -8269,10 +8269,10 @@
         <v>2.24</v>
       </c>
       <c r="T58" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U58" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V58" t="n">
         <v>1.37</v>
@@ -8323,7 +8323,7 @@
         <v>46</v>
       </c>
       <c r="AL58" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM58" t="n">
         <v>1000</v>
@@ -8404,10 +8404,10 @@
         <v>2.72</v>
       </c>
       <c r="T59" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U59" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V59" t="n">
         <v>1.38</v>
@@ -8518,7 +8518,7 @@
         <v>1.01</v>
       </c>
       <c r="M60" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N60" t="n">
         <v>2.4</v>
@@ -8551,7 +8551,7 @@
         <v>1.75</v>
       </c>
       <c r="X60" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y60" t="n">
         <v>25</v>
@@ -8635,7 +8635,7 @@
         <v>2.74</v>
       </c>
       <c r="G61" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H61" t="n">
         <v>2.76</v>
@@ -8647,7 +8647,7 @@
         <v>3.1</v>
       </c>
       <c r="K61" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8767,16 +8767,16 @@
         </is>
       </c>
       <c r="F62" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G62" t="n">
         <v>2.16</v>
       </c>
-      <c r="G62" t="n">
-        <v>2.2</v>
-      </c>
       <c r="H62" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I62" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J62" t="n">
         <v>3.8</v>
@@ -8797,28 +8797,28 @@
         <v>1.22</v>
       </c>
       <c r="P62" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q62" t="n">
         <v>1.67</v>
       </c>
       <c r="R62" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S62" t="n">
         <v>2.66</v>
       </c>
       <c r="T62" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U62" t="n">
         <v>2.62</v>
       </c>
       <c r="V62" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W62" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X62" t="n">
         <v>20</v>
@@ -8851,7 +8851,7 @@
         <v>10.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI62" t="n">
         <v>36</v>
@@ -8905,7 +8905,7 @@
         <v>19.5</v>
       </c>
       <c r="G63" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H63" t="n">
         <v>1.16</v>
@@ -8914,10 +8914,10 @@
         <v>1.17</v>
       </c>
       <c r="J63" t="n">
+        <v>11</v>
+      </c>
+      <c r="K63" t="n">
         <v>11.5</v>
-      </c>
-      <c r="K63" t="n">
-        <v>12</v>
       </c>
       <c r="L63" t="n">
         <v>1.15</v>
@@ -8926,7 +8926,7 @@
         <v>1.01</v>
       </c>
       <c r="N63" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="O63" t="n">
         <v>1.08</v>
@@ -8935,22 +8935,22 @@
         <v>4.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="R63" t="n">
         <v>2.38</v>
       </c>
       <c r="S63" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="T63" t="n">
         <v>1.89</v>
       </c>
       <c r="U63" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V63" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="W63" t="n">
         <v>1.05</v>
@@ -8989,7 +8989,7 @@
         <v>42</v>
       </c>
       <c r="AI63" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ63" t="n">
         <v>1000</v>
@@ -9058,7 +9058,7 @@
         <v>1.3</v>
       </c>
       <c r="M64" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N64" t="n">
         <v>2.62</v>
@@ -9076,7 +9076,7 @@
         <v>1.29</v>
       </c>
       <c r="S64" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="T64" t="n">
         <v>1.01</v>
@@ -9163,55 +9163,55 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.54</v>
+        <v>1.9</v>
       </c>
       <c r="G65" t="n">
-        <v>3.65</v>
+        <v>2.5</v>
       </c>
       <c r="H65" t="n">
-        <v>2.56</v>
+        <v>3.4</v>
       </c>
       <c r="I65" t="n">
-        <v>3.65</v>
+        <v>5.7</v>
       </c>
       <c r="J65" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="K65" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="L65" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M65" t="n">
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="O65" t="n">
         <v>1.01</v>
       </c>
       <c r="P65" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="R65" t="n">
         <v>1.18</v>
       </c>
       <c r="S65" t="n">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="T65" t="n">
         <v>1.01</v>
@@ -9220,10 +9220,10 @@
         <v>1.01</v>
       </c>
       <c r="V65" t="n">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="W65" t="n">
-        <v>1.37</v>
+        <v>1.67</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
@@ -9298,55 +9298,55 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.04</v>
+        <v>2.56</v>
       </c>
       <c r="G66" t="n">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
       <c r="H66" t="n">
-        <v>2.92</v>
+        <v>2.58</v>
       </c>
       <c r="I66" t="n">
-        <v>4.8</v>
+        <v>3.65</v>
       </c>
       <c r="J66" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="K66" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="L66" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="O66" t="n">
         <v>1.01</v>
       </c>
       <c r="P66" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.1</v>
+        <v>2.58</v>
       </c>
       <c r="R66" t="n">
         <v>1.18</v>
       </c>
       <c r="S66" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="T66" t="n">
         <v>1.01</v>
@@ -9355,10 +9355,10 @@
         <v>1.01</v>
       </c>
       <c r="V66" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="W66" t="n">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="X66" t="n">
         <v>1000</v>
@@ -9433,55 +9433,55 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G67" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="H67" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="I67" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K67" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="L67" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="O67" t="n">
         <v>1.01</v>
       </c>
       <c r="P67" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R67" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S67" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="T67" t="n">
         <v>1.01</v>
@@ -9490,10 +9490,10 @@
         <v>1.01</v>
       </c>
       <c r="V67" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W67" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="X67" t="n">
         <v>1000</v>
@@ -9568,55 +9568,55 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="G68" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="H68" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I68" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K68" t="n">
         <v>5.8</v>
       </c>
-      <c r="J68" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K68" t="n">
-        <v>5.9</v>
-      </c>
       <c r="L68" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M68" t="n">
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="O68" t="n">
         <v>1.01</v>
       </c>
       <c r="P68" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="R68" t="n">
         <v>1.18</v>
       </c>
       <c r="S68" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="T68" t="n">
         <v>1.01</v>
@@ -9625,10 +9625,10 @@
         <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W68" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="X68" t="n">
         <v>1000</v>
@@ -9703,55 +9703,55 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Forli</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="G69" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H69" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I69" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J69" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="L69" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M69" t="n">
         <v>1.01</v>
       </c>
       <c r="N69" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="O69" t="n">
         <v>1.01</v>
       </c>
       <c r="P69" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R69" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S69" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T69" t="n">
         <v>1.01</v>
@@ -9763,7 +9763,7 @@
         <v>1.26</v>
       </c>
       <c r="W69" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
@@ -9871,13 +9871,13 @@
         <v>1.02</v>
       </c>
       <c r="N70" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O70" t="n">
         <v>1.12</v>
       </c>
       <c r="P70" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q70" t="n">
         <v>1.37</v>
@@ -9928,10 +9928,10 @@
         <v>11</v>
       </c>
       <c r="AG70" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH70" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AI70" t="n">
         <v>150</v>
@@ -9940,7 +9940,7 @@
         <v>11</v>
       </c>
       <c r="AK70" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL70" t="n">
         <v>32</v>
@@ -9985,10 +9985,10 @@
         <v>2.36</v>
       </c>
       <c r="G71" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H71" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I71" t="n">
         <v>3.85</v>
@@ -10123,7 +10123,7 @@
         <v>2.14</v>
       </c>
       <c r="H72" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I72" t="n">
         <v>5.7</v>
@@ -10135,22 +10135,22 @@
         <v>9.4</v>
       </c>
       <c r="L72" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M72" t="n">
         <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="O72" t="n">
         <v>1.01</v>
       </c>
       <c r="P72" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R72" t="n">
         <v>1.22</v>
@@ -10270,7 +10270,7 @@
         <v>6.6</v>
       </c>
       <c r="L73" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M73" t="n">
         <v>1.01</v>
@@ -10282,10 +10282,10 @@
         <v>1.01</v>
       </c>
       <c r="P73" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R73" t="n">
         <v>1.26</v>
@@ -10390,7 +10390,7 @@
         <v>2.36</v>
       </c>
       <c r="G74" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H74" t="n">
         <v>3.55</v>
@@ -10432,13 +10432,13 @@
         <v>1.91</v>
       </c>
       <c r="U74" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V74" t="n">
         <v>1.38</v>
       </c>
       <c r="W74" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X74" t="n">
         <v>11</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G75" t="n">
         <v>2.22</v>
@@ -10537,13 +10537,13 @@
         <v>3.25</v>
       </c>
       <c r="K75" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L75" t="n">
         <v>1.43</v>
       </c>
       <c r="M75" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N75" t="n">
         <v>1.73</v>
@@ -10564,10 +10564,10 @@
         <v>3.4</v>
       </c>
       <c r="T75" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U75" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V75" t="n">
         <v>1.27</v>
@@ -10576,13 +10576,13 @@
         <v>1.81</v>
       </c>
       <c r="X75" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y75" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z75" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA75" t="n">
         <v>1000</v>
@@ -10663,10 +10663,10 @@
         <v>2.5</v>
       </c>
       <c r="H76" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I76" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J76" t="n">
         <v>3.2</v>
@@ -10696,10 +10696,10 @@
         <v>1.23</v>
       </c>
       <c r="S76" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T76" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U76" t="n">
         <v>1.91</v>
@@ -10708,7 +10708,7 @@
         <v>1.39</v>
       </c>
       <c r="W76" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X76" t="n">
         <v>9.4</v>
@@ -10792,34 +10792,34 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G77" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H77" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I77" t="n">
         <v>4.3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="K77" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="L77" t="n">
         <v>1.62</v>
       </c>
       <c r="M77" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="N77" t="n">
-        <v>1.43</v>
+        <v>2.32</v>
       </c>
       <c r="O77" t="n">
-        <v>1.14</v>
+        <v>1.65</v>
       </c>
       <c r="P77" t="n">
         <v>1.43</v>
@@ -10831,13 +10831,13 @@
         <v>1.16</v>
       </c>
       <c r="S77" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="T77" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="U77" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="V77" t="n">
         <v>1.3</v>
@@ -10846,58 +10846,58 @@
         <v>1.67</v>
       </c>
       <c r="X77" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y77" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z77" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AA77" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB77" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AC77" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="AD77" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH77" t="n">
         <v>28</v>
       </c>
-      <c r="AE77" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>38</v>
-      </c>
       <c r="AI77" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ77" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AK77" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AL77" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM77" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN77" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO77" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78">
@@ -10954,7 +10954,7 @@
         <v>1.77</v>
       </c>
       <c r="O78" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P78" t="n">
         <v>1.77</v>
@@ -11062,19 +11062,19 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G79" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>3.8</v>
       </c>
       <c r="I79" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K79" t="n">
         <v>3.35</v>
@@ -11335,7 +11335,7 @@
         <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>3.85</v>
@@ -11344,7 +11344,7 @@
         <v>4.5</v>
       </c>
       <c r="J81" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K81" t="n">
         <v>3.75</v>
@@ -11353,19 +11353,19 @@
         <v>1.01</v>
       </c>
       <c r="M81" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N81" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="O81" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="P81" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R81" t="n">
         <v>1.25</v>
@@ -11383,7 +11383,7 @@
         <v>1.28</v>
       </c>
       <c r="W81" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X81" t="n">
         <v>17.5</v>
@@ -11479,7 +11479,7 @@
         <v>1.96</v>
       </c>
       <c r="J82" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K82" t="n">
         <v>10.5</v>
@@ -11497,10 +11497,10 @@
         <v>1.13</v>
       </c>
       <c r="P82" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="R82" t="n">
         <v>1.67</v>
@@ -11602,22 +11602,22 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G83" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H83" t="n">
         <v>2.36</v>
       </c>
       <c r="I83" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J83" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K83" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
@@ -11626,16 +11626,16 @@
         <v>1.05</v>
       </c>
       <c r="N83" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O83" t="n">
         <v>1.27</v>
       </c>
       <c r="P83" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R83" t="n">
         <v>1.31</v>
@@ -11653,7 +11653,7 @@
         <v>1.46</v>
       </c>
       <c r="W83" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11743,13 +11743,13 @@
         <v>1.18</v>
       </c>
       <c r="H84" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I84" t="n">
         <v>36</v>
       </c>
       <c r="J84" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K84" t="n">
         <v>10.5</v>
@@ -11761,28 +11761,28 @@
         <v>1.02</v>
       </c>
       <c r="N84" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="O84" t="n">
         <v>1.17</v>
       </c>
       <c r="P84" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q84" t="n">
         <v>1.44</v>
       </c>
       <c r="R84" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="S84" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="T84" t="n">
-        <v>2.34</v>
+        <v>2.58</v>
       </c>
       <c r="U84" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="V84" t="n">
         <v>1.03</v>
@@ -11803,7 +11803,7 @@
         <v>1000</v>
       </c>
       <c r="AB84" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC84" t="n">
         <v>22</v>
@@ -11833,7 +11833,7 @@
         <v>16</v>
       </c>
       <c r="AL84" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM84" t="n">
         <v>1000</v>
@@ -12007,13 +12007,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G86" t="n">
         <v>2.9</v>
       </c>
       <c r="H86" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I86" t="n">
         <v>4.1</v>
@@ -12022,7 +12022,7 @@
         <v>2.94</v>
       </c>
       <c r="K86" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12031,22 +12031,22 @@
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="O86" t="n">
         <v>1.39</v>
       </c>
       <c r="P86" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.12</v>
+        <v>1.39</v>
       </c>
       <c r="R86" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S86" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="T86" t="n">
         <v>1.01</v>
@@ -12160,7 +12160,7 @@
         <v>3.6</v>
       </c>
       <c r="L87" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M87" t="n">
         <v>1.09</v>
@@ -12169,13 +12169,13 @@
         <v>3.45</v>
       </c>
       <c r="O87" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P87" t="n">
         <v>1.84</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R87" t="n">
         <v>1.31</v>
@@ -12211,7 +12211,7 @@
         <v>14</v>
       </c>
       <c r="AC87" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD87" t="n">
         <v>10.5</v>
@@ -12241,7 +12241,7 @@
         <v>70</v>
       </c>
       <c r="AM87" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN87" t="n">
         <v>70</v>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G88" t="n">
         <v>1.78</v>
@@ -12286,13 +12286,13 @@
         <v>6</v>
       </c>
       <c r="I88" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J88" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K88" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K88" t="n">
-        <v>3.7</v>
       </c>
       <c r="L88" t="n">
         <v>1.5</v>
@@ -12301,10 +12301,10 @@
         <v>1.11</v>
       </c>
       <c r="N88" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O88" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P88" t="n">
         <v>1.61</v>
@@ -12325,16 +12325,16 @@
         <v>1.69</v>
       </c>
       <c r="V88" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W88" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X88" t="n">
         <v>9.4</v>
       </c>
       <c r="Y88" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z88" t="n">
         <v>48</v>
@@ -12346,7 +12346,7 @@
         <v>6.2</v>
       </c>
       <c r="AC88" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD88" t="n">
         <v>26</v>
@@ -12418,7 +12418,7 @@
         <v>3.7</v>
       </c>
       <c r="H89" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I89" t="n">
         <v>2.38</v>
@@ -12436,7 +12436,7 @@
         <v>1.06</v>
       </c>
       <c r="N89" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O89" t="n">
         <v>1.34</v>
@@ -12454,10 +12454,10 @@
         <v>3.2</v>
       </c>
       <c r="T89" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U89" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V89" t="n">
         <v>1.72</v>
@@ -12550,7 +12550,7 @@
         <v>1.85</v>
       </c>
       <c r="G90" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="H90" t="n">
         <v>5.3</v>
@@ -12565,16 +12565,16 @@
         <v>3.55</v>
       </c>
       <c r="L90" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M90" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N90" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O90" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P90" t="n">
         <v>1.61</v>
@@ -12583,22 +12583,22 @@
         <v>2.38</v>
       </c>
       <c r="R90" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S90" t="n">
         <v>4.2</v>
       </c>
       <c r="T90" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U90" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V90" t="n">
         <v>1.21</v>
       </c>
       <c r="W90" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X90" t="n">
         <v>11.5</v>
@@ -12607,7 +12607,7 @@
         <v>16.5</v>
       </c>
       <c r="Z90" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AA90" t="n">
         <v>1000</v>
@@ -12619,7 +12619,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD90" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AE90" t="n">
         <v>1000</v>
@@ -12631,19 +12631,19 @@
         <v>12.5</v>
       </c>
       <c r="AH90" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ90" t="n">
         <v>30</v>
       </c>
-      <c r="AI90" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>25</v>
-      </c>
       <c r="AK90" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AL90" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM90" t="n">
         <v>1000</v>
@@ -12694,100 +12694,100 @@
         <v>1000</v>
       </c>
       <c r="J91" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K91" t="n">
         <v>950</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P91" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U91" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V91" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="92">
@@ -12817,34 +12817,34 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G92" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H92" t="n">
         <v>4.1</v>
       </c>
       <c r="I92" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J92" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K92" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P92" t="n">
         <v>1.85</v>
@@ -12853,76 +12853,76 @@
         <v>1.87</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X92" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z92" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA92" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC92" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD92" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE92" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF92" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG92" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH92" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI92" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ92" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK92" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL92" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM92" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN92" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AO92" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93">
@@ -12970,16 +12970,16 @@
         <v>4.6</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P93" t="n">
         <v>2.1</v>
@@ -12988,76 +12988,76 @@
         <v>1.72</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V93" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="X93" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z93" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB93" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC93" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD93" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE93" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF93" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG93" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI93" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ93" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK93" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL93" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="94">
@@ -13105,16 +13105,16 @@
         <v>3.95</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P94" t="n">
         <v>1.65</v>
@@ -13123,76 +13123,76 @@
         <v>1.87</v>
       </c>
       <c r="R94" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S94" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T94" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U94" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="G2" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>1.62</v>
       </c>
       <c r="G4" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H4" t="n">
         <v>4.4</v>
@@ -961,13 +961,13 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O4" t="n">
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q4" t="n">
         <v>1.88</v>
@@ -982,13 +982,13 @@
         <v>1.78</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V4" t="n">
         <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="G5" t="n">
         <v>2.46</v>
@@ -1081,7 +1081,7 @@
         <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>3.7</v>
@@ -1111,7 +1111,7 @@
         <v>1.6</v>
       </c>
       <c r="S5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T5" t="n">
         <v>1.41</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="G6" t="n">
         <v>5.3</v>
@@ -1222,7 +1222,7 @@
         <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.25</v>
@@ -1237,28 +1237,28 @@
         <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T6" t="n">
         <v>1.58</v>
       </c>
       <c r="U6" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V6" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="W6" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X6" t="n">
         <v>27</v>
@@ -1273,7 +1273,7 @@
         <v>18.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1285,7 +1285,7 @@
         <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AG6" t="n">
         <v>20</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G7" t="n">
         <v>2.26</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.28</v>
       </c>
       <c r="H7" t="n">
         <v>3.95</v>
@@ -1360,7 +1360,7 @@
         <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1393,7 +1393,7 @@
         <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X7" t="n">
         <v>9.4</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G10" t="n">
         <v>1.78</v>
       </c>
       <c r="H10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.39</v>
@@ -1771,28 +1771,28 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R10" t="n">
         <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T10" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>1.23</v>
@@ -1807,7 +1807,7 @@
         <v>19</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="n">
         <v>160</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
         <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
@@ -2053,10 +2053,10 @@
         <v>1.7</v>
       </c>
       <c r="R12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="T12" t="n">
         <v>1.01</v>
@@ -2065,7 +2065,7 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W12" t="n">
         <v>1.44</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>2.56</v>
       </c>
       <c r="H14" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I14" t="n">
         <v>4.3</v>
@@ -2302,31 +2302,31 @@
         <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="O14" t="n">
         <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.26</v>
       </c>
       <c r="R14" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="S14" t="n">
-        <v>2.66</v>
+        <v>1.26</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="G15" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2455,7 +2455,7 @@
         <v>1.52</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
@@ -2470,13 +2470,13 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="W15" t="n">
         <v>1.56</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2566,7 +2566,7 @@
         <v>2.12</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="J16" t="n">
         <v>3.55</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="Q16" t="n">
         <v>1.01</v>
@@ -2725,7 +2725,7 @@
         <v>2.32</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="n">
         <v>1.53</v>
@@ -2971,7 +2971,7 @@
         <v>2.24</v>
       </c>
       <c r="I19" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -2986,7 +2986,7 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
         <v>1.37</v>
@@ -3001,19 +3001,19 @@
         <v>1.26</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3121,22 +3121,22 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="O20" t="n">
         <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q20" t="n">
         <v>1.13</v>
       </c>
       <c r="R20" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="S20" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="G21" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="H21" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
         <v>3.8</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3265,7 +3265,7 @@
         <v>2.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R21" t="n">
         <v>1.59</v>
@@ -3280,10 +3280,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3400,13 +3400,13 @@
         <v>2.06</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R22" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S22" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G23" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
         <v>2.42</v>
@@ -3517,7 +3517,7 @@
         <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
         <v>1.42</v>
@@ -3526,37 +3526,37 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q23" t="n">
         <v>2.06</v>
       </c>
       <c r="R23" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T23" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="V23" t="n">
         <v>1.61</v>
       </c>
       <c r="W23" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y23" t="n">
         <v>14.5</v>
@@ -3643,7 +3643,7 @@
         <v>5.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="I24" t="n">
         <v>1.77</v>
@@ -3661,7 +3661,7 @@
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O24" t="n">
         <v>1.28</v>
@@ -3679,7 +3679,7 @@
         <v>3.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U24" t="n">
         <v>2.14</v>
@@ -3742,7 +3742,7 @@
         <v>65</v>
       </c>
       <c r="AO24" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="25">
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>1.96</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R26" t="n">
         <v>1.36</v>
@@ -4000,7 +4000,7 @@
         <v>28</v>
       </c>
       <c r="AK26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
         <v>38</v>
@@ -4336,22 +4336,22 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O29" t="n">
         <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G31" t="n">
         <v>3.55</v>
@@ -4591,7 +4591,7 @@
         <v>2.2</v>
       </c>
       <c r="I31" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J31" t="n">
         <v>3.75</v>
@@ -4612,7 +4612,7 @@
         <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q31" t="n">
         <v>1.77</v>
@@ -4630,7 +4630,7 @@
         <v>2.26</v>
       </c>
       <c r="V31" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W31" t="n">
         <v>1.39</v>
@@ -4657,7 +4657,7 @@
         <v>11.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF31" t="n">
         <v>26</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G32" t="n">
         <v>1.73</v>
@@ -4855,10 +4855,10 @@
         <v>2.58</v>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="H33" t="n">
-        <v>2.3</v>
+        <v>1.66</v>
       </c>
       <c r="I33" t="n">
         <v>2.78</v>
@@ -4891,7 +4891,7 @@
         <v>1.37</v>
       </c>
       <c r="S33" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
@@ -4999,25 +4999,25 @@
         <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K34" t="n">
         <v>3.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N34" t="n">
-        <v>1.44</v>
+        <v>2.28</v>
       </c>
       <c r="O34" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="P34" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="Q34" t="n">
         <v>2.82</v>
@@ -5026,13 +5026,13 @@
         <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.86</v>
+        <v>2.22</v>
       </c>
       <c r="U34" t="n">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="V34" t="n">
         <v>1.33</v>
@@ -5041,58 +5041,58 @@
         <v>1.6</v>
       </c>
       <c r="X34" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="Y34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG34" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z34" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AH34" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ34" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AK34" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AL34" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35">
@@ -5263,10 +5263,10 @@
         <v>2.96</v>
       </c>
       <c r="H36" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I36" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J36" t="n">
         <v>3.65</v>
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G37" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H37" t="n">
         <v>2.02</v>
@@ -5407,19 +5407,19 @@
         <v>3.4</v>
       </c>
       <c r="K37" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>3.45</v>
       </c>
       <c r="O37" t="n">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="P37" t="n">
         <v>1.85</v>
@@ -5428,76 +5428,76 @@
         <v>1.97</v>
       </c>
       <c r="R37" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="S37" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T37" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U37" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="V37" t="n">
         <v>1.79</v>
       </c>
       <c r="W37" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="X37" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AB37" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AC37" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD37" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AE37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF37" t="n">
         <v>34</v>
       </c>
-      <c r="AF37" t="n">
-        <v>40</v>
-      </c>
       <c r="AG37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH37" t="n">
         <v>23</v>
       </c>
-      <c r="AH37" t="n">
-        <v>28</v>
-      </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G38" t="n">
         <v>1.64</v>
@@ -5536,7 +5536,7 @@
         <v>4.7</v>
       </c>
       <c r="I38" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J38" t="n">
         <v>4.1</v>
@@ -5551,16 +5551,16 @@
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="O38" t="n">
         <v>1.2</v>
       </c>
       <c r="P38" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R38" t="n">
         <v>1.46</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G40" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K40" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5827,16 +5827,16 @@
         <v>1.44</v>
       </c>
       <c r="P40" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q40" t="n">
         <v>2.32</v>
       </c>
       <c r="R40" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S40" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="T40" t="n">
         <v>1.94</v>
@@ -5845,7 +5845,7 @@
         <v>1.92</v>
       </c>
       <c r="V40" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W40" t="n">
         <v>1.64</v>
@@ -5866,7 +5866,7 @@
         <v>8.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD40" t="n">
         <v>15.5</v>
@@ -5881,7 +5881,7 @@
         <v>12</v>
       </c>
       <c r="AH40" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI40" t="n">
         <v>70</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G41" t="n">
         <v>4.3</v>
@@ -5947,7 +5947,7 @@
         <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5971,7 +5971,7 @@
         <v>1.23</v>
       </c>
       <c r="S41" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T41" t="n">
         <v>1.01</v>
@@ -6079,7 +6079,7 @@
         <v>2.46</v>
       </c>
       <c r="J42" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>7</v>
@@ -6100,13 +6100,13 @@
         <v>1.7</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R42" t="n">
         <v>1.09</v>
       </c>
       <c r="S42" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="T42" t="n">
         <v>1.01</v>
@@ -6118,7 +6118,7 @@
         <v>1.68</v>
       </c>
       <c r="W42" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6244,10 +6244,10 @@
         <v>4.2</v>
       </c>
       <c r="T43" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U43" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V43" t="n">
         <v>1.3</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G44" t="n">
         <v>2.2</v>
@@ -6361,7 +6361,7 @@
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="O44" t="n">
         <v>1.34</v>
@@ -6475,7 +6475,7 @@
         <v>1.38</v>
       </c>
       <c r="G45" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H45" t="n">
         <v>8.199999999999999</v>
@@ -6484,7 +6484,7 @@
         <v>9.6</v>
       </c>
       <c r="J45" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="K45" t="n">
         <v>6.2</v>
@@ -6508,7 +6508,7 @@
         <v>1.44</v>
       </c>
       <c r="R45" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S45" t="n">
         <v>2.2</v>
@@ -6520,10 +6520,10 @@
         <v>1.98</v>
       </c>
       <c r="V45" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W45" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X45" t="n">
         <v>30</v>
@@ -6616,7 +6616,7 @@
         <v>2.26</v>
       </c>
       <c r="I46" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J46" t="n">
         <v>3.35</v>
@@ -6655,7 +6655,7 @@
         <v>1.72</v>
       </c>
       <c r="V46" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W46" t="n">
         <v>1.37</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="G47" t="n">
         <v>3.1</v>
       </c>
       <c r="H47" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I47" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="J47" t="n">
         <v>3.05</v>
       </c>
       <c r="K47" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>1.87</v>
       </c>
       <c r="J48" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
         <v>5.1</v>
@@ -6913,7 +6913,7 @@
         <v>1.3</v>
       </c>
       <c r="R48" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="S48" t="n">
         <v>1.76</v>
@@ -6922,7 +6922,7 @@
         <v>1.36</v>
       </c>
       <c r="U48" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="V48" t="n">
         <v>2.14</v>
@@ -6982,7 +6982,7 @@
         <v>14.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="49">
@@ -7018,7 +7018,7 @@
         <v>2.3</v>
       </c>
       <c r="H49" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I49" t="n">
         <v>4.8</v>
@@ -7156,7 +7156,7 @@
         <v>2.78</v>
       </c>
       <c r="I50" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J50" t="n">
         <v>2.98</v>
@@ -7195,7 +7195,7 @@
         <v>1.78</v>
       </c>
       <c r="V50" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W50" t="n">
         <v>1.43</v>
@@ -7282,16 +7282,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G51" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I51" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J51" t="n">
         <v>3.2</v>
@@ -7303,7 +7303,7 @@
         <v>1.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N51" t="n">
         <v>3.05</v>
@@ -7327,10 +7327,10 @@
         <v>1.91</v>
       </c>
       <c r="U51" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="V51" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W51" t="n">
         <v>1.39</v>
@@ -7345,7 +7345,7 @@
         <v>15</v>
       </c>
       <c r="AA51" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB51" t="n">
         <v>11.5</v>
@@ -7363,7 +7363,7 @@
         <v>24</v>
       </c>
       <c r="AG51" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH51" t="n">
         <v>19.5</v>
@@ -7384,10 +7384,10 @@
         <v>160</v>
       </c>
       <c r="AN51" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO51" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
@@ -7702,7 +7702,7 @@
         <v>3.65</v>
       </c>
       <c r="K54" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
@@ -7711,16 +7711,16 @@
         <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="O54" t="n">
         <v>1.19</v>
       </c>
       <c r="P54" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="R54" t="n">
         <v>1.48</v>
@@ -7885,7 +7885,7 @@
         <v>14</v>
       </c>
       <c r="AA55" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB55" t="n">
         <v>21</v>
@@ -7927,7 +7927,7 @@
         <v>44</v>
       </c>
       <c r="AO55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -7981,10 +7981,10 @@
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>2.44</v>
+        <v>5.2</v>
       </c>
       <c r="O56" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P56" t="n">
         <v>2.44</v>
@@ -7993,16 +7993,16 @@
         <v>1.61</v>
       </c>
       <c r="R56" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="S56" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="T56" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="U56" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="V56" t="n">
         <v>1.64</v>
@@ -8011,58 +8011,58 @@
         <v>1.48</v>
       </c>
       <c r="X56" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y56" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN56" t="n">
         <v>21</v>
       </c>
-      <c r="Z56" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO56" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="57">
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G58" t="n">
         <v>2.32</v>
@@ -8236,10 +8236,10 @@
         <v>3.3</v>
       </c>
       <c r="I58" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J58" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K58" t="n">
         <v>3.75</v>
@@ -8257,7 +8257,7 @@
         <v>1.43</v>
       </c>
       <c r="P58" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q58" t="n">
         <v>2.24</v>
@@ -8386,13 +8386,13 @@
         <v>1.05</v>
       </c>
       <c r="N59" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="O59" t="n">
         <v>1.27</v>
       </c>
       <c r="P59" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="Q59" t="n">
         <v>1.83</v>
@@ -8530,7 +8530,7 @@
         <v>2.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="R60" t="n">
         <v>1.41</v>
@@ -8539,7 +8539,7 @@
         <v>2.36</v>
       </c>
       <c r="T60" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="U60" t="n">
         <v>1.01</v>
@@ -8785,7 +8785,7 @@
         <v>3.85</v>
       </c>
       <c r="L62" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M62" t="n">
         <v>1.05</v>
@@ -8800,7 +8800,7 @@
         <v>2.46</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R62" t="n">
         <v>1.58</v>
@@ -8809,7 +8809,7 @@
         <v>2.66</v>
       </c>
       <c r="T62" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U62" t="n">
         <v>2.62</v>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="G63" t="n">
         <v>21</v>
@@ -8926,7 +8926,7 @@
         <v>1.01</v>
       </c>
       <c r="N63" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="O63" t="n">
         <v>1.08</v>
@@ -8935,13 +8935,13 @@
         <v>4.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="R63" t="n">
         <v>2.38</v>
       </c>
       <c r="S63" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="T63" t="n">
         <v>1.89</v>
@@ -8971,7 +8971,7 @@
         <v>1000</v>
       </c>
       <c r="AC63" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD63" t="n">
         <v>14</v>
@@ -8983,10 +8983,10 @@
         <v>250</v>
       </c>
       <c r="AG63" t="n">
-        <v>70</v>
+        <v>990</v>
       </c>
       <c r="AH63" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AI63" t="n">
         <v>32</v>
@@ -9061,7 +9061,7 @@
         <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O64" t="n">
         <v>1.3</v>
@@ -9070,10 +9070,10 @@
         <v>1.81</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R64" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S64" t="n">
         <v>2.92</v>
@@ -9871,22 +9871,22 @@
         <v>1.02</v>
       </c>
       <c r="N70" t="n">
-        <v>7.8</v>
+        <v>3.05</v>
       </c>
       <c r="O70" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="P70" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="R70" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="S70" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="T70" t="n">
         <v>1.87</v>
@@ -9898,7 +9898,7 @@
         <v>1.07</v>
       </c>
       <c r="W70" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X70" t="n">
         <v>48</v>
@@ -9985,10 +9985,10 @@
         <v>2.36</v>
       </c>
       <c r="G71" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H71" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I71" t="n">
         <v>3.85</v>
@@ -9997,7 +9997,7 @@
         <v>3.1</v>
       </c>
       <c r="K71" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L71" t="n">
         <v>1.48</v>
@@ -10033,7 +10033,7 @@
         <v>1.35</v>
       </c>
       <c r="W71" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X71" t="n">
         <v>13.5</v>
@@ -10126,7 +10126,7 @@
         <v>3.8</v>
       </c>
       <c r="I72" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J72" t="n">
         <v>3.3</v>
@@ -10165,7 +10165,7 @@
         <v>1.01</v>
       </c>
       <c r="V72" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W72" t="n">
         <v>1.87</v>
@@ -10255,10 +10255,10 @@
         <v>4.2</v>
       </c>
       <c r="G73" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="H73" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="I73" t="n">
         <v>2.04</v>
@@ -10267,7 +10267,7 @@
         <v>3.3</v>
       </c>
       <c r="K73" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L73" t="n">
         <v>1.33</v>
@@ -10438,7 +10438,7 @@
         <v>1.38</v>
       </c>
       <c r="W74" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X74" t="n">
         <v>11</v>
@@ -10564,10 +10564,10 @@
         <v>3.4</v>
       </c>
       <c r="T75" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="U75" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="V75" t="n">
         <v>1.27</v>
@@ -10657,10 +10657,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G76" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H76" t="n">
         <v>3.5</v>
@@ -10702,10 +10702,10 @@
         <v>2.06</v>
       </c>
       <c r="U76" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V76" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W76" t="n">
         <v>1.67</v>
@@ -10804,7 +10804,7 @@
         <v>4.3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="K77" t="n">
         <v>3.15</v>
@@ -10948,13 +10948,13 @@
         <v>1.44</v>
       </c>
       <c r="M78" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N78" t="n">
-        <v>1.77</v>
+        <v>3.25</v>
       </c>
       <c r="O78" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P78" t="n">
         <v>1.77</v>
@@ -10963,16 +10963,16 @@
         <v>2.12</v>
       </c>
       <c r="R78" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S78" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T78" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="U78" t="n">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="V78" t="n">
         <v>1.28</v>
@@ -10981,58 +10981,58 @@
         <v>1.83</v>
       </c>
       <c r="X78" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Y78" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z78" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA78" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB78" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC78" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD78" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE78" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF78" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG78" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH78" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI78" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ78" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AK78" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL78" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM78" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN78" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO78" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79">
@@ -11077,7 +11077,7 @@
         <v>3.1</v>
       </c>
       <c r="K79" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11332,10 +11332,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H81" t="n">
         <v>3.85</v>
@@ -11383,7 +11383,7 @@
         <v>1.28</v>
       </c>
       <c r="W81" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X81" t="n">
         <v>17.5</v>
@@ -11467,22 +11467,22 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="G82" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="H82" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="I82" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="J82" t="n">
         <v>4.2</v>
       </c>
       <c r="K82" t="n">
-        <v>10.5</v>
+        <v>5.2</v>
       </c>
       <c r="L82" t="n">
         <v>1.01</v>
@@ -11491,88 +11491,88 @@
         <v>1.01</v>
       </c>
       <c r="N82" t="n">
-        <v>1.02</v>
+        <v>6.4</v>
       </c>
       <c r="O82" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P82" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.13</v>
+        <v>1.43</v>
       </c>
       <c r="R82" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="S82" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="T82" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U82" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="V82" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="W82" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="X82" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y82" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB82" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AC82" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE82" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF82" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG82" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH82" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI82" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AJ82" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK82" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL82" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM82" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN82" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO82" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="83">
@@ -11626,13 +11626,13 @@
         <v>1.05</v>
       </c>
       <c r="N83" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="O83" t="n">
         <v>1.27</v>
       </c>
       <c r="P83" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q83" t="n">
         <v>1.78</v>
@@ -11746,13 +11746,13 @@
         <v>22</v>
       </c>
       <c r="I84" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J84" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L84" t="n">
         <v>1.26</v>
@@ -11776,7 +11776,7 @@
         <v>1.63</v>
       </c>
       <c r="S84" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T84" t="n">
         <v>2.58</v>
@@ -11785,10 +11785,10 @@
         <v>1.51</v>
       </c>
       <c r="V84" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="W84" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X84" t="n">
         <v>32</v>
@@ -11818,7 +11818,7 @@
         <v>7.4</v>
       </c>
       <c r="AG84" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH84" t="n">
         <v>70</v>
@@ -11872,40 +11872,40 @@
         </is>
       </c>
       <c r="F85" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q85" t="n">
         <v>1.77</v>
-      </c>
-      <c r="G85" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I85" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K85" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>1.79</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -12007,25 +12007,25 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G86" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H86" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="I86" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="K86" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="L86" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M86" t="n">
         <v>1.01</v>
@@ -12055,7 +12055,7 @@
         <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W86" t="n">
         <v>1.52</v>
@@ -12145,10 +12145,10 @@
         <v>4.1</v>
       </c>
       <c r="G87" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H87" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I87" t="n">
         <v>2.1</v>
@@ -12160,7 +12160,7 @@
         <v>3.6</v>
       </c>
       <c r="L87" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M87" t="n">
         <v>1.09</v>
@@ -12169,10 +12169,10 @@
         <v>3.45</v>
       </c>
       <c r="O87" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P87" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q87" t="n">
         <v>2.14</v>
@@ -12295,7 +12295,7 @@
         <v>3.65</v>
       </c>
       <c r="L88" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M88" t="n">
         <v>1.11</v>
@@ -12316,13 +12316,13 @@
         <v>1.22</v>
       </c>
       <c r="S88" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T88" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="U88" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V88" t="n">
         <v>1.18</v>
@@ -12424,7 +12424,7 @@
         <v>2.38</v>
       </c>
       <c r="J89" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K89" t="n">
         <v>3.6</v>
@@ -12433,7 +12433,7 @@
         <v>1.42</v>
       </c>
       <c r="M89" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N89" t="n">
         <v>3.55</v>
@@ -12448,52 +12448,52 @@
         <v>1.98</v>
       </c>
       <c r="R89" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="S89" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T89" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="U89" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="V89" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W89" t="n">
         <v>1.38</v>
       </c>
       <c r="X89" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z89" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AA89" t="n">
         <v>32</v>
       </c>
       <c r="AB89" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC89" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD89" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE89" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF89" t="n">
         <v>26</v>
       </c>
       <c r="AG89" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH89" t="n">
         <v>22</v>
@@ -12502,22 +12502,22 @@
         <v>48</v>
       </c>
       <c r="AJ89" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK89" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AL89" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM89" t="n">
         <v>120</v>
       </c>
       <c r="AN89" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AO89" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
@@ -12568,10 +12568,10 @@
         <v>1.54</v>
       </c>
       <c r="M90" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N90" t="n">
-        <v>1.62</v>
+        <v>2.8</v>
       </c>
       <c r="O90" t="n">
         <v>1.47</v>
@@ -12583,16 +12583,16 @@
         <v>2.38</v>
       </c>
       <c r="R90" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S90" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T90" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U90" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="V90" t="n">
         <v>1.21</v>
@@ -12601,58 +12601,58 @@
         <v>2.06</v>
       </c>
       <c r="X90" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y90" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z90" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AA90" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB90" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC90" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD90" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AE90" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF90" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG90" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH90" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AI90" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ90" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AK90" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AL90" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AM90" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN90" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO90" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
@@ -12706,19 +12706,19 @@
         <v>1.01</v>
       </c>
       <c r="N91" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="O91" t="n">
         <v>1.01</v>
       </c>
       <c r="P91" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q91" t="n">
         <v>1.32</v>
       </c>
       <c r="R91" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S91" t="n">
         <v>1.33</v>
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G92" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="H92" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I92" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J92" t="n">
         <v>3.75</v>
       </c>
       <c r="K92" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
@@ -12841,88 +12841,88 @@
         <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>3.15</v>
+        <v>1.72</v>
       </c>
       <c r="O92" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V92" t="n">
         <v>1.31</v>
       </c>
-      <c r="P92" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R92" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S92" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T92" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U92" t="n">
+      <c r="W92" t="n">
         <v>1.96</v>
       </c>
-      <c r="V92" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W92" t="n">
-        <v>2</v>
-      </c>
       <c r="X92" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="Y92" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Z92" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA92" t="n">
         <v>120</v>
       </c>
       <c r="AB92" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AC92" t="n">
         <v>9</v>
       </c>
       <c r="AD92" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AE92" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AF92" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG92" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH92" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI92" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AK92" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AL92" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM92" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AN92" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AO92" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
@@ -12973,10 +12973,10 @@
         <v>1.01</v>
       </c>
       <c r="M93" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N93" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="O93" t="n">
         <v>1.25</v>
@@ -12988,76 +12988,76 @@
         <v>1.72</v>
       </c>
       <c r="R93" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="S93" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="T93" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U93" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V93" t="n">
         <v>1.16</v>
       </c>
       <c r="W93" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X93" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD93" t="n">
         <v>25</v>
       </c>
-      <c r="Y93" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB93" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>29</v>
-      </c>
       <c r="AE93" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AF93" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG93" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH93" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI93" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ93" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK93" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AL93" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM93" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN93" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO93" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94">
@@ -13096,10 +13096,10 @@
         <v>4.5</v>
       </c>
       <c r="I94" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J94" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K94" t="n">
         <v>3.95</v>
@@ -13135,7 +13135,7 @@
         <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W94" t="n">
         <v>2.1</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="I2" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -802,67 +802,67 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="I3" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>1.96</v>
+        <v>4.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>2.36</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>6.4</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -970,7 +970,7 @@
         <v>1.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
         <v>1.28</v>
@@ -985,10 +985,10 @@
         <v>1.76</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.64</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,88 +1096,88 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>2.32</v>
+        <v>5.4</v>
       </c>
       <c r="O5" t="n">
         <v>1.19</v>
       </c>
       <c r="P5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
         <v>2.32</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.16</v>
-      </c>
       <c r="T5" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="W5" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -1240,10 +1240,10 @@
         <v>2.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>2.3</v>
@@ -1360,7 +1360,7 @@
         <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="G8" t="n">
         <v>4.3</v>
@@ -1492,7 +1492,7 @@
         <v>2.84</v>
       </c>
       <c r="K8" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="G10" t="n">
         <v>1.78</v>
@@ -1762,7 +1762,7 @@
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>1.39</v>
@@ -1771,28 +1771,28 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>1.88</v>
       </c>
       <c r="O10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.31</v>
       </c>
-      <c r="P10" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.92</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>1.23</v>
@@ -1801,58 +1801,58 @@
         <v>2.28</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.26</v>
+        <v>2.56</v>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H12" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>1.87</v>
+        <v>1.09</v>
       </c>
       <c r="O12" t="n">
         <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>1.87</v>
+        <v>1.09</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.27</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>2.46</v>
+        <v>2.76</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
         <v>3.6</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="G14" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.28</v>
@@ -2311,22 +2311,22 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="O14" t="n">
         <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="R14" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S14" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2338,7 +2338,7 @@
         <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="G15" t="n">
         <v>2.76</v>
@@ -2431,7 +2431,7 @@
         <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
         <v>2.98</v>
@@ -2443,88 +2443,88 @@
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>1.52</v>
+        <v>2.56</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="P15" t="n">
         <v>1.52</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S15" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V15" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
         <v>1.56</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="G16" t="n">
         <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="I16" t="n">
-        <v>2.74</v>
+        <v>2.48</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>3.45</v>
       </c>
       <c r="G17" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H17" t="n">
         <v>2.14</v>
@@ -2716,28 +2716,28 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
         <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S17" t="n">
         <v>2.62</v>
       </c>
       <c r="T17" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U17" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V17" t="n">
         <v>1.83</v>
@@ -2779,19 +2779,19 @@
         <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
         <v>38</v>
       </c>
       <c r="AL17" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN17" t="n">
         <v>28</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G18" t="n">
         <v>3.6</v>
@@ -2836,7 +2836,7 @@
         <v>2.14</v>
       </c>
       <c r="I18" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="J18" t="n">
         <v>3.75</v>
@@ -2848,91 +2848,91 @@
         <v>1.34</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.23</v>
+        <v>1.72</v>
       </c>
       <c r="R18" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="S18" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="V18" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W18" t="n">
         <v>1.39</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -2965,13 +2965,13 @@
         <v>3.45</v>
       </c>
       <c r="G19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
         <v>2.24</v>
       </c>
       <c r="I19" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -2986,28 +2986,28 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P19" t="n">
         <v>1.83</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.37</v>
+        <v>2.12</v>
       </c>
       <c r="R19" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S19" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="U19" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="V19" t="n">
         <v>1.75</v>
@@ -3016,58 +3016,58 @@
         <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -3127,16 +3127,16 @@
         <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="Q20" t="n">
         <v>1.13</v>
       </c>
       <c r="R20" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="S20" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.06</v>
+        <v>1.09</v>
       </c>
       <c r="G21" t="n">
-        <v>2.34</v>
+        <v>1000</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>1.09</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>3.8</v>
+        <v>1.03</v>
       </c>
       <c r="K21" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,22 +3256,22 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>2.44</v>
+        <v>1.65</v>
       </c>
       <c r="O21" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>2.44</v>
+        <v>1.65</v>
       </c>
       <c r="Q21" t="n">
         <v>1.48</v>
       </c>
       <c r="R21" t="n">
-        <v>1.59</v>
+        <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>2.14</v>
+        <v>1.54</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -3280,10 +3280,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W21" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.37</v>
+        <v>1.04</v>
       </c>
       <c r="G22" t="n">
-        <v>1.57</v>
+        <v>980</v>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>1.04</v>
       </c>
       <c r="I22" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>4.3</v>
+        <v>1.02</v>
       </c>
       <c r="K22" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,16 +3391,16 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>2.06</v>
+        <v>1.43</v>
       </c>
       <c r="O22" t="n">
         <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R22" t="n">
         <v>1.43</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="W22" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H23" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I23" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.42</v>
@@ -3526,7 +3526,7 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
@@ -3535,70 +3535,70 @@
         <v>1.81</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="R23" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S23" t="n">
-        <v>3.15</v>
+        <v>1.94</v>
       </c>
       <c r="T23" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="U23" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W23" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X23" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
@@ -3778,13 +3778,13 @@
         <v>1.8</v>
       </c>
       <c r="H25" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
         <v>4.6</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.06</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
         <v>1.01</v>
@@ -3988,7 +3988,7 @@
         <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
         <v>18.5</v>
@@ -3997,10 +3997,10 @@
         <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
         <v>38</v>
@@ -4033,109 +4033,109 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>US Pianese</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="G27" t="n">
-        <v>5.7</v>
+        <v>2.52</v>
       </c>
       <c r="H27" t="n">
-        <v>1.82</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.4</v>
+        <v>3.85</v>
       </c>
       <c r="J27" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>1.52</v>
+        <v>3.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P27" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>2.18</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="V27" t="n">
-        <v>1.71</v>
+        <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.21</v>
+        <v>1.66</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL27" t="n">
         <v>1000</v>
@@ -4144,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4312,112 +4312,112 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="G29" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="H29" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="I29" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>950</v>
+        <v>3.95</v>
       </c>
       <c r="L29" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P29" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.94</v>
       </c>
-      <c r="R29" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.84</v>
-      </c>
       <c r="W29" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -4438,112 +4438,112 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>US Pianese</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="G30" t="n">
-        <v>2.82</v>
+        <v>5.3</v>
       </c>
       <c r="H30" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J30" t="n">
         <v>3</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S30" t="n">
         <v>4.6</v>
       </c>
-      <c r="J30" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.12</v>
-      </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V30" t="n">
-        <v>1.27</v>
+        <v>1.8</v>
       </c>
       <c r="W30" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK30" t="n">
         <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
@@ -4552,7 +4552,7 @@
         <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -4585,7 +4585,7 @@
         <v>3.35</v>
       </c>
       <c r="G31" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H31" t="n">
         <v>2.2</v>
@@ -4606,34 +4606,34 @@
         <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O31" t="n">
         <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S31" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T31" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U31" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="V31" t="n">
         <v>1.78</v>
       </c>
       <c r="W31" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X31" t="n">
         <v>18</v>
@@ -4657,7 +4657,7 @@
         <v>11.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF31" t="n">
         <v>26</v>
@@ -4675,19 +4675,19 @@
         <v>65</v>
       </c>
       <c r="AK31" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL31" t="n">
         <v>44</v>
       </c>
       <c r="AM31" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO31" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G32" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I32" t="n">
         <v>5.2</v>
@@ -4747,31 +4747,31 @@
         <v>1.2</v>
       </c>
       <c r="P32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S32" t="n">
         <v>2.48</v>
       </c>
-      <c r="Q32" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.46</v>
-      </c>
       <c r="T32" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U32" t="n">
         <v>2.42</v>
       </c>
       <c r="V32" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W32" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X32" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y32" t="n">
         <v>25</v>
@@ -4780,7 +4780,7 @@
         <v>44</v>
       </c>
       <c r="AA32" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB32" t="n">
         <v>12</v>
@@ -4792,37 +4792,37 @@
         <v>21</v>
       </c>
       <c r="AE32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF32" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG32" t="n">
         <v>10.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AI32" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ32" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AK32" t="n">
         <v>16.5</v>
       </c>
       <c r="AL32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM32" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN32" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO32" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -4855,10 +4855,10 @@
         <v>2.58</v>
       </c>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
-        <v>1.66</v>
+        <v>2.3</v>
       </c>
       <c r="I33" t="n">
         <v>2.78</v>
@@ -4885,13 +4885,13 @@
         <v>1.99</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="R33" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="S33" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
@@ -4990,7 +4990,7 @@
         <v>2.32</v>
       </c>
       <c r="G34" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H34" t="n">
         <v>3.45</v>
@@ -5002,7 +5002,7 @@
         <v>2.86</v>
       </c>
       <c r="K34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L34" t="n">
         <v>1.53</v>
@@ -5017,7 +5017,7 @@
         <v>1.61</v>
       </c>
       <c r="P34" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q34" t="n">
         <v>2.82</v>
@@ -5122,61 +5122,61 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="G35" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H35" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="I35" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>1.63</v>
+        <v>3.15</v>
       </c>
       <c r="O35" t="n">
         <v>1.39</v>
       </c>
       <c r="P35" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R35" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S35" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T35" t="n">
         <v>2</v>
       </c>
-      <c r="T35" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V35" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W35" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y35" t="n">
         <v>1000</v>
@@ -5188,10 +5188,10 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD35" t="n">
         <v>1000</v>
@@ -5200,10 +5200,10 @@
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
         <v>1000</v>
@@ -5224,7 +5224,7 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5260,19 +5260,19 @@
         <v>2.58</v>
       </c>
       <c r="G36" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H36" t="n">
         <v>2.44</v>
       </c>
       <c r="I36" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J36" t="n">
         <v>3.65</v>
       </c>
       <c r="K36" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,34 +5281,34 @@
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q36" t="n">
         <v>1.65</v>
       </c>
       <c r="R36" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S36" t="n">
         <v>2.62</v>
       </c>
       <c r="T36" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="U36" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="V36" t="n">
         <v>1.56</v>
       </c>
       <c r="W36" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X36" t="n">
         <v>22</v>
@@ -5392,25 +5392,25 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G37" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H37" t="n">
         <v>2.02</v>
       </c>
       <c r="I37" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K37" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M37" t="n">
         <v>1.07</v>
@@ -5434,37 +5434,37 @@
         <v>3.15</v>
       </c>
       <c r="T37" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U37" t="n">
         <v>2.02</v>
       </c>
       <c r="V37" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W37" t="n">
         <v>1.3</v>
       </c>
       <c r="X37" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Y37" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Z37" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AA37" t="n">
         <v>32</v>
       </c>
       <c r="AB37" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AC37" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD37" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE37" t="n">
         <v>29</v>
@@ -5473,7 +5473,7 @@
         <v>34</v>
       </c>
       <c r="AG37" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AH37" t="n">
         <v>23</v>
@@ -5482,7 +5482,7 @@
         <v>48</v>
       </c>
       <c r="AJ37" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="n">
         <v>60</v>
@@ -5536,34 +5536,34 @@
         <v>4.7</v>
       </c>
       <c r="I38" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="J38" t="n">
         <v>4.1</v>
       </c>
       <c r="K38" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="O38" t="n">
         <v>1.2</v>
       </c>
       <c r="P38" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R38" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S38" t="n">
         <v>2.24</v>
@@ -5605,10 +5605,10 @@
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH38" t="n">
         <v>1000</v>
@@ -5623,7 +5623,7 @@
         <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="F39" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G39" t="n">
         <v>2.46</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2.48</v>
       </c>
       <c r="H39" t="n">
         <v>3.5</v>
@@ -5680,7 +5680,7 @@
         <v>3.25</v>
       </c>
       <c r="L39" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M39" t="n">
         <v>1.1</v>
@@ -5695,7 +5695,7 @@
         <v>1.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R39" t="n">
         <v>1.28</v>
@@ -5713,7 +5713,7 @@
         <v>1.39</v>
       </c>
       <c r="W39" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X39" t="n">
         <v>10.5</v>
@@ -5749,7 +5749,7 @@
         <v>19.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ39" t="n">
         <v>34</v>
@@ -5797,13 +5797,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G40" t="n">
         <v>2.54</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I40" t="n">
         <v>3.75</v>
@@ -5821,7 +5821,7 @@
         <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O40" t="n">
         <v>1.44</v>
@@ -5851,7 +5851,7 @@
         <v>1.64</v>
       </c>
       <c r="X40" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Y40" t="n">
         <v>11.5</v>
@@ -5869,22 +5869,22 @@
         <v>7.2</v>
       </c>
       <c r="AD40" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AE40" t="n">
         <v>50</v>
       </c>
       <c r="AF40" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AG40" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH40" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI40" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ40" t="n">
         <v>36</v>
@@ -5902,7 +5902,7 @@
         <v>36</v>
       </c>
       <c r="AO40" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G41" t="n">
         <v>4.3</v>
       </c>
       <c r="H41" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I41" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J41" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K41" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,22 +5956,22 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O41" t="n">
         <v>1.01</v>
       </c>
       <c r="P41" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q41" t="n">
         <v>1.94</v>
       </c>
       <c r="R41" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S41" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T41" t="n">
         <v>1.01</v>
@@ -5980,10 +5980,10 @@
         <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W41" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6073,10 +6073,10 @@
         <v>5.4</v>
       </c>
       <c r="H42" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="I42" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J42" t="n">
         <v>3</v>
@@ -6091,22 +6091,22 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="O42" t="n">
         <v>1.01</v>
       </c>
       <c r="P42" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="R42" t="n">
         <v>1.09</v>
       </c>
       <c r="S42" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="T42" t="n">
         <v>1.01</v>
@@ -6115,7 +6115,7 @@
         <v>1.01</v>
       </c>
       <c r="V42" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W42" t="n">
         <v>1.23</v>
@@ -6232,7 +6232,7 @@
         <v>1.41</v>
       </c>
       <c r="P43" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q43" t="n">
         <v>2.24</v>
@@ -6247,25 +6247,25 @@
         <v>1.99</v>
       </c>
       <c r="U43" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V43" t="n">
         <v>1.3</v>
       </c>
       <c r="W43" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X43" t="n">
         <v>11.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z43" t="n">
         <v>30</v>
       </c>
       <c r="AA43" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB43" t="n">
         <v>8</v>
@@ -6301,7 +6301,7 @@
         <v>44</v>
       </c>
       <c r="AM43" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN43" t="n">
         <v>18.5</v>
@@ -6340,7 +6340,7 @@
         <v>2.02</v>
       </c>
       <c r="G44" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H44" t="n">
         <v>3.8</v>
@@ -6352,13 +6352,13 @@
         <v>3.45</v>
       </c>
       <c r="K44" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
         <v>3.35</v>
@@ -6379,70 +6379,70 @@
         <v>3.55</v>
       </c>
       <c r="T44" t="n">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="U44" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W44" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y44" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AA44" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB44" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AC44" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG44" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH44" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AJ44" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AK44" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AL44" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G45" t="n">
         <v>1.39</v>
@@ -6481,10 +6481,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J45" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K45" t="n">
         <v>6.2</v>
@@ -6496,28 +6496,28 @@
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O45" t="n">
         <v>1.16</v>
       </c>
       <c r="P45" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="R45" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S45" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="T45" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U45" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V45" t="n">
         <v>1.12</v>
@@ -6535,7 +6535,7 @@
         <v>90</v>
       </c>
       <c r="AA45" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AB45" t="n">
         <v>13</v>
@@ -6559,7 +6559,7 @@
         <v>24</v>
       </c>
       <c r="AI45" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="n">
         <v>12</v>
@@ -6607,103 +6607,103 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G46" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="H46" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="I46" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J46" t="n">
         <v>3.35</v>
       </c>
       <c r="K46" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L46" t="n">
         <v>1.44</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="O46" t="n">
         <v>1.37</v>
       </c>
       <c r="P46" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="Q46" t="n">
         <v>2.1</v>
       </c>
       <c r="R46" t="n">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="S46" t="n">
-        <v>3.45</v>
+        <v>2.1</v>
       </c>
       <c r="T46" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="U46" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="W46" t="n">
         <v>1.37</v>
       </c>
       <c r="X46" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y46" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC46" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD46" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG46" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH46" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
         <v>1000</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="G47" t="n">
         <v>3.1</v>
@@ -6751,10 +6751,10 @@
         <v>2.82</v>
       </c>
       <c r="I47" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J47" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="K47" t="n">
         <v>3.15</v>
@@ -6886,7 +6886,7 @@
         <v>1.86</v>
       </c>
       <c r="I48" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J48" t="n">
         <v>5</v>
@@ -6904,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="O48" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -6934,7 +6934,7 @@
         <v>50</v>
       </c>
       <c r="Y48" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z48" t="n">
         <v>21</v>
@@ -6943,7 +6943,7 @@
         <v>27</v>
       </c>
       <c r="AB48" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AC48" t="n">
         <v>14</v>
@@ -6955,7 +6955,7 @@
         <v>16</v>
       </c>
       <c r="AF48" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AG48" t="n">
         <v>18</v>
@@ -6967,16 +6967,16 @@
         <v>19</v>
       </c>
       <c r="AJ48" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK48" t="n">
         <v>34</v>
       </c>
       <c r="AL48" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM48" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
         <v>14.5</v>
@@ -7012,112 +7012,112 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="J49" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K49" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="O49" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P49" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="R49" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="S49" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="U49" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="V49" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="W49" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G50" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H50" t="n">
         <v>2.78</v>
       </c>
       <c r="I50" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J50" t="n">
         <v>2.98</v>
@@ -7165,94 +7165,94 @@
         <v>3.3</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M50" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="O50" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P50" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R50" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="T50" t="n">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="U50" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="V50" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W50" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="X50" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Y50" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Z50" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AA50" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AB50" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AC50" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AD50" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AE50" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AF50" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AG50" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AH50" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AI50" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AJ50" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AK50" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AL50" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
@@ -7285,10 +7285,10 @@
         <v>3.4</v>
       </c>
       <c r="G51" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H51" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I51" t="n">
         <v>2.46</v>
@@ -7315,7 +7315,7 @@
         <v>1.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R51" t="n">
         <v>1.26</v>
@@ -7327,7 +7327,7 @@
         <v>1.91</v>
       </c>
       <c r="U51" t="n">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="V51" t="n">
         <v>1.68</v>
@@ -7384,7 +7384,7 @@
         <v>160</v>
       </c>
       <c r="AN51" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO51" t="n">
         <v>27</v>
@@ -7417,112 +7417,112 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="G52" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="H52" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I52" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="J52" t="n">
         <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>1.66</v>
+        <v>3.1</v>
       </c>
       <c r="O52" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P52" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="R52" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S52" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="T52" t="n">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V52" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="W52" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y52" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z52" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF52" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH52" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53">
@@ -7552,19 +7552,19 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="G53" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="H53" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="I53" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="J53" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K53" t="n">
         <v>3.95</v>
@@ -7576,22 +7576,22 @@
         <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>1.97</v>
+        <v>1.4</v>
       </c>
       <c r="O53" t="n">
         <v>1.24</v>
       </c>
       <c r="P53" t="n">
-        <v>1.97</v>
+        <v>1.39</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.69</v>
+        <v>1.24</v>
       </c>
       <c r="R53" t="n">
         <v>1.38</v>
       </c>
       <c r="S53" t="n">
-        <v>2.52</v>
+        <v>1.25</v>
       </c>
       <c r="T53" t="n">
         <v>1.01</v>
@@ -7600,10 +7600,10 @@
         <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="W53" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7687,19 +7687,19 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.44</v>
+        <v>1.09</v>
       </c>
       <c r="G54" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="H54" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="J54" t="n">
-        <v>3.65</v>
+        <v>1.64</v>
       </c>
       <c r="K54" t="n">
         <v>3.95</v>
@@ -7711,31 +7711,31 @@
         <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>2.14</v>
+        <v>1.54</v>
       </c>
       <c r="O54" t="n">
         <v>1.19</v>
       </c>
       <c r="P54" t="n">
-        <v>2.14</v>
+        <v>1.54</v>
       </c>
       <c r="Q54" t="n">
         <v>1.57</v>
       </c>
       <c r="R54" t="n">
-        <v>1.48</v>
+        <v>1.21</v>
       </c>
       <c r="S54" t="n">
-        <v>2.26</v>
+        <v>1.57</v>
       </c>
       <c r="T54" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="U54" t="n">
         <v>2.56</v>
       </c>
       <c r="V54" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="W54" t="n">
         <v>1.6</v>
@@ -7744,52 +7744,52 @@
         <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA54" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC54" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AD54" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE54" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG54" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH54" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AI54" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL54" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM54" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO54" t="n">
         <v>1000</v>
@@ -7840,7 +7840,7 @@
         <v>4.5</v>
       </c>
       <c r="L55" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M55" t="n">
         <v>1.04</v>
@@ -7855,7 +7855,7 @@
         <v>2.4</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R55" t="n">
         <v>1.56</v>
@@ -7897,16 +7897,16 @@
         <v>11</v>
       </c>
       <c r="AE55" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AF55" t="n">
         <v>36</v>
       </c>
       <c r="AG55" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AH55" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AI55" t="n">
         <v>28</v>
@@ -7990,19 +7990,19 @@
         <v>2.44</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R56" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="S56" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="T56" t="n">
         <v>1.55</v>
       </c>
       <c r="U56" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V56" t="n">
         <v>1.64</v>
@@ -8095,19 +8095,19 @@
         <v>2.04</v>
       </c>
       <c r="G57" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="H57" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I57" t="n">
         <v>4.2</v>
       </c>
       <c r="J57" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K57" t="n">
-        <v>6.4</v>
+        <v>980</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8116,23 +8116,23 @@
         <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>2.16</v>
+        <v>1.94</v>
       </c>
       <c r="O57" t="n">
         <v>1.25</v>
       </c>
       <c r="P57" t="n">
-        <v>1.94</v>
+        <v>1.36</v>
       </c>
       <c r="Q57" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S57" t="n">
         <v>1.67</v>
       </c>
-      <c r="R57" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S57" t="n">
-        <v>2.6</v>
-      </c>
       <c r="T57" t="n">
         <v>1.01</v>
       </c>
@@ -8140,10 +8140,10 @@
         <v>1.01</v>
       </c>
       <c r="V57" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="W57" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -8233,16 +8233,16 @@
         <v>2.32</v>
       </c>
       <c r="H58" t="n">
-        <v>3.3</v>
+        <v>1.76</v>
       </c>
       <c r="I58" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="J58" t="n">
         <v>3.3</v>
       </c>
       <c r="K58" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
@@ -8260,19 +8260,19 @@
         <v>1.65</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R58" t="n">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="S58" t="n">
-        <v>2.24</v>
+        <v>4.3</v>
       </c>
       <c r="T58" t="n">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="U58" t="n">
-        <v>1.6</v>
+        <v>1.86</v>
       </c>
       <c r="V58" t="n">
         <v>1.37</v>
@@ -8281,58 +8281,58 @@
         <v>1.75</v>
       </c>
       <c r="X58" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD58" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z58" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB58" t="n">
+      <c r="AE58" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG58" t="n">
         <v>12</v>
       </c>
-      <c r="AC58" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE58" t="n">
+      <c r="AH58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI58" t="n">
         <v>70</v>
       </c>
-      <c r="AF58" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH58" t="n">
+      <c r="AJ58" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN58" t="n">
         <v>30</v>
       </c>
-      <c r="AI58" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO58" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
@@ -8362,10 +8362,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G59" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H59" t="n">
         <v>3.15</v>
@@ -8380,94 +8380,94 @@
         <v>4</v>
       </c>
       <c r="L59" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M59" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N59" t="n">
-        <v>1.82</v>
+        <v>3.8</v>
       </c>
       <c r="O59" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P59" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="Q59" t="n">
         <v>1.83</v>
       </c>
       <c r="R59" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="S59" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="T59" t="n">
-        <v>1.48</v>
+        <v>1.68</v>
       </c>
       <c r="U59" t="n">
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="V59" t="n">
         <v>1.38</v>
       </c>
       <c r="W59" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="X59" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z59" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO59" t="n">
         <v>36</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="60">
@@ -8506,7 +8506,7 @@
         <v>3.25</v>
       </c>
       <c r="I60" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J60" t="n">
         <v>3.7</v>
@@ -8521,7 +8521,7 @@
         <v>1.04</v>
       </c>
       <c r="N60" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="O60" t="n">
         <v>1.21</v>
@@ -8530,79 +8530,79 @@
         <v>2.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="R60" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="S60" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="T60" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="U60" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="V60" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W60" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X60" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y60" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="Z60" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AA60" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AB60" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AC60" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AD60" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AE60" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AF60" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG60" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AH60" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI60" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ60" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AK60" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AL60" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AM60" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AN60" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO60" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -8650,7 +8650,7 @@
         <v>3.35</v>
       </c>
       <c r="L61" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M61" t="n">
         <v>1.08</v>
@@ -8797,10 +8797,10 @@
         <v>1.22</v>
       </c>
       <c r="P62" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R62" t="n">
         <v>1.58</v>
@@ -8842,7 +8842,7 @@
         <v>14.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF62" t="n">
         <v>15.5</v>
@@ -8938,16 +8938,16 @@
         <v>1.27</v>
       </c>
       <c r="R63" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="S63" t="n">
         <v>1.68</v>
       </c>
       <c r="T63" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U63" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V63" t="n">
         <v>7</v>
@@ -8956,7 +8956,7 @@
         <v>1.05</v>
       </c>
       <c r="X63" t="n">
-        <v>990</v>
+        <v>100</v>
       </c>
       <c r="Y63" t="n">
         <v>18.5</v>
@@ -8971,19 +8971,19 @@
         <v>1000</v>
       </c>
       <c r="AC63" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD63" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF63" t="n">
         <v>250</v>
       </c>
       <c r="AG63" t="n">
-        <v>990</v>
+        <v>70</v>
       </c>
       <c r="AH63" t="n">
         <v>40</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G64" t="n">
         <v>2.26</v>
@@ -9058,31 +9058,31 @@
         <v>1.3</v>
       </c>
       <c r="M64" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N64" t="n">
-        <v>2.64</v>
+        <v>3.65</v>
       </c>
       <c r="O64" t="n">
         <v>1.3</v>
       </c>
       <c r="P64" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="R64" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="S64" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="T64" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U64" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V64" t="n">
         <v>1.31</v>
@@ -9091,10 +9091,10 @@
         <v>1.8</v>
       </c>
       <c r="X64" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z64" t="n">
         <v>1000</v>
@@ -9103,34 +9103,34 @@
         <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD64" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE64" t="n">
         <v>1000</v>
       </c>
       <c r="AF64" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI64" t="n">
         <v>1000</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK64" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL64" t="n">
         <v>1000</v>
@@ -9139,7 +9139,7 @@
         <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO64" t="n">
         <v>1000</v>
@@ -9163,55 +9163,55 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.9</v>
+        <v>2.56</v>
       </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="H65" t="n">
-        <v>3.4</v>
+        <v>2.58</v>
       </c>
       <c r="I65" t="n">
-        <v>5.7</v>
+        <v>3.65</v>
       </c>
       <c r="J65" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="K65" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="L65" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="M65" t="n">
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="O65" t="n">
         <v>1.01</v>
       </c>
       <c r="P65" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="R65" t="n">
         <v>1.18</v>
       </c>
       <c r="S65" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="T65" t="n">
         <v>1.01</v>
@@ -9220,10 +9220,10 @@
         <v>1.01</v>
       </c>
       <c r="V65" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="W65" t="n">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
@@ -9298,55 +9298,55 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.56</v>
+        <v>2.06</v>
       </c>
       <c r="G66" t="n">
-        <v>3.65</v>
+        <v>2.8</v>
       </c>
       <c r="H66" t="n">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
       <c r="I66" t="n">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="J66" t="n">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="K66" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="L66" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="O66" t="n">
         <v>1.01</v>
       </c>
       <c r="P66" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.58</v>
+        <v>2.12</v>
       </c>
       <c r="R66" t="n">
         <v>1.18</v>
       </c>
       <c r="S66" t="n">
-        <v>2.6</v>
+        <v>2.14</v>
       </c>
       <c r="T66" t="n">
         <v>1.01</v>
@@ -9355,10 +9355,10 @@
         <v>1.01</v>
       </c>
       <c r="V66" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="W66" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="X66" t="n">
         <v>1000</v>
@@ -9433,55 +9433,55 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G67" t="n">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="I67" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J67" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="L67" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="O67" t="n">
         <v>1.01</v>
       </c>
       <c r="P67" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="R67" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S67" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="T67" t="n">
         <v>1.01</v>
@@ -9490,10 +9490,10 @@
         <v>1.01</v>
       </c>
       <c r="V67" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W67" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="X67" t="n">
         <v>1000</v>
@@ -9568,55 +9568,55 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Forli</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="G68" t="n">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="H68" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I68" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="J68" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="K68" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="L68" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="M68" t="n">
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="O68" t="n">
         <v>1.01</v>
       </c>
       <c r="P68" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="R68" t="n">
         <v>1.18</v>
       </c>
       <c r="S68" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="T68" t="n">
         <v>1.01</v>
@@ -9625,10 +9625,10 @@
         <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="W68" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="X68" t="n">
         <v>1000</v>
@@ -9703,121 +9703,121 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="H69" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="K69" t="n">
-        <v>5.3</v>
+        <v>3.65</v>
       </c>
       <c r="L69" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="M69" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N69" t="n">
-        <v>1.61</v>
+        <v>2.82</v>
       </c>
       <c r="O69" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P69" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="R69" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="S69" t="n">
-        <v>2.02</v>
+        <v>3.85</v>
       </c>
       <c r="T69" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U69" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="V69" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="W69" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X69" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z69" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA69" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB69" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC69" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD69" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE69" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF69" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG69" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH69" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI69" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK69" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL69" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM69" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN69" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO69" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70">
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="G70" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="H70" t="n">
         <v>12.5</v>
       </c>
       <c r="I70" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J70" t="n">
         <v>8</v>
       </c>
       <c r="K70" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="L70" t="n">
         <v>1.21</v>
@@ -9871,88 +9871,88 @@
         <v>1.02</v>
       </c>
       <c r="N70" t="n">
-        <v>3.05</v>
+        <v>1.07</v>
       </c>
       <c r="O70" t="n">
         <v>1.1</v>
       </c>
       <c r="P70" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.31</v>
+        <v>1.1</v>
       </c>
       <c r="R70" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="S70" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="T70" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="U70" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="V70" t="n">
         <v>1.07</v>
       </c>
       <c r="W70" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="X70" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Y70" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z70" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AA70" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AB70" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC70" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AD70" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AE70" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AF70" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG70" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH70" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AI70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM70" t="n">
         <v>150</v>
       </c>
-      <c r="AJ70" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>160</v>
-      </c>
       <c r="AN70" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="AO70" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="71">
@@ -9985,16 +9985,16 @@
         <v>2.36</v>
       </c>
       <c r="G71" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H71" t="n">
         <v>3.6</v>
       </c>
       <c r="I71" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="J71" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K71" t="n">
         <v>3.35</v>
@@ -10006,88 +10006,88 @@
         <v>1.09</v>
       </c>
       <c r="N71" t="n">
-        <v>3.1</v>
+        <v>1.03</v>
       </c>
       <c r="O71" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P71" t="n">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.2</v>
+        <v>1.39</v>
       </c>
       <c r="R71" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S71" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="T71" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="U71" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V71" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W71" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="X71" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y71" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z71" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA71" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB71" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC71" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD71" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE71" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF71" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG71" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH71" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI71" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ71" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK71" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL71" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM71" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN71" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO71" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="72">
@@ -10117,112 +10117,112 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="G72" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="H72" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I72" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J72" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K72" t="n">
-        <v>9.4</v>
+        <v>4.3</v>
       </c>
       <c r="L72" t="n">
         <v>1.35</v>
       </c>
       <c r="M72" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N72" t="n">
-        <v>1.63</v>
+        <v>3.05</v>
       </c>
       <c r="O72" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P72" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R72" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S72" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T72" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U72" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V72" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W72" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="X72" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y72" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z72" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA72" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB72" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC72" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD72" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE72" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF72" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG72" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH72" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI72" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK72" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL72" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM72" t="n">
         <v>1000</v>
       </c>
       <c r="AN72" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO72" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73">
@@ -10252,13 +10252,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="G73" t="n">
-        <v>11.5</v>
+        <v>6.6</v>
       </c>
       <c r="H73" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="I73" t="n">
         <v>2.04</v>
@@ -10267,7 +10267,7 @@
         <v>3.3</v>
       </c>
       <c r="K73" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="L73" t="n">
         <v>1.33</v>
@@ -10282,13 +10282,13 @@
         <v>1.01</v>
       </c>
       <c r="P73" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="R73" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S73" t="n">
         <v>3</v>
@@ -10300,10 +10300,10 @@
         <v>1.01</v>
       </c>
       <c r="V73" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="W73" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="X73" t="n">
         <v>1000</v>
@@ -10396,7 +10396,7 @@
         <v>3.55</v>
       </c>
       <c r="I74" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J74" t="n">
         <v>3.35</v>
@@ -10405,7 +10405,7 @@
         <v>3.4</v>
       </c>
       <c r="L74" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M74" t="n">
         <v>1.09</v>
@@ -10522,13 +10522,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G75" t="n">
         <v>2.22</v>
       </c>
       <c r="H75" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I75" t="n">
         <v>4.6</v>
@@ -10543,13 +10543,13 @@
         <v>1.43</v>
       </c>
       <c r="M75" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N75" t="n">
-        <v>1.73</v>
+        <v>3.15</v>
       </c>
       <c r="O75" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P75" t="n">
         <v>1.73</v>
@@ -10558,76 +10558,76 @@
         <v>2.12</v>
       </c>
       <c r="R75" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S75" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="T75" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="U75" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="V75" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W75" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="X75" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y75" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Z75" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AA75" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB75" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC75" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD75" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AE75" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AF75" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG75" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI75" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AJ75" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AK75" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AL75" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AM75" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN75" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO75" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76">
@@ -10699,13 +10699,13 @@
         <v>4.9</v>
       </c>
       <c r="T76" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U76" t="n">
         <v>1.9</v>
       </c>
       <c r="V76" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W76" t="n">
         <v>1.67</v>
@@ -10714,7 +10714,7 @@
         <v>9.4</v>
       </c>
       <c r="Y76" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z76" t="n">
         <v>22</v>
@@ -10723,7 +10723,7 @@
         <v>70</v>
       </c>
       <c r="AB76" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC76" t="n">
         <v>7</v>
@@ -10741,7 +10741,7 @@
         <v>12</v>
       </c>
       <c r="AH76" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI76" t="n">
         <v>70</v>
@@ -10792,112 +10792,112 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="G77" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="H77" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="I77" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="J77" t="n">
-        <v>2.86</v>
+        <v>2.6</v>
       </c>
       <c r="K77" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L77" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="M77" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="N77" t="n">
-        <v>2.32</v>
+        <v>1.45</v>
       </c>
       <c r="O77" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="P77" t="n">
         <v>1.43</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.96</v>
+        <v>1.02</v>
       </c>
       <c r="R77" t="n">
         <v>1.16</v>
       </c>
       <c r="S77" t="n">
-        <v>6.4</v>
+        <v>1.63</v>
       </c>
       <c r="T77" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="U77" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V77" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W77" t="n">
         <v>1.66</v>
       </c>
-      <c r="V77" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W77" t="n">
-        <v>1.67</v>
-      </c>
       <c r="X77" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y77" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z77" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA77" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB77" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC77" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD77" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE77" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF77" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG77" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH77" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI77" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ77" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK77" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL77" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM77" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AN77" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO77" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="78">
@@ -10930,16 +10930,16 @@
         <v>2.06</v>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="H78" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="I78" t="n">
-        <v>4.6</v>
+        <v>980</v>
       </c>
       <c r="J78" t="n">
-        <v>3.25</v>
+        <v>1.67</v>
       </c>
       <c r="K78" t="n">
         <v>3.4</v>
@@ -10948,91 +10948,91 @@
         <v>1.44</v>
       </c>
       <c r="M78" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N78" t="n">
-        <v>3.25</v>
+        <v>1.25</v>
       </c>
       <c r="O78" t="n">
         <v>1.38</v>
       </c>
       <c r="P78" t="n">
-        <v>1.77</v>
+        <v>1.25</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.12</v>
+        <v>1.38</v>
       </c>
       <c r="R78" t="n">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="S78" t="n">
-        <v>3.9</v>
+        <v>1.36</v>
       </c>
       <c r="T78" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="U78" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="V78" t="n">
         <v>1.28</v>
       </c>
       <c r="W78" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="X78" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y78" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z78" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA78" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB78" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC78" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD78" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE78" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF78" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG78" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH78" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI78" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ78" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK78" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL78" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM78" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN78" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AO78" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="79">
@@ -11356,16 +11356,16 @@
         <v>1.07</v>
       </c>
       <c r="N81" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="O81" t="n">
         <v>1.07</v>
       </c>
       <c r="P81" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="Q81" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R81" t="n">
         <v>1.25</v>
@@ -11386,7 +11386,7 @@
         <v>1.81</v>
       </c>
       <c r="X81" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y81" t="n">
         <v>20</v>
@@ -11503,7 +11503,7 @@
         <v>1.43</v>
       </c>
       <c r="R82" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="S82" t="n">
         <v>2.04</v>
@@ -11605,7 +11605,7 @@
         <v>2.64</v>
       </c>
       <c r="G83" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H83" t="n">
         <v>2.36</v>
@@ -11653,7 +11653,7 @@
         <v>1.46</v>
       </c>
       <c r="W83" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11761,22 +11761,22 @@
         <v>1.02</v>
       </c>
       <c r="N84" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O84" t="n">
         <v>1.17</v>
       </c>
       <c r="P84" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R84" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S84" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="T84" t="n">
         <v>2.58</v>
@@ -11803,7 +11803,7 @@
         <v>1000</v>
       </c>
       <c r="AB84" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AC84" t="n">
         <v>22</v>
@@ -11815,10 +11815,10 @@
         <v>1000</v>
       </c>
       <c r="AF84" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="AG84" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH84" t="n">
         <v>70</v>
@@ -11827,10 +11827,10 @@
         <v>1000</v>
       </c>
       <c r="AJ84" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="AK84" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AL84" t="n">
         <v>65</v>
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="G86" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="H86" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="I86" t="n">
         <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K86" t="n">
-        <v>6.2</v>
+        <v>3.65</v>
       </c>
       <c r="L86" t="n">
         <v>1.37</v>
@@ -12031,16 +12031,16 @@
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="O86" t="n">
         <v>1.39</v>
       </c>
       <c r="P86" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.39</v>
+        <v>2.1</v>
       </c>
       <c r="R86" t="n">
         <v>1.18</v>
@@ -12058,7 +12058,7 @@
         <v>1.33</v>
       </c>
       <c r="W86" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="X86" t="n">
         <v>1000</v>
@@ -12181,7 +12181,7 @@
         <v>1.31</v>
       </c>
       <c r="S87" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T87" t="n">
         <v>1.92</v>
@@ -12196,7 +12196,7 @@
         <v>1.3</v>
       </c>
       <c r="X87" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y87" t="n">
         <v>8.6</v>
@@ -12277,10 +12277,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G88" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H88" t="n">
         <v>6</v>
@@ -12292,10 +12292,10 @@
         <v>3.6</v>
       </c>
       <c r="K88" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L88" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="M88" t="n">
         <v>1.11</v>
@@ -12310,7 +12310,7 @@
         <v>1.61</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="R88" t="n">
         <v>1.22</v>
@@ -12319,10 +12319,10 @@
         <v>5.2</v>
       </c>
       <c r="T88" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="U88" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V88" t="n">
         <v>1.18</v>
@@ -12361,7 +12361,7 @@
         <v>11</v>
       </c>
       <c r="AH88" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI88" t="n">
         <v>150</v>
@@ -12379,7 +12379,7 @@
         <v>240</v>
       </c>
       <c r="AN88" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO88" t="n">
         <v>240</v>
@@ -12412,19 +12412,19 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G89" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H89" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="I89" t="n">
         <v>2.38</v>
       </c>
       <c r="J89" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K89" t="n">
         <v>3.6</v>
@@ -12433,43 +12433,43 @@
         <v>1.42</v>
       </c>
       <c r="M89" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N89" t="n">
-        <v>3.55</v>
+        <v>1.25</v>
       </c>
       <c r="O89" t="n">
         <v>1.34</v>
       </c>
       <c r="P89" t="n">
-        <v>1.87</v>
+        <v>1.25</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.98</v>
+        <v>1.34</v>
       </c>
       <c r="R89" t="n">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="S89" t="n">
-        <v>3.55</v>
+        <v>1.34</v>
       </c>
       <c r="T89" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="U89" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="V89" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W89" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X89" t="n">
         <v>13.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z89" t="n">
         <v>14.5</v>
@@ -12478,22 +12478,22 @@
         <v>32</v>
       </c>
       <c r="AB89" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC89" t="n">
         <v>7.8</v>
       </c>
       <c r="AD89" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AE89" t="n">
         <v>26</v>
       </c>
       <c r="AF89" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG89" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH89" t="n">
         <v>22</v>
@@ -12502,22 +12502,22 @@
         <v>48</v>
       </c>
       <c r="AJ89" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK89" t="n">
         <v>44</v>
       </c>
       <c r="AL89" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM89" t="n">
         <v>120</v>
       </c>
       <c r="AN89" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AO89" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
@@ -12556,7 +12556,7 @@
         <v>5.3</v>
       </c>
       <c r="I90" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J90" t="n">
         <v>3.4</v>
@@ -12580,7 +12580,7 @@
         <v>1.61</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R90" t="n">
         <v>1.22</v>
@@ -12706,13 +12706,13 @@
         <v>1.01</v>
       </c>
       <c r="N91" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="O91" t="n">
         <v>1.01</v>
       </c>
       <c r="P91" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="Q91" t="n">
         <v>1.32</v>
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="G92" t="n">
         <v>2.06</v>
@@ -12832,7 +12832,7 @@
         <v>3.75</v>
       </c>
       <c r="K92" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
@@ -12868,7 +12868,7 @@
         <v>1.31</v>
       </c>
       <c r="W92" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X92" t="n">
         <v>19.5</v>
@@ -12952,13 +12952,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G93" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="H93" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I93" t="n">
         <v>7</v>
@@ -12976,7 +12976,7 @@
         <v>1.05</v>
       </c>
       <c r="N93" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O93" t="n">
         <v>1.25</v>
@@ -12985,10 +12985,10 @@
         <v>2.1</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R93" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S93" t="n">
         <v>2.8</v>
@@ -13003,7 +13003,7 @@
         <v>1.16</v>
       </c>
       <c r="W93" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="X93" t="n">
         <v>23</v>
@@ -13054,7 +13054,7 @@
         <v>130</v>
       </c>
       <c r="AN93" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AO93" t="n">
         <v>110</v>
@@ -13108,31 +13108,31 @@
         <v>1.01</v>
       </c>
       <c r="M94" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N94" t="n">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="O94" t="n">
         <v>1.34</v>
       </c>
       <c r="P94" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="R94" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S94" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T94" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U94" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="V94" t="n">
         <v>1.23</v>
@@ -13141,58 +13141,58 @@
         <v>2.1</v>
       </c>
       <c r="X94" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y94" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA94" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB94" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC94" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD94" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE94" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF94" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG94" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH94" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI94" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ94" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK94" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL94" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM94" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN94" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO94" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -670,16 +670,16 @@
         <v>6.4</v>
       </c>
       <c r="G2" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
         <v>5.2</v>
@@ -808,7 +808,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="I3" t="n">
         <v>1.35</v>
@@ -817,7 +817,7 @@
         <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.28</v>
@@ -841,7 +841,7 @@
         <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T3" t="n">
         <v>2.36</v>
@@ -865,7 +865,7 @@
         <v>8.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G4" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -961,22 +961,22 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="O4" t="n">
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
         <v>1.78</v>
@@ -985,10 +985,10 @@
         <v>1.76</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1081,10 +1081,10 @@
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
         <v>4.6</v>
@@ -1105,10 +1105,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S5" t="n">
         <v>2.32</v>
@@ -1117,7 +1117,7 @@
         <v>1.53</v>
       </c>
       <c r="U5" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V5" t="n">
         <v>1.38</v>
@@ -1171,7 +1171,7 @@
         <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
         <v>13</v>
@@ -1210,13 +1210,13 @@
         <v>4.8</v>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="I6" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="J6" t="n">
         <v>4.4</v>
@@ -1234,46 +1234,46 @@
         <v>6.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q6" t="n">
         <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S6" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U6" t="n">
         <v>2.52</v>
       </c>
       <c r="V6" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="W6" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X6" t="n">
         <v>27</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1285,34 +1285,34 @@
         <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
         <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
         <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="7">
@@ -1378,7 +1378,7 @@
         <v>2.52</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1399,13 +1399,13 @@
         <v>9.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
         <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="n">
         <v>7.6</v>
@@ -1426,7 +1426,7 @@
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
         <v>85</v>
@@ -1441,13 +1441,13 @@
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
         <v>27</v>
       </c>
       <c r="AO7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -1483,16 +1483,16 @@
         <v>4.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="J8" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,64 +1612,64 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="G9" t="n">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>19</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.55</v>
       </c>
-      <c r="K9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.89</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,43 +1678,43 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="G10" t="n">
         <v>1.78</v>
@@ -1762,37 +1762,37 @@
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.39</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>1.88</v>
+        <v>3.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>1.83</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="V10" t="n">
         <v>1.23</v>
@@ -1801,58 +1801,58 @@
         <v>2.28</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ10" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.56</v>
+        <v>2.34</v>
       </c>
       <c r="G12" t="n">
         <v>3.05</v>
       </c>
       <c r="H12" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
         <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>1.09</v>
+        <v>3.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>1.09</v>
+        <v>1.96</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.27</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S12" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.51</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.48</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
@@ -2164,7 +2164,7 @@
         <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>3.9</v>
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I14" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>2.12</v>
+        <v>4.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="R14" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>1.01</v>
+        <v>2.82</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="V14" t="n">
         <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2368,7 +2368,7 @@
         <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G15" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H15" t="n">
         <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="J15" t="n">
         <v>2.98</v>
@@ -2443,7 +2443,7 @@
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
         <v>2.56</v>
@@ -2452,10 +2452,10 @@
         <v>1.54</v>
       </c>
       <c r="P15" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="R15" t="n">
         <v>1.19</v>
@@ -2464,16 +2464,16 @@
         <v>5.3</v>
       </c>
       <c r="T15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U15" t="n">
         <v>1.76</v>
       </c>
       <c r="V15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W15" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X15" t="n">
         <v>8.800000000000001</v>
@@ -2482,25 +2482,25 @@
         <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>60</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AG15" t="n">
         <v>13.5</v>
@@ -2509,22 +2509,22 @@
         <v>24</v>
       </c>
       <c r="AI15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL15" t="n">
         <v>80</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>220</v>
       </c>
       <c r="AN15" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H16" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="I16" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="J16" t="n">
         <v>3.65</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q16" t="n">
         <v>1.01</v>
@@ -2725,19 +2725,19 @@
         <v>2.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R17" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S17" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U17" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
         <v>1.83</v>
@@ -2746,22 +2746,22 @@
         <v>1.38</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AB17" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AD17" t="n">
         <v>12</v>
@@ -2770,7 +2770,7 @@
         <v>22</v>
       </c>
       <c r="AF17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG17" t="n">
         <v>18</v>
@@ -2779,25 +2779,25 @@
         <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK17" t="n">
         <v>38</v>
       </c>
       <c r="AL17" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO17" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H18" t="n">
         <v>2.14</v>
@@ -2851,10 +2851,10 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P18" t="n">
         <v>2.24</v>
@@ -2863,76 +2863,76 @@
         <v>1.72</v>
       </c>
       <c r="R18" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="S18" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="T18" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="U18" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="V18" t="n">
         <v>1.81</v>
       </c>
       <c r="W18" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB18" t="n">
         <v>24</v>
       </c>
-      <c r="Y18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>17</v>
-      </c>
       <c r="AC18" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH18" t="n">
         <v>23</v>
       </c>
-      <c r="AF18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>17</v>
-      </c>
       <c r="AI18" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AL18" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
         <v>3.7</v>
@@ -2971,7 +2971,7 @@
         <v>2.24</v>
       </c>
       <c r="I19" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -2995,10 +2995,10 @@
         <v>1.83</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S19" t="n">
         <v>3.9</v>
@@ -3007,7 +3007,7 @@
         <v>1.86</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V19" t="n">
         <v>1.75</v>
@@ -3016,7 +3016,7 @@
         <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
         <v>9.6</v>
@@ -3049,19 +3049,19 @@
         <v>19.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN19" t="n">
         <v>55</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.09</v>
+        <v>2.1</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>2.22</v>
       </c>
       <c r="H21" t="n">
-        <v>1.09</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="J21" t="n">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,88 +3256,88 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>1.65</v>
+        <v>5.8</v>
       </c>
       <c r="O21" t="n">
         <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>1.26</v>
+        <v>1.64</v>
       </c>
       <c r="S21" t="n">
-        <v>1.54</v>
+        <v>2.32</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="V21" t="n">
         <v>1.4</v>
       </c>
       <c r="W21" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="G22" t="n">
-        <v>980</v>
+        <v>1.55</v>
       </c>
       <c r="H22" t="n">
-        <v>1.04</v>
+        <v>5.8</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J22" t="n">
-        <v>1.02</v>
+        <v>4.2</v>
       </c>
       <c r="K22" t="n">
-        <v>980</v>
+        <v>6.2</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,22 +3391,22 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.43</v>
+        <v>2.22</v>
       </c>
       <c r="O22" t="n">
         <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="R22" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S22" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3511,7 +3511,7 @@
         <v>2.46</v>
       </c>
       <c r="I23" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
@@ -3523,91 +3523,91 @@
         <v>1.42</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P23" t="n">
         <v>1.82</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.81</v>
-      </c>
       <c r="Q23" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S23" t="n">
-        <v>1.94</v>
+        <v>3.7</v>
       </c>
       <c r="T23" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="V23" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W23" t="n">
         <v>1.43</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G24" t="n">
         <v>5.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="I24" t="n">
         <v>1.77</v>
@@ -3655,7 +3655,7 @@
         <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -3694,7 +3694,7 @@
         <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z24" t="n">
         <v>11</v>
@@ -3727,7 +3727,7 @@
         <v>32</v>
       </c>
       <c r="AJ24" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK24" t="n">
         <v>65</v>
@@ -3772,23 +3772,23 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="H25" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K25" t="n">
         <v>4.5</v>
       </c>
-      <c r="I25" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>2.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>1.31</v>
       </c>
       <c r="P26" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q26" t="n">
         <v>1.92</v>
@@ -3961,19 +3961,19 @@
         <v>1.81</v>
       </c>
       <c r="X26" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z26" t="n">
         <v>27</v>
       </c>
       <c r="AA26" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
         <v>8.199999999999999</v>
@@ -3985,22 +3985,22 @@
         <v>44</v>
       </c>
       <c r="AF26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI26" t="n">
         <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
         <v>38</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G27" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H27" t="n">
         <v>3.3</v>
@@ -4054,13 +4054,13 @@
         <v>3.85</v>
       </c>
       <c r="J27" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K27" t="n">
         <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
@@ -4081,7 +4081,7 @@
         <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="T27" t="n">
         <v>1.86</v>
@@ -4093,7 +4093,7 @@
         <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X27" t="n">
         <v>12</v>
@@ -4147,7 +4147,7 @@
         <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="G28" t="n">
         <v>1.53</v>
@@ -4192,31 +4192,31 @@
         <v>4.1</v>
       </c>
       <c r="K28" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="O28" t="n">
         <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S28" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4315,13 +4315,13 @@
         <v>4.4</v>
       </c>
       <c r="G29" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="H29" t="n">
         <v>1.82</v>
       </c>
       <c r="I29" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
@@ -4330,7 +4330,7 @@
         <v>3.95</v>
       </c>
       <c r="L29" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
         <v>1.08</v>
@@ -4360,7 +4360,7 @@
         <v>1.84</v>
       </c>
       <c r="V29" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W29" t="n">
         <v>1.19</v>
@@ -4381,7 +4381,7 @@
         <v>18</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD29" t="n">
         <v>12.5</v>
@@ -4399,7 +4399,7 @@
         <v>26</v>
       </c>
       <c r="AI29" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
         <v>21</v>
@@ -4450,7 +4450,7 @@
         <v>4.1</v>
       </c>
       <c r="G30" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H30" t="n">
         <v>1.96</v>
@@ -4465,10 +4465,10 @@
         <v>3.65</v>
       </c>
       <c r="L30" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M30" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
         <v>2.64</v>
@@ -4486,7 +4486,7 @@
         <v>1.2</v>
       </c>
       <c r="S30" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
         <v>2</v>
@@ -4504,43 +4504,43 @@
         <v>11.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AA30" t="n">
         <v>34</v>
       </c>
       <c r="AB30" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
         <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AF30" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL30" t="n">
         <v>120</v>
@@ -4612,7 +4612,7 @@
         <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q31" t="n">
         <v>1.75</v>
@@ -4624,10 +4624,10 @@
         <v>2.88</v>
       </c>
       <c r="T31" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U31" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V31" t="n">
         <v>1.78</v>
@@ -4636,7 +4636,7 @@
         <v>1.4</v>
       </c>
       <c r="X31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y31" t="n">
         <v>12.5</v>
@@ -4648,10 +4648,10 @@
         <v>29</v>
       </c>
       <c r="AB31" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD31" t="n">
         <v>11.5</v>
@@ -4660,7 +4660,7 @@
         <v>22</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
         <v>14.5</v>
@@ -4669,13 +4669,13 @@
         <v>16.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ31" t="n">
         <v>65</v>
       </c>
       <c r="AK31" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="n">
         <v>44</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G32" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I32" t="n">
         <v>5.2</v>
@@ -4735,7 +4735,7 @@
         <v>4.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
@@ -4747,16 +4747,16 @@
         <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q32" t="n">
         <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S32" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T32" t="n">
         <v>1.64</v>
@@ -4768,13 +4768,13 @@
         <v>1.24</v>
       </c>
       <c r="W32" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="X32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z32" t="n">
         <v>44</v>
@@ -4786,7 +4786,7 @@
         <v>12</v>
       </c>
       <c r="AC32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD32" t="n">
         <v>21</v>
@@ -4795,7 +4795,7 @@
         <v>55</v>
       </c>
       <c r="AF32" t="n">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="AG32" t="n">
         <v>10.5</v>
@@ -4810,7 +4810,7 @@
         <v>970</v>
       </c>
       <c r="AK32" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AL32" t="n">
         <v>26</v>
@@ -4819,7 +4819,7 @@
         <v>70</v>
       </c>
       <c r="AN32" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO32" t="n">
         <v>46</v>
@@ -4855,10 +4855,10 @@
         <v>2.58</v>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>980</v>
       </c>
       <c r="H33" t="n">
-        <v>2.3</v>
+        <v>1.35</v>
       </c>
       <c r="I33" t="n">
         <v>2.78</v>
@@ -4876,28 +4876,28 @@
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="O33" t="n">
         <v>1.23</v>
       </c>
       <c r="P33" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="R33" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S33" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V33" t="n">
         <v>1.56</v>
@@ -4990,19 +4990,19 @@
         <v>2.32</v>
       </c>
       <c r="G34" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="H34" t="n">
         <v>3.45</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="K34" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L34" t="n">
         <v>1.53</v>
@@ -5020,13 +5020,13 @@
         <v>1.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="R34" t="n">
         <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="T34" t="n">
         <v>2.22</v>
@@ -5035,7 +5035,7 @@
         <v>1.65</v>
       </c>
       <c r="V34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W34" t="n">
         <v>1.6</v>
@@ -5056,10 +5056,10 @@
         <v>7.2</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AE34" t="n">
         <v>75</v>
@@ -5068,10 +5068,10 @@
         <v>15</v>
       </c>
       <c r="AG34" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI34" t="n">
         <v>130</v>
@@ -5089,7 +5089,7 @@
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AO34" t="n">
         <v>140</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G35" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="H35" t="n">
         <v>5.5</v>
       </c>
       <c r="I35" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J35" t="n">
         <v>3.2</v>
@@ -5140,7 +5140,7 @@
         <v>4.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M35" t="n">
         <v>1.07</v>
@@ -5155,13 +5155,13 @@
         <v>1.73</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
         <v>1.27</v>
       </c>
       <c r="S35" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="T35" t="n">
         <v>2</v>
@@ -5170,16 +5170,16 @@
         <v>1.8</v>
       </c>
       <c r="V35" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W35" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="X35" t="n">
         <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
@@ -5263,16 +5263,16 @@
         <v>2.94</v>
       </c>
       <c r="H36" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I36" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J36" t="n">
         <v>3.65</v>
       </c>
       <c r="K36" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5305,64 +5305,64 @@
         <v>2.38</v>
       </c>
       <c r="V36" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W36" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X36" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF36" t="n">
         <v>22</v>
       </c>
-      <c r="Y36" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA36" t="n">
+      <c r="AG36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>42</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>40</v>
       </c>
       <c r="AK36" t="n">
         <v>29</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM36" t="n">
         <v>70</v>
       </c>
       <c r="AN36" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AO36" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="37">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G37" t="n">
         <v>4.3</v>
@@ -5401,7 +5401,7 @@
         <v>2.02</v>
       </c>
       <c r="I37" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J37" t="n">
         <v>3.35</v>
@@ -5422,10 +5422,10 @@
         <v>1.32</v>
       </c>
       <c r="P37" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R37" t="n">
         <v>1.32</v>
@@ -5440,16 +5440,16 @@
         <v>2.02</v>
       </c>
       <c r="V37" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W37" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X37" t="n">
         <v>970</v>
       </c>
       <c r="Y37" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Z37" t="n">
         <v>970</v>
@@ -5464,7 +5464,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD37" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AE37" t="n">
         <v>29</v>
@@ -5530,28 +5530,28 @@
         <v>1.46</v>
       </c>
       <c r="G38" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="H38" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="I38" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K38" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>2.34</v>
+        <v>4.9</v>
       </c>
       <c r="O38" t="n">
         <v>1.2</v>
@@ -5560,22 +5560,22 @@
         <v>2.34</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="R38" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="S38" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V38" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W38" t="n">
         <v>2.56</v>
@@ -5593,10 +5593,10 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD38" t="n">
         <v>1000</v>
@@ -5605,10 +5605,10 @@
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH38" t="n">
         <v>1000</v>
@@ -5623,16 +5623,16 @@
         <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G39" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H39" t="n">
         <v>3.5</v>
@@ -5713,7 +5713,7 @@
         <v>1.39</v>
       </c>
       <c r="W39" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X39" t="n">
         <v>10.5</v>
@@ -5761,7 +5761,7 @@
         <v>48</v>
       </c>
       <c r="AM39" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN39" t="n">
         <v>27</v>
@@ -5803,7 +5803,7 @@
         <v>2.54</v>
       </c>
       <c r="H40" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I40" t="n">
         <v>3.75</v>
@@ -5821,16 +5821,16 @@
         <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O40" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P40" t="n">
         <v>1.66</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R40" t="n">
         <v>1.24</v>
@@ -5839,7 +5839,7 @@
         <v>4.4</v>
       </c>
       <c r="T40" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U40" t="n">
         <v>1.92</v>
@@ -5851,40 +5851,40 @@
         <v>1.64</v>
       </c>
       <c r="X40" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z40" t="n">
         <v>24</v>
       </c>
       <c r="AA40" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AB40" t="n">
         <v>8.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD40" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AE40" t="n">
         <v>50</v>
       </c>
       <c r="AF40" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AG40" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH40" t="n">
         <v>970</v>
       </c>
       <c r="AI40" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ40" t="n">
         <v>36</v>
@@ -5899,10 +5899,10 @@
         <v>160</v>
       </c>
       <c r="AN40" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AO40" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
@@ -5932,112 +5932,112 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="G41" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="H41" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="I41" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="J41" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>5.3</v>
+        <v>3.65</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V41" t="n">
         <v>1.67</v>
       </c>
-      <c r="O41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.6</v>
-      </c>
       <c r="W41" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
@@ -6085,7 +6085,7 @@
         <v>7</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M42" t="n">
         <v>1.01</v>
@@ -6100,13 +6100,13 @@
         <v>1.71</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R42" t="n">
         <v>1.09</v>
       </c>
       <c r="S42" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="T42" t="n">
         <v>1.01</v>
@@ -6118,7 +6118,7 @@
         <v>1.69</v>
       </c>
       <c r="W42" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6226,7 +6226,7 @@
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O43" t="n">
         <v>1.41</v>
@@ -6268,7 +6268,7 @@
         <v>95</v>
       </c>
       <c r="AB43" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC43" t="n">
         <v>7.8</v>
@@ -6340,7 +6340,7 @@
         <v>2.02</v>
       </c>
       <c r="G44" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H44" t="n">
         <v>3.8</v>
@@ -6379,19 +6379,19 @@
         <v>3.55</v>
       </c>
       <c r="T44" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U44" t="n">
         <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W44" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="X44" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y44" t="n">
         <v>14.5</v>
@@ -6400,7 +6400,7 @@
         <v>32</v>
       </c>
       <c r="AA44" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AB44" t="n">
         <v>9.4</v>
@@ -6421,7 +6421,7 @@
         <v>11.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI44" t="n">
         <v>65</v>
@@ -6478,7 +6478,7 @@
         <v>1.39</v>
       </c>
       <c r="H45" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I45" t="n">
         <v>9.4</v>
@@ -6487,7 +6487,7 @@
         <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L45" t="n">
         <v>1.24</v>
@@ -6505,7 +6505,7 @@
         <v>2.74</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R45" t="n">
         <v>1.71</v>
@@ -6514,7 +6514,7 @@
         <v>2.28</v>
       </c>
       <c r="T45" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U45" t="n">
         <v>2.04</v>
@@ -6523,7 +6523,7 @@
         <v>1.12</v>
       </c>
       <c r="W45" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="X45" t="n">
         <v>30</v>
@@ -6535,34 +6535,34 @@
         <v>90</v>
       </c>
       <c r="AA45" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC45" t="n">
         <v>14</v>
       </c>
       <c r="AD45" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE45" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF45" t="n">
         <v>10.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH45" t="n">
         <v>24</v>
       </c>
       <c r="AI45" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK45" t="n">
         <v>14</v>
@@ -6574,7 +6574,7 @@
         <v>110</v>
       </c>
       <c r="AN45" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO45" t="n">
         <v>110</v>
@@ -6607,112 +6607,112 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="G46" t="n">
-        <v>5.1</v>
+        <v>3.75</v>
       </c>
       <c r="H46" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I46" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="J46" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K46" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L46" t="n">
         <v>1.44</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O46" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P46" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R46" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="S46" t="n">
-        <v>2.1</v>
+        <v>3.95</v>
       </c>
       <c r="T46" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="U46" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V46" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="W46" t="n">
         <v>1.37</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -6742,19 +6742,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="G47" t="n">
         <v>3.1</v>
       </c>
       <c r="H47" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I47" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
         <v>3.15</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G48" t="n">
         <v>3.75</v>
       </c>
-      <c r="G48" t="n">
-        <v>3.8</v>
-      </c>
       <c r="H48" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I48" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="J48" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K48" t="n">
         <v>5</v>
-      </c>
-      <c r="K48" t="n">
-        <v>5.1</v>
       </c>
       <c r="L48" t="n">
         <v>1.17</v>
@@ -6904,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="O48" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -6925,16 +6925,16 @@
         <v>3.6</v>
       </c>
       <c r="V48" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="W48" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X48" t="n">
         <v>50</v>
       </c>
       <c r="Y48" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z48" t="n">
         <v>21</v>
@@ -6943,7 +6943,7 @@
         <v>27</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AC48" t="n">
         <v>14</v>
@@ -6955,7 +6955,7 @@
         <v>16</v>
       </c>
       <c r="AF48" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AG48" t="n">
         <v>18</v>
@@ -6967,22 +6967,22 @@
         <v>19</v>
       </c>
       <c r="AJ48" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AK48" t="n">
         <v>34</v>
       </c>
       <c r="AL48" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AN48" t="n">
         <v>14.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="49">
@@ -7012,25 +7012,25 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I49" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J49" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K49" t="n">
         <v>4.6</v>
       </c>
       <c r="L49" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
@@ -7042,7 +7042,7 @@
         <v>1.18</v>
       </c>
       <c r="P49" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q49" t="n">
         <v>1.55</v>
@@ -7051,22 +7051,22 @@
         <v>1.59</v>
       </c>
       <c r="S49" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T49" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U49" t="n">
         <v>2.48</v>
       </c>
       <c r="V49" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X49" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y49" t="n">
         <v>24</v>
@@ -7078,25 +7078,25 @@
         <v>75</v>
       </c>
       <c r="AB49" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF49" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG49" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH49" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI49" t="n">
         <v>46</v>
@@ -7114,10 +7114,10 @@
         <v>70</v>
       </c>
       <c r="AN49" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
@@ -7150,16 +7150,16 @@
         <v>2.76</v>
       </c>
       <c r="G50" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H50" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I50" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
         <v>3.3</v>
@@ -7183,7 +7183,7 @@
         <v>2.36</v>
       </c>
       <c r="R50" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S50" t="n">
         <v>4.6</v>
@@ -7192,16 +7192,16 @@
         <v>1.96</v>
       </c>
       <c r="U50" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V50" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W50" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X50" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Y50" t="n">
         <v>970</v>
@@ -7222,7 +7222,7 @@
         <v>970</v>
       </c>
       <c r="AE50" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF50" t="n">
         <v>970</v>
@@ -7234,25 +7234,25 @@
         <v>21</v>
       </c>
       <c r="AI50" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ50" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK50" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL50" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM50" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN50" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO50" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51">
@@ -7285,10 +7285,10 @@
         <v>3.4</v>
       </c>
       <c r="G51" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H51" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I51" t="n">
         <v>2.46</v>
@@ -7297,7 +7297,7 @@
         <v>3.2</v>
       </c>
       <c r="K51" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L51" t="n">
         <v>1.5</v>
@@ -7309,19 +7309,19 @@
         <v>3.05</v>
       </c>
       <c r="O51" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P51" t="n">
         <v>1.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R51" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S51" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T51" t="n">
         <v>1.91</v>
@@ -7342,7 +7342,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z51" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA51" t="n">
         <v>36</v>
@@ -7363,7 +7363,7 @@
         <v>24</v>
       </c>
       <c r="AG51" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AH51" t="n">
         <v>19.5</v>
@@ -7375,13 +7375,13 @@
         <v>70</v>
       </c>
       <c r="AK51" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AL51" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM51" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN51" t="n">
         <v>55</v>
@@ -7417,28 +7417,28 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G52" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H52" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I52" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K52" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L52" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
         <v>3.1</v>
@@ -7447,70 +7447,70 @@
         <v>1.38</v>
       </c>
       <c r="P52" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="R52" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S52" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T52" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U52" t="n">
         <v>1.96</v>
       </c>
       <c r="V52" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W52" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X52" t="n">
         <v>14</v>
       </c>
       <c r="Y52" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA52" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB52" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD52" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE52" t="n">
         <v>65</v>
       </c>
       <c r="AF52" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI52" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ52" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK52" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL52" t="n">
         <v>55</v>
@@ -7519,10 +7519,10 @@
         <v>150</v>
       </c>
       <c r="AN52" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO52" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
@@ -7552,16 +7552,16 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="G53" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="H53" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I53" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="J53" t="n">
         <v>3.55</v>
@@ -7576,34 +7576,34 @@
         <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="O53" t="n">
         <v>1.24</v>
       </c>
       <c r="P53" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="Q53" t="n">
         <v>1.24</v>
       </c>
       <c r="R53" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S53" t="n">
-        <v>1.25</v>
+        <v>2.52</v>
       </c>
       <c r="T53" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U53" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V53" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W53" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.09</v>
+        <v>2.4</v>
       </c>
       <c r="G54" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="H54" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I54" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="J54" t="n">
-        <v>1.64</v>
+        <v>3.6</v>
       </c>
       <c r="K54" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
@@ -7711,88 +7711,88 @@
         <v>1.04</v>
       </c>
       <c r="N54" t="n">
+        <v>5</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T54" t="n">
         <v>1.54</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1.01</v>
       </c>
       <c r="U54" t="n">
         <v>2.56</v>
       </c>
       <c r="V54" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="W54" t="n">
         <v>1.6</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH54" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="55">
@@ -7831,13 +7831,13 @@
         <v>1.88</v>
       </c>
       <c r="I55" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="J55" t="n">
         <v>4</v>
       </c>
       <c r="K55" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L55" t="n">
         <v>1.31</v>
@@ -7846,7 +7846,7 @@
         <v>1.04</v>
       </c>
       <c r="N55" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O55" t="n">
         <v>1.21</v>
@@ -7864,13 +7864,13 @@
         <v>2.56</v>
       </c>
       <c r="T55" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U55" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V55" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W55" t="n">
         <v>1.29</v>
@@ -7882,13 +7882,13 @@
         <v>12.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AA55" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB55" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AC55" t="n">
         <v>10</v>
@@ -7900,10 +7900,10 @@
         <v>970</v>
       </c>
       <c r="AF55" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AG55" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AH55" t="n">
         <v>970</v>
@@ -7912,22 +7912,22 @@
         <v>28</v>
       </c>
       <c r="AJ55" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK55" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AL55" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM55" t="n">
         <v>70</v>
       </c>
       <c r="AN55" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AO55" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -7957,13 +7957,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="G56" t="n">
         <v>3.05</v>
       </c>
       <c r="H56" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I56" t="n">
         <v>2.54</v>
@@ -7972,7 +7972,7 @@
         <v>3.75</v>
       </c>
       <c r="K56" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L56" t="n">
         <v>1.28</v>
@@ -7984,25 +7984,25 @@
         <v>5.2</v>
       </c>
       <c r="O56" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P56" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q56" t="n">
         <v>1.62</v>
       </c>
       <c r="R56" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S56" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T56" t="n">
         <v>1.55</v>
       </c>
       <c r="U56" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V56" t="n">
         <v>1.64</v>
@@ -8011,7 +8011,7 @@
         <v>1.48</v>
       </c>
       <c r="X56" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y56" t="n">
         <v>15.5</v>
@@ -8026,7 +8026,7 @@
         <v>17.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD56" t="n">
         <v>13</v>
@@ -8035,7 +8035,7 @@
         <v>25</v>
       </c>
       <c r="AF56" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG56" t="n">
         <v>14.5</v>
@@ -8059,7 +8059,7 @@
         <v>60</v>
       </c>
       <c r="AN56" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO56" t="n">
         <v>14.5</v>
@@ -8092,46 +8092,46 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="G57" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="H57" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="I57" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J57" t="n">
         <v>3.4</v>
       </c>
       <c r="K57" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L57" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M57" t="n">
         <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="O57" t="n">
         <v>1.25</v>
       </c>
       <c r="P57" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R57" t="n">
         <v>1.36</v>
       </c>
-      <c r="Q57" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S57" t="n">
-        <v>1.67</v>
+        <v>2.62</v>
       </c>
       <c r="T57" t="n">
         <v>1.01</v>
@@ -8140,10 +8140,10 @@
         <v>1.01</v>
       </c>
       <c r="V57" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="W57" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -8233,25 +8233,25 @@
         <v>2.32</v>
       </c>
       <c r="H58" t="n">
-        <v>1.76</v>
+        <v>3.3</v>
       </c>
       <c r="I58" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="J58" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K58" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="L58" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M58" t="n">
         <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O58" t="n">
         <v>1.43</v>
@@ -8260,13 +8260,13 @@
         <v>1.65</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="R58" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S58" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="T58" t="n">
         <v>1.92</v>
@@ -8281,43 +8281,43 @@
         <v>1.75</v>
       </c>
       <c r="X58" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y58" t="n">
         <v>11.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA58" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB58" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC58" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD58" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE58" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF58" t="n">
         <v>15</v>
       </c>
       <c r="AG58" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI58" t="n">
         <v>70</v>
       </c>
       <c r="AJ58" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK58" t="n">
         <v>32</v>
@@ -8332,7 +8332,7 @@
         <v>30</v>
       </c>
       <c r="AO58" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59">
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G59" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="H59" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I59" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J59" t="n">
         <v>3.4</v>
@@ -8380,43 +8380,43 @@
         <v>4</v>
       </c>
       <c r="L59" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M59" t="n">
         <v>1.06</v>
       </c>
       <c r="N59" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O59" t="n">
         <v>1.28</v>
       </c>
       <c r="P59" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="Q59" t="n">
         <v>1.83</v>
       </c>
       <c r="R59" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S59" t="n">
         <v>3.1</v>
       </c>
       <c r="T59" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U59" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V59" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="W59" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="X59" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Y59" t="n">
         <v>970</v>
@@ -8425,7 +8425,7 @@
         <v>26</v>
       </c>
       <c r="AA59" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB59" t="n">
         <v>970</v>
@@ -8500,13 +8500,13 @@
         <v>2.04</v>
       </c>
       <c r="G60" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H60" t="n">
         <v>3.25</v>
       </c>
       <c r="I60" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J60" t="n">
         <v>3.7</v>
@@ -8530,25 +8530,25 @@
         <v>2.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R60" t="n">
         <v>1.51</v>
       </c>
       <c r="S60" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="T60" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U60" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V60" t="n">
         <v>1.35</v>
       </c>
       <c r="W60" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X60" t="n">
         <v>26</v>
@@ -8557,49 +8557,49 @@
         <v>970</v>
       </c>
       <c r="Z60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA60" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB60" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AE60" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AF60" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AI60" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ60" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AK60" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL60" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM60" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN60" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO60" t="n">
         <v>34</v>
@@ -8632,19 +8632,19 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G61" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I61" t="n">
         <v>2.96</v>
       </c>
-      <c r="H61" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3.05</v>
-      </c>
       <c r="J61" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K61" t="n">
         <v>3.35</v>
@@ -8656,40 +8656,40 @@
         <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O61" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
         <v>1.33</v>
       </c>
-      <c r="P61" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S61" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T61" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U61" t="n">
         <v>2.16</v>
       </c>
       <c r="V61" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W61" t="n">
         <v>1.52</v>
       </c>
       <c r="X61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y61" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z61" t="n">
         <v>22</v>
@@ -8698,43 +8698,43 @@
         <v>46</v>
       </c>
       <c r="AB61" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC61" t="n">
         <v>8</v>
       </c>
       <c r="AD61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE61" t="n">
         <v>34</v>
       </c>
       <c r="AF61" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG61" t="n">
         <v>13</v>
       </c>
       <c r="AH61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI61" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ61" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL61" t="n">
         <v>46</v>
       </c>
-      <c r="AK61" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>48</v>
-      </c>
       <c r="AM61" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN61" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO61" t="n">
         <v>32</v>
@@ -8767,16 +8767,16 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G62" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H62" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I62" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3.65</v>
       </c>
       <c r="J62" t="n">
         <v>3.8</v>
@@ -8809,22 +8809,22 @@
         <v>2.66</v>
       </c>
       <c r="T62" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U62" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V62" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W62" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X62" t="n">
         <v>20</v>
       </c>
       <c r="Y62" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z62" t="n">
         <v>28</v>
@@ -8833,7 +8833,7 @@
         <v>65</v>
       </c>
       <c r="AB62" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC62" t="n">
         <v>8.800000000000001</v>
@@ -8842,7 +8842,7 @@
         <v>14.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF62" t="n">
         <v>15.5</v>
@@ -8905,7 +8905,7 @@
         <v>20</v>
       </c>
       <c r="G63" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H63" t="n">
         <v>1.16</v>
@@ -8920,7 +8920,7 @@
         <v>11.5</v>
       </c>
       <c r="L63" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="M63" t="n">
         <v>1.01</v>
@@ -8932,22 +8932,22 @@
         <v>1.08</v>
       </c>
       <c r="P63" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q63" t="n">
         <v>1.27</v>
       </c>
       <c r="R63" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="S63" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="T63" t="n">
         <v>1.9</v>
       </c>
       <c r="U63" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V63" t="n">
         <v>7</v>
@@ -8956,22 +8956,22 @@
         <v>1.05</v>
       </c>
       <c r="X63" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="Y63" t="n">
         <v>18.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA63" t="n">
         <v>10.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AC63" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD63" t="n">
         <v>14.5</v>
@@ -8980,7 +8980,7 @@
         <v>13.5</v>
       </c>
       <c r="AF63" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AG63" t="n">
         <v>70</v>
@@ -8995,7 +8995,7 @@
         <v>1000</v>
       </c>
       <c r="AK63" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AL63" t="n">
         <v>1000</v>
@@ -9004,10 +9004,10 @@
         <v>1000</v>
       </c>
       <c r="AN63" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AO63" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="64">
@@ -9040,13 +9040,13 @@
         <v>2.02</v>
       </c>
       <c r="G64" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H64" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I64" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J64" t="n">
         <v>3.4</v>
@@ -9055,19 +9055,19 @@
         <v>4</v>
       </c>
       <c r="L64" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M64" t="n">
         <v>1.06</v>
       </c>
       <c r="N64" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O64" t="n">
         <v>1.3</v>
       </c>
       <c r="P64" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q64" t="n">
         <v>1.89</v>
@@ -9079,13 +9079,13 @@
         <v>3.25</v>
       </c>
       <c r="T64" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U64" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V64" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W64" t="n">
         <v>1.8</v>
@@ -9109,7 +9109,7 @@
         <v>8.6</v>
       </c>
       <c r="AD64" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE64" t="n">
         <v>1000</v>
@@ -9172,46 +9172,46 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="G65" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H65" t="n">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="I65" t="n">
         <v>3.65</v>
       </c>
       <c r="J65" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="K65" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="L65" t="n">
         <v>1.53</v>
       </c>
       <c r="M65" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N65" t="n">
-        <v>1.37</v>
+        <v>2.24</v>
       </c>
       <c r="O65" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="P65" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="R65" t="n">
         <v>1.18</v>
       </c>
       <c r="S65" t="n">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="T65" t="n">
         <v>1.01</v>
@@ -9307,112 +9307,112 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="G66" t="n">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="H66" t="n">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="I66" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J66" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="K66" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="L66" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="M66" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N66" t="n">
-        <v>1.54</v>
+        <v>2.78</v>
       </c>
       <c r="O66" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P66" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="R66" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S66" t="n">
-        <v>2.14</v>
+        <v>3.95</v>
       </c>
       <c r="T66" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="U66" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V66" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="W66" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="X66" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y66" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z66" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA66" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB66" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC66" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD66" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE66" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF66" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG66" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH66" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI66" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ66" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK66" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL66" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM66" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN66" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO66" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
@@ -9442,22 +9442,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="H67" t="n">
         <v>3.1</v>
       </c>
       <c r="I67" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="K67" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="L67" t="n">
         <v>1.37</v>
@@ -9466,22 +9466,22 @@
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="O67" t="n">
         <v>1.01</v>
       </c>
       <c r="P67" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R67" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S67" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T67" t="n">
         <v>1.01</v>
@@ -9490,10 +9490,10 @@
         <v>1.01</v>
       </c>
       <c r="V67" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W67" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X67" t="n">
         <v>1000</v>
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G68" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="H68" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I68" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J68" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="K68" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="L68" t="n">
         <v>1.46</v>
@@ -9601,22 +9601,22 @@
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="O68" t="n">
         <v>1.01</v>
       </c>
       <c r="P68" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R68" t="n">
         <v>1.18</v>
       </c>
       <c r="S68" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T68" t="n">
         <v>1.01</v>
@@ -9625,10 +9625,10 @@
         <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W68" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X68" t="n">
         <v>1000</v>
@@ -9715,16 +9715,16 @@
         <v>2.16</v>
       </c>
       <c r="G69" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="H69" t="n">
         <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J69" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
         <v>3.65</v>
@@ -9763,7 +9763,7 @@
         <v>1.3</v>
       </c>
       <c r="W69" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X69" t="n">
         <v>11.5</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="G70" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H70" t="n">
         <v>12.5</v>
       </c>
       <c r="I70" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="J70" t="n">
         <v>8</v>
       </c>
       <c r="K70" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L70" t="n">
         <v>1.21</v>
@@ -9871,88 +9871,88 @@
         <v>1.02</v>
       </c>
       <c r="N70" t="n">
-        <v>1.07</v>
+        <v>7.8</v>
       </c>
       <c r="O70" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P70" t="n">
-        <v>2.84</v>
+        <v>3.35</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="R70" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="S70" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="T70" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="U70" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="V70" t="n">
         <v>1.07</v>
       </c>
       <c r="W70" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="X70" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Y70" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z70" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AA70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB70" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC70" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD70" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE70" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF70" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG70" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH70" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AI70" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK70" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AL70" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM70" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN70" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="AO70" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71">
@@ -9985,16 +9985,16 @@
         <v>2.36</v>
       </c>
       <c r="G71" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H71" t="n">
         <v>3.6</v>
       </c>
       <c r="I71" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J71" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K71" t="n">
         <v>3.35</v>
@@ -10006,88 +10006,88 @@
         <v>1.09</v>
       </c>
       <c r="N71" t="n">
-        <v>1.03</v>
+        <v>3.1</v>
       </c>
       <c r="O71" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P71" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.39</v>
+        <v>2.22</v>
       </c>
       <c r="R71" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S71" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="T71" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U71" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V71" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W71" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X71" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA71" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB71" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC71" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD71" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE71" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF71" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG71" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH71" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI71" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK71" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL71" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM71" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN71" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO71" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72">
@@ -10117,19 +10117,19 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G72" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H72" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I72" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J72" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K72" t="n">
         <v>4.3</v>
@@ -10144,7 +10144,7 @@
         <v>3.05</v>
       </c>
       <c r="O72" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P72" t="n">
         <v>1.71</v>
@@ -10153,22 +10153,22 @@
         <v>2.12</v>
       </c>
       <c r="R72" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S72" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T72" t="n">
         <v>1.94</v>
       </c>
       <c r="U72" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V72" t="n">
         <v>1.23</v>
       </c>
       <c r="W72" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X72" t="n">
         <v>970</v>
@@ -10180,7 +10180,7 @@
         <v>44</v>
       </c>
       <c r="AA72" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB72" t="n">
         <v>9.199999999999999</v>
@@ -10201,13 +10201,13 @@
         <v>970</v>
       </c>
       <c r="AH72" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI72" t="n">
         <v>100</v>
       </c>
       <c r="AJ72" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK72" t="n">
         <v>28</v>
@@ -10219,7 +10219,7 @@
         <v>1000</v>
       </c>
       <c r="AN72" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO72" t="n">
         <v>120</v>
@@ -10255,109 +10255,109 @@
         <v>4.8</v>
       </c>
       <c r="G73" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="H73" t="n">
         <v>1.75</v>
       </c>
       <c r="I73" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="J73" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K73" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L73" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O73" t="n">
         <v>1.33</v>
       </c>
-      <c r="M73" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N73" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="O73" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P73" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R73" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S73" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T73" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="U73" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="V73" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W73" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X73" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z73" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA73" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB73" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC73" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD73" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE73" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF73" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG73" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH73" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI73" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ73" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK73" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL73" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM73" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN73" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO73" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
@@ -10405,19 +10405,19 @@
         <v>3.4</v>
       </c>
       <c r="L74" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M74" t="n">
         <v>1.09</v>
       </c>
       <c r="N74" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O74" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P74" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q74" t="n">
         <v>2.2</v>
@@ -10429,7 +10429,7 @@
         <v>4.1</v>
       </c>
       <c r="T74" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U74" t="n">
         <v>2.04</v>
@@ -10453,7 +10453,7 @@
         <v>65</v>
       </c>
       <c r="AB74" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC74" t="n">
         <v>7.4</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G75" t="n">
         <v>2.22</v>
@@ -10534,7 +10534,7 @@
         <v>4.6</v>
       </c>
       <c r="J75" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K75" t="n">
         <v>3.75</v>
@@ -10570,10 +10570,10 @@
         <v>1.94</v>
       </c>
       <c r="V75" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W75" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="X75" t="n">
         <v>12.5</v>
@@ -10585,7 +10585,7 @@
         <v>32</v>
       </c>
       <c r="AA75" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB75" t="n">
         <v>8.800000000000001</v>
@@ -10597,10 +10597,10 @@
         <v>18</v>
       </c>
       <c r="AE75" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF75" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG75" t="n">
         <v>11.5</v>
@@ -10624,7 +10624,7 @@
         <v>150</v>
       </c>
       <c r="AN75" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO75" t="n">
         <v>75</v>
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G76" t="n">
         <v>2.48</v>
@@ -10714,7 +10714,7 @@
         <v>9.4</v>
       </c>
       <c r="Y76" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z76" t="n">
         <v>22</v>
@@ -10723,7 +10723,7 @@
         <v>70</v>
       </c>
       <c r="AB76" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC76" t="n">
         <v>7</v>
@@ -10741,7 +10741,7 @@
         <v>12</v>
       </c>
       <c r="AH76" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI76" t="n">
         <v>70</v>
@@ -10792,112 +10792,112 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G77" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H77" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I77" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.6</v>
+        <v>2.94</v>
       </c>
       <c r="K77" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L77" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="M77" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N77" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P77" t="n">
         <v>1.45</v>
       </c>
-      <c r="O77" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P77" t="n">
-        <v>1.43</v>
-      </c>
       <c r="Q77" t="n">
-        <v>1.02</v>
+        <v>2.96</v>
       </c>
       <c r="R77" t="n">
         <v>1.16</v>
       </c>
       <c r="S77" t="n">
-        <v>1.63</v>
+        <v>6.4</v>
       </c>
       <c r="T77" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="U77" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V77" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W77" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="X77" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Y77" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z77" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA77" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB77" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC77" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD77" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE77" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF77" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG77" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH77" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI77" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ77" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK77" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL77" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM77" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN77" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO77" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78">
@@ -10930,109 +10930,109 @@
         <v>2.06</v>
       </c>
       <c r="G78" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="J78" t="n">
-        <v>1.67</v>
+        <v>3.25</v>
       </c>
       <c r="K78" t="n">
         <v>3.4</v>
       </c>
       <c r="L78" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M78" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N78" t="n">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="O78" t="n">
         <v>1.38</v>
       </c>
       <c r="P78" t="n">
-        <v>1.25</v>
+        <v>1.77</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.38</v>
+        <v>2.12</v>
       </c>
       <c r="R78" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="S78" t="n">
-        <v>1.36</v>
+        <v>3.85</v>
       </c>
       <c r="T78" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U78" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V78" t="n">
         <v>1.28</v>
       </c>
       <c r="W78" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="X78" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z78" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA78" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB78" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC78" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD78" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE78" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF78" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG78" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH78" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI78" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ78" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK78" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL78" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM78" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN78" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO78" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79">
@@ -11200,40 +11200,40 @@
         <v>2.8</v>
       </c>
       <c r="G80" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H80" t="n">
         <v>2.24</v>
       </c>
       <c r="I80" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="K80" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L80" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M80" t="n">
         <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="O80" t="n">
         <v>1.01</v>
       </c>
       <c r="P80" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.02</v>
+        <v>1.02</v>
       </c>
       <c r="R80" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S80" t="n">
         <v>3.55</v>
@@ -11245,10 +11245,10 @@
         <v>1.01</v>
       </c>
       <c r="V80" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W80" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X80" t="n">
         <v>1000</v>
@@ -11332,22 +11332,22 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G81" t="n">
         <v>2.22</v>
       </c>
       <c r="H81" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I81" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="J81" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K81" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L81" t="n">
         <v>1.01</v>
@@ -11356,22 +11356,22 @@
         <v>1.07</v>
       </c>
       <c r="N81" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="O81" t="n">
         <v>1.07</v>
       </c>
       <c r="P81" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="Q81" t="n">
         <v>2.1</v>
       </c>
       <c r="R81" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S81" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T81" t="n">
         <v>1.01</v>
@@ -11380,7 +11380,7 @@
         <v>1.01</v>
       </c>
       <c r="V81" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W81" t="n">
         <v>1.81</v>
@@ -11389,46 +11389,46 @@
         <v>1000</v>
       </c>
       <c r="Y81" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z81" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA81" t="n">
         <v>1000</v>
       </c>
       <c r="AB81" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC81" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD81" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE81" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF81" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG81" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH81" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI81" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ81" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK81" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL81" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM81" t="n">
         <v>1000</v>
@@ -11470,16 +11470,16 @@
         <v>4</v>
       </c>
       <c r="G82" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H82" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I82" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="J82" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K82" t="n">
         <v>5.2</v>
@@ -11488,10 +11488,10 @@
         <v>1.01</v>
       </c>
       <c r="M82" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N82" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O82" t="n">
         <v>1.14</v>
@@ -11500,22 +11500,22 @@
         <v>2.84</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R82" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="S82" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T82" t="n">
         <v>1.5</v>
       </c>
       <c r="U82" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V82" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="W82" t="n">
         <v>1.26</v>
@@ -11524,34 +11524,34 @@
         <v>36</v>
       </c>
       <c r="Y82" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z82" t="n">
         <v>16.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB82" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC82" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE82" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AF82" t="n">
         <v>42</v>
       </c>
       <c r="AG82" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH82" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI82" t="n">
         <v>25</v>
@@ -11560,19 +11560,19 @@
         <v>100</v>
       </c>
       <c r="AK82" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL82" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM82" t="n">
         <v>55</v>
       </c>
       <c r="AN82" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO82" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="83">
@@ -11602,46 +11602,46 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G83" t="n">
         <v>3.35</v>
       </c>
       <c r="H83" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I83" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J83" t="n">
         <v>3.3</v>
       </c>
       <c r="K83" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L83" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M83" t="n">
         <v>1.05</v>
       </c>
       <c r="N83" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="O83" t="n">
         <v>1.27</v>
       </c>
       <c r="P83" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.78</v>
+        <v>1.27</v>
       </c>
       <c r="R83" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S83" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T83" t="n">
         <v>1.01</v>
@@ -11650,7 +11650,7 @@
         <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W83" t="n">
         <v>1.43</v>
@@ -11737,22 +11737,22 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="G84" t="n">
         <v>1.18</v>
       </c>
       <c r="H84" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I84" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J84" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L84" t="n">
         <v>1.26</v>
@@ -11761,40 +11761,40 @@
         <v>1.02</v>
       </c>
       <c r="N84" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="O84" t="n">
         <v>1.17</v>
       </c>
       <c r="P84" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="R84" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="S84" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T84" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="U84" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="V84" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W84" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X84" t="n">
         <v>32</v>
       </c>
       <c r="Y84" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Z84" t="n">
         <v>1000</v>
@@ -11806,7 +11806,7 @@
         <v>970</v>
       </c>
       <c r="AC84" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD84" t="n">
         <v>120</v>
@@ -11821,25 +11821,25 @@
         <v>970</v>
       </c>
       <c r="AH84" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AI84" t="n">
         <v>1000</v>
       </c>
       <c r="AJ84" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK84" t="n">
         <v>970</v>
       </c>
       <c r="AL84" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM84" t="n">
         <v>1000</v>
       </c>
       <c r="AN84" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="AO84" t="n">
         <v>1000</v>
@@ -11872,19 +11872,19 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="G85" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="H85" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="I85" t="n">
         <v>1000</v>
       </c>
       <c r="J85" t="n">
-        <v>1.86</v>
+        <v>1.09</v>
       </c>
       <c r="K85" t="n">
         <v>1000</v>
@@ -11905,7 +11905,7 @@
         <v>1.8</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -12007,10 +12007,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G86" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="H86" t="n">
         <v>3.1</v>
@@ -12019,19 +12019,19 @@
         <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K86" t="n">
         <v>3.65</v>
       </c>
       <c r="L86" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M86" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N86" t="n">
-        <v>1.74</v>
+        <v>3.15</v>
       </c>
       <c r="O86" t="n">
         <v>1.39</v>
@@ -12040,79 +12040,79 @@
         <v>1.74</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R86" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S86" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="T86" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U86" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V86" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W86" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="X86" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z86" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA86" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB86" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD86" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE86" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF86" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG86" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH86" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI86" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ86" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK86" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL86" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM86" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN86" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO86" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87">
@@ -12172,7 +12172,7 @@
         <v>1.38</v>
       </c>
       <c r="P87" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q87" t="n">
         <v>2.14</v>
@@ -12199,7 +12199,7 @@
         <v>12</v>
       </c>
       <c r="Y87" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z87" t="n">
         <v>12</v>
@@ -12232,7 +12232,7 @@
         <v>42</v>
       </c>
       <c r="AJ87" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK87" t="n">
         <v>55</v>
@@ -12241,7 +12241,7 @@
         <v>70</v>
       </c>
       <c r="AM87" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN87" t="n">
         <v>70</v>
@@ -12304,13 +12304,13 @@
         <v>2.84</v>
       </c>
       <c r="O88" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P88" t="n">
         <v>1.61</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R88" t="n">
         <v>1.22</v>
@@ -12361,7 +12361,7 @@
         <v>11</v>
       </c>
       <c r="AH88" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI88" t="n">
         <v>150</v>
@@ -12379,7 +12379,7 @@
         <v>240</v>
       </c>
       <c r="AN88" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO88" t="n">
         <v>240</v>
@@ -12412,13 +12412,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G89" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="H89" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I89" t="n">
         <v>2.38</v>
@@ -12430,34 +12430,34 @@
         <v>3.6</v>
       </c>
       <c r="L89" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M89" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="O89" t="n">
         <v>1.34</v>
       </c>
       <c r="P89" t="n">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.34</v>
+        <v>1.96</v>
       </c>
       <c r="R89" t="n">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="S89" t="n">
-        <v>1.34</v>
+        <v>3.55</v>
       </c>
       <c r="T89" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U89" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V89" t="n">
         <v>1.72</v>
@@ -12469,7 +12469,7 @@
         <v>13.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z89" t="n">
         <v>14.5</v>
@@ -12484,16 +12484,16 @@
         <v>7.8</v>
       </c>
       <c r="AD89" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AE89" t="n">
         <v>26</v>
       </c>
       <c r="AF89" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG89" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AH89" t="n">
         <v>22</v>
@@ -12553,16 +12553,16 @@
         <v>1.94</v>
       </c>
       <c r="H90" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I90" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J90" t="n">
         <v>3.4</v>
       </c>
       <c r="K90" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L90" t="n">
         <v>1.54</v>
@@ -12586,7 +12586,7 @@
         <v>1.22</v>
       </c>
       <c r="S90" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T90" t="n">
         <v>2.12</v>
@@ -12604,28 +12604,28 @@
         <v>12</v>
       </c>
       <c r="Y90" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z90" t="n">
         <v>42</v>
       </c>
       <c r="AA90" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB90" t="n">
         <v>6.8</v>
       </c>
       <c r="AC90" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD90" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE90" t="n">
         <v>120</v>
       </c>
       <c r="AF90" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG90" t="n">
         <v>11</v>
@@ -12634,13 +12634,13 @@
         <v>25</v>
       </c>
       <c r="AI90" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ90" t="n">
         <v>22</v>
       </c>
       <c r="AK90" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL90" t="n">
         <v>55</v>
@@ -12649,10 +12649,10 @@
         <v>240</v>
       </c>
       <c r="AN90" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO90" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91">
@@ -12823,7 +12823,7 @@
         <v>2.06</v>
       </c>
       <c r="H92" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I92" t="n">
         <v>4.2</v>
@@ -12832,7 +12832,7 @@
         <v>3.75</v>
       </c>
       <c r="K92" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
@@ -12841,16 +12841,16 @@
         <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="O92" t="n">
         <v>1.29</v>
       </c>
       <c r="P92" t="n">
-        <v>1.72</v>
+        <v>1.26</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.8</v>
+        <v>1.29</v>
       </c>
       <c r="R92" t="n">
         <v>1.26</v>
@@ -12862,37 +12862,37 @@
         <v>1.01</v>
       </c>
       <c r="U92" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V92" t="n">
         <v>1.31</v>
       </c>
       <c r="W92" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="X92" t="n">
         <v>19.5</v>
       </c>
       <c r="Y92" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Z92" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA92" t="n">
         <v>120</v>
       </c>
       <c r="AB92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD92" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE92" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AF92" t="n">
         <v>15</v>
@@ -12907,19 +12907,19 @@
         <v>100</v>
       </c>
       <c r="AJ92" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK92" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL92" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM92" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN92" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AO92" t="n">
         <v>100</v>
@@ -12961,10 +12961,10 @@
         <v>5.7</v>
       </c>
       <c r="I93" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J93" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="K93" t="n">
         <v>4.6</v>
@@ -12982,7 +12982,7 @@
         <v>1.25</v>
       </c>
       <c r="P93" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q93" t="n">
         <v>1.7</v>
@@ -12991,10 +12991,10 @@
         <v>1.44</v>
       </c>
       <c r="S93" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="T93" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U93" t="n">
         <v>2</v>
@@ -13003,31 +13003,31 @@
         <v>1.16</v>
       </c>
       <c r="W93" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X93" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y93" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z93" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA93" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB93" t="n">
         <v>10</v>
       </c>
       <c r="AC93" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD93" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE93" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AF93" t="n">
         <v>11</v>
@@ -13039,13 +13039,13 @@
         <v>22</v>
       </c>
       <c r="AI93" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK93" t="n">
         <v>17</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>17.5</v>
       </c>
       <c r="AL93" t="n">
         <v>36</v>
@@ -13087,13 +13087,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G94" t="n">
         <v>1.9</v>
       </c>
       <c r="H94" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I94" t="n">
         <v>5.3</v>
@@ -13102,37 +13102,37 @@
         <v>3.55</v>
       </c>
       <c r="K94" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L94" t="n">
         <v>1.01</v>
       </c>
       <c r="M94" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>3.3</v>
+        <v>1.66</v>
       </c>
       <c r="O94" t="n">
         <v>1.34</v>
       </c>
       <c r="P94" t="n">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="Q94" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="R94" t="n">
         <v>1.26</v>
       </c>
       <c r="S94" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="T94" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="U94" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="V94" t="n">
         <v>1.23</v>
@@ -13141,58 +13141,58 @@
         <v>2.1</v>
       </c>
       <c r="X94" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y94" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z94" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA94" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB94" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC94" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD94" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE94" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF94" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG94" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH94" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI94" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ94" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK94" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL94" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM94" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN94" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO94" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -673,7 +673,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="I2" t="n">
         <v>1.64</v>
@@ -841,7 +841,7 @@
         <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="T3" t="n">
         <v>2.36</v>
@@ -961,16 +961,16 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.34</v>
+        <v>1.73</v>
       </c>
       <c r="O4" t="n">
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.34</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>1.29</v>
@@ -1081,10 +1081,10 @@
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>4.6</v>
@@ -1105,13 +1105,13 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="T5" t="n">
         <v>1.53</v>
@@ -1171,7 +1171,7 @@
         <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
         <v>13</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="G6" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="I6" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="J6" t="n">
         <v>4.4</v>
@@ -1234,7 +1234,7 @@
         <v>6.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
         <v>2.72</v>
@@ -1252,28 +1252,28 @@
         <v>1.57</v>
       </c>
       <c r="U6" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V6" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="W6" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
         <v>27</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1285,13 +1285,13 @@
         <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AG6" t="n">
         <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
         <v>24</v>
@@ -1303,16 +1303,16 @@
         <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
         <v>65</v>
       </c>
       <c r="AN6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1375,10 +1375,10 @@
         <v>1.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
         <v>2.2</v>
@@ -1651,7 +1651,7 @@
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T9" t="n">
         <v>2.06</v>
@@ -1753,10 +1753,10 @@
         <v>1.78</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
@@ -1780,7 +1780,7 @@
         <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
         <v>1.37</v>
@@ -1795,7 +1795,7 @@
         <v>1.99</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W10" t="n">
         <v>2.28</v>
@@ -1819,7 +1819,7 @@
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
         <v>80</v>
@@ -1828,13 +1828,13 @@
         <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="n">
         <v>20</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="G11" t="n">
         <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="I11" t="n">
         <v>1000</v>
@@ -1897,7 +1897,7 @@
         <v>1.02</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="G12" t="n">
         <v>3.05</v>
@@ -2026,7 +2026,7 @@
         <v>2.58</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J12" t="n">
         <v>3.05</v>
@@ -2155,7 +2155,7 @@
         <v>2.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="G14" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H14" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K14" t="n">
         <v>4</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2320,25 +2320,25 @@
         <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S14" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="T14" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U14" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V14" t="n">
         <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2467,7 +2467,7 @@
         <v>2.08</v>
       </c>
       <c r="U15" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V15" t="n">
         <v>1.41</v>
@@ -2791,7 +2791,7 @@
         <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN17" t="n">
         <v>27</v>
@@ -2860,7 +2860,7 @@
         <v>2.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R18" t="n">
         <v>1.45</v>
@@ -3100,16 +3100,16 @@
         <v>1.04</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="I20" t="n">
         <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
       <c r="K20" t="n">
         <v>1000</v>
@@ -3136,7 +3136,7 @@
         <v>2.04</v>
       </c>
       <c r="S20" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3148,7 +3148,7 @@
         <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3373,7 +3373,7 @@
         <v>1.55</v>
       </c>
       <c r="H22" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="I22" t="n">
         <v>10</v>
@@ -3385,16 +3385,16 @@
         <v>6.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>2.22</v>
+        <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
         <v>2.22</v>
@@ -3403,16 +3403,16 @@
         <v>1.58</v>
       </c>
       <c r="R22" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="S22" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V22" t="n">
         <v>1.11</v>
@@ -3433,7 +3433,7 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC22" t="n">
         <v>1000</v>
@@ -3445,10 +3445,10 @@
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
         <v>1000</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3517,7 +3517,7 @@
         <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
         <v>1.42</v>
@@ -3532,7 +3532,7 @@
         <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q23" t="n">
         <v>2.08</v>
@@ -3571,7 +3571,7 @@
         <v>14.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD23" t="n">
         <v>13.5</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G24" t="n">
         <v>5.3</v>
@@ -3652,7 +3652,7 @@
         <v>4.1</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L24" t="n">
         <v>1.36</v>
@@ -3673,7 +3673,7 @@
         <v>1.82</v>
       </c>
       <c r="R24" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S24" t="n">
         <v>3.05</v>
@@ -3682,10 +3682,10 @@
         <v>1.82</v>
       </c>
       <c r="U24" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V24" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="W24" t="n">
         <v>1.23</v>
@@ -3694,7 +3694,7 @@
         <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z24" t="n">
         <v>11</v>
@@ -3727,7 +3727,7 @@
         <v>32</v>
       </c>
       <c r="AJ24" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK24" t="n">
         <v>65</v>
@@ -3937,7 +3937,7 @@
         <v>1.31</v>
       </c>
       <c r="P26" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q26" t="n">
         <v>1.92</v>
@@ -4060,7 +4060,7 @@
         <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
@@ -4186,7 +4186,7 @@
         <v>8.6</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="J28" t="n">
         <v>4.1</v>
@@ -4210,13 +4210,13 @@
         <v>1.65</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R28" t="n">
         <v>1.21</v>
       </c>
       <c r="S28" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4225,7 +4225,7 @@
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="W28" t="n">
         <v>2.88</v>
@@ -4315,7 +4315,7 @@
         <v>4.4</v>
       </c>
       <c r="G29" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="H29" t="n">
         <v>1.82</v>
@@ -4363,13 +4363,13 @@
         <v>1.96</v>
       </c>
       <c r="W29" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="X29" t="n">
         <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z29" t="n">
         <v>13.5</v>
@@ -4381,7 +4381,7 @@
         <v>18</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD29" t="n">
         <v>12.5</v>
@@ -4585,7 +4585,7 @@
         <v>3.35</v>
       </c>
       <c r="G31" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H31" t="n">
         <v>2.2</v>
@@ -4621,7 +4621,7 @@
         <v>1.47</v>
       </c>
       <c r="S31" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T31" t="n">
         <v>1.65</v>
@@ -4723,7 +4723,7 @@
         <v>1.75</v>
       </c>
       <c r="H32" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I32" t="n">
         <v>5.2</v>
@@ -4855,10 +4855,10 @@
         <v>2.58</v>
       </c>
       <c r="G33" t="n">
-        <v>980</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
-        <v>1.35</v>
+        <v>2.32</v>
       </c>
       <c r="I33" t="n">
         <v>2.78</v>
@@ -4996,13 +4996,13 @@
         <v>3.45</v>
       </c>
       <c r="I34" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J34" t="n">
         <v>2.82</v>
       </c>
       <c r="K34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L34" t="n">
         <v>1.53</v>
@@ -5035,7 +5035,7 @@
         <v>1.65</v>
       </c>
       <c r="V34" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W34" t="n">
         <v>1.6</v>
@@ -5140,7 +5140,7 @@
         <v>4.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M35" t="n">
         <v>1.07</v>
@@ -5149,19 +5149,19 @@
         <v>3.15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P35" t="n">
         <v>1.73</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
         <v>1.27</v>
       </c>
       <c r="S35" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="T35" t="n">
         <v>2</v>
@@ -5401,7 +5401,7 @@
         <v>2.02</v>
       </c>
       <c r="I37" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J37" t="n">
         <v>3.35</v>
@@ -5440,10 +5440,10 @@
         <v>2.02</v>
       </c>
       <c r="V37" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W37" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X37" t="n">
         <v>970</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G38" t="n">
         <v>1.59</v>
       </c>
       <c r="H38" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I38" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J38" t="n">
         <v>4.2</v>
       </c>
       <c r="K38" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L38" t="n">
         <v>1.25</v>
@@ -5560,25 +5560,25 @@
         <v>2.34</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R38" t="n">
         <v>1.54</v>
       </c>
       <c r="S38" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="T38" t="n">
         <v>1.75</v>
       </c>
       <c r="U38" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V38" t="n">
         <v>1.12</v>
       </c>
       <c r="W38" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="G40" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H40" t="n">
         <v>3.45</v>
       </c>
       <c r="I40" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J40" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K40" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5830,7 +5830,7 @@
         <v>1.66</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R40" t="n">
         <v>1.24</v>
@@ -5848,19 +5848,19 @@
         <v>1.36</v>
       </c>
       <c r="W40" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X40" t="n">
         <v>12.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z40" t="n">
         <v>24</v>
       </c>
       <c r="AA40" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB40" t="n">
         <v>8.6</v>
@@ -5869,7 +5869,7 @@
         <v>7.4</v>
       </c>
       <c r="AD40" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE40" t="n">
         <v>50</v>
@@ -5935,13 +5935,13 @@
         <v>3.35</v>
       </c>
       <c r="G41" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="H41" t="n">
         <v>2.24</v>
       </c>
       <c r="I41" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J41" t="n">
         <v>3</v>
@@ -5983,7 +5983,7 @@
         <v>1.67</v>
       </c>
       <c r="W41" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X41" t="n">
         <v>15</v>
@@ -6082,7 +6082,7 @@
         <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="L42" t="n">
         <v>1.33</v>
@@ -6340,7 +6340,7 @@
         <v>2.02</v>
       </c>
       <c r="G44" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H44" t="n">
         <v>3.8</v>
@@ -6388,7 +6388,7 @@
         <v>1.29</v>
       </c>
       <c r="W44" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="X44" t="n">
         <v>14</v>
@@ -6475,10 +6475,10 @@
         <v>1.37</v>
       </c>
       <c r="G45" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H45" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I45" t="n">
         <v>9.4</v>
@@ -6487,7 +6487,7 @@
         <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L45" t="n">
         <v>1.24</v>
@@ -6511,7 +6511,7 @@
         <v>1.71</v>
       </c>
       <c r="S45" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T45" t="n">
         <v>1.85</v>
@@ -6520,7 +6520,7 @@
         <v>2.04</v>
       </c>
       <c r="V45" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W45" t="n">
         <v>3.6</v>
@@ -6529,13 +6529,13 @@
         <v>30</v>
       </c>
       <c r="Y45" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Z45" t="n">
         <v>90</v>
       </c>
       <c r="AA45" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AB45" t="n">
         <v>12.5</v>
@@ -6547,7 +6547,7 @@
         <v>34</v>
       </c>
       <c r="AE45" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF45" t="n">
         <v>10.5</v>
@@ -6655,7 +6655,7 @@
         <v>2.02</v>
       </c>
       <c r="V46" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W46" t="n">
         <v>1.37</v>
@@ -6745,13 +6745,13 @@
         <v>2.86</v>
       </c>
       <c r="G47" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J47" t="n">
         <v>3</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G48" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H48" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I48" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J48" t="n">
         <v>4.8</v>
@@ -6907,7 +6907,7 @@
         <v>1.1</v>
       </c>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q48" t="n">
         <v>1.3</v>
@@ -6916,10 +6916,10 @@
         <v>2.26</v>
       </c>
       <c r="S48" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="T48" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U48" t="n">
         <v>3.6</v>
@@ -6928,13 +6928,13 @@
         <v>2.12</v>
       </c>
       <c r="W48" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X48" t="n">
         <v>50</v>
       </c>
       <c r="Y48" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z48" t="n">
         <v>21</v>
@@ -6979,7 +6979,7 @@
         <v>36</v>
       </c>
       <c r="AN48" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO48" t="n">
         <v>5.3</v>
@@ -7012,10 +7012,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G49" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H49" t="n">
         <v>3.25</v>
@@ -7024,13 +7024,13 @@
         <v>3.8</v>
       </c>
       <c r="J49" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="K49" t="n">
         <v>4.6</v>
       </c>
       <c r="L49" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
@@ -7045,7 +7045,7 @@
         <v>2.48</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R49" t="n">
         <v>1.59</v>
@@ -7066,7 +7066,7 @@
         <v>1.8</v>
       </c>
       <c r="X49" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y49" t="n">
         <v>24</v>
@@ -7075,13 +7075,13 @@
         <v>36</v>
       </c>
       <c r="AA49" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB49" t="n">
         <v>17.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD49" t="n">
         <v>18.5</v>
@@ -7099,7 +7099,7 @@
         <v>18.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ49" t="n">
         <v>32</v>
@@ -7117,7 +7117,7 @@
         <v>12.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="G50" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
         <v>2.8</v>
       </c>
       <c r="I50" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J50" t="n">
         <v>3</v>
@@ -7198,10 +7198,10 @@
         <v>1.48</v>
       </c>
       <c r="W50" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="X50" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y50" t="n">
         <v>970</v>
@@ -7237,19 +7237,19 @@
         <v>60</v>
       </c>
       <c r="AJ50" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK50" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL50" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM50" t="n">
         <v>170</v>
       </c>
       <c r="AN50" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO50" t="n">
         <v>44</v>
@@ -7318,7 +7318,7 @@
         <v>2.24</v>
       </c>
       <c r="R51" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S51" t="n">
         <v>4.3</v>
@@ -7363,7 +7363,7 @@
         <v>24</v>
       </c>
       <c r="AG51" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH51" t="n">
         <v>19.5</v>
@@ -7438,7 +7438,7 @@
         <v>1.46</v>
       </c>
       <c r="M52" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N52" t="n">
         <v>3.1</v>
@@ -7462,10 +7462,10 @@
         <v>1.88</v>
       </c>
       <c r="U52" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V52" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W52" t="n">
         <v>1.74</v>
@@ -7576,16 +7576,16 @@
         <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="O53" t="n">
         <v>1.24</v>
       </c>
       <c r="P53" t="n">
-        <v>1.41</v>
+        <v>2.08</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="R53" t="n">
         <v>1.41</v>
@@ -7900,7 +7900,7 @@
         <v>970</v>
       </c>
       <c r="AF55" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG55" t="n">
         <v>18</v>
@@ -8095,10 +8095,10 @@
         <v>2.12</v>
       </c>
       <c r="G57" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H57" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I57" t="n">
         <v>4.1</v>
@@ -8143,7 +8143,7 @@
         <v>1.32</v>
       </c>
       <c r="W57" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -8371,7 +8371,7 @@
         <v>3.25</v>
       </c>
       <c r="I59" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J59" t="n">
         <v>3.4</v>
@@ -8380,7 +8380,7 @@
         <v>4</v>
       </c>
       <c r="L59" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M59" t="n">
         <v>1.06</v>
@@ -8410,7 +8410,7 @@
         <v>2.18</v>
       </c>
       <c r="V59" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W59" t="n">
         <v>1.72</v>
@@ -8515,7 +8515,7 @@
         <v>4.3</v>
       </c>
       <c r="L60" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M60" t="n">
         <v>1.04</v>
@@ -8635,7 +8635,7 @@
         <v>2.76</v>
       </c>
       <c r="G61" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H61" t="n">
         <v>2.8</v>
@@ -8716,7 +8716,7 @@
         <v>13</v>
       </c>
       <c r="AH61" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI61" t="n">
         <v>55</v>
@@ -8776,7 +8776,7 @@
         <v>3.55</v>
       </c>
       <c r="I62" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J62" t="n">
         <v>3.8</v>
@@ -8818,7 +8818,7 @@
         <v>1.38</v>
       </c>
       <c r="W62" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="X62" t="n">
         <v>20</v>
@@ -8905,7 +8905,7 @@
         <v>20</v>
       </c>
       <c r="G63" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H63" t="n">
         <v>1.16</v>
@@ -8944,7 +8944,7 @@
         <v>1.7</v>
       </c>
       <c r="T63" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U63" t="n">
         <v>2.08</v>
@@ -8974,10 +8974,10 @@
         <v>26</v>
       </c>
       <c r="AD63" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE63" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF63" t="n">
         <v>270</v>
@@ -9046,13 +9046,13 @@
         <v>3.6</v>
       </c>
       <c r="I64" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J64" t="n">
         <v>3.4</v>
       </c>
       <c r="K64" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L64" t="n">
         <v>1.33</v>
@@ -9085,7 +9085,7 @@
         <v>2.08</v>
       </c>
       <c r="V64" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W64" t="n">
         <v>1.8</v>
@@ -9175,16 +9175,16 @@
         <v>2.82</v>
       </c>
       <c r="G65" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H65" t="n">
         <v>2.82</v>
       </c>
       <c r="I65" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J65" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="K65" t="n">
         <v>3.15</v>
@@ -9199,7 +9199,7 @@
         <v>2.24</v>
       </c>
       <c r="O65" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P65" t="n">
         <v>1.43</v>
@@ -9223,7 +9223,7 @@
         <v>1.38</v>
       </c>
       <c r="W65" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
@@ -9478,7 +9478,7 @@
         <v>2</v>
       </c>
       <c r="R67" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S67" t="n">
         <v>2</v>
@@ -9715,13 +9715,13 @@
         <v>2.16</v>
       </c>
       <c r="G69" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H69" t="n">
         <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J69" t="n">
         <v>3</v>
@@ -9760,13 +9760,13 @@
         <v>1.85</v>
       </c>
       <c r="V69" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W69" t="n">
         <v>1.66</v>
       </c>
       <c r="X69" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y69" t="n">
         <v>14</v>
@@ -9778,10 +9778,10 @@
         <v>100</v>
       </c>
       <c r="AB69" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD69" t="n">
         <v>19.5</v>
@@ -9847,10 +9847,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G70" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H70" t="n">
         <v>12.5</v>
@@ -9862,7 +9862,7 @@
         <v>8</v>
       </c>
       <c r="K70" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L70" t="n">
         <v>1.21</v>
@@ -9880,19 +9880,19 @@
         <v>3.35</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="R70" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="S70" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T70" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U70" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V70" t="n">
         <v>1.07</v>
@@ -9949,7 +9949,7 @@
         <v>160</v>
       </c>
       <c r="AN70" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO70" t="n">
         <v>190</v>
@@ -10012,7 +10012,7 @@
         <v>1.41</v>
       </c>
       <c r="P71" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q71" t="n">
         <v>2.22</v>
@@ -10255,7 +10255,7 @@
         <v>4.8</v>
       </c>
       <c r="G73" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="H73" t="n">
         <v>1.75</v>
@@ -10291,7 +10291,7 @@
         <v>1.32</v>
       </c>
       <c r="S73" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="T73" t="n">
         <v>1.88</v>
@@ -10303,7 +10303,7 @@
         <v>2.1</v>
       </c>
       <c r="W73" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X73" t="n">
         <v>16.5</v>
@@ -10522,19 +10522,19 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="G75" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="H75" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J75" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K75" t="n">
         <v>3.75</v>
@@ -10546,34 +10546,34 @@
         <v>1.08</v>
       </c>
       <c r="N75" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O75" t="n">
         <v>1.38</v>
       </c>
       <c r="P75" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q75" t="n">
         <v>2.12</v>
       </c>
       <c r="R75" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S75" t="n">
         <v>3.9</v>
       </c>
       <c r="T75" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U75" t="n">
         <v>1.94</v>
       </c>
       <c r="V75" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W75" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="X75" t="n">
         <v>12.5</v>
@@ -10660,13 +10660,13 @@
         <v>2.46</v>
       </c>
       <c r="G76" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
         <v>3.5</v>
       </c>
       <c r="I76" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J76" t="n">
         <v>3.2</v>
@@ -10792,22 +10792,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G77" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H77" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I77" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J77" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K77" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L77" t="n">
         <v>1.66</v>
@@ -10816,10 +10816,10 @@
         <v>1.15</v>
       </c>
       <c r="N77" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O77" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P77" t="n">
         <v>1.45</v>
@@ -10831,22 +10831,22 @@
         <v>1.16</v>
       </c>
       <c r="S77" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T77" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U77" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V77" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W77" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X77" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y77" t="n">
         <v>9.800000000000001</v>
@@ -10864,7 +10864,7 @@
         <v>7.2</v>
       </c>
       <c r="AD77" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE77" t="n">
         <v>95</v>
@@ -10885,7 +10885,7 @@
         <v>44</v>
       </c>
       <c r="AK77" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL77" t="n">
         <v>95</v>
@@ -10927,16 +10927,16 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H78" t="n">
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J78" t="n">
         <v>3.25</v>
@@ -10951,34 +10951,34 @@
         <v>1.08</v>
       </c>
       <c r="N78" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O78" t="n">
         <v>1.38</v>
       </c>
       <c r="P78" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R78" t="n">
         <v>1.3</v>
       </c>
       <c r="S78" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T78" t="n">
         <v>1.87</v>
       </c>
       <c r="U78" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V78" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W78" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X78" t="n">
         <v>14.5</v>
@@ -10999,7 +10999,7 @@
         <v>7.8</v>
       </c>
       <c r="AD78" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE78" t="n">
         <v>60</v>
@@ -11221,16 +11221,16 @@
         <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="O80" t="n">
         <v>1.01</v>
       </c>
       <c r="P80" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
       <c r="R80" t="n">
         <v>1.23</v>
@@ -11341,7 +11341,7 @@
         <v>3.95</v>
       </c>
       <c r="I81" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="J81" t="n">
         <v>3.3</v>
@@ -11353,19 +11353,19 @@
         <v>1.01</v>
       </c>
       <c r="M81" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N81" t="n">
-        <v>1.64</v>
+        <v>2.84</v>
       </c>
       <c r="O81" t="n">
-        <v>1.07</v>
+        <v>1.32</v>
       </c>
       <c r="P81" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="R81" t="n">
         <v>1.18</v>
@@ -11374,70 +11374,70 @@
         <v>3.3</v>
       </c>
       <c r="T81" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U81" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V81" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W81" t="n">
         <v>1.81</v>
       </c>
       <c r="X81" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA81" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB81" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC81" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD81" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE81" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF81" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG81" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH81" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI81" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ81" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK81" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL81" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM81" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN81" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO81" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82">
@@ -11497,16 +11497,16 @@
         <v>1.14</v>
       </c>
       <c r="P82" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R82" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="S82" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T82" t="n">
         <v>1.5</v>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="G83" t="n">
         <v>3.35</v>
@@ -11611,13 +11611,13 @@
         <v>2.38</v>
       </c>
       <c r="I83" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J83" t="n">
         <v>3.3</v>
       </c>
       <c r="K83" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L83" t="n">
         <v>1.29</v>
@@ -11635,7 +11635,7 @@
         <v>1.9</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.27</v>
+        <v>1.73</v>
       </c>
       <c r="R83" t="n">
         <v>1.33</v>
@@ -11650,7 +11650,7 @@
         <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W83" t="n">
         <v>1.43</v>
@@ -11743,7 +11743,7 @@
         <v>1.18</v>
       </c>
       <c r="H84" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I84" t="n">
         <v>36</v>
@@ -11752,7 +11752,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="L84" t="n">
         <v>1.26</v>
@@ -11761,7 +11761,7 @@
         <v>1.02</v>
       </c>
       <c r="N84" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O84" t="n">
         <v>1.17</v>
@@ -11773,22 +11773,22 @@
         <v>1.43</v>
       </c>
       <c r="R84" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S84" t="n">
         <v>2.2</v>
       </c>
       <c r="T84" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="U84" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V84" t="n">
         <v>1.03</v>
       </c>
       <c r="W84" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X84" t="n">
         <v>32</v>
@@ -11809,7 +11809,7 @@
         <v>21</v>
       </c>
       <c r="AD84" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AE84" t="n">
         <v>1000</v>
@@ -11839,7 +11839,7 @@
         <v>1000</v>
       </c>
       <c r="AN84" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO84" t="n">
         <v>1000</v>
@@ -11878,13 +11878,13 @@
         <v>2.22</v>
       </c>
       <c r="H85" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I85" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="J85" t="n">
-        <v>1.09</v>
+        <v>2.96</v>
       </c>
       <c r="K85" t="n">
         <v>1000</v>
@@ -12007,16 +12007,16 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G86" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H86" t="n">
         <v>3.1</v>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J86" t="n">
         <v>2.88</v>
@@ -12046,7 +12046,7 @@
         <v>1.28</v>
       </c>
       <c r="S86" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="T86" t="n">
         <v>1.81</v>
@@ -12055,10 +12055,10 @@
         <v>1.98</v>
       </c>
       <c r="V86" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W86" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X86" t="n">
         <v>14.5</v>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G87" t="n">
         <v>4.3</v>
@@ -12181,10 +12181,10 @@
         <v>1.31</v>
       </c>
       <c r="S87" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T87" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U87" t="n">
         <v>2.04</v>
@@ -12277,10 +12277,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G88" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H88" t="n">
         <v>6</v>
@@ -12421,7 +12421,7 @@
         <v>2.24</v>
       </c>
       <c r="I89" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J89" t="n">
         <v>3.45</v>
@@ -12436,13 +12436,13 @@
         <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O89" t="n">
         <v>1.34</v>
       </c>
       <c r="P89" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q89" t="n">
         <v>1.96</v>
@@ -12460,7 +12460,7 @@
         <v>2.1</v>
       </c>
       <c r="V89" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W89" t="n">
         <v>1.37</v>
@@ -12508,13 +12508,13 @@
         <v>44</v>
       </c>
       <c r="AL89" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM89" t="n">
         <v>120</v>
       </c>
       <c r="AN89" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AO89" t="n">
         <v>26</v>
@@ -12577,10 +12577,10 @@
         <v>1.47</v>
       </c>
       <c r="P90" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R90" t="n">
         <v>1.22</v>
@@ -12598,7 +12598,7 @@
         <v>1.21</v>
       </c>
       <c r="W90" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X90" t="n">
         <v>12</v>
@@ -12619,7 +12619,7 @@
         <v>8</v>
       </c>
       <c r="AD90" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE90" t="n">
         <v>120</v>
@@ -12646,7 +12646,7 @@
         <v>55</v>
       </c>
       <c r="AM90" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN90" t="n">
         <v>21</v>
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="G92" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H92" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I92" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J92" t="n">
         <v>3.75</v>
       </c>
       <c r="K92" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
@@ -12841,88 +12841,88 @@
         <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="O92" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V92" t="n">
         <v>1.29</v>
       </c>
-      <c r="P92" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R92" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S92" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T92" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U92" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V92" t="n">
-        <v>1.31</v>
-      </c>
       <c r="W92" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="X92" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y92" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z92" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA92" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM92" t="n">
         <v>120</v>
       </c>
-      <c r="AB92" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE92" t="n">
+      <c r="AN92" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO92" t="n">
         <v>65</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM92" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO92" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="93">
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G93" t="n">
         <v>1.71</v>
@@ -12961,10 +12961,10 @@
         <v>5.7</v>
       </c>
       <c r="I93" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J93" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K93" t="n">
         <v>4.6</v>
@@ -12976,7 +12976,7 @@
         <v>1.05</v>
       </c>
       <c r="N93" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O93" t="n">
         <v>1.25</v>
@@ -12985,13 +12985,13 @@
         <v>2.12</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R93" t="n">
         <v>1.44</v>
       </c>
       <c r="S93" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T93" t="n">
         <v>1.79</v>
@@ -13000,13 +13000,13 @@
         <v>2</v>
       </c>
       <c r="V93" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W93" t="n">
         <v>2.4</v>
       </c>
       <c r="X93" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y93" t="n">
         <v>25</v>
@@ -13015,7 +13015,7 @@
         <v>60</v>
       </c>
       <c r="AA93" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB93" t="n">
         <v>10</v>
@@ -13027,7 +13027,7 @@
         <v>26</v>
       </c>
       <c r="AE93" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AF93" t="n">
         <v>11</v>
@@ -13039,7 +13039,7 @@
         <v>22</v>
       </c>
       <c r="AI93" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ93" t="n">
         <v>18</v>
@@ -13054,7 +13054,7 @@
         <v>130</v>
       </c>
       <c r="AN93" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AO93" t="n">
         <v>110</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="I2" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
         <v>1.84</v>
@@ -946,13 +946,13 @@
         <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="J4" t="n">
         <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -961,31 +961,31 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="O4" t="n">
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1.34</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="T4" t="n">
         <v>1.78</v>
       </c>
       <c r="U4" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
         <v>2.18</v>
@@ -1075,16 +1075,16 @@
         <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
         <v>4.6</v>
@@ -1105,13 +1105,13 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="R5" t="n">
         <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T5" t="n">
         <v>1.53</v>
@@ -1120,10 +1120,10 @@
         <v>2.52</v>
       </c>
       <c r="V5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W5" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X5" t="n">
         <v>32</v>
@@ -1147,10 +1147,10 @@
         <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>14</v>
@@ -1210,7 +1210,7 @@
         <v>4.6</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
         <v>1.73</v>
@@ -1222,7 +1222,7 @@
         <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.25</v>
@@ -1243,7 +1243,7 @@
         <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>2.28</v>
@@ -1258,7 +1258,7 @@
         <v>2.28</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X6" t="n">
         <v>27</v>
@@ -1348,16 +1348,16 @@
         <v>2.26</v>
       </c>
       <c r="H7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.55</v>
@@ -1378,7 +1378,7 @@
         <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1390,7 +1390,7 @@
         <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
         <v>1.79</v>
@@ -1756,7 +1756,7 @@
         <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
@@ -1813,16 +1813,16 @@
         <v>170</v>
       </c>
       <c r="AB10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC10" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>25</v>
       </c>
       <c r="AE10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
         <v>11.5</v>
@@ -1837,7 +1837,7 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK10" t="n">
         <v>20</v>
@@ -1849,7 +1849,7 @@
         <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>110</v>
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="G12" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
         <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O12" t="n">
         <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
         <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
         <v>3.9</v>
@@ -2293,7 +2293,7 @@
         <v>2.18</v>
       </c>
       <c r="H14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
         <v>3.9</v>
@@ -2305,34 +2305,34 @@
         <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R14" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S14" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="T14" t="n">
         <v>1.65</v>
       </c>
       <c r="U14" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V14" t="n">
         <v>1.37</v>
@@ -2560,10 +2560,10 @@
         <v>2.9</v>
       </c>
       <c r="G16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I16" t="n">
         <v>2.52</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G17" t="n">
         <v>3.6</v>
@@ -2704,7 +2704,7 @@
         <v>2.22</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
         <v>4</v>
@@ -2740,10 +2740,10 @@
         <v>2.38</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W17" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X17" t="n">
         <v>27</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H18" t="n">
         <v>2.14</v>
@@ -2851,10 +2851,10 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
         <v>2.24</v>
@@ -2863,16 +2863,16 @@
         <v>1.73</v>
       </c>
       <c r="R18" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="S18" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="T18" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="U18" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="V18" t="n">
         <v>1.81</v>
@@ -2881,58 +2881,58 @@
         <v>1.38</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB18" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AC18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE18" t="n">
         <v>22</v>
       </c>
-      <c r="AA18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>30</v>
-      </c>
       <c r="AF18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK18" t="n">
         <v>38</v>
       </c>
-      <c r="AG18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>50</v>
-      </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="19">
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H19" t="n">
         <v>2.24</v>
@@ -3010,7 +3010,7 @@
         <v>2.04</v>
       </c>
       <c r="V19" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W19" t="n">
         <v>1.37</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="H20" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="J20" t="n">
-        <v>2.04</v>
+        <v>12</v>
       </c>
       <c r="K20" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,37 +3121,37 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="O20" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P20" t="n">
-        <v>2.04</v>
+        <v>3.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="R20" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="S20" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>8.4</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Y20" t="n">
         <v>1000</v>
@@ -3163,10 +3163,10 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
@@ -3175,31 +3175,31 @@
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>2.38</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3241,13 +3241,13 @@
         <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
         <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3265,7 +3265,7 @@
         <v>2.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R21" t="n">
         <v>1.64</v>
@@ -3277,7 +3277,7 @@
         <v>1.53</v>
       </c>
       <c r="U21" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V21" t="n">
         <v>1.4</v>
@@ -3367,37 +3367,37 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="G22" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="H22" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I22" t="n">
         <v>10</v>
       </c>
       <c r="J22" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="K22" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L22" t="n">
         <v>1.26</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q22" t="n">
         <v>1.58</v>
@@ -3406,10 +3406,10 @@
         <v>1.49</v>
       </c>
       <c r="S22" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="T22" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U22" t="n">
         <v>1.96</v>
@@ -3418,7 +3418,7 @@
         <v>1.11</v>
       </c>
       <c r="W22" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3448,7 +3448,7 @@
         <v>11.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
         <v>1000</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G23" t="n">
         <v>3.35</v>
       </c>
       <c r="H23" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I23" t="n">
         <v>2.58</v>
@@ -3571,7 +3571,7 @@
         <v>14.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
         <v>13.5</v>
@@ -3589,7 +3589,7 @@
         <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="n">
         <v>60</v>
@@ -3607,7 +3607,7 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -3640,10 +3640,10 @@
         <v>5.2</v>
       </c>
       <c r="G24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="I24" t="n">
         <v>1.77</v>
@@ -3652,7 +3652,7 @@
         <v>4.1</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.36</v>
@@ -3679,7 +3679,7 @@
         <v>3.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U24" t="n">
         <v>2.16</v>
@@ -3703,7 +3703,7 @@
         <v>18</v>
       </c>
       <c r="AB24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC24" t="n">
         <v>9</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="G25" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="H25" t="n">
         <v>4.7</v>
@@ -3910,7 +3910,7 @@
         <v>2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H26" t="n">
         <v>3.55</v>
@@ -3958,7 +3958,7 @@
         <v>1.38</v>
       </c>
       <c r="W26" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X26" t="n">
         <v>15</v>
@@ -3976,7 +3976,7 @@
         <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
         <v>15</v>
@@ -4177,25 +4177,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="G28" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H28" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="I28" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J28" t="n">
         <v>4.1</v>
       </c>
       <c r="K28" t="n">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
@@ -4210,13 +4210,13 @@
         <v>1.65</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R28" t="n">
         <v>1.21</v>
       </c>
       <c r="S28" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4225,10 +4225,10 @@
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="W28" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4315,7 +4315,7 @@
         <v>4.4</v>
       </c>
       <c r="G29" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="H29" t="n">
         <v>1.82</v>
@@ -4369,7 +4369,7 @@
         <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z29" t="n">
         <v>13.5</v>
@@ -4381,7 +4381,7 @@
         <v>18</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD29" t="n">
         <v>12.5</v>
@@ -4591,7 +4591,7 @@
         <v>2.2</v>
       </c>
       <c r="I31" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J31" t="n">
         <v>3.75</v>
@@ -4630,7 +4630,7 @@
         <v>2.34</v>
       </c>
       <c r="V31" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W31" t="n">
         <v>1.4</v>
@@ -4744,28 +4744,28 @@
         <v>5.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P32" t="n">
         <v>2.52</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="R32" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S32" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="T32" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U32" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="V32" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W32" t="n">
         <v>2.32</v>
@@ -4774,7 +4774,7 @@
         <v>30</v>
       </c>
       <c r="Y32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z32" t="n">
         <v>44</v>
@@ -4783,10 +4783,10 @@
         <v>130</v>
       </c>
       <c r="AB32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD32" t="n">
         <v>21</v>
@@ -4807,10 +4807,10 @@
         <v>48</v>
       </c>
       <c r="AJ32" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AK32" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AL32" t="n">
         <v>26</v>
@@ -4852,40 +4852,40 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="I33" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J33" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>2.02</v>
+        <v>4.4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P33" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="R33" t="n">
         <v>1.46</v>
@@ -4894,70 +4894,70 @@
         <v>2.84</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U33" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="V33" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W33" t="n">
         <v>1.51</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM33" t="n">
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -4996,7 +4996,7 @@
         <v>3.45</v>
       </c>
       <c r="I34" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
         <v>2.82</v>
@@ -5140,7 +5140,7 @@
         <v>4.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M35" t="n">
         <v>1.07</v>
@@ -5170,7 +5170,7 @@
         <v>1.8</v>
       </c>
       <c r="V35" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W35" t="n">
         <v>2.18</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="H36" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="I36" t="n">
         <v>2.74</v>
       </c>
       <c r="J36" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K36" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5308,7 +5308,7 @@
         <v>1.57</v>
       </c>
       <c r="W36" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="X36" t="n">
         <v>26</v>
@@ -5392,64 +5392,64 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G37" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H37" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P37" t="n">
         <v>2.02</v>
       </c>
-      <c r="I37" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.84</v>
       </c>
-      <c r="Q37" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W37" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X37" t="n">
         <v>970</v>
       </c>
       <c r="Y37" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z37" t="n">
         <v>970</v>
@@ -5461,16 +5461,16 @@
         <v>970</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD37" t="n">
         <v>13</v>
       </c>
       <c r="AE37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF37" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG37" t="n">
         <v>970</v>
@@ -5479,25 +5479,25 @@
         <v>23</v>
       </c>
       <c r="AI37" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ37" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK37" t="n">
         <v>60</v>
       </c>
       <c r="AL37" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN37" t="n">
         <v>65</v>
       </c>
       <c r="AO37" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
     </row>
     <row r="38">
@@ -5530,7 +5530,7 @@
         <v>1.47</v>
       </c>
       <c r="G38" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H38" t="n">
         <v>5.7</v>
@@ -5542,7 +5542,7 @@
         <v>4.2</v>
       </c>
       <c r="K38" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="L38" t="n">
         <v>1.25</v>
@@ -5563,7 +5563,7 @@
         <v>1.6</v>
       </c>
       <c r="R38" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S38" t="n">
         <v>2.38</v>
@@ -5578,7 +5578,7 @@
         <v>1.12</v>
       </c>
       <c r="W38" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5671,7 +5671,7 @@
         <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J39" t="n">
         <v>3.2</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G40" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J40" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K40" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,16 +5821,16 @@
         <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O40" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P40" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="R40" t="n">
         <v>1.24</v>
@@ -5842,16 +5842,16 @@
         <v>1.93</v>
       </c>
       <c r="U40" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V40" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W40" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X40" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y40" t="n">
         <v>13</v>
@@ -5935,13 +5935,13 @@
         <v>3.35</v>
       </c>
       <c r="G41" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H41" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I41" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="J41" t="n">
         <v>3</v>
@@ -5971,7 +5971,7 @@
         <v>1.29</v>
       </c>
       <c r="S41" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="T41" t="n">
         <v>1.81</v>
@@ -5980,10 +5980,10 @@
         <v>2.02</v>
       </c>
       <c r="V41" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="W41" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X41" t="n">
         <v>15</v>
@@ -5992,7 +5992,7 @@
         <v>11.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA41" t="n">
         <v>40</v>
@@ -6013,7 +6013,7 @@
         <v>30</v>
       </c>
       <c r="AG41" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH41" t="n">
         <v>23</v>
@@ -6214,19 +6214,19 @@
         <v>4.3</v>
       </c>
       <c r="J43" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K43" t="n">
         <v>3.6</v>
       </c>
       <c r="L43" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M43" t="n">
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O43" t="n">
         <v>1.41</v>
@@ -6244,7 +6244,7 @@
         <v>4.2</v>
       </c>
       <c r="T43" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U43" t="n">
         <v>1.95</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G45" t="n">
         <v>1.38</v>
       </c>
       <c r="H45" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I45" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J45" t="n">
         <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L45" t="n">
         <v>1.24</v>
@@ -6511,13 +6511,13 @@
         <v>1.71</v>
       </c>
       <c r="S45" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T45" t="n">
         <v>1.85</v>
       </c>
       <c r="U45" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V45" t="n">
         <v>1.11</v>
@@ -6529,10 +6529,10 @@
         <v>30</v>
       </c>
       <c r="Y45" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Z45" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AA45" t="n">
         <v>330</v>
@@ -6541,10 +6541,10 @@
         <v>12.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE45" t="n">
         <v>130</v>
@@ -6610,7 +6610,7 @@
         <v>3.45</v>
       </c>
       <c r="G46" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H46" t="n">
         <v>2.24</v>
@@ -6619,7 +6619,7 @@
         <v>2.34</v>
       </c>
       <c r="J46" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K46" t="n">
         <v>3.6</v>
@@ -6655,7 +6655,7 @@
         <v>2.02</v>
       </c>
       <c r="V46" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W46" t="n">
         <v>1.37</v>
@@ -6883,16 +6883,16 @@
         <v>3.8</v>
       </c>
       <c r="H48" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="I48" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="J48" t="n">
         <v>4.8</v>
       </c>
       <c r="K48" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L48" t="n">
         <v>1.17</v>
@@ -6916,16 +6916,16 @@
         <v>2.26</v>
       </c>
       <c r="S48" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="T48" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U48" t="n">
         <v>3.6</v>
       </c>
       <c r="V48" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W48" t="n">
         <v>1.35</v>
@@ -6934,7 +6934,7 @@
         <v>50</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z48" t="n">
         <v>21</v>
@@ -7021,10 +7021,10 @@
         <v>3.25</v>
       </c>
       <c r="I49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J49" t="n">
         <v>3.8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.45</v>
       </c>
       <c r="K49" t="n">
         <v>4.6</v>
@@ -7153,13 +7153,13 @@
         <v>3.2</v>
       </c>
       <c r="H50" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I50" t="n">
         <v>3.05</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K50" t="n">
         <v>3.3</v>
@@ -7171,22 +7171,22 @@
         <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O50" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P50" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R50" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S50" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T50" t="n">
         <v>1.96</v>
@@ -7198,7 +7198,7 @@
         <v>1.48</v>
       </c>
       <c r="W50" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X50" t="n">
         <v>11.5</v>
@@ -7252,7 +7252,7 @@
         <v>46</v>
       </c>
       <c r="AO50" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
@@ -7282,16 +7282,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G51" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H51" t="n">
         <v>2.38</v>
       </c>
       <c r="I51" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="J51" t="n">
         <v>3.2</v>
@@ -7306,7 +7306,7 @@
         <v>1.1</v>
       </c>
       <c r="N51" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O51" t="n">
         <v>1.43</v>
@@ -7318,19 +7318,19 @@
         <v>2.24</v>
       </c>
       <c r="R51" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S51" t="n">
         <v>4.3</v>
       </c>
       <c r="T51" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U51" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V51" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W51" t="n">
         <v>1.39</v>
@@ -7426,7 +7426,7 @@
         <v>3.6</v>
       </c>
       <c r="I52" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J52" t="n">
         <v>3.2</v>
@@ -7447,16 +7447,16 @@
         <v>1.38</v>
       </c>
       <c r="P52" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R52" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S52" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T52" t="n">
         <v>1.88</v>
@@ -7465,7 +7465,7 @@
         <v>1.94</v>
       </c>
       <c r="V52" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W52" t="n">
         <v>1.74</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="G53" t="n">
         <v>3.3</v>
@@ -7561,10 +7561,10 @@
         <v>2.26</v>
       </c>
       <c r="I53" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="J53" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K53" t="n">
         <v>3.95</v>
@@ -7573,34 +7573,34 @@
         <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N53" t="n">
-        <v>2.08</v>
+        <v>4.4</v>
       </c>
       <c r="O53" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P53" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="R53" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S53" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="T53" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="U53" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="V53" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="W53" t="n">
         <v>1.44</v>
@@ -7609,49 +7609,49 @@
         <v>1000</v>
       </c>
       <c r="Y53" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z53" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA53" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB53" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC53" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD53" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE53" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF53" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG53" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI53" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK53" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM53" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN53" t="n">
         <v>1000</v>
@@ -7687,13 +7687,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G54" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I54" t="n">
         <v>3.05</v>
@@ -7705,7 +7705,7 @@
         <v>3.9</v>
       </c>
       <c r="L54" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M54" t="n">
         <v>1.04</v>
@@ -7738,7 +7738,7 @@
         <v>1.48</v>
       </c>
       <c r="W54" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X54" t="n">
         <v>26</v>
@@ -7771,7 +7771,7 @@
         <v>13</v>
       </c>
       <c r="AH54" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI54" t="n">
         <v>36</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="G55" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H55" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="I55" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
         <v>4</v>
       </c>
       <c r="K55" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L55" t="n">
         <v>1.31</v>
@@ -7852,82 +7852,82 @@
         <v>1.21</v>
       </c>
       <c r="P55" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q55" t="n">
         <v>1.64</v>
       </c>
       <c r="R55" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S55" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T55" t="n">
         <v>1.62</v>
       </c>
       <c r="U55" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="V55" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="W55" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X55" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y55" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z55" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG55" t="n">
         <v>17</v>
       </c>
-      <c r="AA55" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>18</v>
-      </c>
       <c r="AH55" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AI55" t="n">
         <v>28</v>
       </c>
       <c r="AJ55" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AK55" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AL55" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM55" t="n">
         <v>70</v>
       </c>
       <c r="AN55" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO55" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -7960,19 +7960,19 @@
         <v>2.8</v>
       </c>
       <c r="G56" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>2.44</v>
       </c>
       <c r="I56" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="J56" t="n">
         <v>3.75</v>
       </c>
       <c r="K56" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
         <v>1.28</v>
@@ -7981,34 +7981,34 @@
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O56" t="n">
         <v>1.2</v>
       </c>
       <c r="P56" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q56" t="n">
         <v>1.62</v>
       </c>
       <c r="R56" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S56" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T56" t="n">
         <v>1.55</v>
       </c>
       <c r="U56" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="V56" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W56" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X56" t="n">
         <v>24</v>
@@ -8053,16 +8053,16 @@
         <v>30</v>
       </c>
       <c r="AL56" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM56" t="n">
         <v>60</v>
       </c>
       <c r="AN56" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AO56" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -8092,13 +8092,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G57" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="H57" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I57" t="n">
         <v>4.1</v>
@@ -8107,31 +8107,31 @@
         <v>3.4</v>
       </c>
       <c r="K57" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O57" t="n">
         <v>1.28</v>
       </c>
-      <c r="M57" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N57" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1.25</v>
-      </c>
       <c r="P57" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="R57" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S57" t="n">
-        <v>2.62</v>
+        <v>3.35</v>
       </c>
       <c r="T57" t="n">
         <v>1.01</v>
@@ -8143,7 +8143,7 @@
         <v>1.32</v>
       </c>
       <c r="W57" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G58" t="n">
         <v>2.32</v>
@@ -8515,7 +8515,7 @@
         <v>4.3</v>
       </c>
       <c r="L60" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="M60" t="n">
         <v>1.04</v>
@@ -8635,7 +8635,7 @@
         <v>2.76</v>
       </c>
       <c r="G61" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H61" t="n">
         <v>2.8</v>
@@ -8644,7 +8644,7 @@
         <v>2.96</v>
       </c>
       <c r="J61" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K61" t="n">
         <v>3.35</v>
@@ -8659,7 +8659,7 @@
         <v>3.55</v>
       </c>
       <c r="O61" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P61" t="n">
         <v>1.89</v>
@@ -8809,16 +8809,16 @@
         <v>2.66</v>
       </c>
       <c r="T62" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U62" t="n">
         <v>2.6</v>
       </c>
       <c r="V62" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W62" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="X62" t="n">
         <v>20</v>
@@ -8932,7 +8932,7 @@
         <v>1.08</v>
       </c>
       <c r="P63" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Q63" t="n">
         <v>1.27</v>
@@ -8971,7 +8971,7 @@
         <v>95</v>
       </c>
       <c r="AC63" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD63" t="n">
         <v>14</v>
@@ -8980,7 +8980,7 @@
         <v>13</v>
       </c>
       <c r="AF63" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AG63" t="n">
         <v>70</v>
@@ -9007,7 +9007,7 @@
         <v>270</v>
       </c>
       <c r="AO63" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="64">
@@ -9172,40 +9172,40 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H65" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I65" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J65" t="n">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="K65" t="n">
         <v>3.15</v>
       </c>
       <c r="L65" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="M65" t="n">
         <v>1.12</v>
       </c>
       <c r="N65" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="O65" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="P65" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="R65" t="n">
         <v>1.18</v>
@@ -9214,70 +9214,70 @@
         <v>5.4</v>
       </c>
       <c r="T65" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="U65" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V65" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="W65" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X65" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y65" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z65" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA65" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB65" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC65" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD65" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE65" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF65" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG65" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH65" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI65" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK65" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL65" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM65" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN65" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO65" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66">
@@ -9319,7 +9319,7 @@
         <v>4.5</v>
       </c>
       <c r="J66" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K66" t="n">
         <v>3.6</v>
@@ -9340,7 +9340,7 @@
         <v>1.61</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R66" t="n">
         <v>1.22</v>
@@ -9442,22 +9442,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="G67" t="n">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="H67" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I67" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J67" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K67" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="L67" t="n">
         <v>1.37</v>
@@ -9475,13 +9475,13 @@
         <v>1.58</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R67" t="n">
         <v>1.19</v>
       </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T67" t="n">
         <v>1.01</v>
@@ -9490,10 +9490,10 @@
         <v>1.01</v>
       </c>
       <c r="V67" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="W67" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="X67" t="n">
         <v>1000</v>
@@ -9577,25 +9577,25 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="G68" t="n">
         <v>2.56</v>
       </c>
       <c r="H68" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I68" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="J68" t="n">
         <v>2.74</v>
       </c>
       <c r="K68" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="L68" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M68" t="n">
         <v>1.01</v>
@@ -9610,7 +9610,7 @@
         <v>1.43</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R68" t="n">
         <v>1.18</v>
@@ -9625,7 +9625,7 @@
         <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="W68" t="n">
         <v>1.64</v>
@@ -9721,7 +9721,7 @@
         <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J69" t="n">
         <v>3</v>
@@ -9760,7 +9760,7 @@
         <v>1.85</v>
       </c>
       <c r="V69" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="W69" t="n">
         <v>1.66</v>
@@ -9778,10 +9778,10 @@
         <v>100</v>
       </c>
       <c r="AB69" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD69" t="n">
         <v>19.5</v>
@@ -9850,7 +9850,7 @@
         <v>1.22</v>
       </c>
       <c r="G70" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H70" t="n">
         <v>12.5</v>
@@ -9991,7 +9991,7 @@
         <v>3.6</v>
       </c>
       <c r="I71" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J71" t="n">
         <v>3.15</v>
@@ -10018,7 +10018,7 @@
         <v>2.22</v>
       </c>
       <c r="R71" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S71" t="n">
         <v>4.2</v>
@@ -10030,7 +10030,7 @@
         <v>1.98</v>
       </c>
       <c r="V71" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W71" t="n">
         <v>1.69</v>
@@ -10135,7 +10135,7 @@
         <v>4.3</v>
       </c>
       <c r="L72" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M72" t="n">
         <v>1.08</v>
@@ -10252,61 +10252,61 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G73" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="H73" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="I73" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J73" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K73" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L73" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="M73" t="n">
         <v>1.07</v>
       </c>
       <c r="N73" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O73" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="P73" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U73" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q73" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R73" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S73" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T73" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U73" t="n">
-        <v>1.93</v>
-      </c>
       <c r="V73" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="W73" t="n">
         <v>1.2</v>
       </c>
       <c r="X73" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Y73" t="n">
         <v>9.800000000000001</v>
@@ -10315,49 +10315,49 @@
         <v>13</v>
       </c>
       <c r="AA73" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB73" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AC73" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD73" t="n">
         <v>12.5</v>
       </c>
       <c r="AE73" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF73" t="n">
         <v>50</v>
       </c>
       <c r="AG73" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH73" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI73" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ73" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AK73" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AL73" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AM73" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN73" t="n">
         <v>150</v>
       </c>
-      <c r="AN73" t="n">
-        <v>120</v>
-      </c>
       <c r="AO73" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -10456,7 +10456,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC74" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD74" t="n">
         <v>14.5</v>
@@ -10522,13 +10522,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G75" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H75" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I75" t="n">
         <v>4.7</v>
@@ -10537,7 +10537,7 @@
         <v>3.35</v>
       </c>
       <c r="K75" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L75" t="n">
         <v>1.43</v>
@@ -10573,16 +10573,16 @@
         <v>1.27</v>
       </c>
       <c r="W75" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X75" t="n">
         <v>12.5</v>
       </c>
       <c r="Y75" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AA75" t="n">
         <v>120</v>
@@ -10594,7 +10594,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD75" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE75" t="n">
         <v>65</v>
@@ -10627,7 +10627,7 @@
         <v>20</v>
       </c>
       <c r="AO75" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76">
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G76" t="n">
         <v>2.5</v>
@@ -10792,25 +10792,25 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G77" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H77" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
         <v>3.1</v>
       </c>
       <c r="L77" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="M77" t="n">
         <v>1.15</v>
@@ -10822,7 +10822,7 @@
         <v>1.66</v>
       </c>
       <c r="P77" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q77" t="n">
         <v>2.96</v>
@@ -10834,22 +10834,22 @@
         <v>6.6</v>
       </c>
       <c r="T77" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U77" t="n">
         <v>1.67</v>
       </c>
       <c r="V77" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W77" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X77" t="n">
         <v>7.4</v>
       </c>
       <c r="Y77" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Z77" t="n">
         <v>34</v>
@@ -10858,7 +10858,7 @@
         <v>130</v>
       </c>
       <c r="AB77" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC77" t="n">
         <v>7.2</v>
@@ -10927,16 +10927,16 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G78" t="n">
         <v>2.18</v>
       </c>
       <c r="H78" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I78" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J78" t="n">
         <v>3.25</v>
@@ -10975,7 +10975,7 @@
         <v>1.99</v>
       </c>
       <c r="V78" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W78" t="n">
         <v>1.84</v>
@@ -11065,16 +11065,16 @@
         <v>2.26</v>
       </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H79" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I79" t="n">
         <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K79" t="n">
         <v>3.3</v>
@@ -11221,13 +11221,13 @@
         <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>1.59</v>
+        <v>3.1</v>
       </c>
       <c r="O80" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P80" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="Q80" t="n">
         <v>2.04</v>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G81" t="n">
         <v>2.22</v>
@@ -11356,22 +11356,22 @@
         <v>1.08</v>
       </c>
       <c r="N81" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="O81" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P81" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="R81" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S81" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="T81" t="n">
         <v>1.87</v>
@@ -11383,7 +11383,7 @@
         <v>1.28</v>
       </c>
       <c r="W81" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X81" t="n">
         <v>14.5</v>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G83" t="n">
         <v>3.35</v>
@@ -11743,7 +11743,7 @@
         <v>1.18</v>
       </c>
       <c r="H84" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I84" t="n">
         <v>36</v>
@@ -11761,22 +11761,22 @@
         <v>1.02</v>
       </c>
       <c r="N84" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O84" t="n">
         <v>1.17</v>
       </c>
       <c r="P84" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="R84" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S84" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="T84" t="n">
         <v>2.44</v>
@@ -11788,7 +11788,7 @@
         <v>1.03</v>
       </c>
       <c r="W84" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="X84" t="n">
         <v>32</v>
@@ -12010,13 +12010,13 @@
         <v>2.32</v>
       </c>
       <c r="G86" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="H86" t="n">
         <v>3.1</v>
       </c>
       <c r="I86" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="J86" t="n">
         <v>2.88</v>
@@ -12034,7 +12034,7 @@
         <v>3.15</v>
       </c>
       <c r="O86" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P86" t="n">
         <v>1.74</v>
@@ -12058,7 +12058,7 @@
         <v>1.37</v>
       </c>
       <c r="W86" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X86" t="n">
         <v>14.5</v>
@@ -12145,10 +12145,10 @@
         <v>4.2</v>
       </c>
       <c r="G87" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H87" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I87" t="n">
         <v>2.1</v>
@@ -12157,7 +12157,7 @@
         <v>3.5</v>
       </c>
       <c r="K87" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L87" t="n">
         <v>1.44</v>
@@ -12184,7 +12184,7 @@
         <v>3.95</v>
       </c>
       <c r="T87" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U87" t="n">
         <v>2.04</v>
@@ -12277,10 +12277,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="G88" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H88" t="n">
         <v>6</v>
@@ -12304,19 +12304,19 @@
         <v>2.84</v>
       </c>
       <c r="O88" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P88" t="n">
         <v>1.61</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="R88" t="n">
         <v>1.22</v>
       </c>
       <c r="S88" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T88" t="n">
         <v>2.38</v>
@@ -12364,7 +12364,7 @@
         <v>29</v>
       </c>
       <c r="AI88" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ88" t="n">
         <v>18</v>
@@ -12376,7 +12376,7 @@
         <v>60</v>
       </c>
       <c r="AM88" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AN88" t="n">
         <v>17</v>
@@ -12412,16 +12412,16 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G89" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H89" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="I89" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J89" t="n">
         <v>3.45</v>
@@ -12436,34 +12436,34 @@
         <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O89" t="n">
         <v>1.34</v>
       </c>
       <c r="P89" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R89" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S89" t="n">
         <v>3.55</v>
       </c>
       <c r="T89" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U89" t="n">
         <v>2.1</v>
       </c>
       <c r="V89" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W89" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X89" t="n">
         <v>13.5</v>
@@ -12496,25 +12496,25 @@
         <v>15</v>
       </c>
       <c r="AH89" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI89" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AJ89" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK89" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL89" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM89" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN89" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AO89" t="n">
         <v>26</v>
@@ -12547,22 +12547,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G90" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="H90" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I90" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J90" t="n">
         <v>3.4</v>
       </c>
       <c r="K90" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L90" t="n">
         <v>1.54</v>
@@ -12571,19 +12571,19 @@
         <v>1.11</v>
       </c>
       <c r="N90" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O90" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P90" t="n">
         <v>1.62</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R90" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S90" t="n">
         <v>4.8</v>
@@ -12598,7 +12598,7 @@
         <v>1.21</v>
       </c>
       <c r="W90" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X90" t="n">
         <v>12</v>
@@ -12820,7 +12820,7 @@
         <v>1.95</v>
       </c>
       <c r="G92" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>3.9</v>
@@ -12832,7 +12832,7 @@
         <v>3.75</v>
       </c>
       <c r="K92" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
@@ -12868,7 +12868,7 @@
         <v>1.29</v>
       </c>
       <c r="W92" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X92" t="n">
         <v>15.5</v>
@@ -12952,19 +12952,19 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G93" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I93" t="n">
         <v>7</v>
       </c>
       <c r="J93" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K93" t="n">
         <v>4.6</v>
@@ -13003,7 +13003,7 @@
         <v>1.17</v>
       </c>
       <c r="W93" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="X93" t="n">
         <v>23</v>
@@ -13111,19 +13111,19 @@
         <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="O94" t="n">
         <v>1.34</v>
       </c>
       <c r="P94" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="Q94" t="n">
         <v>1.86</v>
       </c>
       <c r="R94" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S94" t="n">
         <v>3.1</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G2" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="I2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="J3" t="n">
         <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.28</v>
@@ -826,40 +826,40 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="U3" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="V3" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="W3" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>8.4</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G4" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="H4" t="n">
         <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.87</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.34</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
         <v>3.55</v>
       </c>
       <c r="T4" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
         <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -1075,22 +1075,22 @@
         <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
         <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1105,13 +1105,13 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S5" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
         <v>1.53</v>
@@ -1120,22 +1120,22 @@
         <v>2.52</v>
       </c>
       <c r="V5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X5" t="n">
         <v>32</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z5" t="n">
         <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
         <v>18</v>
@@ -1147,10 +1147,10 @@
         <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
         <v>14</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="I6" t="n">
         <v>1.78</v>
@@ -1252,13 +1252,13 @@
         <v>1.57</v>
       </c>
       <c r="U6" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V6" t="n">
         <v>2.28</v>
       </c>
       <c r="W6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
         <v>27</v>
@@ -1270,7 +1270,7 @@
         <v>16</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1285,13 +1285,13 @@
         <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
         <v>24</v>
@@ -1300,16 +1300,16 @@
         <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
         <v>65</v>
       </c>
       <c r="AN6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO6" t="n">
         <v>7</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -1357,13 +1357,13 @@
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.55</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
         <v>2.92</v>
@@ -1372,10 +1372,10 @@
         <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R7" t="n">
         <v>1.23</v>
@@ -1393,7 +1393,7 @@
         <v>1.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X7" t="n">
         <v>9.4</v>
@@ -1441,7 +1441,7 @@
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN7" t="n">
         <v>27</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="I8" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="J8" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="T9" t="n">
         <v>2.06</v>
@@ -1789,10 +1789,10 @@
         <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="U10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>1.21</v>
@@ -1810,13 +1810,13 @@
         <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB10" t="n">
         <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>25</v>
@@ -1894,7 +1894,7 @@
         <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K11" t="n">
         <v>4.7</v>
@@ -1915,7 +1915,7 @@
         <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R11" t="n">
         <v>1.18</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="G12" t="n">
         <v>2.9</v>
@@ -2047,7 +2047,7 @@
         <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q12" t="n">
         <v>1.72</v>
@@ -2065,7 +2065,7 @@
         <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="W12" t="n">
         <v>1.52</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G13" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
         <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.28</v>
@@ -2317,7 +2317,7 @@
         <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q14" t="n">
         <v>1.64</v>
@@ -2326,19 +2326,19 @@
         <v>1.45</v>
       </c>
       <c r="S14" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T14" t="n">
         <v>1.65</v>
       </c>
       <c r="U14" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V14" t="n">
         <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="G15" t="n">
         <v>2.74</v>
@@ -2431,16 +2431,16 @@
         <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="J15" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
         <v>3.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M15" t="n">
         <v>1.11</v>
@@ -2470,7 +2470,7 @@
         <v>1.78</v>
       </c>
       <c r="V15" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
         <v>1.57</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="H16" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,25 +2692,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H17" t="n">
         <v>2.14</v>
       </c>
       <c r="I17" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
         <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -2722,25 +2722,25 @@
         <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="n">
         <v>1.55</v>
       </c>
       <c r="S17" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T17" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="U17" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="V17" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
         <v>1.39</v>
@@ -2749,19 +2749,19 @@
         <v>27</v>
       </c>
       <c r="Y17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AB17" t="n">
         <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>12</v>
@@ -2770,7 +2770,7 @@
         <v>22</v>
       </c>
       <c r="AF17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
         <v>18</v>
@@ -2779,16 +2779,16 @@
         <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AJ17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="n">
         <v>38</v>
       </c>
       <c r="AL17" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
         <v>65</v>
@@ -2797,7 +2797,7 @@
         <v>27</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -2845,10 +2845,10 @@
         <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
         <v>4.6</v>
@@ -2860,16 +2860,16 @@
         <v>2.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R18" t="n">
         <v>1.5</v>
       </c>
       <c r="S18" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="T18" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="U18" t="n">
         <v>2.38</v>
@@ -2878,7 +2878,7 @@
         <v>1.81</v>
       </c>
       <c r="W18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X18" t="n">
         <v>24</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
         <v>2.24</v>
       </c>
       <c r="I19" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -2980,13 +2980,13 @@
         <v>3.55</v>
       </c>
       <c r="L19" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O19" t="n">
         <v>1.38</v>
@@ -2995,7 +2995,7 @@
         <v>1.83</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R19" t="n">
         <v>1.31</v>
@@ -3010,7 +3010,7 @@
         <v>2.04</v>
       </c>
       <c r="V19" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W19" t="n">
         <v>1.37</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="G20" t="n">
         <v>1.13</v>
       </c>
       <c r="H20" t="n">
-        <v>2.14</v>
+        <v>28</v>
       </c>
       <c r="I20" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="K20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,37 +3121,37 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>3.45</v>
+        <v>10.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="P20" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="R20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T20" t="n">
         <v>2.08</v>
       </c>
-      <c r="S20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U20" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="V20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W20" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X20" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="Y20" t="n">
         <v>1000</v>
@@ -3163,10 +3163,10 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AC20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
@@ -3175,31 +3175,31 @@
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
         <v>19</v>
       </c>
       <c r="AH20" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G21" t="n">
         <v>2.22</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
         <v>3.5</v>
@@ -3247,10 +3247,10 @@
         <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -3265,16 +3265,16 @@
         <v>2.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S21" t="n">
         <v>2.32</v>
       </c>
       <c r="T21" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="U21" t="n">
         <v>2.62</v>
@@ -3367,28 +3367,28 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="G22" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="H22" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K22" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.26</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
         <v>4.6</v>
@@ -3397,28 +3397,28 @@
         <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q22" t="n">
         <v>1.58</v>
       </c>
       <c r="R22" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S22" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="T22" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V22" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W22" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G23" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H23" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
@@ -3520,19 +3520,19 @@
         <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q23" t="n">
         <v>2.08</v>
@@ -3550,7 +3550,7 @@
         <v>2.08</v>
       </c>
       <c r="V23" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W23" t="n">
         <v>1.43</v>
@@ -3574,22 +3574,22 @@
         <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
         <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ23" t="n">
         <v>60</v>
@@ -3598,7 +3598,7 @@
         <v>48</v>
       </c>
       <c r="AL23" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM23" t="n">
         <v>120</v>
@@ -3640,13 +3640,13 @@
         <v>5.2</v>
       </c>
       <c r="G24" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H24" t="n">
         <v>1.76</v>
       </c>
       <c r="I24" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="J24" t="n">
         <v>4.1</v>
@@ -3679,7 +3679,7 @@
         <v>3.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U24" t="n">
         <v>2.16</v>
@@ -3706,7 +3706,7 @@
         <v>20</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
         <v>9.800000000000001</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G25" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H25" t="n">
         <v>4.7</v>
@@ -3784,7 +3784,7 @@
         <v>5.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>4.5</v>
@@ -3910,7 +3910,7 @@
         <v>2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H26" t="n">
         <v>3.55</v>
@@ -3922,10 +3922,10 @@
         <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -3958,7 +3958,7 @@
         <v>1.38</v>
       </c>
       <c r="W26" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X26" t="n">
         <v>15</v>
@@ -4009,7 +4009,7 @@
         <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
         <v>42</v>
@@ -4189,40 +4189,40 @@
         <v>13</v>
       </c>
       <c r="J28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="R28" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="S28" t="n">
-        <v>1.94</v>
+        <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V28" t="n">
         <v>1.08</v>
@@ -4231,55 +4231,55 @@
         <v>3.05</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4315,7 +4315,7 @@
         <v>4.4</v>
       </c>
       <c r="G29" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H29" t="n">
         <v>1.82</v>
@@ -4369,7 +4369,7 @@
         <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z29" t="n">
         <v>13.5</v>
@@ -4381,7 +4381,7 @@
         <v>18</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD29" t="n">
         <v>12.5</v>
@@ -4462,10 +4462,10 @@
         <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M30" t="n">
         <v>1.1</v>
@@ -4486,7 +4486,7 @@
         <v>1.2</v>
       </c>
       <c r="S30" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="T30" t="n">
         <v>2</v>
@@ -4585,7 +4585,7 @@
         <v>3.35</v>
       </c>
       <c r="G31" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H31" t="n">
         <v>2.2</v>
@@ -4597,10 +4597,10 @@
         <v>3.75</v>
       </c>
       <c r="K31" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L31" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M31" t="n">
         <v>1.05</v>
@@ -4609,7 +4609,7 @@
         <v>4.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="n">
         <v>2.2</v>
@@ -4678,7 +4678,7 @@
         <v>38</v>
       </c>
       <c r="AL31" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM31" t="n">
         <v>75</v>
@@ -4753,7 +4753,7 @@
         <v>1.59</v>
       </c>
       <c r="R32" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S32" t="n">
         <v>2.42</v>
@@ -4774,10 +4774,10 @@
         <v>30</v>
       </c>
       <c r="Y32" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Z32" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AA32" t="n">
         <v>130</v>
@@ -4789,7 +4789,7 @@
         <v>11</v>
       </c>
       <c r="AD32" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE32" t="n">
         <v>55</v>
@@ -4801,7 +4801,7 @@
         <v>10.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
         <v>48</v>
@@ -4861,7 +4861,7 @@
         <v>2.46</v>
       </c>
       <c r="I33" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J33" t="n">
         <v>3.6</v>
@@ -4870,7 +4870,7 @@
         <v>3.95</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
@@ -4999,13 +4999,13 @@
         <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K34" t="n">
         <v>3.25</v>
       </c>
       <c r="L34" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M34" t="n">
         <v>1.14</v>
@@ -5131,7 +5131,7 @@
         <v>5.5</v>
       </c>
       <c r="I35" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J35" t="n">
         <v>3.2</v>
@@ -5140,7 +5140,7 @@
         <v>4.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M35" t="n">
         <v>1.07</v>
@@ -5149,25 +5149,25 @@
         <v>3.15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P35" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="R35" t="n">
         <v>1.27</v>
       </c>
       <c r="S35" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T35" t="n">
         <v>2</v>
       </c>
       <c r="U35" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V35" t="n">
         <v>1.15</v>
@@ -5200,7 +5200,7 @@
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG35" t="n">
         <v>12.5</v>
@@ -5257,25 +5257,25 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="G36" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="H36" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="I36" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="J36" t="n">
         <v>3.75</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
@@ -5293,7 +5293,7 @@
         <v>1.65</v>
       </c>
       <c r="R36" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S36" t="n">
         <v>2.62</v>
@@ -5302,13 +5302,13 @@
         <v>1.58</v>
       </c>
       <c r="U36" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V36" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="W36" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="X36" t="n">
         <v>26</v>
@@ -5485,7 +5485,7 @@
         <v>90</v>
       </c>
       <c r="AK37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL37" t="n">
         <v>60</v>
@@ -5494,7 +5494,7 @@
         <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AO37" t="n">
         <v>970</v>
@@ -5536,10 +5536,10 @@
         <v>5.7</v>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K38" t="n">
         <v>5.4</v>
@@ -5575,7 +5575,7 @@
         <v>2.06</v>
       </c>
       <c r="V38" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W38" t="n">
         <v>2.72</v>
@@ -5620,7 +5620,7 @@
         <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL38" t="n">
         <v>38</v>
@@ -5692,10 +5692,10 @@
         <v>1.43</v>
       </c>
       <c r="P39" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R39" t="n">
         <v>1.28</v>
@@ -5812,10 +5812,10 @@
         <v>3.2</v>
       </c>
       <c r="K40" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M40" t="n">
         <v>1.1</v>
@@ -5830,10 +5830,10 @@
         <v>1.67</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R40" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S40" t="n">
         <v>4.4</v>
@@ -5854,7 +5854,7 @@
         <v>11</v>
       </c>
       <c r="Y40" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z40" t="n">
         <v>24</v>
@@ -5866,10 +5866,10 @@
         <v>8.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD40" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE40" t="n">
         <v>50</v>
@@ -5881,7 +5881,7 @@
         <v>12</v>
       </c>
       <c r="AH40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
         <v>70</v>
@@ -5971,7 +5971,7 @@
         <v>1.29</v>
       </c>
       <c r="S41" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="T41" t="n">
         <v>1.81</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="G42" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="H42" t="n">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="I42" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="J42" t="n">
         <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="L42" t="n">
         <v>1.33</v>
@@ -6091,22 +6091,22 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="O42" t="n">
         <v>1.01</v>
       </c>
       <c r="P42" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="R42" t="n">
         <v>1.09</v>
       </c>
       <c r="S42" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="T42" t="n">
         <v>1.01</v>
@@ -6115,10 +6115,10 @@
         <v>1.01</v>
       </c>
       <c r="V42" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="W42" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6244,7 +6244,7 @@
         <v>4.2</v>
       </c>
       <c r="T43" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U43" t="n">
         <v>1.95</v>
@@ -6340,7 +6340,7 @@
         <v>2.02</v>
       </c>
       <c r="G44" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>3.8</v>
@@ -6352,10 +6352,10 @@
         <v>3.45</v>
       </c>
       <c r="K44" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
@@ -6385,7 +6385,7 @@
         <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W44" t="n">
         <v>1.86</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G45" t="n">
         <v>1.38</v>
@@ -6490,7 +6490,7 @@
         <v>6.4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
@@ -6532,7 +6532,7 @@
         <v>44</v>
       </c>
       <c r="Z45" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA45" t="n">
         <v>330</v>
@@ -6544,7 +6544,7 @@
         <v>13.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE45" t="n">
         <v>130</v>
@@ -6577,7 +6577,7 @@
         <v>4.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G46" t="n">
         <v>3.7</v>
@@ -6625,7 +6625,7 @@
         <v>3.6</v>
       </c>
       <c r="L46" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M46" t="n">
         <v>1.08</v>
@@ -6655,10 +6655,10 @@
         <v>2.02</v>
       </c>
       <c r="V46" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W46" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X46" t="n">
         <v>12.5</v>
@@ -6745,10 +6745,10 @@
         <v>2.86</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H47" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I47" t="n">
         <v>3.05</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G48" t="n">
         <v>3.75</v>
       </c>
-      <c r="G48" t="n">
-        <v>3.8</v>
-      </c>
       <c r="H48" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I48" t="n">
         <v>1.89</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.9</v>
       </c>
       <c r="J48" t="n">
         <v>4.8</v>
       </c>
       <c r="K48" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L48" t="n">
         <v>1.17</v>
@@ -6913,7 +6913,7 @@
         <v>1.3</v>
       </c>
       <c r="R48" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="S48" t="n">
         <v>1.74</v>
@@ -6925,10 +6925,10 @@
         <v>3.6</v>
       </c>
       <c r="V48" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W48" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X48" t="n">
         <v>50</v>
@@ -7021,7 +7021,7 @@
         <v>3.25</v>
       </c>
       <c r="I49" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J49" t="n">
         <v>3.8</v>
@@ -7060,7 +7060,7 @@
         <v>2.48</v>
       </c>
       <c r="V49" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="W49" t="n">
         <v>1.8</v>
@@ -7147,25 +7147,25 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H50" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="I50" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J50" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K50" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L50" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M50" t="n">
         <v>1.1</v>
@@ -7180,7 +7180,7 @@
         <v>1.6</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R50" t="n">
         <v>1.22</v>
@@ -7195,10 +7195,10 @@
         <v>1.91</v>
       </c>
       <c r="V50" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W50" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X50" t="n">
         <v>11.5</v>
@@ -7216,7 +7216,7 @@
         <v>970</v>
       </c>
       <c r="AC50" t="n">
-        <v>970</v>
+        <v>7.2</v>
       </c>
       <c r="AD50" t="n">
         <v>970</v>
@@ -7249,7 +7249,7 @@
         <v>170</v>
       </c>
       <c r="AN50" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO50" t="n">
         <v>46</v>
@@ -7285,7 +7285,7 @@
         <v>3.35</v>
       </c>
       <c r="G51" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H51" t="n">
         <v>2.38</v>
@@ -7300,13 +7300,13 @@
         <v>3.35</v>
       </c>
       <c r="L51" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M51" t="n">
         <v>1.1</v>
       </c>
       <c r="N51" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O51" t="n">
         <v>1.43</v>
@@ -7321,10 +7321,10 @@
         <v>1.27</v>
       </c>
       <c r="S51" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T51" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U51" t="n">
         <v>1.97</v>
@@ -7333,7 +7333,7 @@
         <v>1.67</v>
       </c>
       <c r="W51" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X51" t="n">
         <v>13.5</v>
@@ -7378,7 +7378,7 @@
         <v>60</v>
       </c>
       <c r="AL51" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM51" t="n">
         <v>150</v>
@@ -7387,7 +7387,7 @@
         <v>55</v>
       </c>
       <c r="AO51" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
@@ -7426,7 +7426,7 @@
         <v>3.6</v>
       </c>
       <c r="I52" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J52" t="n">
         <v>3.2</v>
@@ -7456,7 +7456,7 @@
         <v>1.26</v>
       </c>
       <c r="S52" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T52" t="n">
         <v>1.88</v>
@@ -7465,7 +7465,7 @@
         <v>1.94</v>
       </c>
       <c r="V52" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W52" t="n">
         <v>1.74</v>
@@ -7555,7 +7555,7 @@
         <v>3.05</v>
       </c>
       <c r="G53" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H53" t="n">
         <v>2.26</v>
@@ -7588,10 +7588,10 @@
         <v>1.74</v>
       </c>
       <c r="R53" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="S53" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="T53" t="n">
         <v>1.63</v>
@@ -7603,61 +7603,61 @@
         <v>1.69</v>
       </c>
       <c r="W53" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y53" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z53" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AB53" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AC53" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD53" t="n">
         <v>12</v>
       </c>
-      <c r="AD53" t="n">
+      <c r="AE53" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO53" t="n">
         <v>16</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="54">
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H55" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="J55" t="n">
         <v>4</v>
@@ -7852,13 +7852,13 @@
         <v>1.21</v>
       </c>
       <c r="P55" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q55" t="n">
         <v>1.64</v>
       </c>
       <c r="R55" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S55" t="n">
         <v>2.6</v>
@@ -7867,10 +7867,10 @@
         <v>1.62</v>
       </c>
       <c r="U55" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V55" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W55" t="n">
         <v>1.31</v>
@@ -7882,10 +7882,10 @@
         <v>13</v>
       </c>
       <c r="Z55" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB55" t="n">
         <v>21</v>
@@ -7897,13 +7897,13 @@
         <v>10.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF55" t="n">
         <v>34</v>
       </c>
       <c r="AG55" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH55" t="n">
         <v>16</v>
@@ -7915,7 +7915,7 @@
         <v>85</v>
       </c>
       <c r="AK55" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL55" t="n">
         <v>44</v>
@@ -7927,7 +7927,7 @@
         <v>34</v>
       </c>
       <c r="AO55" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="56">
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -7966,7 +7966,7 @@
         <v>2.44</v>
       </c>
       <c r="I56" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J56" t="n">
         <v>3.75</v>
@@ -7975,7 +7975,7 @@
         <v>4</v>
       </c>
       <c r="L56" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
@@ -7990,7 +7990,7 @@
         <v>2.48</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R56" t="n">
         <v>1.6</v>
@@ -7999,13 +7999,13 @@
         <v>2.48</v>
       </c>
       <c r="T56" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U56" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V56" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W56" t="n">
         <v>1.5</v>
@@ -8038,10 +8038,10 @@
         <v>24</v>
       </c>
       <c r="AG56" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH56" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI56" t="n">
         <v>32</v>
@@ -8050,7 +8050,7 @@
         <v>46</v>
       </c>
       <c r="AK56" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL56" t="n">
         <v>34</v>
@@ -8062,7 +8062,7 @@
         <v>18</v>
       </c>
       <c r="AO56" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="57">
@@ -8095,13 +8095,13 @@
         <v>2.16</v>
       </c>
       <c r="G57" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="H57" t="n">
         <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J57" t="n">
         <v>3.4</v>
@@ -8116,13 +8116,13 @@
         <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="O57" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P57" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q57" t="n">
         <v>1.92</v>
@@ -8131,73 +8131,73 @@
         <v>1.34</v>
       </c>
       <c r="S57" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="T57" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U57" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V57" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="W57" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="X57" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z57" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA57" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB57" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC57" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD57" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE57" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF57" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG57" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI57" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK57" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL57" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM57" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN57" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO57" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58">
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G58" t="n">
         <v>2.32</v>
@@ -8245,7 +8245,7 @@
         <v>3.75</v>
       </c>
       <c r="L58" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="M58" t="n">
         <v>1.08</v>
@@ -8365,7 +8365,7 @@
         <v>2.16</v>
       </c>
       <c r="G59" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H59" t="n">
         <v>3.25</v>
@@ -8413,7 +8413,7 @@
         <v>1.37</v>
       </c>
       <c r="W59" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X59" t="n">
         <v>970</v>
@@ -8500,7 +8500,7 @@
         <v>2.04</v>
       </c>
       <c r="G60" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H60" t="n">
         <v>3.25</v>
@@ -8545,10 +8545,10 @@
         <v>2.36</v>
       </c>
       <c r="V60" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W60" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X60" t="n">
         <v>26</v>
@@ -8635,7 +8635,7 @@
         <v>2.76</v>
       </c>
       <c r="G61" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H61" t="n">
         <v>2.8</v>
@@ -8650,7 +8650,7 @@
         <v>3.35</v>
       </c>
       <c r="L61" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M61" t="n">
         <v>1.08</v>
@@ -8698,7 +8698,7 @@
         <v>46</v>
       </c>
       <c r="AB61" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC61" t="n">
         <v>8</v>
@@ -8719,13 +8719,13 @@
         <v>17</v>
       </c>
       <c r="AI61" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ61" t="n">
         <v>44</v>
       </c>
       <c r="AK61" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL61" t="n">
         <v>46</v>
@@ -8770,7 +8770,7 @@
         <v>2.16</v>
       </c>
       <c r="G62" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>3.55</v>
@@ -8800,7 +8800,7 @@
         <v>2.44</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R62" t="n">
         <v>1.58</v>
@@ -8809,10 +8809,10 @@
         <v>2.66</v>
       </c>
       <c r="T62" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U62" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V62" t="n">
         <v>1.37</v>
@@ -8938,13 +8938,13 @@
         <v>1.27</v>
       </c>
       <c r="R63" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="S63" t="n">
         <v>1.7</v>
       </c>
       <c r="T63" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U63" t="n">
         <v>2.08</v>
@@ -9070,7 +9070,7 @@
         <v>1.9</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R64" t="n">
         <v>1.35</v>
@@ -9307,16 +9307,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G66" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H66" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I66" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J66" t="n">
         <v>2.98</v>
@@ -9331,13 +9331,13 @@
         <v>1.08</v>
       </c>
       <c r="N66" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O66" t="n">
         <v>1.43</v>
       </c>
       <c r="P66" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q66" t="n">
         <v>2.28</v>
@@ -9346,19 +9346,19 @@
         <v>1.22</v>
       </c>
       <c r="S66" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T66" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U66" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V66" t="n">
         <v>1.29</v>
       </c>
       <c r="W66" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X66" t="n">
         <v>12.5</v>
@@ -9367,25 +9367,25 @@
         <v>14</v>
       </c>
       <c r="Z66" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA66" t="n">
         <v>110</v>
       </c>
       <c r="AB66" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC66" t="n">
         <v>9</v>
       </c>
       <c r="AD66" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE66" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF66" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG66" t="n">
         <v>14</v>
@@ -9397,7 +9397,7 @@
         <v>90</v>
       </c>
       <c r="AJ66" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK66" t="n">
         <v>36</v>
@@ -9409,10 +9409,10 @@
         <v>180</v>
       </c>
       <c r="AN66" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO66" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67">
@@ -9442,25 +9442,25 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G67" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J67" t="n">
         <v>2.84</v>
       </c>
-      <c r="H67" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K67" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="L67" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
@@ -9472,16 +9472,16 @@
         <v>1.01</v>
       </c>
       <c r="P67" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R67" t="n">
         <v>1.19</v>
       </c>
       <c r="S67" t="n">
-        <v>2.04</v>
+        <v>2.96</v>
       </c>
       <c r="T67" t="n">
         <v>1.01</v>
@@ -9490,10 +9490,10 @@
         <v>1.01</v>
       </c>
       <c r="V67" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W67" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="X67" t="n">
         <v>1000</v>
@@ -9577,112 +9577,112 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="G68" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H68" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q68" t="n">
         <v>2.56</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K68" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P68" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>2.3</v>
       </c>
       <c r="R68" t="n">
         <v>1.18</v>
       </c>
       <c r="S68" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="T68" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U68" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V68" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="W68" t="n">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="X68" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z68" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA68" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB68" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC68" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD68" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE68" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF68" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG68" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI68" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ68" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK68" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL68" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM68" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN68" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO68" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69">
@@ -9760,7 +9760,7 @@
         <v>1.85</v>
       </c>
       <c r="V69" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W69" t="n">
         <v>1.66</v>
@@ -9781,7 +9781,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC69" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD69" t="n">
         <v>19.5</v>
@@ -9871,19 +9871,19 @@
         <v>1.02</v>
       </c>
       <c r="N70" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O70" t="n">
         <v>1.12</v>
       </c>
       <c r="P70" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q70" t="n">
         <v>1.37</v>
       </c>
       <c r="R70" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="S70" t="n">
         <v>1.93</v>
@@ -9991,7 +9991,7 @@
         <v>3.6</v>
       </c>
       <c r="I71" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J71" t="n">
         <v>3.15</v>
@@ -10030,7 +10030,7 @@
         <v>1.98</v>
       </c>
       <c r="V71" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W71" t="n">
         <v>1.69</v>
@@ -10255,7 +10255,7 @@
         <v>4.9</v>
       </c>
       <c r="G73" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="H73" t="n">
         <v>1.79</v>
@@ -10270,34 +10270,34 @@
         <v>3.9</v>
       </c>
       <c r="L73" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M73" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N73" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O73" t="n">
         <v>1.39</v>
       </c>
       <c r="P73" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R73" t="n">
         <v>1.26</v>
       </c>
       <c r="S73" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="T73" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U73" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V73" t="n">
         <v>2.04</v>
@@ -10309,16 +10309,16 @@
         <v>14</v>
       </c>
       <c r="Y73" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z73" t="n">
         <v>13</v>
       </c>
       <c r="AA73" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB73" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC73" t="n">
         <v>9.800000000000001</v>
@@ -10357,7 +10357,7 @@
         <v>150</v>
       </c>
       <c r="AO73" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="74">
@@ -10390,16 +10390,16 @@
         <v>2.36</v>
       </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H74" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I74" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J74" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K74" t="n">
         <v>3.4</v>
@@ -10540,7 +10540,7 @@
         <v>3.7</v>
       </c>
       <c r="L75" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M75" t="n">
         <v>1.08</v>
@@ -10552,7 +10552,7 @@
         <v>1.38</v>
       </c>
       <c r="P75" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q75" t="n">
         <v>2.12</v>
@@ -10657,10 +10657,10 @@
         </is>
       </c>
       <c r="F76" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G76" t="n">
         <v>2.48</v>
-      </c>
-      <c r="G76" t="n">
-        <v>2.5</v>
       </c>
       <c r="H76" t="n">
         <v>3.5</v>
@@ -10699,7 +10699,7 @@
         <v>4.9</v>
       </c>
       <c r="T76" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U76" t="n">
         <v>1.9</v>
@@ -10735,7 +10735,7 @@
         <v>55</v>
       </c>
       <c r="AF76" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG76" t="n">
         <v>12</v>
@@ -10792,13 +10792,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="G77" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="H77" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I77" t="n">
         <v>4.3</v>
@@ -10807,7 +10807,7 @@
         <v>3</v>
       </c>
       <c r="K77" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L77" t="n">
         <v>1.65</v>
@@ -10819,7 +10819,7 @@
         <v>2.36</v>
       </c>
       <c r="O77" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="P77" t="n">
         <v>1.47</v>
@@ -10837,19 +10837,19 @@
         <v>2.32</v>
       </c>
       <c r="U77" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V77" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W77" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="X77" t="n">
         <v>7.4</v>
       </c>
       <c r="Y77" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z77" t="n">
         <v>34</v>
@@ -10861,10 +10861,10 @@
         <v>6.6</v>
       </c>
       <c r="AC77" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD77" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE77" t="n">
         <v>95</v>
@@ -10882,7 +10882,7 @@
         <v>130</v>
       </c>
       <c r="AJ77" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK77" t="n">
         <v>38</v>
@@ -10927,19 +10927,19 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G78" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H78" t="n">
         <v>4.1</v>
       </c>
       <c r="I78" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J78" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K78" t="n">
         <v>3.4</v>
@@ -10978,7 +10978,7 @@
         <v>1.29</v>
       </c>
       <c r="W78" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X78" t="n">
         <v>14.5</v>
@@ -10999,7 +10999,7 @@
         <v>7.8</v>
       </c>
       <c r="AD78" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE78" t="n">
         <v>60</v>
@@ -11062,16 +11062,16 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G79" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H79" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J79" t="n">
         <v>3.15</v>
@@ -11080,94 +11080,94 @@
         <v>3.3</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y79" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z79" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA79" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB79" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC79" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD79" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE79" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF79" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG79" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH79" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI79" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ79" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK79" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL79" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM79" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN79" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AO79" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80">
@@ -11197,112 +11197,112 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="H80" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="J80" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="K80" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="L80" t="n">
         <v>1.37</v>
       </c>
       <c r="M80" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N80" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O80" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="P80" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="R80" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S80" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T80" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U80" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V80" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="W80" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="X80" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y80" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA80" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB80" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC80" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD80" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF80" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG80" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH80" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI80" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ80" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK80" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL80" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM80" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN80" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO80" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81">
@@ -11365,13 +11365,13 @@
         <v>1.74</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R81" t="n">
         <v>1.28</v>
       </c>
       <c r="S81" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="T81" t="n">
         <v>1.87</v>
@@ -11485,7 +11485,7 @@
         <v>5.2</v>
       </c>
       <c r="L82" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M82" t="n">
         <v>1.02</v>
@@ -11602,16 +11602,16 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G83" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H83" t="n">
         <v>2.38</v>
       </c>
       <c r="I83" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J83" t="n">
         <v>3.3</v>
@@ -11626,16 +11626,16 @@
         <v>1.05</v>
       </c>
       <c r="N83" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="O83" t="n">
         <v>1.27</v>
       </c>
       <c r="P83" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="R83" t="n">
         <v>1.33</v>
@@ -11650,7 +11650,7 @@
         <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W83" t="n">
         <v>1.43</v>
@@ -11743,13 +11743,13 @@
         <v>1.18</v>
       </c>
       <c r="H84" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I84" t="n">
         <v>36</v>
       </c>
       <c r="J84" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K84" t="n">
         <v>10.5</v>
@@ -11761,7 +11761,7 @@
         <v>1.02</v>
       </c>
       <c r="N84" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O84" t="n">
         <v>1.17</v>
@@ -11794,7 +11794,7 @@
         <v>32</v>
       </c>
       <c r="Y84" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="Z84" t="n">
         <v>1000</v>
@@ -11827,7 +11827,7 @@
         <v>1000</v>
       </c>
       <c r="AJ84" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AK84" t="n">
         <v>970</v>
@@ -11872,22 +11872,22 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="G85" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
-        <v>1.83</v>
+        <v>4.3</v>
       </c>
       <c r="I85" t="n">
-        <v>11.5</v>
+        <v>5.8</v>
       </c>
       <c r="J85" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="K85" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -11902,10 +11902,10 @@
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -12010,7 +12010,7 @@
         <v>2.32</v>
       </c>
       <c r="G86" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="H86" t="n">
         <v>3.1</v>
@@ -12034,7 +12034,7 @@
         <v>3.15</v>
       </c>
       <c r="O86" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P86" t="n">
         <v>1.74</v>
@@ -12160,7 +12160,7 @@
         <v>3.55</v>
       </c>
       <c r="L87" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M87" t="n">
         <v>1.09</v>
@@ -12172,7 +12172,7 @@
         <v>1.38</v>
       </c>
       <c r="P87" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q87" t="n">
         <v>2.14</v>
@@ -12184,10 +12184,10 @@
         <v>3.95</v>
       </c>
       <c r="T87" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U87" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V87" t="n">
         <v>1.9</v>
@@ -12277,10 +12277,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G88" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H88" t="n">
         <v>6</v>
@@ -12304,7 +12304,7 @@
         <v>2.84</v>
       </c>
       <c r="O88" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P88" t="n">
         <v>1.61</v>
@@ -12316,7 +12316,7 @@
         <v>1.22</v>
       </c>
       <c r="S88" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T88" t="n">
         <v>2.38</v>
@@ -12364,7 +12364,7 @@
         <v>29</v>
       </c>
       <c r="AI88" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ88" t="n">
         <v>18</v>
@@ -12415,28 +12415,28 @@
         <v>3.35</v>
       </c>
       <c r="G89" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H89" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="I89" t="n">
         <v>2.38</v>
       </c>
       <c r="J89" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K89" t="n">
         <v>3.6</v>
       </c>
       <c r="L89" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M89" t="n">
         <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O89" t="n">
         <v>1.34</v>
@@ -12463,7 +12463,7 @@
         <v>1.72</v>
       </c>
       <c r="W89" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X89" t="n">
         <v>13.5</v>
@@ -12472,7 +12472,7 @@
         <v>10</v>
       </c>
       <c r="Z89" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA89" t="n">
         <v>32</v>
@@ -12484,7 +12484,7 @@
         <v>7.8</v>
       </c>
       <c r="AD89" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE89" t="n">
         <v>26</v>
@@ -12517,7 +12517,7 @@
         <v>42</v>
       </c>
       <c r="AO89" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -12565,19 +12565,19 @@
         <v>3.55</v>
       </c>
       <c r="L90" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M90" t="n">
         <v>1.11</v>
       </c>
       <c r="N90" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O90" t="n">
         <v>1.48</v>
       </c>
       <c r="P90" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q90" t="n">
         <v>2.42</v>
@@ -12592,7 +12592,7 @@
         <v>2.12</v>
       </c>
       <c r="U90" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V90" t="n">
         <v>1.21</v>
@@ -12604,7 +12604,7 @@
         <v>12</v>
       </c>
       <c r="Y90" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z90" t="n">
         <v>42</v>
@@ -12619,13 +12619,13 @@
         <v>8</v>
       </c>
       <c r="AD90" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE90" t="n">
         <v>120</v>
       </c>
       <c r="AF90" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG90" t="n">
         <v>11</v>
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="H92" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J92" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K92" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
@@ -12847,7 +12847,7 @@
         <v>1.32</v>
       </c>
       <c r="P92" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q92" t="n">
         <v>1.92</v>
@@ -12859,22 +12859,22 @@
         <v>3.35</v>
       </c>
       <c r="T92" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="U92" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V92" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W92" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X92" t="n">
         <v>15.5</v>
       </c>
       <c r="Y92" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Z92" t="n">
         <v>34</v>
@@ -12883,22 +12883,22 @@
         <v>100</v>
       </c>
       <c r="AB92" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC92" t="n">
         <v>9</v>
       </c>
       <c r="AD92" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE92" t="n">
         <v>60</v>
       </c>
       <c r="AF92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG92" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH92" t="n">
         <v>21</v>
@@ -12907,19 +12907,19 @@
         <v>65</v>
       </c>
       <c r="AJ92" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK92" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL92" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM92" t="n">
         <v>120</v>
       </c>
       <c r="AN92" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO92" t="n">
         <v>65</v>
@@ -12952,25 +12952,25 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H93" t="n">
         <v>5.5</v>
       </c>
       <c r="I93" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J93" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K93" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L93" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M93" t="n">
         <v>1.05</v>
@@ -12982,16 +12982,16 @@
         <v>1.25</v>
       </c>
       <c r="P93" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R93" t="n">
         <v>1.44</v>
       </c>
       <c r="S93" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T93" t="n">
         <v>1.79</v>
@@ -13003,7 +13003,7 @@
         <v>1.17</v>
       </c>
       <c r="W93" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="X93" t="n">
         <v>23</v>
@@ -13012,7 +13012,7 @@
         <v>25</v>
       </c>
       <c r="Z93" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA93" t="n">
         <v>190</v>
@@ -13021,7 +13021,7 @@
         <v>10</v>
       </c>
       <c r="AC93" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD93" t="n">
         <v>26</v>
@@ -13087,112 +13087,112 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I94" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J94" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K94" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L94" t="n">
         <v>1.01</v>
       </c>
       <c r="M94" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N94" t="n">
-        <v>1.73</v>
+        <v>3.4</v>
       </c>
       <c r="O94" t="n">
         <v>1.34</v>
       </c>
       <c r="P94" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="R94" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="S94" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T94" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U94" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V94" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W94" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X94" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y94" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA94" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB94" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC94" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE94" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF94" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG94" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH94" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI94" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ94" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK94" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL94" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM94" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN94" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO94" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G2" t="n">
         <v>6.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="I2" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
         <v>5.3</v>
@@ -811,13 +811,13 @@
         <v>1.29</v>
       </c>
       <c r="I3" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="J3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K3" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.28</v>
@@ -847,7 +847,7 @@
         <v>2.26</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="V3" t="n">
         <v>3.7</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G4" t="n">
         <v>1.86</v>
@@ -949,10 +949,10 @@
         <v>5.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -970,7 +970,7 @@
         <v>1.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>1.32</v>
@@ -982,7 +982,7 @@
         <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
         <v>1.21</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
         <v>3.95</v>
@@ -1090,94 +1090,94 @@
         <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22</v>
+        <v>2.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S5" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="T5" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U5" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="V5" t="n">
         <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X5" t="n">
         <v>32</v>
       </c>
       <c r="Y5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE5" t="n">
         <v>34</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AF5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
         <v>65</v>
       </c>
-      <c r="AB5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN5" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G6" t="n">
         <v>5.1</v>
@@ -1240,22 +1240,22 @@
         <v>2.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R6" t="n">
         <v>1.69</v>
       </c>
       <c r="S6" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="T6" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="U6" t="n">
         <v>2.54</v>
       </c>
       <c r="V6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="W6" t="n">
         <v>1.25</v>
@@ -1270,10 +1270,10 @@
         <v>13.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1294,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
         <v>130</v>
@@ -1309,7 +1309,7 @@
         <v>65</v>
       </c>
       <c r="AN6" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AO6" t="n">
         <v>7.2</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G7" t="n">
         <v>2.28</v>
@@ -1369,34 +1369,34 @@
         <v>2.88</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P7" t="n">
         <v>1.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R7" t="n">
         <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T7" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
         <v>1.79</v>
       </c>
       <c r="X7" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
         <v>11.5</v>
@@ -1426,7 +1426,7 @@
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>80</v>
@@ -1486,10 +1486,10 @@
         <v>2.36</v>
       </c>
       <c r="I8" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J8" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>3.45</v>
@@ -1645,19 +1645,19 @@
         <v>1.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="T9" t="n">
         <v>2.08</v>
       </c>
       <c r="U9" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
         <v>1.13</v>
@@ -1684,7 +1684,7 @@
         <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="G10" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="H10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I10" t="n">
         <v>5.3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.6</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.39</v>
@@ -1771,22 +1771,22 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
         <v>1.92</v>
@@ -1795,61 +1795,61 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W10" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC10" t="n">
         <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="n">
         <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1885,7 +1885,7 @@
         <v>1.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H11" t="n">
         <v>1.5</v>
@@ -1894,7 +1894,7 @@
         <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K11" t="n">
         <v>4.7</v>
@@ -1930,10 +1930,10 @@
         <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="H12" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
         <v>3.95</v>
@@ -2068,7 +2068,7 @@
         <v>1.48</v>
       </c>
       <c r="W12" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2185,7 +2185,7 @@
         <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
         <v>1.45</v>
@@ -2206,7 +2206,7 @@
         <v>1.86</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J14" t="n">
         <v>3.55</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.54</v>
+        <v>2.72</v>
       </c>
       <c r="G15" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.96</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,49 +2446,49 @@
         <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P15" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="R15" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
         <v>5.3</v>
       </c>
       <c r="T15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U15" t="n">
         <v>1.78</v>
       </c>
       <c r="V15" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
         <v>7.2</v>
@@ -2524,7 +2524,7 @@
         <v>220</v>
       </c>
       <c r="AN15" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2560,43 +2560,43 @@
         <v>2.36</v>
       </c>
       <c r="G16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.45</v>
       </c>
-      <c r="H16" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.6</v>
-      </c>
       <c r="J16" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.46</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="T16" t="n">
         <v>1.04</v>
@@ -2605,10 +2605,10 @@
         <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="W16" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J17" t="n">
         <v>3.75</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.99</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>2.34</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G18" t="n">
         <v>3.7</v>
@@ -2842,7 +2842,7 @@
         <v>3.9</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
         <v>1.31</v>
@@ -2860,16 +2860,16 @@
         <v>2.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
         <v>1.55</v>
       </c>
       <c r="S18" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T18" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U18" t="n">
         <v>2.48</v>
@@ -2881,58 +2881,58 @@
         <v>1.37</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA18" t="n">
         <v>27</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH18" t="n">
         <v>16</v>
       </c>
-      <c r="AH18" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
         <v>65</v>
       </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
         <v>28</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="19">
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I19" t="n">
         <v>2.2</v>
       </c>
-      <c r="I19" t="n">
-        <v>2.26</v>
-      </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K19" t="n">
         <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -3007,52 +3007,52 @@
         <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V19" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF19" t="n">
         <v>30</v>
       </c>
-      <c r="AB19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF19" t="n">
+      <c r="AG19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI19" t="n">
         <v>32</v>
       </c>
-      <c r="AG19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK19" t="n">
         <v>38</v>
@@ -3061,10 +3061,10 @@
         <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO19" t="n">
         <v>16.5</v>
@@ -3121,28 +3121,28 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P20" t="n">
         <v>1.83</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R20" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S20" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="U20" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V20" t="n">
         <v>1.76</v>
@@ -3151,58 +3151,58 @@
         <v>1.36</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI20" t="n">
         <v>44</v>
       </c>
-      <c r="AB20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG20" t="n">
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO20" t="n">
         <v>22</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -3238,7 +3238,7 @@
         <v>1.13</v>
       </c>
       <c r="H21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I21" t="n">
         <v>34</v>
@@ -3262,28 +3262,28 @@
         <v>1.07</v>
       </c>
       <c r="P21" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q21" t="n">
         <v>1.22</v>
       </c>
       <c r="R21" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="S21" t="n">
         <v>1.59</v>
       </c>
       <c r="T21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U21" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="V21" t="n">
         <v>1.03</v>
       </c>
       <c r="W21" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3298,7 +3298,7 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC21" t="n">
         <v>34</v>
@@ -3310,19 +3310,19 @@
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG21" t="n">
         <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK21" t="n">
         <v>15</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G22" t="n">
         <v>2.22</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
         <v>3.5</v>
@@ -3502,58 +3502,58 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I23" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="J23" t="n">
         <v>4.7</v>
       </c>
       <c r="K23" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.26</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>2.42</v>
+        <v>4.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>1.95</v>
+        <v>2.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="R23" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="S23" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="T23" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="V23" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W23" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3580,10 +3580,10 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
         <v>1000</v>
@@ -3592,10 +3592,10 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3643,7 +3643,7 @@
         <v>3.25</v>
       </c>
       <c r="H24" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I24" t="n">
         <v>2.58</v>
@@ -3652,7 +3652,7 @@
         <v>3.35</v>
       </c>
       <c r="K24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L24" t="n">
         <v>1.42</v>
@@ -3661,22 +3661,22 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R24" t="n">
         <v>1.35</v>
       </c>
       <c r="S24" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T24" t="n">
         <v>1.77</v>
@@ -3739,7 +3739,7 @@
         <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO24" t="n">
         <v>22</v>
@@ -3775,13 +3775,13 @@
         <v>1.84</v>
       </c>
       <c r="G25" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q25" t="n">
         <v>1.66</v>
@@ -3907,37 +3907,37 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G26" t="n">
         <v>5.2</v>
       </c>
-      <c r="G26" t="n">
-        <v>5.3</v>
-      </c>
       <c r="H26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I26" t="n">
         <v>1.76</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.77</v>
       </c>
       <c r="J26" t="n">
         <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O26" t="n">
         <v>1.28</v>
       </c>
       <c r="P26" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q26" t="n">
         <v>1.82</v>
@@ -3955,7 +3955,7 @@
         <v>2.16</v>
       </c>
       <c r="V26" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="W26" t="n">
         <v>1.23</v>
@@ -3973,7 +3973,7 @@
         <v>18</v>
       </c>
       <c r="AB26" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC26" t="n">
         <v>9</v>
@@ -4045,7 +4045,7 @@
         <v>2.26</v>
       </c>
       <c r="G27" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H27" t="n">
         <v>3.3</v>
@@ -4075,7 +4075,7 @@
         <v>1.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R27" t="n">
         <v>1.26</v>
@@ -4087,7 +4087,7 @@
         <v>1.86</v>
       </c>
       <c r="U27" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V27" t="n">
         <v>1.35</v>
@@ -4105,13 +4105,13 @@
         <v>29</v>
       </c>
       <c r="AA27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="n">
         <v>10.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD27" t="n">
         <v>18</v>
@@ -4186,7 +4186,7 @@
         <v>1.99</v>
       </c>
       <c r="I28" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J28" t="n">
         <v>3.05</v>
@@ -4204,10 +4204,10 @@
         <v>2.68</v>
       </c>
       <c r="O28" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P28" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q28" t="n">
         <v>2.38</v>
@@ -4222,10 +4222,10 @@
         <v>2.04</v>
       </c>
       <c r="U28" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V28" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W28" t="n">
         <v>1.26</v>
@@ -4312,109 +4312,109 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="G29" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="H29" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J29" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K29" t="n">
-        <v>8.6</v>
+        <v>5.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O29" t="n">
         <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>1.63</v>
+        <v>1.79</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="R29" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S29" t="n">
-        <v>2.74</v>
+        <v>3.7</v>
       </c>
       <c r="T29" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="U29" t="n">
-        <v>1.04</v>
+        <v>1.61</v>
       </c>
       <c r="V29" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="W29" t="n">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4534,7 +4534,7 @@
         <v>26</v>
       </c>
       <c r="AI30" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ30" t="n">
         <v>1000</v>
@@ -4543,7 +4543,7 @@
         <v>90</v>
       </c>
       <c r="AL30" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G31" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H31" t="n">
         <v>3.55</v>
       </c>
       <c r="I31" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J31" t="n">
         <v>3.65</v>
       </c>
       <c r="K31" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L31" t="n">
         <v>1.4</v>
@@ -4612,16 +4612,16 @@
         <v>1.31</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R31" t="n">
         <v>1.37</v>
       </c>
       <c r="S31" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T31" t="n">
         <v>1.78</v>
@@ -4630,22 +4630,22 @@
         <v>2.14</v>
       </c>
       <c r="V31" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W31" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB31" t="n">
         <v>10</v>
@@ -4654,10 +4654,10 @@
         <v>8</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF31" t="n">
         <v>14</v>
@@ -4666,7 +4666,7 @@
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI31" t="n">
         <v>55</v>
@@ -4684,7 +4684,7 @@
         <v>95</v>
       </c>
       <c r="AN31" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO31" t="n">
         <v>42</v>
@@ -4720,13 +4720,13 @@
         <v>3.35</v>
       </c>
       <c r="G32" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J32" t="n">
         <v>3.8</v>
@@ -4735,7 +4735,7 @@
         <v>3.9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -4765,10 +4765,10 @@
         <v>2.34</v>
       </c>
       <c r="V32" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W32" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X32" t="n">
         <v>19</v>
@@ -4795,7 +4795,7 @@
         <v>22</v>
       </c>
       <c r="AF32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG32" t="n">
         <v>14.5</v>
@@ -4807,7 +4807,7 @@
         <v>32</v>
       </c>
       <c r="AJ32" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK32" t="n">
         <v>36</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G33" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I33" t="n">
         <v>5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5.1</v>
       </c>
       <c r="J33" t="n">
         <v>4.5</v>
       </c>
       <c r="K33" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L33" t="n">
         <v>1.29</v>
@@ -4882,10 +4882,10 @@
         <v>1.19</v>
       </c>
       <c r="P33" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R33" t="n">
         <v>1.62</v>
@@ -4897,55 +4897,55 @@
         <v>1.63</v>
       </c>
       <c r="U33" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V33" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W33" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X33" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Y33" t="n">
         <v>980</v>
       </c>
       <c r="Z33" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AA33" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB33" t="n">
         <v>12.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AE33" t="n">
         <v>55</v>
       </c>
       <c r="AF33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL33" t="n">
         <v>27</v>
@@ -4957,7 +4957,7 @@
         <v>7.4</v>
       </c>
       <c r="AO33" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H34" t="n">
         <v>2.56</v>
@@ -5008,10 +5008,10 @@
         <v>1.28</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="O34" t="n">
         <v>1.24</v>
@@ -5020,7 +5020,7 @@
         <v>2.18</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="R34" t="n">
         <v>1.47</v>
@@ -5038,7 +5038,7 @@
         <v>1.59</v>
       </c>
       <c r="W34" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X34" t="n">
         <v>20</v>
@@ -5074,10 +5074,10 @@
         <v>16.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
         <v>1000</v>
@@ -5125,13 +5125,13 @@
         <v>2.38</v>
       </c>
       <c r="G35" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H35" t="n">
         <v>3.25</v>
       </c>
       <c r="I35" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J35" t="n">
         <v>2.9</v>
@@ -5161,7 +5161,7 @@
         <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="T35" t="n">
         <v>2.12</v>
@@ -5170,7 +5170,7 @@
         <v>1.69</v>
       </c>
       <c r="V35" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W35" t="n">
         <v>1.58</v>
@@ -5194,10 +5194,10 @@
         <v>7.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF35" t="n">
         <v>15.5</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H36" t="n">
         <v>5.5</v>
@@ -5272,10 +5272,10 @@
         <v>3.6</v>
       </c>
       <c r="K36" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
@@ -5341,7 +5341,7 @@
         <v>12.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
@@ -5395,19 +5395,19 @@
         <v>1.47</v>
       </c>
       <c r="G37" t="n">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
-        <v>1.02</v>
+        <v>4.3</v>
       </c>
       <c r="I37" t="n">
         <v>980</v>
       </c>
       <c r="J37" t="n">
-        <v>1.21</v>
+        <v>2.64</v>
       </c>
       <c r="K37" t="n">
-        <v>950</v>
+        <v>32</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5419,19 +5419,19 @@
         <v>1.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P37" t="n">
         <v>1.25</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="R37" t="n">
         <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>1.36</v>
+        <v>1.76</v>
       </c>
       <c r="T37" t="n">
         <v>1.97</v>
@@ -5443,7 +5443,7 @@
         <v>1.08</v>
       </c>
       <c r="W37" t="n">
-        <v>2.58</v>
+        <v>2.12</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G38" t="n">
         <v>4.8</v>
       </c>
       <c r="H38" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I38" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="J38" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K38" t="n">
         <v>3.9</v>
@@ -5548,13 +5548,13 @@
         <v>1.33</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="O38" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P38" t="n">
         <v>1.81</v>
@@ -5563,19 +5563,19 @@
         <v>1.98</v>
       </c>
       <c r="R38" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="S38" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="U38" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="W38" t="n">
         <v>1.26</v>
@@ -5584,7 +5584,7 @@
         <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
         <v>1000</v>
@@ -5596,10 +5596,10 @@
         <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
@@ -5668,13 +5668,13 @@
         <v>3.75</v>
       </c>
       <c r="H39" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I39" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J39" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K39" t="n">
         <v>3.6</v>
@@ -5719,22 +5719,22 @@
         <v>15</v>
       </c>
       <c r="Y39" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA39" t="n">
         <v>40</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE39" t="n">
         <v>34</v>
@@ -5743,7 +5743,7 @@
         <v>30</v>
       </c>
       <c r="AG39" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH39" t="n">
         <v>23</v>
@@ -5800,22 +5800,22 @@
         <v>2.38</v>
       </c>
       <c r="G40" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H40" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I40" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J40" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K40" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L40" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="M40" t="n">
         <v>1.1</v>
@@ -5824,46 +5824,46 @@
         <v>3</v>
       </c>
       <c r="O40" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P40" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R40" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S40" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T40" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="U40" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="V40" t="n">
         <v>1.37</v>
       </c>
       <c r="W40" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X40" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y40" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z40" t="n">
         <v>23</v>
       </c>
       <c r="AA40" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB40" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC40" t="n">
         <v>7.4</v>
@@ -5872,7 +5872,7 @@
         <v>15.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF40" t="n">
         <v>14.5</v>
@@ -5881,7 +5881,7 @@
         <v>12</v>
       </c>
       <c r="AH40" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI40" t="n">
         <v>80</v>
@@ -5893,16 +5893,16 @@
         <v>32</v>
       </c>
       <c r="AL40" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN40" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO40" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="G41" t="n">
         <v>1.58</v>
@@ -5941,13 +5941,13 @@
         <v>6.4</v>
       </c>
       <c r="I41" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J41" t="n">
         <v>4.6</v>
       </c>
       <c r="K41" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L41" t="n">
         <v>1.25</v>
@@ -5983,7 +5983,7 @@
         <v>1.15</v>
       </c>
       <c r="W41" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6130,7 +6130,7 @@
         <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AB42" t="n">
         <v>1000</v>
@@ -6298,7 +6298,7 @@
         <v>29</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM43" t="n">
         <v>1000</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G44" t="n">
         <v>2.48</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2.5</v>
       </c>
       <c r="H44" t="n">
         <v>3.45</v>
@@ -6355,7 +6355,7 @@
         <v>3.25</v>
       </c>
       <c r="L44" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M44" t="n">
         <v>1.1</v>
@@ -6388,7 +6388,7 @@
         <v>1.4</v>
       </c>
       <c r="W44" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X44" t="n">
         <v>10.5</v>
@@ -6421,7 +6421,7 @@
         <v>11.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI44" t="n">
         <v>60</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="G45" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="H45" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I45" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J45" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K45" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L45" t="n">
         <v>1.48</v>
@@ -6496,16 +6496,16 @@
         <v>1.09</v>
       </c>
       <c r="N45" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O45" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P45" t="n">
         <v>1.78</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R45" t="n">
         <v>1.29</v>
@@ -6514,70 +6514,70 @@
         <v>4.2</v>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U45" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V45" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W45" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="X45" t="n">
         <v>11.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA45" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB45" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC45" t="n">
         <v>7.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE45" t="n">
         <v>60</v>
       </c>
       <c r="AF45" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG45" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH45" t="n">
         <v>21</v>
       </c>
       <c r="AI45" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ45" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AK45" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL45" t="n">
         <v>44</v>
       </c>
       <c r="AM45" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN45" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO45" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46">
@@ -6616,7 +6616,7 @@
         <v>3.8</v>
       </c>
       <c r="I46" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J46" t="n">
         <v>3.55</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G47" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H47" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I47" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J47" t="n">
+        <v>6</v>
+      </c>
+      <c r="K47" t="n">
         <v>6.2</v>
-      </c>
-      <c r="K47" t="n">
-        <v>6.6</v>
       </c>
       <c r="L47" t="n">
         <v>1.25</v>
@@ -6766,37 +6766,37 @@
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O47" t="n">
         <v>1.16</v>
       </c>
       <c r="P47" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R47" t="n">
         <v>1.71</v>
       </c>
       <c r="S47" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T47" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U47" t="n">
         <v>2.06</v>
       </c>
       <c r="V47" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W47" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y47" t="n">
         <v>38</v>
@@ -6805,13 +6805,13 @@
         <v>90</v>
       </c>
       <c r="AA47" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AB47" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC47" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD47" t="n">
         <v>34</v>
@@ -6823,10 +6823,10 @@
         <v>10</v>
       </c>
       <c r="AG47" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI47" t="n">
         <v>100</v>
@@ -6841,10 +6841,10 @@
         <v>32</v>
       </c>
       <c r="AM47" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN47" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO47" t="n">
         <v>110</v>
@@ -6877,13 +6877,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="G48" t="n">
         <v>2.98</v>
       </c>
       <c r="H48" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="I48" t="n">
         <v>2.98</v>
@@ -6892,7 +6892,7 @@
         <v>3.05</v>
       </c>
       <c r="K48" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G49" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H49" t="n">
         <v>2.3</v>
       </c>
       <c r="I49" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J49" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K49" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7051,7 +7051,7 @@
         <v>1.29</v>
       </c>
       <c r="S49" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T49" t="n">
         <v>1.88</v>
@@ -7060,10 +7060,10 @@
         <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W49" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X49" t="n">
         <v>12.5</v>
@@ -7093,7 +7093,7 @@
         <v>980</v>
       </c>
       <c r="AG49" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
         <v>1000</v>
@@ -7147,19 +7147,19 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G50" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H50" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="I50" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="J50" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K50" t="n">
         <v>5</v>
@@ -7186,7 +7186,7 @@
         <v>2.28</v>
       </c>
       <c r="S50" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="T50" t="n">
         <v>1.37</v>
@@ -7195,13 +7195,13 @@
         <v>3.6</v>
       </c>
       <c r="V50" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="W50" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X50" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y50" t="n">
         <v>24</v>
@@ -7210,7 +7210,7 @@
         <v>21</v>
       </c>
       <c r="AA50" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB50" t="n">
         <v>36</v>
@@ -7243,16 +7243,16 @@
         <v>34</v>
       </c>
       <c r="AL50" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM50" t="n">
         <v>36</v>
       </c>
       <c r="AN50" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO50" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="51">
@@ -7288,13 +7288,13 @@
         <v>7.4</v>
       </c>
       <c r="H51" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="I51" t="n">
         <v>1.92</v>
       </c>
       <c r="J51" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K51" t="n">
         <v>4.5</v>
@@ -7330,7 +7330,7 @@
         <v>1.67</v>
       </c>
       <c r="V51" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="W51" t="n">
         <v>1.15</v>
@@ -7417,16 +7417,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="G52" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H52" t="n">
         <v>3.25</v>
       </c>
       <c r="I52" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J52" t="n">
         <v>3.9</v>
@@ -7456,19 +7456,19 @@
         <v>1.6</v>
       </c>
       <c r="S52" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="T52" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U52" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V52" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W52" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X52" t="n">
         <v>30</v>
@@ -7495,7 +7495,7 @@
         <v>42</v>
       </c>
       <c r="AF52" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG52" t="n">
         <v>14</v>
@@ -7555,13 +7555,13 @@
         <v>2.94</v>
       </c>
       <c r="G53" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H53" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="I53" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="J53" t="n">
         <v>2.96</v>
@@ -7582,7 +7582,7 @@
         <v>1.47</v>
       </c>
       <c r="P53" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q53" t="n">
         <v>2.42</v>
@@ -7690,25 +7690,25 @@
         <v>3.4</v>
       </c>
       <c r="G54" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H54" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="I54" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J54" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K54" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L54" t="n">
         <v>1.49</v>
       </c>
       <c r="M54" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N54" t="n">
         <v>3.05</v>
@@ -7720,7 +7720,7 @@
         <v>1.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R54" t="n">
         <v>1.27</v>
@@ -7732,67 +7732,67 @@
         <v>1.91</v>
       </c>
       <c r="U54" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V54" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="W54" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X54" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y54" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z54" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AA54" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB54" t="n">
         <v>11.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD54" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AF54" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG54" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH54" t="n">
         <v>19.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ54" t="n">
         <v>70</v>
       </c>
       <c r="AK54" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL54" t="n">
         <v>65</v>
       </c>
       <c r="AM54" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN54" t="n">
         <v>55</v>
       </c>
       <c r="AO54" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
@@ -7855,7 +7855,7 @@
         <v>1.72</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R55" t="n">
         <v>1.26</v>
@@ -7864,7 +7864,7 @@
         <v>4</v>
       </c>
       <c r="T55" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U55" t="n">
         <v>1.94</v>
@@ -7885,7 +7885,7 @@
         <v>32</v>
       </c>
       <c r="AA55" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB55" t="n">
         <v>10.5</v>
@@ -7927,7 +7927,7 @@
         <v>29</v>
       </c>
       <c r="AO55" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
@@ -7963,10 +7963,10 @@
         <v>3.35</v>
       </c>
       <c r="H56" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I56" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J56" t="n">
         <v>3.6</v>
@@ -7990,10 +7990,10 @@
         <v>2.16</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R56" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S56" t="n">
         <v>2.86</v>
@@ -8005,10 +8005,10 @@
         <v>2.3</v>
       </c>
       <c r="V56" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W56" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X56" t="n">
         <v>19.5</v>
@@ -8095,7 +8095,7 @@
         <v>2.44</v>
       </c>
       <c r="G57" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="H57" t="n">
         <v>2.88</v>
@@ -8104,7 +8104,7 @@
         <v>3.05</v>
       </c>
       <c r="J57" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K57" t="n">
         <v>3.85</v>
@@ -8116,7 +8116,7 @@
         <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O57" t="n">
         <v>1.21</v>
@@ -8125,10 +8125,10 @@
         <v>2.32</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R57" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S57" t="n">
         <v>2.48</v>
@@ -8143,7 +8143,7 @@
         <v>1.48</v>
       </c>
       <c r="W57" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X57" t="n">
         <v>26</v>
@@ -8161,7 +8161,7 @@
         <v>15.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD57" t="n">
         <v>14.5</v>
@@ -8176,7 +8176,7 @@
         <v>13</v>
       </c>
       <c r="AH57" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI57" t="n">
         <v>980</v>
@@ -8194,7 +8194,7 @@
         <v>60</v>
       </c>
       <c r="AN57" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO57" t="n">
         <v>20</v>
@@ -8227,13 +8227,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G58" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H58" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I58" t="n">
         <v>1.91</v>
@@ -8251,16 +8251,16 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O58" t="n">
         <v>1.21</v>
       </c>
       <c r="P58" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R58" t="n">
         <v>1.57</v>
@@ -8272,10 +8272,10 @@
         <v>1.63</v>
       </c>
       <c r="U58" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V58" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W58" t="n">
         <v>1.28</v>
@@ -8293,7 +8293,7 @@
         <v>21</v>
       </c>
       <c r="AB58" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC58" t="n">
         <v>9.4</v>
@@ -8302,25 +8302,25 @@
         <v>10.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF58" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AG58" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI58" t="n">
         <v>28</v>
       </c>
       <c r="AJ58" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AK58" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL58" t="n">
         <v>48</v>
@@ -8332,7 +8332,7 @@
         <v>38</v>
       </c>
       <c r="AO58" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -8500,109 +8500,109 @@
         <v>2.2</v>
       </c>
       <c r="G60" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="H60" t="n">
-        <v>2.62</v>
+        <v>3.2</v>
       </c>
       <c r="I60" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J60" t="n">
-        <v>2.36</v>
+        <v>3.4</v>
       </c>
       <c r="K60" t="n">
-        <v>5.3</v>
+        <v>3.95</v>
       </c>
       <c r="L60" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M60" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>2.46</v>
+        <v>3.55</v>
       </c>
       <c r="O60" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P60" t="n">
         <v>1.91</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.61</v>
+        <v>1.92</v>
       </c>
       <c r="R60" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S60" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T60" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="U60" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="V60" t="n">
         <v>1.37</v>
       </c>
       <c r="W60" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X60" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y60" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z60" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA60" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB60" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC60" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD60" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE60" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AF60" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG60" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH60" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI60" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK60" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AL60" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM60" t="n">
         <v>1000</v>
       </c>
       <c r="AN60" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO60" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61">
@@ -8638,95 +8638,95 @@
         <v>2.4</v>
       </c>
       <c r="H61" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I61" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J61" t="n">
         <v>3.15</v>
       </c>
       <c r="K61" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L61" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M61" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N61" t="n">
-        <v>2.22</v>
+        <v>2.78</v>
       </c>
       <c r="O61" t="n">
-        <v>1.08</v>
+        <v>1.45</v>
       </c>
       <c r="P61" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="R61" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="S61" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="T61" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="U61" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="V61" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W61" t="n">
         <v>1.71</v>
       </c>
       <c r="X61" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Y61" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF61" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="AG61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK61" t="n">
         <v>34</v>
       </c>
-      <c r="AA61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>46</v>
-      </c>
       <c r="AL61" t="n">
         <v>1000</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>1000</v>
       </c>
       <c r="AN61" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AO61" t="n">
         <v>1000</v>
@@ -8809,7 +8809,7 @@
         <v>3.05</v>
       </c>
       <c r="T62" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U62" t="n">
         <v>2.2</v>
@@ -8818,7 +8818,7 @@
         <v>1.37</v>
       </c>
       <c r="W62" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X62" t="n">
         <v>18</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G63" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="H63" t="n">
         <v>3.25</v>
       </c>
       <c r="I63" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J63" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="K63" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L63" t="n">
         <v>1.26</v>
@@ -8926,7 +8926,7 @@
         <v>1.04</v>
       </c>
       <c r="N63" t="n">
-        <v>2.44</v>
+        <v>4.7</v>
       </c>
       <c r="O63" t="n">
         <v>1.21</v>
@@ -8935,46 +8935,46 @@
         <v>2.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="R63" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="S63" t="n">
-        <v>2.16</v>
+        <v>2.58</v>
       </c>
       <c r="T63" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="U63" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="V63" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="W63" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X63" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y63" t="n">
         <v>1000</v>
       </c>
       <c r="Z63" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA63" t="n">
         <v>1000</v>
       </c>
       <c r="AB63" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC63" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD63" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE63" t="n">
         <v>1000</v>
@@ -8983,10 +8983,10 @@
         <v>18.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH63" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI63" t="n">
         <v>1000</v>
@@ -9004,10 +9004,10 @@
         <v>1000</v>
       </c>
       <c r="AN63" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO63" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
@@ -9037,16 +9037,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G64" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H64" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I64" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="J64" t="n">
         <v>3.2</v>
@@ -9067,10 +9067,10 @@
         <v>1.35</v>
       </c>
       <c r="P64" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R64" t="n">
         <v>1.33</v>
@@ -9085,19 +9085,19 @@
         <v>2.16</v>
       </c>
       <c r="V64" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W64" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X64" t="n">
         <v>15</v>
       </c>
       <c r="Y64" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z64" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA64" t="n">
         <v>980</v>
@@ -9133,7 +9133,7 @@
         <v>980</v>
       </c>
       <c r="AL64" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM64" t="n">
         <v>120</v>
@@ -9172,16 +9172,16 @@
         </is>
       </c>
       <c r="F65" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G65" t="n">
         <v>2.16</v>
       </c>
-      <c r="G65" t="n">
-        <v>2.18</v>
-      </c>
       <c r="H65" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I65" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J65" t="n">
         <v>3.85</v>
@@ -9190,22 +9190,22 @@
         <v>3.9</v>
       </c>
       <c r="L65" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M65" t="n">
         <v>1.05</v>
       </c>
       <c r="N65" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O65" t="n">
         <v>1.22</v>
       </c>
       <c r="P65" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R65" t="n">
         <v>1.57</v>
@@ -9214,7 +9214,7 @@
         <v>2.7</v>
       </c>
       <c r="T65" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U65" t="n">
         <v>2.6</v>
@@ -9223,7 +9223,7 @@
         <v>1.38</v>
       </c>
       <c r="W65" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X65" t="n">
         <v>20</v>
@@ -9244,7 +9244,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD65" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE65" t="n">
         <v>34</v>
@@ -9256,25 +9256,25 @@
         <v>10.5</v>
       </c>
       <c r="AH65" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ65" t="n">
         <v>27</v>
       </c>
       <c r="AK65" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL65" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM65" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN65" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO65" t="n">
         <v>26</v>
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="F66" t="n">
+        <v>20</v>
+      </c>
+      <c r="G66" t="n">
         <v>21</v>
-      </c>
-      <c r="G66" t="n">
-        <v>23</v>
       </c>
       <c r="H66" t="n">
         <v>1.16</v>
@@ -9340,25 +9340,25 @@
         <v>4.3</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="R66" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="S66" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="T66" t="n">
         <v>1.9</v>
       </c>
       <c r="U66" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V66" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="W66" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="X66" t="n">
         <v>70</v>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G67" t="n">
         <v>2.2</v>
@@ -9460,7 +9460,7 @@
         <v>3.9</v>
       </c>
       <c r="L67" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M67" t="n">
         <v>1.06</v>
@@ -9472,10 +9472,10 @@
         <v>1.3</v>
       </c>
       <c r="P67" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R67" t="n">
         <v>1.35</v>
@@ -9490,10 +9490,10 @@
         <v>2.1</v>
       </c>
       <c r="V67" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W67" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X67" t="n">
         <v>15.5</v>
@@ -9502,7 +9502,7 @@
         <v>15.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA67" t="n">
         <v>1000</v>
@@ -9580,13 +9580,13 @@
         <v>2.06</v>
       </c>
       <c r="G68" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="H68" t="n">
         <v>3.85</v>
       </c>
       <c r="I68" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J68" t="n">
         <v>3.4</v>
@@ -9616,7 +9616,7 @@
         <v>1.18</v>
       </c>
       <c r="S68" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T68" t="n">
         <v>2.12</v>
@@ -9625,10 +9625,10 @@
         <v>1.68</v>
       </c>
       <c r="V68" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W68" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X68" t="n">
         <v>9.800000000000001</v>
@@ -9637,22 +9637,22 @@
         <v>12</v>
       </c>
       <c r="Z68" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA68" t="n">
         <v>130</v>
       </c>
       <c r="AB68" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC68" t="n">
         <v>8.4</v>
       </c>
       <c r="AD68" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE68" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF68" t="n">
         <v>13</v>
@@ -9670,7 +9670,7 @@
         <v>32</v>
       </c>
       <c r="AK68" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL68" t="n">
         <v>65</v>
@@ -9730,7 +9730,7 @@
         <v>3.15</v>
       </c>
       <c r="L69" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M69" t="n">
         <v>1.14</v>
@@ -9757,7 +9757,7 @@
         <v>2.18</v>
       </c>
       <c r="U69" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V69" t="n">
         <v>1.44</v>
@@ -9856,7 +9856,7 @@
         <v>3.55</v>
       </c>
       <c r="I70" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J70" t="n">
         <v>2.98</v>
@@ -9886,7 +9886,7 @@
         <v>1.22</v>
       </c>
       <c r="S70" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="T70" t="n">
         <v>1.91</v>
@@ -9952,7 +9952,7 @@
         <v>32</v>
       </c>
       <c r="AO70" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71">
@@ -10021,7 +10021,7 @@
         <v>1.23</v>
       </c>
       <c r="S71" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="T71" t="n">
         <v>1.93</v>
@@ -10117,31 +10117,31 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="H72" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I72" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K72" t="n">
         <v>3.6</v>
       </c>
       <c r="L72" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M72" t="n">
         <v>1.09</v>
       </c>
       <c r="N72" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="O72" t="n">
         <v>1.39</v>
@@ -10150,7 +10150,7 @@
         <v>1.7</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R72" t="n">
         <v>1.26</v>
@@ -10165,10 +10165,10 @@
         <v>1.9</v>
       </c>
       <c r="V72" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W72" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="X72" t="n">
         <v>17</v>
@@ -10180,7 +10180,7 @@
         <v>980</v>
       </c>
       <c r="AA72" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB72" t="n">
         <v>1000</v>
@@ -10192,7 +10192,7 @@
         <v>1000</v>
       </c>
       <c r="AE72" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF72" t="n">
         <v>1000</v>
@@ -10204,7 +10204,7 @@
         <v>980</v>
       </c>
       <c r="AI72" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ72" t="n">
         <v>980</v>
@@ -10222,7 +10222,7 @@
         <v>980</v>
       </c>
       <c r="AO72" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73">
@@ -10252,25 +10252,25 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="G73" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H73" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I73" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J73" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K73" t="n">
         <v>3.3</v>
       </c>
       <c r="L73" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M73" t="n">
         <v>1.09</v>
@@ -10285,7 +10285,7 @@
         <v>1.72</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R73" t="n">
         <v>1.27</v>
@@ -10297,13 +10297,13 @@
         <v>1.9</v>
       </c>
       <c r="U73" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V73" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W73" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X73" t="n">
         <v>13.5</v>
@@ -10312,10 +10312,10 @@
         <v>12.5</v>
       </c>
       <c r="Z73" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA73" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AB73" t="n">
         <v>8.800000000000001</v>
@@ -10354,10 +10354,10 @@
         <v>150</v>
       </c>
       <c r="AN73" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO73" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74">
@@ -10393,10 +10393,10 @@
         <v>1.24</v>
       </c>
       <c r="H74" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I74" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J74" t="n">
         <v>8.199999999999999</v>
@@ -10411,19 +10411,19 @@
         <v>1.02</v>
       </c>
       <c r="N74" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="O74" t="n">
         <v>1.12</v>
       </c>
       <c r="P74" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q74" t="n">
         <v>1.37</v>
       </c>
       <c r="R74" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="S74" t="n">
         <v>1.92</v>
@@ -10435,10 +10435,10 @@
         <v>1.98</v>
       </c>
       <c r="V74" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W74" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="X74" t="n">
         <v>60</v>
@@ -10486,7 +10486,7 @@
         <v>36</v>
       </c>
       <c r="AM74" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN74" t="n">
         <v>3.2</v>
@@ -10525,13 +10525,13 @@
         <v>4.9</v>
       </c>
       <c r="G75" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="H75" t="n">
         <v>1.8</v>
       </c>
       <c r="I75" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="J75" t="n">
         <v>3.35</v>
@@ -10543,7 +10543,7 @@
         <v>1.46</v>
       </c>
       <c r="M75" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N75" t="n">
         <v>3.05</v>
@@ -10570,7 +10570,7 @@
         <v>1.84</v>
       </c>
       <c r="V75" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="W75" t="n">
         <v>1.21</v>
@@ -10657,16 +10657,16 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G76" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I76" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J76" t="n">
         <v>3.5</v>
@@ -10678,40 +10678,40 @@
         <v>1.38</v>
       </c>
       <c r="M76" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N76" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="O76" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P76" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="Q76" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T76" t="n">
         <v>1.95</v>
       </c>
-      <c r="R76" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S76" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1.04</v>
-      </c>
       <c r="U76" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="V76" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W76" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X76" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y76" t="n">
         <v>1000</v>
@@ -10723,10 +10723,10 @@
         <v>1000</v>
       </c>
       <c r="AB76" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC76" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD76" t="n">
         <v>1000</v>
@@ -10735,10 +10735,10 @@
         <v>1000</v>
       </c>
       <c r="AF76" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG76" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH76" t="n">
         <v>1000</v>
@@ -10792,10 +10792,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G77" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H77" t="n">
         <v>3.55</v>
@@ -10816,13 +10816,13 @@
         <v>1.09</v>
       </c>
       <c r="N77" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O77" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P77" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q77" t="n">
         <v>2.2</v>
@@ -10834,7 +10834,7 @@
         <v>4.1</v>
       </c>
       <c r="T77" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U77" t="n">
         <v>2.04</v>
@@ -10876,10 +10876,10 @@
         <v>11.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ77" t="n">
         <v>32</v>
@@ -10927,19 +10927,19 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="G78" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="H78" t="n">
         <v>4.3</v>
       </c>
       <c r="I78" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J78" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K78" t="n">
         <v>3.65</v>
@@ -10960,25 +10960,25 @@
         <v>1.74</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R78" t="n">
         <v>1.28</v>
       </c>
       <c r="S78" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T78" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U78" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V78" t="n">
         <v>1.27</v>
       </c>
       <c r="W78" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="X78" t="n">
         <v>13</v>
@@ -10996,7 +10996,7 @@
         <v>8.4</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD78" t="n">
         <v>19.5</v>
@@ -11020,7 +11020,7 @@
         <v>26</v>
       </c>
       <c r="AK78" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL78" t="n">
         <v>980</v>
@@ -11062,16 +11062,16 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G79" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H79" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I79" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3.55</v>
       </c>
       <c r="J79" t="n">
         <v>3.2</v>
@@ -11080,7 +11080,7 @@
         <v>3.25</v>
       </c>
       <c r="L79" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M79" t="n">
         <v>1.11</v>
@@ -11089,7 +11089,7 @@
         <v>2.94</v>
       </c>
       <c r="O79" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P79" t="n">
         <v>1.64</v>
@@ -11110,10 +11110,10 @@
         <v>1.9</v>
       </c>
       <c r="V79" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W79" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X79" t="n">
         <v>9.4</v>
@@ -11140,13 +11140,13 @@
         <v>55</v>
       </c>
       <c r="AF79" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG79" t="n">
         <v>12</v>
       </c>
       <c r="AH79" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI79" t="n">
         <v>70</v>
@@ -11200,7 +11200,7 @@
         <v>2.28</v>
       </c>
       <c r="G80" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>4.1</v>
@@ -11209,7 +11209,7 @@
         <v>4.2</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K80" t="n">
         <v>3.15</v>
@@ -11218,19 +11218,19 @@
         <v>1.65</v>
       </c>
       <c r="M80" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N80" t="n">
         <v>2.4</v>
       </c>
       <c r="O80" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="P80" t="n">
         <v>1.46</v>
       </c>
       <c r="Q80" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="R80" t="n">
         <v>1.16</v>
@@ -11239,16 +11239,16 @@
         <v>6.6</v>
       </c>
       <c r="T80" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="U80" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V80" t="n">
         <v>1.31</v>
       </c>
       <c r="W80" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="X80" t="n">
         <v>9</v>
@@ -11332,19 +11332,19 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G81" t="n">
         <v>2.16</v>
       </c>
       <c r="H81" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I81" t="n">
         <v>4.4</v>
       </c>
       <c r="J81" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K81" t="n">
         <v>3.4</v>
@@ -11356,16 +11356,16 @@
         <v>1.09</v>
       </c>
       <c r="N81" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O81" t="n">
         <v>1.38</v>
       </c>
       <c r="P81" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R81" t="n">
         <v>1.3</v>
@@ -11374,7 +11374,7 @@
         <v>3.9</v>
       </c>
       <c r="T81" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U81" t="n">
         <v>2</v>
@@ -11386,16 +11386,16 @@
         <v>1.86</v>
       </c>
       <c r="X81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y81" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y81" t="n">
-        <v>14</v>
-      </c>
       <c r="Z81" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AA81" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB81" t="n">
         <v>8.6</v>
@@ -11407,7 +11407,7 @@
         <v>18</v>
       </c>
       <c r="AE81" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AF81" t="n">
         <v>13</v>
@@ -11419,10 +11419,10 @@
         <v>19</v>
       </c>
       <c r="AI81" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AJ81" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK81" t="n">
         <v>24</v>
@@ -11431,13 +11431,13 @@
         <v>980</v>
       </c>
       <c r="AM81" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN81" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AO81" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82">
@@ -11476,7 +11476,7 @@
         <v>3.75</v>
       </c>
       <c r="I82" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J82" t="n">
         <v>3.15</v>
@@ -11500,7 +11500,7 @@
         <v>1.68</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R82" t="n">
         <v>1.24</v>
@@ -11509,7 +11509,7 @@
         <v>4.4</v>
       </c>
       <c r="T82" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U82" t="n">
         <v>1.93</v>
@@ -11533,7 +11533,7 @@
         <v>85</v>
       </c>
       <c r="AB82" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC82" t="n">
         <v>7.8</v>
@@ -11602,22 +11602,22 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G83" t="n">
         <v>3.5</v>
       </c>
       <c r="H83" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I83" t="n">
         <v>2.72</v>
       </c>
       <c r="J83" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K83" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L83" t="n">
         <v>1.37</v>
@@ -11632,7 +11632,7 @@
         <v>1.39</v>
       </c>
       <c r="P83" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q83" t="n">
         <v>2.12</v>
@@ -11647,7 +11647,7 @@
         <v>1.81</v>
       </c>
       <c r="U83" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V83" t="n">
         <v>1.58</v>
@@ -11656,7 +11656,7 @@
         <v>1.4</v>
       </c>
       <c r="X83" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y83" t="n">
         <v>10</v>
@@ -11740,16 +11740,16 @@
         <v>2.02</v>
       </c>
       <c r="G84" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H84" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I84" t="n">
         <v>4.5</v>
       </c>
       <c r="J84" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K84" t="n">
         <v>3.7</v>
@@ -11761,19 +11761,19 @@
         <v>1.08</v>
       </c>
       <c r="N84" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O84" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P84" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q84" t="n">
         <v>2.08</v>
       </c>
       <c r="R84" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S84" t="n">
         <v>3.9</v>
@@ -11782,13 +11782,13 @@
         <v>1.87</v>
       </c>
       <c r="U84" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V84" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W84" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X84" t="n">
         <v>14.5</v>
@@ -11797,7 +11797,7 @@
         <v>16.5</v>
       </c>
       <c r="Z84" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA84" t="n">
         <v>110</v>
@@ -11815,13 +11815,13 @@
         <v>70</v>
       </c>
       <c r="AF84" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG84" t="n">
         <v>13</v>
       </c>
       <c r="AH84" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI84" t="n">
         <v>85</v>
@@ -11830,7 +11830,7 @@
         <v>32</v>
       </c>
       <c r="AK84" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL84" t="n">
         <v>55</v>
@@ -11839,7 +11839,7 @@
         <v>1000</v>
       </c>
       <c r="AN84" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO84" t="n">
         <v>85</v>
@@ -11884,40 +11884,40 @@
         <v>1.84</v>
       </c>
       <c r="J85" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K85" t="n">
         <v>5.2</v>
       </c>
       <c r="L85" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M85" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N85" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="O85" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P85" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="R85" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="S85" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="T85" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="U85" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="V85" t="n">
         <v>2.18</v>
@@ -11929,28 +11929,28 @@
         <v>980</v>
       </c>
       <c r="Y85" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Z85" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AA85" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB85" t="n">
         <v>980</v>
       </c>
       <c r="AC85" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD85" t="n">
         <v>12</v>
       </c>
       <c r="AE85" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF85" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AG85" t="n">
         <v>20</v>
@@ -11965,7 +11965,7 @@
         <v>110</v>
       </c>
       <c r="AK85" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL85" t="n">
         <v>980</v>
@@ -11974,10 +11974,10 @@
         <v>55</v>
       </c>
       <c r="AN85" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO85" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -12007,112 +12007,112 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G86" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H86" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I86" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J86" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K86" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L86" t="n">
         <v>1.31</v>
       </c>
       <c r="M86" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N86" t="n">
-        <v>1.86</v>
+        <v>4</v>
       </c>
       <c r="O86" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P86" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="R86" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="S86" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="T86" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V86" t="n">
         <v>1.55</v>
-      </c>
-      <c r="U86" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V86" t="n">
-        <v>1.54</v>
       </c>
       <c r="W86" t="n">
         <v>1.51</v>
       </c>
       <c r="X86" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y86" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z86" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA86" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB86" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD86" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE86" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF86" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG86" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH86" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI86" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ86" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK86" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL86" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM86" t="n">
         <v>1000</v>
       </c>
       <c r="AN86" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO86" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87">
@@ -12154,7 +12154,7 @@
         <v>34</v>
       </c>
       <c r="J87" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K87" t="n">
         <v>9.6</v>
@@ -12172,22 +12172,22 @@
         <v>1.17</v>
       </c>
       <c r="P87" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R87" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S87" t="n">
         <v>2.26</v>
       </c>
       <c r="T87" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U87" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="V87" t="n">
         <v>1.03</v>
@@ -12220,7 +12220,7 @@
         <v>1000</v>
       </c>
       <c r="AF87" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG87" t="n">
         <v>1000</v>
@@ -12280,7 +12280,7 @@
         <v>1.84</v>
       </c>
       <c r="G88" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H88" t="n">
         <v>4.2</v>
@@ -12421,7 +12421,7 @@
         <v>3.1</v>
       </c>
       <c r="I89" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J89" t="n">
         <v>3.1</v>
@@ -12433,7 +12433,7 @@
         <v>1.44</v>
       </c>
       <c r="M89" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N89" t="n">
         <v>3.15</v>
@@ -12451,7 +12451,7 @@
         <v>1.28</v>
       </c>
       <c r="S89" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T89" t="n">
         <v>1.82</v>
@@ -12460,7 +12460,7 @@
         <v>1.99</v>
       </c>
       <c r="V89" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W89" t="n">
         <v>1.61</v>
@@ -12547,19 +12547,19 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G90" t="n">
         <v>4.3</v>
       </c>
       <c r="H90" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I90" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J90" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K90" t="n">
         <v>3.6</v>
@@ -12580,7 +12580,7 @@
         <v>1.84</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R90" t="n">
         <v>1.31</v>
@@ -12637,10 +12637,10 @@
         <v>42</v>
       </c>
       <c r="AJ90" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AK90" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL90" t="n">
         <v>70</v>
@@ -12691,10 +12691,10 @@
         <v>6.2</v>
       </c>
       <c r="I91" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J91" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K91" t="n">
         <v>3.7</v>
@@ -12712,7 +12712,7 @@
         <v>1.51</v>
       </c>
       <c r="P91" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q91" t="n">
         <v>2.56</v>
@@ -12724,7 +12724,7 @@
         <v>5.2</v>
       </c>
       <c r="T91" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U91" t="n">
         <v>1.7</v>
@@ -12775,7 +12775,7 @@
         <v>18</v>
       </c>
       <c r="AK91" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL91" t="n">
         <v>60</v>
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G92" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J92" t="n">
         <v>3.45</v>
       </c>
-      <c r="G92" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J92" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K92" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L92" t="n">
         <v>1.44</v>
@@ -12841,7 +12841,7 @@
         <v>1.07</v>
       </c>
       <c r="N92" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O92" t="n">
         <v>1.34</v>
@@ -12850,55 +12850,55 @@
         <v>1.89</v>
       </c>
       <c r="Q92" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R92" t="n">
         <v>1.35</v>
       </c>
       <c r="S92" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T92" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U92" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V92" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W92" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X92" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y92" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z92" t="n">
         <v>14.5</v>
       </c>
       <c r="AA92" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AB92" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC92" t="n">
         <v>7.8</v>
       </c>
       <c r="AD92" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE92" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AF92" t="n">
         <v>25</v>
       </c>
       <c r="AG92" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH92" t="n">
         <v>18</v>
@@ -12907,10 +12907,10 @@
         <v>980</v>
       </c>
       <c r="AJ92" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK92" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL92" t="n">
         <v>55</v>
@@ -12919,7 +12919,7 @@
         <v>100</v>
       </c>
       <c r="AN92" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO92" t="n">
         <v>21</v>
@@ -12952,16 +12952,16 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="G93" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="H93" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I93" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J93" t="n">
         <v>3.4</v>
@@ -12970,7 +12970,7 @@
         <v>3.55</v>
       </c>
       <c r="L93" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M93" t="n">
         <v>1.11</v>
@@ -12994,7 +12994,7 @@
         <v>4.8</v>
       </c>
       <c r="T93" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U93" t="n">
         <v>1.76</v>
@@ -13003,13 +13003,13 @@
         <v>1.2</v>
       </c>
       <c r="W93" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X93" t="n">
         <v>12</v>
       </c>
       <c r="Y93" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z93" t="n">
         <v>980</v>
@@ -13030,7 +13030,7 @@
         <v>120</v>
       </c>
       <c r="AF93" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG93" t="n">
         <v>11</v>
@@ -13042,10 +13042,10 @@
         <v>140</v>
       </c>
       <c r="AJ93" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK93" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL93" t="n">
         <v>55</v>
@@ -13225,7 +13225,7 @@
         <v>1.59</v>
       </c>
       <c r="G95" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H95" t="n">
         <v>5.4</v>
@@ -13273,7 +13273,7 @@
         <v>1.17</v>
       </c>
       <c r="W95" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X95" t="n">
         <v>23</v>
@@ -13282,13 +13282,13 @@
         <v>24</v>
       </c>
       <c r="Z95" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AA95" t="n">
         <v>190</v>
       </c>
       <c r="AB95" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC95" t="n">
         <v>12</v>
@@ -13297,7 +13297,7 @@
         <v>25</v>
       </c>
       <c r="AE95" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF95" t="n">
         <v>11.5</v>
@@ -13309,13 +13309,13 @@
         <v>22</v>
       </c>
       <c r="AI95" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ95" t="n">
         <v>20</v>
       </c>
       <c r="AK95" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL95" t="n">
         <v>36</v>
@@ -13366,10 +13366,10 @@
         <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J96" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K96" t="n">
         <v>4.5</v>
@@ -13405,7 +13405,7 @@
         <v>1.96</v>
       </c>
       <c r="V96" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W96" t="n">
         <v>2.08</v>
@@ -13423,7 +13423,7 @@
         <v>110</v>
       </c>
       <c r="AB96" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC96" t="n">
         <v>9.6</v>
@@ -13504,97 +13504,97 @@
         <v>5.2</v>
       </c>
       <c r="J97" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K97" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L97" t="n">
         <v>1.4</v>
       </c>
       <c r="M97" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N97" t="n">
-        <v>1.83</v>
+        <v>3.4</v>
       </c>
       <c r="O97" t="n">
         <v>1.34</v>
       </c>
       <c r="P97" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q97" t="n">
         <v>1.95</v>
       </c>
       <c r="R97" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="S97" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="T97" t="n">
-        <v>1.58</v>
+        <v>1.82</v>
       </c>
       <c r="U97" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="V97" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W97" t="n">
         <v>2</v>
       </c>
       <c r="X97" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y97" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ97" t="n">
         <v>23</v>
       </c>
-      <c r="Z97" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC97" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG97" t="n">
+      <c r="AK97" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN97" t="n">
         <v>15</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI97" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN97" t="n">
-        <v>1000</v>
       </c>
       <c r="AO97" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G2" t="n">
         <v>6.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="I2" t="n">
         <v>1.64</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>1.35</v>
       </c>
       <c r="J3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K3" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.28</v>
@@ -826,19 +826,19 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q3" t="n">
         <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
         <v>2.92</v>
@@ -847,10 +847,10 @@
         <v>2.26</v>
       </c>
       <c r="U3" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V3" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="W3" t="n">
         <v>1.07</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G4" t="n">
         <v>1.86</v>
@@ -958,7 +958,7 @@
         <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>3.45</v>
@@ -967,10 +967,10 @@
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
         <v>1.32</v>
@@ -991,7 +991,7 @@
         <v>2.16</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>17</v>
@@ -1042,7 +1042,7 @@
         <v>13.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
         <v>4.4</v>
@@ -1096,16 +1096,16 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
         <v>2.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R5" t="n">
         <v>1.64</v>
@@ -1114,22 +1114,22 @@
         <v>2.32</v>
       </c>
       <c r="T5" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="U5" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="V5" t="n">
         <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X5" t="n">
         <v>32</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1153,13 +1153,13 @@
         <v>18.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
         <v>15.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1171,7 +1171,7 @@
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
         <v>11</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H6" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="I6" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J6" t="n">
         <v>4.4</v>
@@ -1231,37 +1231,37 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q6" t="n">
         <v>1.55</v>
       </c>
       <c r="R6" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S6" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="T6" t="n">
         <v>1.57</v>
       </c>
       <c r="U6" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V6" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
         <v>14</v>
@@ -1270,49 +1270,49 @@
         <v>13.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
         <v>65</v>
       </c>
       <c r="AN6" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="7">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G7" t="n">
         <v>2.26</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.28</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -1366,37 +1366,37 @@
         <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="O7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R7" t="n">
         <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T7" t="n">
         <v>2.14</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
         <v>1.79</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y7" t="n">
         <v>11.5</v>
@@ -1405,13 +1405,13 @@
         <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
         <v>17</v>
@@ -1429,7 +1429,7 @@
         <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ7" t="n">
         <v>29</v>
@@ -1444,10 +1444,10 @@
         <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1486,10 +1486,10 @@
         <v>2.36</v>
       </c>
       <c r="I8" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K8" t="n">
         <v>3.45</v>
@@ -1618,10 +1618,10 @@
         <v>1.63</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J9" t="n">
         <v>3.9</v>
@@ -1645,7 +1645,7 @@
         <v>1.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
@@ -1663,7 +1663,7 @@
         <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X9" t="n">
         <v>14</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK9" t="n">
         <v>23</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="G10" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="H10" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.39</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T10" t="n">
         <v>1.92</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W10" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
         <v>18</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA10" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB10" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
         <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -2020,10 +2020,10 @@
         <v>2.52</v>
       </c>
       <c r="G12" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I12" t="n">
         <v>3.1</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>3.7</v>
@@ -2185,7 +2185,7 @@
         <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
         <v>1.45</v>
@@ -2290,10 +2290,10 @@
         <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
         <v>3.55</v>
@@ -2428,7 +2428,7 @@
         <v>2.8</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I15" t="n">
         <v>3.5</v>
@@ -2437,7 +2437,7 @@
         <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2455,7 +2455,7 @@
         <v>1.51</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
@@ -2566,7 +2566,7 @@
         <v>2.48</v>
       </c>
       <c r="I16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
@@ -2575,13 +2575,13 @@
         <v>5.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O16" t="n">
         <v>1.01</v>
@@ -2590,7 +2590,7 @@
         <v>1.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R16" t="n">
         <v>1.35</v>
@@ -2605,7 +2605,7 @@
         <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W16" t="n">
         <v>1.44</v>
@@ -2704,7 +2704,7 @@
         <v>2.32</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G18" t="n">
         <v>3.7</v>
       </c>
       <c r="H18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I18" t="n">
         <v>2.1</v>
       </c>
-      <c r="I18" t="n">
-        <v>2.14</v>
-      </c>
       <c r="J18" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.31</v>
@@ -2851,16 +2851,16 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
         <v>2.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R18" t="n">
         <v>1.55</v>
@@ -2875,19 +2875,19 @@
         <v>2.48</v>
       </c>
       <c r="V18" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W18" t="n">
         <v>1.37</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="n">
         <v>13</v>
       </c>
       <c r="Z18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA18" t="n">
         <v>27</v>
@@ -2905,7 +2905,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
         <v>15.5</v>
@@ -2920,7 +2920,7 @@
         <v>65</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="n">
         <v>40</v>
@@ -2965,13 +2965,13 @@
         <v>3.55</v>
       </c>
       <c r="G19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I19" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J19" t="n">
         <v>3.8</v>
@@ -2986,7 +2986,7 @@
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O19" t="n">
         <v>1.25</v>
@@ -2995,28 +2995,28 @@
         <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R19" t="n">
         <v>1.49</v>
       </c>
       <c r="S19" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U19" t="n">
         <v>2.38</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W19" t="n">
         <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y19" t="n">
         <v>12</v>
@@ -3034,13 +3034,13 @@
         <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE19" t="n">
         <v>22</v>
       </c>
       <c r="AF19" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG19" t="n">
         <v>14.5</v>
@@ -3052,7 +3052,7 @@
         <v>32</v>
       </c>
       <c r="AJ19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK19" t="n">
         <v>38</v>
@@ -3100,10 +3100,10 @@
         <v>3.55</v>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H20" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I20" t="n">
         <v>2.3</v>
@@ -3121,7 +3121,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.38</v>
@@ -3133,34 +3133,34 @@
         <v>2.12</v>
       </c>
       <c r="R20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S20" t="n">
         <v>3.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="W20" t="n">
         <v>1.36</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB20" t="n">
         <v>13.5</v>
@@ -3169,40 +3169,40 @@
         <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN20" t="n">
         <v>50</v>
       </c>
-      <c r="AL20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>55</v>
-      </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="G21" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J21" t="n">
         <v>12.5</v>
@@ -3256,37 +3256,37 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P21" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="R21" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="S21" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="T21" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="U21" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="V21" t="n">
         <v>1.03</v>
       </c>
       <c r="W21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="Y21" t="n">
         <v>1000</v>
@@ -3298,43 +3298,43 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AC21" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AD21" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
         <v>15</v>
       </c>
       <c r="AL21" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3373,7 +3373,7 @@
         <v>2.22</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
         <v>3.5</v>
@@ -3382,7 +3382,7 @@
         <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
         <v>1.27</v>
@@ -3409,10 +3409,10 @@
         <v>2.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U22" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V22" t="n">
         <v>1.4</v>
@@ -3436,7 +3436,7 @@
         <v>15.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
         <v>15</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H23" t="n">
         <v>7.4</v>
@@ -3550,10 +3550,10 @@
         <v>1.94</v>
       </c>
       <c r="V23" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
         <v>2.48</v>
       </c>
       <c r="I24" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J24" t="n">
         <v>3.35</v>
@@ -3661,7 +3661,7 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -3682,19 +3682,19 @@
         <v>1.77</v>
       </c>
       <c r="U24" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W24" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X24" t="n">
         <v>14</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z24" t="n">
         <v>16.5</v>
@@ -3733,13 +3733,13 @@
         <v>38</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM24" t="n">
         <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AO24" t="n">
         <v>22</v>
@@ -3775,7 +3775,7 @@
         <v>1.84</v>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H25" t="n">
         <v>4.3</v>
@@ -3784,7 +3784,7 @@
         <v>4.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K25" t="n">
         <v>4.3</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q25" t="n">
         <v>1.66</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H26" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I26" t="n">
         <v>1.75</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.76</v>
       </c>
       <c r="J26" t="n">
         <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.38</v>
@@ -3955,13 +3955,13 @@
         <v>2.16</v>
       </c>
       <c r="V26" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W26" t="n">
         <v>1.23</v>
       </c>
       <c r="X26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y26" t="n">
         <v>9.6</v>
@@ -3973,7 +3973,7 @@
         <v>18</v>
       </c>
       <c r="AB26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC26" t="n">
         <v>9</v>
@@ -3988,7 +3988,7 @@
         <v>40</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH26" t="n">
         <v>19</v>
@@ -4075,10 +4075,10 @@
         <v>1.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="R27" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
         <v>4</v>
@@ -4183,19 +4183,19 @@
         <v>4.9</v>
       </c>
       <c r="H28" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J28" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K28" t="n">
         <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="M28" t="n">
         <v>1.11</v>
@@ -4225,7 +4225,7 @@
         <v>1.77</v>
       </c>
       <c r="V28" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="W28" t="n">
         <v>1.26</v>
@@ -4405,7 +4405,7 @@
         <v>12.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
         <v>60</v>
@@ -4504,7 +4504,7 @@
         <v>12.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
         <v>13.5</v>
@@ -4516,7 +4516,7 @@
         <v>18</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD30" t="n">
         <v>13</v>
@@ -4543,7 +4543,7 @@
         <v>90</v>
       </c>
       <c r="AL30" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G31" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H31" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J31" t="n">
         <v>3.65</v>
@@ -4606,37 +4606,37 @@
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O31" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="R31" t="n">
         <v>1.37</v>
       </c>
       <c r="S31" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U31" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V31" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W31" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X31" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y31" t="n">
         <v>14</v>
@@ -4645,10 +4645,10 @@
         <v>25</v>
       </c>
       <c r="AA31" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB31" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC31" t="n">
         <v>8</v>
@@ -4663,16 +4663,16 @@
         <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
         <v>17.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK31" t="n">
         <v>23</v>
@@ -4684,7 +4684,7 @@
         <v>95</v>
       </c>
       <c r="AN31" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO31" t="n">
         <v>42</v>
@@ -4723,10 +4723,10 @@
         <v>3.5</v>
       </c>
       <c r="H32" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J32" t="n">
         <v>3.8</v>
@@ -4741,7 +4741,7 @@
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O32" t="n">
         <v>1.25</v>
@@ -4750,7 +4750,7 @@
         <v>2.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R32" t="n">
         <v>1.48</v>
@@ -4762,10 +4762,10 @@
         <v>1.65</v>
       </c>
       <c r="U32" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V32" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W32" t="n">
         <v>1.4</v>
@@ -4777,7 +4777,7 @@
         <v>12.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA32" t="n">
         <v>29</v>
@@ -4786,7 +4786,7 @@
         <v>16.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
         <v>11.5</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G33" t="n">
         <v>1.75</v>
       </c>
       <c r="H33" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I33" t="n">
         <v>5</v>
@@ -4873,31 +4873,31 @@
         <v>1.29</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O33" t="n">
         <v>1.19</v>
       </c>
       <c r="P33" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R33" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S33" t="n">
         <v>2.44</v>
       </c>
       <c r="T33" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U33" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V33" t="n">
         <v>1.25</v>
@@ -4915,7 +4915,7 @@
         <v>44</v>
       </c>
       <c r="AA33" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB33" t="n">
         <v>12.5</v>
@@ -4945,16 +4945,16 @@
         <v>18.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM33" t="n">
         <v>70</v>
       </c>
       <c r="AN33" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AO33" t="n">
         <v>44</v>
@@ -4996,7 +4996,7 @@
         <v>2.56</v>
       </c>
       <c r="I34" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="J34" t="n">
         <v>3.6</v>
@@ -5026,7 +5026,7 @@
         <v>1.47</v>
       </c>
       <c r="S34" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T34" t="n">
         <v>1.6</v>
@@ -5035,7 +5035,7 @@
         <v>2.38</v>
       </c>
       <c r="V34" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W34" t="n">
         <v>1.51</v>
@@ -5074,10 +5074,10 @@
         <v>16.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK34" t="n">
         <v>1000</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G35" t="n">
         <v>2.72</v>
@@ -5170,7 +5170,7 @@
         <v>1.69</v>
       </c>
       <c r="V35" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W35" t="n">
         <v>1.58</v>
@@ -5272,7 +5272,7 @@
         <v>3.6</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L36" t="n">
         <v>1.44</v>
@@ -5404,7 +5404,7 @@
         <v>980</v>
       </c>
       <c r="J37" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="K37" t="n">
         <v>32</v>
@@ -5416,10 +5416,10 @@
         <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="P37" t="n">
         <v>1.25</v>
@@ -5437,7 +5437,7 @@
         <v>1.97</v>
       </c>
       <c r="U37" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V37" t="n">
         <v>1.08</v>
@@ -5530,16 +5530,16 @@
         <v>3.65</v>
       </c>
       <c r="G38" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H38" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I38" t="n">
         <v>2.12</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K38" t="n">
         <v>3.9</v>
@@ -5566,7 +5566,7 @@
         <v>1.31</v>
       </c>
       <c r="S38" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T38" t="n">
         <v>1.78</v>
@@ -5578,7 +5578,7 @@
         <v>1.89</v>
       </c>
       <c r="W38" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G39" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H39" t="n">
         <v>2.28</v>
       </c>
       <c r="I39" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J39" t="n">
         <v>3.3</v>
       </c>
       <c r="K39" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L39" t="n">
         <v>1.45</v>
@@ -5692,7 +5692,7 @@
         <v>1.37</v>
       </c>
       <c r="P39" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q39" t="n">
         <v>2.1</v>
@@ -5710,7 +5710,7 @@
         <v>2.02</v>
       </c>
       <c r="V39" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W39" t="n">
         <v>1.36</v>
@@ -5797,40 +5797,40 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="G40" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="H40" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.25</v>
       </c>
       <c r="L40" t="n">
         <v>1.51</v>
       </c>
       <c r="M40" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O40" t="n">
         <v>1.46</v>
       </c>
       <c r="P40" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R40" t="n">
         <v>1.24</v>
@@ -5842,55 +5842,55 @@
         <v>1.99</v>
       </c>
       <c r="U40" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V40" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W40" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="X40" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y40" t="n">
         <v>11</v>
       </c>
       <c r="Z40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA40" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB40" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD40" t="n">
         <v>15.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF40" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AG40" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK40" t="n">
         <v>34</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>32</v>
       </c>
       <c r="AL40" t="n">
         <v>55</v>
@@ -5899,10 +5899,10 @@
         <v>150</v>
       </c>
       <c r="AN40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO40" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G41" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H41" t="n">
         <v>6.4</v>
@@ -5947,7 +5947,7 @@
         <v>4.6</v>
       </c>
       <c r="K41" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L41" t="n">
         <v>1.25</v>
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G42" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H42" t="n">
         <v>2.02</v>
       </c>
       <c r="I42" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J42" t="n">
         <v>3.55</v>
@@ -6118,28 +6118,28 @@
         <v>1.86</v>
       </c>
       <c r="W42" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA42" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC42" t="n">
         <v>10.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE42" t="n">
         <v>980</v>
@@ -6148,10 +6148,10 @@
         <v>980</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH42" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI42" t="n">
         <v>980</v>
@@ -6172,7 +6172,7 @@
         <v>55</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -6205,7 +6205,7 @@
         <v>2.78</v>
       </c>
       <c r="G43" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H43" t="n">
         <v>2.52</v>
@@ -6244,13 +6244,13 @@
         <v>2.62</v>
       </c>
       <c r="T43" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="U43" t="n">
         <v>2.42</v>
       </c>
       <c r="V43" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W43" t="n">
         <v>1.52</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G44" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H44" t="n">
         <v>3.45</v>
@@ -6388,7 +6388,7 @@
         <v>1.4</v>
       </c>
       <c r="W44" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X44" t="n">
         <v>10.5</v>
@@ -6436,7 +6436,7 @@
         <v>48</v>
       </c>
       <c r="AM44" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN44" t="n">
         <v>27</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G45" t="n">
         <v>2.14</v>
@@ -6484,10 +6484,10 @@
         <v>4.2</v>
       </c>
       <c r="J45" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K45" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L45" t="n">
         <v>1.48</v>
@@ -6499,7 +6499,7 @@
         <v>3.25</v>
       </c>
       <c r="O45" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P45" t="n">
         <v>1.78</v>
@@ -6517,13 +6517,13 @@
         <v>1.98</v>
       </c>
       <c r="U45" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V45" t="n">
         <v>1.31</v>
       </c>
       <c r="W45" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X45" t="n">
         <v>11.5</v>
@@ -6562,10 +6562,10 @@
         <v>70</v>
       </c>
       <c r="AJ45" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK45" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL45" t="n">
         <v>44</v>
@@ -6619,7 +6619,7 @@
         <v>4.4</v>
       </c>
       <c r="J46" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K46" t="n">
         <v>3.75</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="G47" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H47" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="I47" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K47" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="L47" t="n">
         <v>1.25</v>
@@ -6766,7 +6766,7 @@
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O47" t="n">
         <v>1.16</v>
@@ -6778,13 +6778,13 @@
         <v>1.53</v>
       </c>
       <c r="R47" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S47" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T47" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U47" t="n">
         <v>2.06</v>
@@ -6793,25 +6793,25 @@
         <v>1.11</v>
       </c>
       <c r="W47" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="X47" t="n">
         <v>30</v>
       </c>
       <c r="Y47" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z47" t="n">
         <v>90</v>
       </c>
       <c r="AA47" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="AB47" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD47" t="n">
         <v>34</v>
@@ -6829,7 +6829,7 @@
         <v>980</v>
       </c>
       <c r="AI47" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ47" t="n">
         <v>12</v>
@@ -6838,16 +6838,16 @@
         <v>14</v>
       </c>
       <c r="AL47" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM47" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
         <v>4.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
@@ -6883,7 +6883,7 @@
         <v>2.98</v>
       </c>
       <c r="H48" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I48" t="n">
         <v>2.98</v>
@@ -7015,16 +7015,16 @@
         <v>3.4</v>
       </c>
       <c r="G49" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H49" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I49" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J49" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K49" t="n">
         <v>3.55</v>
@@ -7036,10 +7036,10 @@
         <v>1.09</v>
       </c>
       <c r="N49" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O49" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P49" t="n">
         <v>1.77</v>
@@ -7048,28 +7048,28 @@
         <v>2.16</v>
       </c>
       <c r="R49" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S49" t="n">
         <v>4</v>
       </c>
       <c r="T49" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U49" t="n">
         <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W49" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X49" t="n">
         <v>12.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z49" t="n">
         <v>1000</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G50" t="n">
         <v>3.9</v>
       </c>
       <c r="H50" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="I50" t="n">
         <v>1.86</v>
       </c>
       <c r="J50" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L50" t="n">
         <v>1.19</v>
@@ -7183,28 +7183,28 @@
         <v>1.31</v>
       </c>
       <c r="R50" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="S50" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="T50" t="n">
         <v>1.37</v>
       </c>
       <c r="U50" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="V50" t="n">
         <v>2.16</v>
       </c>
       <c r="W50" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X50" t="n">
         <v>55</v>
       </c>
       <c r="Y50" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z50" t="n">
         <v>21</v>
@@ -7282,112 +7282,112 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="G51" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="H51" t="n">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="I51" t="n">
-        <v>1.92</v>
+        <v>1.64</v>
       </c>
       <c r="J51" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="K51" t="n">
         <v>4.5</v>
       </c>
       <c r="L51" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O51" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="P51" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="R51" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S51" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T51" t="n">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="U51" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="V51" t="n">
-        <v>2.08</v>
+        <v>2.58</v>
       </c>
       <c r="W51" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="X51" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="Z51" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD51" t="n">
         <v>12</v>
       </c>
-      <c r="AA51" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE51" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AF51" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AG51" t="n">
         <v>980</v>
       </c>
       <c r="AH51" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI51" t="n">
         <v>980</v>
       </c>
-      <c r="AI51" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ51" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AK51" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AL51" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AM51" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AN51" t="n">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="AO51" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G52" t="n">
         <v>2.22</v>
@@ -7432,10 +7432,10 @@
         <v>3.9</v>
       </c>
       <c r="K52" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L52" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
@@ -7450,7 +7450,7 @@
         <v>2.48</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="R52" t="n">
         <v>1.6</v>
@@ -7459,16 +7459,16 @@
         <v>2.38</v>
       </c>
       <c r="T52" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U52" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="V52" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W52" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X52" t="n">
         <v>30</v>
@@ -7552,19 +7552,19 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G53" t="n">
         <v>3.25</v>
       </c>
       <c r="H53" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="I53" t="n">
         <v>2.94</v>
       </c>
       <c r="J53" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K53" t="n">
         <v>3.15</v>
@@ -7576,7 +7576,7 @@
         <v>1.11</v>
       </c>
       <c r="N53" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O53" t="n">
         <v>1.47</v>
@@ -7609,7 +7609,7 @@
         <v>11.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z53" t="n">
         <v>22</v>
@@ -7735,7 +7735,7 @@
         <v>1.96</v>
       </c>
       <c r="V54" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W54" t="n">
         <v>1.38</v>
@@ -7786,10 +7786,10 @@
         <v>65</v>
       </c>
       <c r="AM54" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN54" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO54" t="n">
         <v>26</v>
@@ -7828,16 +7828,16 @@
         <v>2.36</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I55" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
         <v>3.2</v>
       </c>
       <c r="K55" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.47</v>
@@ -7855,7 +7855,7 @@
         <v>1.72</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R55" t="n">
         <v>1.26</v>
@@ -7864,13 +7864,13 @@
         <v>4</v>
       </c>
       <c r="T55" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U55" t="n">
         <v>1.94</v>
       </c>
       <c r="V55" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W55" t="n">
         <v>1.73</v>
@@ -7882,40 +7882,40 @@
         <v>15</v>
       </c>
       <c r="Z55" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA55" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB55" t="n">
         <v>10.5</v>
       </c>
       <c r="AC55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD55" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE55" t="n">
         <v>65</v>
       </c>
       <c r="AF55" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH55" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI55" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ55" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK55" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL55" t="n">
         <v>60</v>
@@ -7924,10 +7924,10 @@
         <v>150</v>
       </c>
       <c r="AN55" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AO55" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56">
@@ -7972,7 +7972,7 @@
         <v>3.6</v>
       </c>
       <c r="K56" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L56" t="n">
         <v>1.28</v>
@@ -8044,7 +8044,7 @@
         <v>16.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ56" t="n">
         <v>55</v>
@@ -8143,7 +8143,7 @@
         <v>1.48</v>
       </c>
       <c r="W57" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X57" t="n">
         <v>26</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G58" t="n">
         <v>4.5</v>
@@ -8236,10 +8236,10 @@
         <v>1.87</v>
       </c>
       <c r="I58" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K58" t="n">
         <v>4.2</v>
@@ -8257,7 +8257,7 @@
         <v>1.21</v>
       </c>
       <c r="P58" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q58" t="n">
         <v>1.65</v>
@@ -8272,13 +8272,13 @@
         <v>1.63</v>
       </c>
       <c r="U58" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="V58" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W58" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X58" t="n">
         <v>21</v>
@@ -8365,13 +8365,13 @@
         <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H59" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I59" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J59" t="n">
         <v>3.75</v>
@@ -8404,13 +8404,13 @@
         <v>2.5</v>
       </c>
       <c r="T59" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U59" t="n">
         <v>2.58</v>
       </c>
       <c r="V59" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W59" t="n">
         <v>1.47</v>
@@ -8452,7 +8452,7 @@
         <v>29</v>
       </c>
       <c r="AJ59" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK59" t="n">
         <v>30</v>
@@ -8515,7 +8515,7 @@
         <v>3.95</v>
       </c>
       <c r="L60" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
@@ -8539,13 +8539,13 @@
         <v>3.3</v>
       </c>
       <c r="T60" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U60" t="n">
         <v>2.08</v>
       </c>
       <c r="V60" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W60" t="n">
         <v>1.72</v>
@@ -8572,19 +8572,19 @@
         <v>18</v>
       </c>
       <c r="AE60" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF60" t="n">
         <v>18</v>
       </c>
       <c r="AG60" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH60" t="n">
         <v>22</v>
       </c>
       <c r="AI60" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ60" t="n">
         <v>38</v>
@@ -8809,7 +8809,7 @@
         <v>3.05</v>
       </c>
       <c r="T62" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="U62" t="n">
         <v>2.2</v>
@@ -8977,7 +8977,7 @@
         <v>18.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF63" t="n">
         <v>18.5</v>
@@ -9037,13 +9037,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G64" t="n">
         <v>2.92</v>
       </c>
       <c r="H64" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I64" t="n">
         <v>2.98</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G65" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H65" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I65" t="n">
         <v>3.65</v>
       </c>
       <c r="J65" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K65" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3.9</v>
       </c>
       <c r="L65" t="n">
         <v>1.34</v>
@@ -9202,34 +9202,34 @@
         <v>1.22</v>
       </c>
       <c r="P65" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R65" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S65" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="T65" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U65" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V65" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W65" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X65" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z65" t="n">
         <v>28</v>
@@ -9238,28 +9238,28 @@
         <v>65</v>
       </c>
       <c r="AB65" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC65" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD65" t="n">
         <v>14.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF65" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG65" t="n">
         <v>10.5</v>
       </c>
       <c r="AH65" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI65" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ65" t="n">
         <v>27</v>
@@ -9271,13 +9271,13 @@
         <v>26</v>
       </c>
       <c r="AM65" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN65" t="n">
         <v>11.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
@@ -9319,10 +9319,10 @@
         <v>1.17</v>
       </c>
       <c r="J66" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="K66" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L66" t="n">
         <v>1.17</v>
@@ -9343,19 +9343,19 @@
         <v>1.27</v>
       </c>
       <c r="R66" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="S66" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="T66" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U66" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V66" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="W66" t="n">
         <v>1.05</v>
@@ -9370,7 +9370,7 @@
         <v>11.5</v>
       </c>
       <c r="AA66" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB66" t="n">
         <v>1000</v>
@@ -9382,7 +9382,7 @@
         <v>14</v>
       </c>
       <c r="AE66" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF66" t="n">
         <v>270</v>
@@ -9412,7 +9412,7 @@
         <v>270</v>
       </c>
       <c r="AO66" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="67">
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G67" t="n">
         <v>2.2</v>
@@ -9577,16 +9577,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="G68" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="H68" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="J68" t="n">
         <v>3.4</v>
@@ -9595,22 +9595,22 @@
         <v>3.55</v>
       </c>
       <c r="L68" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="M68" t="n">
         <v>1.11</v>
       </c>
       <c r="N68" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O68" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P68" t="n">
         <v>1.51</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R68" t="n">
         <v>1.18</v>
@@ -9619,16 +9619,16 @@
         <v>5.5</v>
       </c>
       <c r="T68" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U68" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V68" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="W68" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="X68" t="n">
         <v>9.800000000000001</v>
@@ -9637,7 +9637,7 @@
         <v>12</v>
       </c>
       <c r="Z68" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA68" t="n">
         <v>130</v>
@@ -9649,13 +9649,13 @@
         <v>8.4</v>
       </c>
       <c r="AD68" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE68" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF68" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG68" t="n">
         <v>12</v>
@@ -9679,7 +9679,7 @@
         <v>270</v>
       </c>
       <c r="AN68" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO68" t="n">
         <v>140</v>
@@ -10030,7 +10030,7 @@
         <v>1.86</v>
       </c>
       <c r="V71" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="W71" t="n">
         <v>1.7</v>
@@ -10117,25 +10117,25 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G72" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="H72" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J72" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L72" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M72" t="n">
         <v>1.09</v>
@@ -10147,7 +10147,7 @@
         <v>1.39</v>
       </c>
       <c r="P72" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q72" t="n">
         <v>2.16</v>
@@ -10159,16 +10159,16 @@
         <v>4</v>
       </c>
       <c r="T72" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U72" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V72" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W72" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="X72" t="n">
         <v>17</v>
@@ -10180,10 +10180,10 @@
         <v>980</v>
       </c>
       <c r="AA72" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB72" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC72" t="n">
         <v>1000</v>
@@ -10204,7 +10204,7 @@
         <v>980</v>
       </c>
       <c r="AI72" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ72" t="n">
         <v>980</v>
@@ -10216,13 +10216,13 @@
         <v>55</v>
       </c>
       <c r="AM72" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN72" t="n">
         <v>980</v>
       </c>
       <c r="AO72" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73">
@@ -10252,19 +10252,19 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="G73" t="n">
         <v>2.34</v>
       </c>
       <c r="H73" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I73" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K73" t="n">
         <v>3.3</v>
@@ -10282,10 +10282,10 @@
         <v>1.42</v>
       </c>
       <c r="P73" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R73" t="n">
         <v>1.27</v>
@@ -10300,25 +10300,25 @@
         <v>1.97</v>
       </c>
       <c r="V73" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W73" t="n">
         <v>1.74</v>
       </c>
       <c r="X73" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Y73" t="n">
         <v>12.5</v>
       </c>
       <c r="Z73" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA73" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB73" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC73" t="n">
         <v>7.4</v>
@@ -10330,10 +10330,10 @@
         <v>55</v>
       </c>
       <c r="AF73" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG73" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH73" t="n">
         <v>20</v>
@@ -10342,19 +10342,19 @@
         <v>70</v>
       </c>
       <c r="AJ73" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AK73" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL73" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM73" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN73" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO73" t="n">
         <v>65</v>
@@ -10393,7 +10393,7 @@
         <v>1.24</v>
       </c>
       <c r="H74" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I74" t="n">
         <v>15.5</v>
@@ -10411,7 +10411,7 @@
         <v>1.02</v>
       </c>
       <c r="N74" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="O74" t="n">
         <v>1.12</v>
@@ -10426,19 +10426,19 @@
         <v>1.96</v>
       </c>
       <c r="S74" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="T74" t="n">
         <v>1.88</v>
       </c>
       <c r="U74" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V74" t="n">
         <v>1.07</v>
       </c>
       <c r="W74" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X74" t="n">
         <v>60</v>
@@ -10453,7 +10453,7 @@
         <v>530</v>
       </c>
       <c r="AB74" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC74" t="n">
         <v>22</v>
@@ -10483,13 +10483,13 @@
         <v>13.5</v>
       </c>
       <c r="AL74" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM74" t="n">
         <v>160</v>
       </c>
       <c r="AN74" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO74" t="n">
         <v>200</v>
@@ -10522,19 +10522,19 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G75" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="H75" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="I75" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="J75" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K75" t="n">
         <v>3.85</v>
@@ -10552,7 +10552,7 @@
         <v>1.39</v>
       </c>
       <c r="P75" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q75" t="n">
         <v>2.16</v>
@@ -10570,10 +10570,10 @@
         <v>1.84</v>
       </c>
       <c r="V75" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="W75" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X75" t="n">
         <v>14</v>
@@ -10582,10 +10582,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z75" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA75" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB75" t="n">
         <v>18.5</v>
@@ -10627,7 +10627,7 @@
         <v>150</v>
       </c>
       <c r="AO75" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -10795,13 +10795,13 @@
         <v>2.34</v>
       </c>
       <c r="G77" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H77" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I77" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J77" t="n">
         <v>3.35</v>
@@ -10810,7 +10810,7 @@
         <v>3.4</v>
       </c>
       <c r="L77" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M77" t="n">
         <v>1.09</v>
@@ -10822,31 +10822,31 @@
         <v>1.4</v>
       </c>
       <c r="P77" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R77" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S77" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T77" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U77" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V77" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W77" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X77" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y77" t="n">
         <v>12</v>
@@ -10855,7 +10855,7 @@
         <v>23</v>
       </c>
       <c r="AA77" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB77" t="n">
         <v>9.199999999999999</v>
@@ -10867,7 +10867,7 @@
         <v>14.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF77" t="n">
         <v>14</v>
@@ -10876,7 +10876,7 @@
         <v>11.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI77" t="n">
         <v>60</v>
@@ -10891,13 +10891,13 @@
         <v>46</v>
       </c>
       <c r="AM77" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN77" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO77" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78">
@@ -10927,10 +10927,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H78" t="n">
         <v>4.3</v>
@@ -10939,7 +10939,7 @@
         <v>4.6</v>
       </c>
       <c r="J78" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K78" t="n">
         <v>3.65</v>
@@ -10969,7 +10969,7 @@
         <v>3.95</v>
       </c>
       <c r="T78" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U78" t="n">
         <v>1.9</v>
@@ -10978,7 +10978,7 @@
         <v>1.27</v>
       </c>
       <c r="W78" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X78" t="n">
         <v>13</v>
@@ -11026,7 +11026,7 @@
         <v>980</v>
       </c>
       <c r="AM78" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN78" t="n">
         <v>18.5</v>
@@ -11065,13 +11065,13 @@
         <v>2.5</v>
       </c>
       <c r="G79" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I79" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3.5</v>
       </c>
       <c r="J79" t="n">
         <v>3.2</v>
@@ -11095,7 +11095,7 @@
         <v>1.64</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R79" t="n">
         <v>1.23</v>
@@ -11113,10 +11113,10 @@
         <v>1.4</v>
       </c>
       <c r="W79" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X79" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y79" t="n">
         <v>10.5</v>
@@ -11140,7 +11140,7 @@
         <v>55</v>
       </c>
       <c r="AF79" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG79" t="n">
         <v>12</v>
@@ -11200,7 +11200,7 @@
         <v>2.28</v>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H80" t="n">
         <v>4.1</v>
@@ -11248,7 +11248,7 @@
         <v>1.31</v>
       </c>
       <c r="W80" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="X80" t="n">
         <v>9</v>
@@ -11332,19 +11332,19 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G81" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H81" t="n">
         <v>4.2</v>
       </c>
       <c r="I81" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J81" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K81" t="n">
         <v>3.4</v>
@@ -11356,25 +11356,25 @@
         <v>1.09</v>
       </c>
       <c r="N81" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O81" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P81" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R81" t="n">
         <v>1.3</v>
       </c>
       <c r="S81" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T81" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U81" t="n">
         <v>2</v>
@@ -11383,22 +11383,22 @@
         <v>1.29</v>
       </c>
       <c r="W81" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X81" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y81" t="n">
         <v>14.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AA81" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB81" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC81" t="n">
         <v>7.8</v>
@@ -11407,10 +11407,10 @@
         <v>18</v>
       </c>
       <c r="AE81" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AF81" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG81" t="n">
         <v>11</v>
@@ -11419,10 +11419,10 @@
         <v>19</v>
       </c>
       <c r="AI81" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AJ81" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK81" t="n">
         <v>24</v>
@@ -11431,13 +11431,13 @@
         <v>980</v>
       </c>
       <c r="AM81" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN81" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AO81" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82">
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G82" t="n">
         <v>2.38</v>
@@ -11479,7 +11479,7 @@
         <v>3.9</v>
       </c>
       <c r="J82" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K82" t="n">
         <v>3.3</v>
@@ -11503,10 +11503,10 @@
         <v>2.3</v>
       </c>
       <c r="R82" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S82" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T82" t="n">
         <v>1.95</v>
@@ -11605,13 +11605,13 @@
         <v>3.05</v>
       </c>
       <c r="G83" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H83" t="n">
         <v>2.46</v>
       </c>
       <c r="I83" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="J83" t="n">
         <v>3.15</v>
@@ -11647,13 +11647,13 @@
         <v>1.81</v>
       </c>
       <c r="U83" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V83" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W83" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X83" t="n">
         <v>12.5</v>
@@ -11737,40 +11737,40 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H84" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="I84" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="J84" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K84" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L84" t="n">
         <v>1.01</v>
       </c>
       <c r="M84" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N84" t="n">
         <v>3.2</v>
       </c>
       <c r="O84" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P84" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R84" t="n">
         <v>1.29</v>
@@ -11779,25 +11779,25 @@
         <v>3.9</v>
       </c>
       <c r="T84" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U84" t="n">
         <v>1.96</v>
       </c>
       <c r="V84" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W84" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X84" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y84" t="n">
         <v>16.5</v>
       </c>
       <c r="Z84" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA84" t="n">
         <v>110</v>
@@ -11818,7 +11818,7 @@
         <v>15</v>
       </c>
       <c r="AG84" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH84" t="n">
         <v>24</v>
@@ -11833,7 +11833,7 @@
         <v>29</v>
       </c>
       <c r="AL84" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM84" t="n">
         <v>1000</v>
@@ -11878,7 +11878,7 @@
         <v>4.9</v>
       </c>
       <c r="H85" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="I85" t="n">
         <v>1.84</v>
@@ -11890,7 +11890,7 @@
         <v>5.2</v>
       </c>
       <c r="L85" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="M85" t="n">
         <v>1.02</v>
@@ -11908,16 +11908,16 @@
         <v>1.38</v>
       </c>
       <c r="R85" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="S85" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T85" t="n">
         <v>1.46</v>
       </c>
       <c r="U85" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="V85" t="n">
         <v>2.18</v>
@@ -11974,10 +11974,10 @@
         <v>55</v>
       </c>
       <c r="AN85" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AO85" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="86">
@@ -12007,16 +12007,16 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G86" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H86" t="n">
         <v>2.56</v>
       </c>
       <c r="I86" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J86" t="n">
         <v>3.45</v>
@@ -12043,7 +12043,7 @@
         <v>1.81</v>
       </c>
       <c r="R86" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S86" t="n">
         <v>3.05</v>
@@ -12055,10 +12055,10 @@
         <v>2.28</v>
       </c>
       <c r="V86" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W86" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X86" t="n">
         <v>17</v>
@@ -12148,22 +12148,22 @@
         <v>1.18</v>
       </c>
       <c r="H87" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I87" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J87" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="K87" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="L87" t="n">
         <v>1.26</v>
       </c>
       <c r="M87" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N87" t="n">
         <v>5.8</v>
@@ -12172,10 +12172,10 @@
         <v>1.17</v>
       </c>
       <c r="P87" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R87" t="n">
         <v>1.66</v>
@@ -12184,10 +12184,10 @@
         <v>2.26</v>
       </c>
       <c r="T87" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="U87" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="V87" t="n">
         <v>1.03</v>
@@ -12202,7 +12202,7 @@
         <v>75</v>
       </c>
       <c r="Z87" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AA87" t="n">
         <v>1000</v>
@@ -12214,7 +12214,7 @@
         <v>980</v>
       </c>
       <c r="AD87" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AE87" t="n">
         <v>1000</v>
@@ -12232,7 +12232,7 @@
         <v>1000</v>
       </c>
       <c r="AJ87" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AK87" t="n">
         <v>1000</v>
@@ -12571,16 +12571,16 @@
         <v>1.09</v>
       </c>
       <c r="N90" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O90" t="n">
         <v>1.38</v>
       </c>
       <c r="P90" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R90" t="n">
         <v>1.31</v>
@@ -12589,10 +12589,10 @@
         <v>3.95</v>
       </c>
       <c r="T90" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U90" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V90" t="n">
         <v>1.92</v>
@@ -12682,25 +12682,25 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="G91" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H91" t="n">
+        <v>6</v>
+      </c>
+      <c r="I91" t="n">
         <v>6.2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>6.6</v>
       </c>
       <c r="J91" t="n">
         <v>3.6</v>
       </c>
       <c r="K91" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L91" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M91" t="n">
         <v>1.11</v>
@@ -12715,31 +12715,31 @@
         <v>1.62</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="R91" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S91" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T91" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U91" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V91" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W91" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="X91" t="n">
         <v>9.4</v>
       </c>
       <c r="Y91" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z91" t="n">
         <v>48</v>
@@ -12766,10 +12766,10 @@
         <v>11</v>
       </c>
       <c r="AH91" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI91" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ91" t="n">
         <v>18</v>
@@ -12784,7 +12784,7 @@
         <v>240</v>
       </c>
       <c r="AN91" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO91" t="n">
         <v>240</v>
@@ -12829,25 +12829,25 @@
         <v>2.36</v>
       </c>
       <c r="J92" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K92" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L92" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M92" t="n">
         <v>1.07</v>
       </c>
       <c r="N92" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O92" t="n">
         <v>1.34</v>
       </c>
       <c r="P92" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q92" t="n">
         <v>2.02</v>
@@ -12859,10 +12859,10 @@
         <v>3.65</v>
       </c>
       <c r="T92" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U92" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V92" t="n">
         <v>1.73</v>
@@ -12871,7 +12871,7 @@
         <v>1.39</v>
       </c>
       <c r="X92" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y92" t="n">
         <v>10.5</v>
@@ -12919,10 +12919,10 @@
         <v>100</v>
       </c>
       <c r="AN92" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AO92" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
@@ -12955,7 +12955,7 @@
         <v>1.83</v>
       </c>
       <c r="G93" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H93" t="n">
         <v>5.4</v>
@@ -12985,16 +12985,16 @@
         <v>1.63</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R93" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S93" t="n">
         <v>4.8</v>
       </c>
       <c r="T93" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U93" t="n">
         <v>1.76</v>
@@ -13018,7 +13018,7 @@
         <v>200</v>
       </c>
       <c r="AB93" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC93" t="n">
         <v>8</v>
@@ -13087,112 +13087,112 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.94</v>
+        <v>4.2</v>
       </c>
       <c r="G94" t="n">
-        <v>12</v>
+        <v>5.2</v>
       </c>
       <c r="H94" t="n">
-        <v>1.3</v>
+        <v>1.79</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>2.04</v>
       </c>
       <c r="J94" t="n">
-        <v>1.71</v>
+        <v>3.2</v>
       </c>
       <c r="K94" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="L94" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="M94" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N94" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R94" t="n">
         <v>1.34</v>
       </c>
-      <c r="O94" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P94" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R94" t="n">
-        <v>1.27</v>
-      </c>
       <c r="S94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U94" t="n">
         <v>2</v>
       </c>
-      <c r="T94" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U94" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V94" t="n">
-        <v>1.5</v>
+        <v>1.96</v>
       </c>
       <c r="W94" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="X94" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y94" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z94" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA94" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB94" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC94" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE94" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF94" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG94" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH94" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI94" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ94" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK94" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL94" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM94" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN94" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO94" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
@@ -13222,16 +13222,16 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G95" t="n">
         <v>1.74</v>
       </c>
       <c r="H95" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I95" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J95" t="n">
         <v>3.95</v>
@@ -13240,43 +13240,43 @@
         <v>4.6</v>
       </c>
       <c r="L95" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M95" t="n">
         <v>1.05</v>
       </c>
       <c r="N95" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O95" t="n">
         <v>1.25</v>
       </c>
       <c r="P95" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R95" t="n">
         <v>1.42</v>
       </c>
       <c r="S95" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="T95" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U95" t="n">
         <v>2</v>
       </c>
       <c r="V95" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W95" t="n">
         <v>2.34</v>
       </c>
       <c r="X95" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y95" t="n">
         <v>24</v>
@@ -13285,7 +13285,7 @@
         <v>980</v>
       </c>
       <c r="AA95" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB95" t="n">
         <v>11.5</v>
@@ -13315,7 +13315,7 @@
         <v>20</v>
       </c>
       <c r="AK95" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL95" t="n">
         <v>36</v>
@@ -13495,13 +13495,13 @@
         <v>1.91</v>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H97" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I97" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J97" t="n">
         <v>3.45</v>
@@ -13534,16 +13534,16 @@
         <v>3.4</v>
       </c>
       <c r="T97" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U97" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="V97" t="n">
         <v>1.23</v>
       </c>
       <c r="W97" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X97" t="n">
         <v>15</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="G2" t="n">
         <v>6.8</v>
@@ -676,13 +676,13 @@
         <v>1.56</v>
       </c>
       <c r="I2" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>1.35</v>
       </c>
       <c r="J3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K3" t="n">
         <v>6.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
         <v>4</v>
@@ -838,13 +838,13 @@
         <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>2.92</v>
       </c>
       <c r="T3" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U3" t="n">
         <v>1.63</v>
@@ -859,22 +859,22 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -889,7 +889,7 @@
         <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -964,28 +964,28 @@
         <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
         <v>1.86</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R4" t="n">
         <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
         <v>2.16</v>
@@ -994,10 +994,10 @@
         <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1012,10 +1012,10 @@
         <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
@@ -1030,13 +1030,13 @@
         <v>19.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AN4" t="n">
         <v>13.5</v>
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
         <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
         <v>5.8</v>
@@ -1102,37 +1102,37 @@
         <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q5" t="n">
         <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S5" t="n">
         <v>2.32</v>
       </c>
       <c r="T5" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U5" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="V5" t="n">
         <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="X5" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
         <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>16</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>15.5</v>
@@ -1150,10 +1150,10 @@
         <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>15.5</v>
@@ -1162,22 +1162,22 @@
         <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>5.3</v>
       </c>
       <c r="H6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I6" t="n">
         <v>1.75</v>
       </c>
       <c r="J6" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.27</v>
@@ -1237,13 +1237,13 @@
         <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S6" t="n">
         <v>2.3</v>
@@ -1252,7 +1252,7 @@
         <v>1.57</v>
       </c>
       <c r="U6" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V6" t="n">
         <v>2.32</v>
@@ -1261,7 +1261,7 @@
         <v>1.23</v>
       </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
         <v>14</v>
@@ -1276,7 +1276,7 @@
         <v>28</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
         <v>10.5</v>
@@ -1285,16 +1285,16 @@
         <v>15.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AG6" t="n">
         <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
         <v>120</v>
@@ -1306,13 +1306,13 @@
         <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G7" t="n">
         <v>2.24</v>
       </c>
-      <c r="G7" t="n">
-        <v>2.26</v>
-      </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
@@ -1360,43 +1360,43 @@
         <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P7" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="R7" t="n">
         <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W7" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X7" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
         <v>11.5</v>
@@ -1405,7 +1405,7 @@
         <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB7" t="n">
         <v>7.2</v>
@@ -1414,7 +1414,7 @@
         <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
         <v>65</v>
@@ -1432,22 +1432,22 @@
         <v>85</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN7" t="n">
         <v>28</v>
       </c>
       <c r="AO7" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1480,19 +1480,19 @@
         <v>3.2</v>
       </c>
       <c r="G8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I8" t="n">
         <v>2.68</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>1.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="G9" t="n">
         <v>1.63</v>
@@ -1627,10 +1627,10 @@
         <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -1639,13 +1639,13 @@
         <v>3.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
         <v>1.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
@@ -1657,7 +1657,7 @@
         <v>2.08</v>
       </c>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V9" t="n">
         <v>1.13</v>
@@ -1669,19 +1669,19 @@
         <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
         <v>32</v>
@@ -1750,10 +1750,10 @@
         <v>1.74</v>
       </c>
       <c r="G10" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H10" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
         <v>5.7</v>
@@ -1762,10 +1762,10 @@
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1777,43 +1777,43 @@
         <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
         <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
         <v>1.92</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z10" t="n">
         <v>42</v>
       </c>
       <c r="AA10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
         <v>9</v>
@@ -1822,7 +1822,7 @@
         <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
         <v>10.5</v>
@@ -1846,13 +1846,13 @@
         <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
         <v>11.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="G11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I11" t="n">
         <v>44</v>
       </c>
-      <c r="H11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1000</v>
-      </c>
       <c r="J11" t="n">
-        <v>1.09</v>
+        <v>2.46</v>
       </c>
       <c r="K11" t="n">
         <v>4.7</v>
@@ -1909,16 +1909,16 @@
         <v>1.26</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="P11" t="n">
         <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.02</v>
+        <v>1.29</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
         <v>1.42</v>
@@ -1930,7 +1930,7 @@
         <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="W11" t="n">
         <v>1.58</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H12" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I12" t="n">
         <v>3.1</v>
@@ -2032,16 +2032,16 @@
         <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O12" t="n">
         <v>1.28</v>
@@ -2056,7 +2056,7 @@
         <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="T12" t="n">
         <v>1.68</v>
@@ -2080,13 +2080,13 @@
         <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2101,13 +2101,13 @@
         <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
@@ -2152,43 +2152,43 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H13" t="n">
         <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
         <v>1.71</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
         <v>2.8</v>
@@ -2200,10 +2200,10 @@
         <v>2.28</v>
       </c>
       <c r="V13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X13" t="n">
         <v>24</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2233,7 +2233,7 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2245,16 +2245,16 @@
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2290,19 +2290,19 @@
         <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
         <v>3.55</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J15" t="n">
         <v>2.88</v>
@@ -2440,31 +2440,31 @@
         <v>2.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M15" t="n">
         <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O15" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P15" t="n">
         <v>1.51</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="T15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U15" t="n">
         <v>1.78</v>
@@ -2473,19 +2473,19 @@
         <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="X15" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB15" t="n">
         <v>8</v>
@@ -2494,10 +2494,10 @@
         <v>7.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="n">
         <v>16</v>
@@ -2509,7 +2509,7 @@
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="AJ15" t="n">
         <v>44</v>
@@ -2518,16 +2518,16 @@
         <v>40</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="n">
         <v>220</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2557,79 +2557,79 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="H16" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="R16" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>2.56</v>
+        <v>2.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="W16" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
@@ -2638,16 +2638,16 @@
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="n">
         <v>1000</v>
@@ -2695,19 +2695,19 @@
         <v>3.05</v>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="I17" t="n">
         <v>2.32</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G18" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
         <v>2.06</v>
@@ -2839,10 +2839,10 @@
         <v>2.1</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
         <v>1.31</v>
@@ -2851,46 +2851,46 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="R18" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U18" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V18" t="n">
         <v>1.9</v>
       </c>
       <c r="W18" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z18" t="n">
         <v>15.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB18" t="n">
         <v>18.5</v>
@@ -2899,40 +2899,40 @@
         <v>9.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>20</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
         <v>15.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ18" t="n">
         <v>65</v>
       </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AL18" t="n">
         <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -2968,16 +2968,16 @@
         <v>3.7</v>
       </c>
       <c r="H19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J19" t="n">
         <v>3.8</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
         <v>1.34</v>
@@ -2986,7 +2986,7 @@
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.25</v>
@@ -2998,10 +2998,10 @@
         <v>1.78</v>
       </c>
       <c r="R19" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S19" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T19" t="n">
         <v>1.68</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G20" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H20" t="n">
         <v>2.24</v>
@@ -3127,7 +3127,7 @@
         <v>1.38</v>
       </c>
       <c r="P20" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q20" t="n">
         <v>2.12</v>
@@ -3139,22 +3139,22 @@
         <v>3.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
         <v>2.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="W20" t="n">
         <v>1.36</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="Z20" t="n">
         <v>14</v>
@@ -3169,7 +3169,7 @@
         <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
@@ -3196,10 +3196,10 @@
         <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO20" t="n">
         <v>21</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="G21" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I21" t="n">
         <v>32</v>
       </c>
       <c r="J21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="K21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L21" t="n">
         <v>1.07</v>
@@ -3262,7 +3262,7 @@
         <v>1.06</v>
       </c>
       <c r="P21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
         <v>1.2</v>
@@ -3274,16 +3274,16 @@
         <v>1.57</v>
       </c>
       <c r="T21" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U21" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V21" t="n">
         <v>1.03</v>
       </c>
       <c r="W21" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="X21" t="n">
         <v>110</v>
@@ -3298,7 +3298,7 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AC21" t="n">
         <v>36</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3373,7 +3373,7 @@
         <v>2.22</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
         <v>3.5</v>
@@ -3382,37 +3382,37 @@
         <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="S22" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="T22" t="n">
         <v>1.57</v>
       </c>
       <c r="U22" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="V22" t="n">
         <v>1.4</v>
@@ -3421,19 +3421,19 @@
         <v>1.82</v>
       </c>
       <c r="X22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y22" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB22" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC22" t="n">
         <v>12</v>
@@ -3445,10 +3445,10 @@
         <v>34</v>
       </c>
       <c r="AF22" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
@@ -3466,7 +3466,7 @@
         <v>27</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN22" t="n">
         <v>10</v>
@@ -3505,13 +3505,13 @@
         <v>1.45</v>
       </c>
       <c r="G23" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
         <v>7.4</v>
       </c>
       <c r="I23" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J23" t="n">
         <v>4.7</v>
@@ -3520,7 +3520,7 @@
         <v>5.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
@@ -3532,7 +3532,7 @@
         <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q23" t="n">
         <v>1.65</v>
@@ -3541,10 +3541,10 @@
         <v>1.49</v>
       </c>
       <c r="S23" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T23" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U23" t="n">
         <v>1.94</v>
@@ -3553,10 +3553,10 @@
         <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3580,10 +3580,10 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH23" t="n">
         <v>1000</v>
@@ -3592,10 +3592,10 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -3640,19 +3640,19 @@
         <v>3.15</v>
       </c>
       <c r="G24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J24" t="n">
         <v>3.3</v>
       </c>
-      <c r="H24" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K24" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.42</v>
@@ -3661,7 +3661,7 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -3670,25 +3670,25 @@
         <v>1.99</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R24" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
         <v>3.55</v>
       </c>
       <c r="T24" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V24" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W24" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X24" t="n">
         <v>14</v>
@@ -3709,10 +3709,10 @@
         <v>7.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF24" t="n">
         <v>22</v>
@@ -3724,7 +3724,7 @@
         <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="n">
         <v>55</v>
@@ -3739,7 +3739,7 @@
         <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO24" t="n">
         <v>22</v>
@@ -3775,19 +3775,19 @@
         <v>1.84</v>
       </c>
       <c r="G25" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J25" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3913,19 +3913,19 @@
         <v>5.3</v>
       </c>
       <c r="H26" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="I26" t="n">
         <v>1.75</v>
       </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -3934,13 +3934,13 @@
         <v>4.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
         <v>2.18</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R26" t="n">
         <v>1.45</v>
@@ -3952,7 +3952,7 @@
         <v>1.81</v>
       </c>
       <c r="U26" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V26" t="n">
         <v>2.32</v>
@@ -3964,13 +3964,13 @@
         <v>18</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB26" t="n">
         <v>19.5</v>
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG26" t="n">
         <v>19.5</v>
@@ -4012,7 +4012,7 @@
         <v>65</v>
       </c>
       <c r="AO26" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -4051,7 +4051,7 @@
         <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J27" t="n">
         <v>3.1</v>
@@ -4090,7 +4090,7 @@
         <v>1.95</v>
       </c>
       <c r="V27" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W27" t="n">
         <v>1.65</v>
@@ -4141,7 +4141,7 @@
         <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
         <v>30</v>
@@ -4180,22 +4180,22 @@
         <v>4.2</v>
       </c>
       <c r="G28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I28" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J28" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K28" t="n">
         <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="M28" t="n">
         <v>1.11</v>
@@ -4228,7 +4228,7 @@
         <v>1.86</v>
       </c>
       <c r="W28" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X28" t="n">
         <v>10</v>
@@ -4267,7 +4267,7 @@
         <v>60</v>
       </c>
       <c r="AJ28" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
         <v>80</v>
@@ -4279,7 +4279,7 @@
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
         <v>26</v>
@@ -4315,7 +4315,7 @@
         <v>1.39</v>
       </c>
       <c r="G29" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="H29" t="n">
         <v>10</v>
@@ -4324,10 +4324,10 @@
         <v>13</v>
       </c>
       <c r="J29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L29" t="n">
         <v>1.42</v>
@@ -4345,7 +4345,7 @@
         <v>1.79</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R29" t="n">
         <v>1.29</v>
@@ -4354,7 +4354,7 @@
         <v>3.7</v>
       </c>
       <c r="T29" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U29" t="n">
         <v>1.61</v>
@@ -4363,7 +4363,7 @@
         <v>1.08</v>
       </c>
       <c r="W29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="X29" t="n">
         <v>14</v>
@@ -4402,13 +4402,13 @@
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
@@ -4459,7 +4459,7 @@
         <v>2.06</v>
       </c>
       <c r="J30" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
         <v>3.95</v>
@@ -4501,37 +4501,37 @@
         <v>1.22</v>
       </c>
       <c r="X30" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y30" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z30" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AB30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC30" t="n">
         <v>8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AF30" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
         <v>48</v>
@@ -4540,16 +4540,16 @@
         <v>1000</v>
       </c>
       <c r="AK30" t="n">
+        <v>190</v>
+      </c>
+      <c r="AL30" t="n">
         <v>90</v>
       </c>
-      <c r="AL30" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="AO30" t="n">
         <v>21</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G31" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I31" t="n">
         <v>3.65</v>
       </c>
       <c r="J31" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K31" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L31" t="n">
         <v>1.4</v>
@@ -4606,7 +4606,7 @@
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
@@ -4615,28 +4615,28 @@
         <v>2.04</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R31" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T31" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U31" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="V31" t="n">
         <v>1.37</v>
       </c>
       <c r="W31" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="X31" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y31" t="n">
         <v>14</v>
@@ -4645,19 +4645,19 @@
         <v>25</v>
       </c>
       <c r="AA31" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB31" t="n">
         <v>10.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD31" t="n">
         <v>14.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="n">
         <v>14</v>
@@ -4666,28 +4666,28 @@
         <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ31" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK31" t="n">
         <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM31" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN31" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G32" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H32" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J32" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K32" t="n">
         <v>3.9</v>
@@ -4765,10 +4765,10 @@
         <v>2.38</v>
       </c>
       <c r="V32" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W32" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X32" t="n">
         <v>19</v>
@@ -4780,7 +4780,7 @@
         <v>15.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AB32" t="n">
         <v>16.5</v>
@@ -4819,7 +4819,7 @@
         <v>75</v>
       </c>
       <c r="AN32" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AO32" t="n">
         <v>14.5</v>
@@ -4855,19 +4855,19 @@
         <v>1.72</v>
       </c>
       <c r="G33" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H33" t="n">
         <v>4.8</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J33" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K33" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L33" t="n">
         <v>1.29</v>
@@ -4882,10 +4882,10 @@
         <v>1.19</v>
       </c>
       <c r="P33" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R33" t="n">
         <v>1.63</v>
@@ -4894,28 +4894,28 @@
         <v>2.44</v>
       </c>
       <c r="T33" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U33" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V33" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W33" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="X33" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y33" t="n">
         <v>26</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>980</v>
       </c>
       <c r="Z33" t="n">
         <v>44</v>
       </c>
       <c r="AA33" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB33" t="n">
         <v>12.5</v>
@@ -4930,7 +4930,7 @@
         <v>55</v>
       </c>
       <c r="AF33" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG33" t="n">
         <v>10</v>
@@ -4942,7 +4942,7 @@
         <v>50</v>
       </c>
       <c r="AJ33" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK33" t="n">
         <v>15.5</v>
@@ -4951,13 +4951,13 @@
         <v>26</v>
       </c>
       <c r="AM33" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AN33" t="n">
         <v>7</v>
       </c>
       <c r="AO33" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G34" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H34" t="n">
         <v>2.56</v>
       </c>
       <c r="I34" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="J34" t="n">
         <v>3.6</v>
@@ -5011,37 +5011,37 @@
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.24</v>
       </c>
       <c r="P34" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R34" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S34" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T34" t="n">
         <v>1.6</v>
       </c>
       <c r="U34" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V34" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W34" t="n">
         <v>1.51</v>
       </c>
       <c r="X34" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y34" t="n">
         <v>14</v>
@@ -5050,7 +5050,7 @@
         <v>19.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB34" t="n">
         <v>15</v>
@@ -5062,7 +5062,7 @@
         <v>13</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF34" t="n">
         <v>22</v>
@@ -5080,19 +5080,19 @@
         <v>46</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN34" t="n">
         <v>22</v>
       </c>
       <c r="AO34" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G35" t="n">
         <v>2.72</v>
@@ -5131,16 +5131,16 @@
         <v>3.25</v>
       </c>
       <c r="I35" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J35" t="n">
         <v>2.9</v>
       </c>
       <c r="K35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L35" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="M35" t="n">
         <v>1.13</v>
@@ -5185,7 +5185,7 @@
         <v>24</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB35" t="n">
         <v>7.6</v>
@@ -5209,7 +5209,7 @@
         <v>27</v>
       </c>
       <c r="AI35" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
         <v>44</v>
@@ -5218,7 +5218,7 @@
         <v>42</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="G36" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="H36" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="I36" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="J36" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K36" t="n">
         <v>3.95</v>
@@ -5293,31 +5293,31 @@
         <v>2.08</v>
       </c>
       <c r="R36" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S36" t="n">
         <v>3.85</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U36" t="n">
         <v>1.8</v>
       </c>
       <c r="V36" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W36" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y36" t="n">
         <v>21</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
@@ -5335,13 +5335,13 @@
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AG36" t="n">
         <v>12.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
@@ -5350,16 +5350,16 @@
         <v>22</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5407,7 +5407,7 @@
         <v>2.66</v>
       </c>
       <c r="K37" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,10 +5416,10 @@
         <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="P37" t="n">
         <v>1.25</v>
@@ -5458,10 +5458,10 @@
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD37" t="n">
         <v>1000</v>
@@ -5470,7 +5470,7 @@
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG37" t="n">
         <v>1000</v>
@@ -5482,10 +5482,10 @@
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL37" t="n">
         <v>1000</v>
@@ -5494,7 +5494,7 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G38" t="n">
         <v>4.4</v>
@@ -5536,13 +5536,13 @@
         <v>2.04</v>
       </c>
       <c r="I38" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="J38" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K38" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L38" t="n">
         <v>1.33</v>
@@ -5560,7 +5560,7 @@
         <v>1.81</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R38" t="n">
         <v>1.31</v>
@@ -5572,16 +5572,16 @@
         <v>1.78</v>
       </c>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V38" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="W38" t="n">
         <v>1.3</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y38" t="n">
         <v>11</v>
@@ -5590,13 +5590,13 @@
         <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB38" t="n">
         <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AD38" t="n">
         <v>13.5</v>
@@ -5611,7 +5611,7 @@
         <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
@@ -5632,7 +5632,7 @@
         <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
@@ -5662,19 +5662,19 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H39" t="n">
         <v>2.28</v>
       </c>
       <c r="I39" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="J39" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K39" t="n">
         <v>3.55</v>
@@ -5704,16 +5704,16 @@
         <v>3.85</v>
       </c>
       <c r="T39" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U39" t="n">
         <v>2.02</v>
       </c>
       <c r="V39" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="W39" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X39" t="n">
         <v>15</v>
@@ -5761,10 +5761,10 @@
         <v>70</v>
       </c>
       <c r="AM39" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AO39" t="n">
         <v>28</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="G40" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="H40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L40" t="n">
         <v>1.51</v>
@@ -5821,49 +5821,49 @@
         <v>1.11</v>
       </c>
       <c r="N40" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O40" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P40" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R40" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S40" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T40" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="U40" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V40" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W40" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X40" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y40" t="n">
         <v>11</v>
       </c>
       <c r="Z40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA40" t="n">
-        <v>70</v>
+        <v>530</v>
       </c>
       <c r="AB40" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC40" t="n">
         <v>7</v>
@@ -5875,13 +5875,13 @@
         <v>50</v>
       </c>
       <c r="AF40" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG40" t="n">
         <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI40" t="n">
         <v>70</v>
@@ -5890,10 +5890,10 @@
         <v>980</v>
       </c>
       <c r="AK40" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL40" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM40" t="n">
         <v>150</v>
@@ -5902,7 +5902,7 @@
         <v>40</v>
       </c>
       <c r="AO40" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G41" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H41" t="n">
         <v>6.4</v>
       </c>
       <c r="I41" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J41" t="n">
         <v>4.6</v>
@@ -5998,10 +5998,10 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD41" t="n">
         <v>1000</v>
@@ -6010,10 +6010,10 @@
         <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH41" t="n">
         <v>1000</v>
@@ -6025,7 +6025,7 @@
         <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL41" t="n">
         <v>1000</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G42" t="n">
         <v>4.2</v>
@@ -6076,7 +6076,7 @@
         <v>2.02</v>
       </c>
       <c r="I42" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J42" t="n">
         <v>3.55</v>
@@ -6097,7 +6097,7 @@
         <v>1.28</v>
       </c>
       <c r="P42" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q42" t="n">
         <v>1.83</v>
@@ -6124,7 +6124,7 @@
         <v>19.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z42" t="n">
         <v>17</v>
@@ -6139,10 +6139,10 @@
         <v>10.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE42" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AF42" t="n">
         <v>980</v>
@@ -6157,19 +6157,19 @@
         <v>980</v>
       </c>
       <c r="AJ42" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AK42" t="n">
         <v>980</v>
       </c>
       <c r="AL42" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AM42" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AO42" t="n">
         <v>17</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="G43" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I43" t="n">
         <v>2.58</v>
       </c>
       <c r="J43" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K43" t="n">
         <v>4.1</v>
@@ -6244,7 +6244,7 @@
         <v>2.62</v>
       </c>
       <c r="T43" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U43" t="n">
         <v>2.42</v>
@@ -6289,10 +6289,10 @@
         <v>16.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AK43" t="n">
         <v>29</v>
@@ -6301,7 +6301,7 @@
         <v>36</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN43" t="n">
         <v>19</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G44" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H44" t="n">
         <v>3.45</v>
@@ -6364,10 +6364,10 @@
         <v>3.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P44" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q44" t="n">
         <v>2.28</v>
@@ -6382,7 +6382,7 @@
         <v>1.93</v>
       </c>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V44" t="n">
         <v>1.4</v>
@@ -6391,7 +6391,7 @@
         <v>1.66</v>
       </c>
       <c r="X44" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y44" t="n">
         <v>11.5</v>
@@ -6421,7 +6421,7 @@
         <v>11.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI44" t="n">
         <v>60</v>
@@ -6436,13 +6436,13 @@
         <v>48</v>
       </c>
       <c r="AM44" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN44" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO44" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
@@ -6472,13 +6472,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G45" t="n">
         <v>2.14</v>
       </c>
       <c r="H45" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
         <v>4.2</v>
@@ -6514,22 +6514,22 @@
         <v>4.2</v>
       </c>
       <c r="T45" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U45" t="n">
         <v>1.97</v>
       </c>
       <c r="V45" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W45" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X45" t="n">
         <v>11.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z45" t="n">
         <v>28</v>
@@ -6556,13 +6556,13 @@
         <v>11</v>
       </c>
       <c r="AH45" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI45" t="n">
         <v>70</v>
       </c>
       <c r="AJ45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK45" t="n">
         <v>24</v>
@@ -6574,7 +6574,7 @@
         <v>130</v>
       </c>
       <c r="AN45" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO45" t="n">
         <v>65</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G46" t="n">
         <v>2.18</v>
       </c>
       <c r="H46" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I46" t="n">
         <v>4.4</v>
       </c>
       <c r="J46" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K46" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L46" t="n">
         <v>1.42</v>
@@ -6682,7 +6682,7 @@
         <v>17.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF46" t="n">
         <v>13.5</v>
@@ -6694,7 +6694,7 @@
         <v>20</v>
       </c>
       <c r="AI46" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AJ46" t="n">
         <v>27</v>
@@ -6706,10 +6706,10 @@
         <v>42</v>
       </c>
       <c r="AM46" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO46" t="n">
         <v>65</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="G47" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H47" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I47" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="K47" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="L47" t="n">
         <v>1.25</v>
@@ -6772,19 +6772,19 @@
         <v>1.16</v>
       </c>
       <c r="P47" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R47" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S47" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="T47" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U47" t="n">
         <v>2.06</v>
@@ -6793,25 +6793,25 @@
         <v>1.11</v>
       </c>
       <c r="W47" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="X47" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="Y47" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Z47" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD47" t="n">
         <v>34</v>
@@ -6820,16 +6820,16 @@
         <v>130</v>
       </c>
       <c r="AF47" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG47" t="n">
         <v>10.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AI47" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="n">
         <v>12</v>
@@ -6841,13 +6841,13 @@
         <v>29</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AN47" t="n">
         <v>4.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
@@ -6880,16 +6880,16 @@
         <v>2.88</v>
       </c>
       <c r="G48" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H48" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="I48" t="n">
         <v>2.98</v>
       </c>
       <c r="J48" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K48" t="n">
         <v>3.15</v>
@@ -7018,16 +7018,16 @@
         <v>3.55</v>
       </c>
       <c r="H49" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I49" t="n">
         <v>2.36</v>
       </c>
       <c r="J49" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K49" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7036,28 +7036,28 @@
         <v>1.09</v>
       </c>
       <c r="N49" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O49" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P49" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R49" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T49" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V49" t="n">
         <v>1.73</v>
@@ -7069,10 +7069,10 @@
         <v>12.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA49" t="n">
         <v>980</v>
@@ -7087,37 +7087,37 @@
         <v>11.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF49" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI49" t="n">
         <v>980</v>
       </c>
       <c r="AJ49" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AK49" t="n">
         <v>980</v>
       </c>
       <c r="AL49" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="AM49" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN49" t="n">
         <v>980</v>
       </c>
       <c r="AO49" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50">
@@ -7147,19 +7147,19 @@
         </is>
       </c>
       <c r="F50" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G50" t="n">
         <v>3.85</v>
       </c>
-      <c r="G50" t="n">
-        <v>3.9</v>
-      </c>
       <c r="H50" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="I50" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="J50" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K50" t="n">
         <v>5.1</v>
@@ -7174,7 +7174,7 @@
         <v>10</v>
       </c>
       <c r="O50" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -7183,7 +7183,7 @@
         <v>1.31</v>
       </c>
       <c r="R50" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="S50" t="n">
         <v>1.77</v>
@@ -7204,7 +7204,7 @@
         <v>55</v>
       </c>
       <c r="Y50" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z50" t="n">
         <v>21</v>
@@ -7237,7 +7237,7 @@
         <v>19</v>
       </c>
       <c r="AJ50" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="n">
         <v>34</v>
@@ -7249,7 +7249,7 @@
         <v>36</v>
       </c>
       <c r="AN50" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO50" t="n">
         <v>5.2</v>
@@ -7282,37 +7282,37 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="G51" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="H51" t="n">
         <v>1.52</v>
       </c>
       <c r="I51" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="J51" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K51" t="n">
         <v>4.5</v>
       </c>
       <c r="L51" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O51" t="n">
         <v>1.36</v>
       </c>
       <c r="P51" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q51" t="n">
         <v>2.04</v>
@@ -7327,28 +7327,28 @@
         <v>2.08</v>
       </c>
       <c r="U51" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V51" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="W51" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X51" t="n">
         <v>15.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AA51" t="n">
         <v>17.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AC51" t="n">
         <v>11.5</v>
@@ -7360,34 +7360,34 @@
         <v>23</v>
       </c>
       <c r="AF51" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AG51" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AH51" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="n">
         <v>980</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AK51" t="n">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="AL51" t="n">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="AM51" t="n">
         <v>230</v>
       </c>
       <c r="AN51" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="AO51" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -7420,7 +7420,7 @@
         <v>2.06</v>
       </c>
       <c r="G52" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
         <v>3.25</v>
@@ -7435,7 +7435,7 @@
         <v>4.3</v>
       </c>
       <c r="L52" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
@@ -7450,7 +7450,7 @@
         <v>2.48</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R52" t="n">
         <v>1.6</v>
@@ -7468,7 +7468,7 @@
         <v>1.38</v>
       </c>
       <c r="W52" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X52" t="n">
         <v>30</v>
@@ -7483,13 +7483,13 @@
         <v>70</v>
       </c>
       <c r="AB52" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC52" t="n">
         <v>12</v>
       </c>
       <c r="AD52" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE52" t="n">
         <v>42</v>
@@ -7498,19 +7498,19 @@
         <v>20</v>
       </c>
       <c r="AG52" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI52" t="n">
         <v>44</v>
       </c>
       <c r="AJ52" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AK52" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL52" t="n">
         <v>34</v>
@@ -7519,7 +7519,7 @@
         <v>70</v>
       </c>
       <c r="AN52" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO52" t="n">
         <v>28</v>
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G53" t="n">
         <v>3.25</v>
       </c>
       <c r="H53" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I53" t="n">
         <v>2.94</v>
@@ -7567,7 +7567,7 @@
         <v>3.05</v>
       </c>
       <c r="K53" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L53" t="n">
         <v>1.53</v>
@@ -7576,7 +7576,7 @@
         <v>1.11</v>
       </c>
       <c r="N53" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O53" t="n">
         <v>1.47</v>
@@ -7615,7 +7615,7 @@
         <v>22</v>
       </c>
       <c r="AA53" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AB53" t="n">
         <v>9.800000000000001</v>
@@ -7639,16 +7639,16 @@
         <v>25</v>
       </c>
       <c r="AI53" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AJ53" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AK53" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AL53" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AM53" t="n">
         <v>180</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G54" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H54" t="n">
         <v>2.36</v>
       </c>
       <c r="I54" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J54" t="n">
         <v>3.3</v>
@@ -7729,7 +7729,7 @@
         <v>4.3</v>
       </c>
       <c r="T54" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U54" t="n">
         <v>1.96</v>
@@ -7741,13 +7741,13 @@
         <v>1.38</v>
       </c>
       <c r="X54" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y54" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z54" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA54" t="n">
         <v>34</v>
@@ -7768,7 +7768,7 @@
         <v>23</v>
       </c>
       <c r="AG54" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH54" t="n">
         <v>19.5</v>
@@ -7792,7 +7792,7 @@
         <v>50</v>
       </c>
       <c r="AO54" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="G55" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H55" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I55" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J55" t="n">
         <v>3.2</v>
       </c>
       <c r="K55" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L55" t="n">
         <v>1.47</v>
@@ -7870,16 +7870,16 @@
         <v>1.94</v>
       </c>
       <c r="V55" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W55" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X55" t="n">
         <v>14</v>
       </c>
       <c r="Y55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z55" t="n">
         <v>28</v>
@@ -7921,7 +7921,7 @@
         <v>60</v>
       </c>
       <c r="AM55" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AN55" t="n">
         <v>25</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G56" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H56" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I56" t="n">
         <v>2.44</v>
       </c>
       <c r="J56" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K56" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L56" t="n">
         <v>1.28</v>
@@ -8008,10 +8008,10 @@
         <v>1.69</v>
       </c>
       <c r="W56" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X56" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y56" t="n">
         <v>13</v>
@@ -8023,10 +8023,10 @@
         <v>34</v>
       </c>
       <c r="AB56" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD56" t="n">
         <v>12</v>
@@ -8038,7 +8038,7 @@
         <v>25</v>
       </c>
       <c r="AG56" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH56" t="n">
         <v>16.5</v>
@@ -8050,13 +8050,13 @@
         <v>55</v>
       </c>
       <c r="AK56" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL56" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AM56" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AN56" t="n">
         <v>27</v>
@@ -8092,19 +8092,19 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G57" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H57" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I57" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J57" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K57" t="n">
         <v>3.85</v>
@@ -8131,16 +8131,16 @@
         <v>1.55</v>
       </c>
       <c r="S57" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T57" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U57" t="n">
         <v>2.58</v>
       </c>
       <c r="V57" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W57" t="n">
         <v>1.64</v>
@@ -8155,7 +8155,7 @@
         <v>24</v>
       </c>
       <c r="AA57" t="n">
-        <v>980</v>
+        <v>290</v>
       </c>
       <c r="AB57" t="n">
         <v>15.5</v>
@@ -8167,7 +8167,7 @@
         <v>14.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AF57" t="n">
         <v>20</v>
@@ -8176,22 +8176,22 @@
         <v>13</v>
       </c>
       <c r="AH57" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI57" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AJ57" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AK57" t="n">
         <v>25</v>
       </c>
       <c r="AL57" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM57" t="n">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="AN57" t="n">
         <v>15</v>
@@ -8227,13 +8227,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G58" t="n">
         <v>4.5</v>
       </c>
       <c r="H58" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I58" t="n">
         <v>1.9</v>
@@ -8263,7 +8263,7 @@
         <v>1.65</v>
       </c>
       <c r="R58" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S58" t="n">
         <v>2.58</v>
@@ -8305,10 +8305,10 @@
         <v>18</v>
       </c>
       <c r="AF58" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AG58" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH58" t="n">
         <v>17</v>
@@ -8326,7 +8326,7 @@
         <v>48</v>
       </c>
       <c r="AM58" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AN58" t="n">
         <v>38</v>
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="G59" t="n">
         <v>3.1</v>
       </c>
       <c r="H59" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I59" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J59" t="n">
         <v>3.75</v>
@@ -8386,34 +8386,34 @@
         <v>1.04</v>
       </c>
       <c r="N59" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O59" t="n">
         <v>1.21</v>
       </c>
       <c r="P59" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q59" t="n">
         <v>1.65</v>
       </c>
       <c r="R59" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S59" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="T59" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U59" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V59" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W59" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X59" t="n">
         <v>22</v>
@@ -8425,7 +8425,7 @@
         <v>18.5</v>
       </c>
       <c r="AA59" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AB59" t="n">
         <v>18</v>
@@ -8446,10 +8446,10 @@
         <v>15.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AI59" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ59" t="n">
         <v>50</v>
@@ -8461,7 +8461,7 @@
         <v>36</v>
       </c>
       <c r="AM59" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN59" t="n">
         <v>21</v>
@@ -8497,25 +8497,25 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G60" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="H60" t="n">
         <v>3.2</v>
       </c>
       <c r="I60" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J60" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K60" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L60" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
@@ -8524,55 +8524,55 @@
         <v>3.55</v>
       </c>
       <c r="O60" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P60" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R60" t="n">
         <v>1.34</v>
       </c>
       <c r="S60" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T60" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U60" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V60" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W60" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="X60" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y60" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA60" t="n">
-        <v>80</v>
+        <v>900</v>
       </c>
       <c r="AB60" t="n">
         <v>12</v>
       </c>
       <c r="AC60" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD60" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AF60" t="n">
         <v>18</v>
@@ -8584,7 +8584,7 @@
         <v>22</v>
       </c>
       <c r="AI60" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AJ60" t="n">
         <v>38</v>
@@ -8593,7 +8593,7 @@
         <v>30</v>
       </c>
       <c r="AL60" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM60" t="n">
         <v>1000</v>
@@ -8602,7 +8602,7 @@
         <v>23</v>
       </c>
       <c r="AO60" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="61">
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G61" t="n">
         <v>2.4</v>
       </c>
       <c r="H61" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I61" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J61" t="n">
         <v>3.15</v>
@@ -8695,7 +8695,7 @@
         <v>25</v>
       </c>
       <c r="AA61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB61" t="n">
         <v>8.800000000000001</v>
@@ -8719,7 +8719,7 @@
         <v>22</v>
       </c>
       <c r="AI61" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ61" t="n">
         <v>38</v>
@@ -8728,7 +8728,7 @@
         <v>34</v>
       </c>
       <c r="AL61" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM61" t="n">
         <v>1000</v>
@@ -8737,7 +8737,7 @@
         <v>32</v>
       </c>
       <c r="AO61" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62">
@@ -8767,19 +8767,19 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G62" t="n">
         <v>2.34</v>
       </c>
       <c r="H62" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I62" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J62" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K62" t="n">
         <v>4</v>
@@ -8809,67 +8809,67 @@
         <v>3.05</v>
       </c>
       <c r="T62" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U62" t="n">
         <v>2.2</v>
       </c>
       <c r="V62" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W62" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X62" t="n">
         <v>18</v>
       </c>
       <c r="Y62" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z62" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AA62" t="n">
-        <v>65</v>
+        <v>900</v>
       </c>
       <c r="AB62" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AC62" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD62" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE62" t="n">
         <v>980</v>
       </c>
       <c r="AF62" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG62" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI62" t="n">
         <v>980</v>
       </c>
       <c r="AJ62" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK62" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AL62" t="n">
         <v>980</v>
       </c>
       <c r="AM62" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN62" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO62" t="n">
         <v>980</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G63" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H63" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I63" t="n">
         <v>3.75</v>
       </c>
       <c r="J63" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K63" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L63" t="n">
         <v>1.26</v>
@@ -8935,7 +8935,7 @@
         <v>2.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R63" t="n">
         <v>1.51</v>
@@ -8950,25 +8950,25 @@
         <v>2.36</v>
       </c>
       <c r="V63" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W63" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X63" t="n">
         <v>26</v>
       </c>
       <c r="Y63" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z63" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA63" t="n">
         <v>1000</v>
       </c>
       <c r="AB63" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AC63" t="n">
         <v>11</v>
@@ -8977,7 +8977,7 @@
         <v>18.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF63" t="n">
         <v>18.5</v>
@@ -8986,19 +8986,19 @@
         <v>12</v>
       </c>
       <c r="AH63" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AI63" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK63" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL63" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM63" t="n">
         <v>1000</v>
@@ -9007,7 +9007,7 @@
         <v>14.5</v>
       </c>
       <c r="AO63" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64">
@@ -9037,22 +9037,22 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="G64" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H64" t="n">
         <v>2.86</v>
       </c>
       <c r="I64" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="J64" t="n">
         <v>3.2</v>
       </c>
       <c r="K64" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L64" t="n">
         <v>1.44</v>
@@ -9070,22 +9070,22 @@
         <v>1.9</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R64" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S64" t="n">
         <v>3.6</v>
       </c>
       <c r="T64" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U64" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V64" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W64" t="n">
         <v>1.52</v>
@@ -9100,13 +9100,13 @@
         <v>21</v>
       </c>
       <c r="AA64" t="n">
-        <v>980</v>
+        <v>320</v>
       </c>
       <c r="AB64" t="n">
         <v>12</v>
       </c>
       <c r="AC64" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD64" t="n">
         <v>13</v>
@@ -9115,7 +9115,7 @@
         <v>36</v>
       </c>
       <c r="AF64" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG64" t="n">
         <v>13</v>
@@ -9124,25 +9124,25 @@
         <v>17</v>
       </c>
       <c r="AI64" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AJ64" t="n">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="AK64" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM64" t="n">
         <v>120</v>
       </c>
       <c r="AN64" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AO64" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65">
@@ -9172,16 +9172,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G65" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I65" t="n">
         <v>3.55</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.65</v>
       </c>
       <c r="J65" t="n">
         <v>3.8</v>
@@ -9211,37 +9211,37 @@
         <v>1.58</v>
       </c>
       <c r="S65" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T65" t="n">
         <v>1.59</v>
       </c>
       <c r="U65" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V65" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W65" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X65" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y65" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z65" t="n">
         <v>28</v>
       </c>
       <c r="AA65" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB65" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC65" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD65" t="n">
         <v>14.5</v>
@@ -9250,7 +9250,7 @@
         <v>32</v>
       </c>
       <c r="AF65" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG65" t="n">
         <v>10.5</v>
@@ -9259,19 +9259,19 @@
         <v>14</v>
       </c>
       <c r="AI65" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ65" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK65" t="n">
         <v>19</v>
       </c>
       <c r="AL65" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM65" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AN65" t="n">
         <v>11.5</v>
@@ -9331,7 +9331,7 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="O66" t="n">
         <v>1.08</v>
@@ -9343,13 +9343,13 @@
         <v>1.27</v>
       </c>
       <c r="R66" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="S66" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="T66" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U66" t="n">
         <v>2.06</v>
@@ -9364,19 +9364,19 @@
         <v>70</v>
       </c>
       <c r="Y66" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z66" t="n">
         <v>11.5</v>
       </c>
       <c r="AA66" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AB66" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AC66" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD66" t="n">
         <v>14</v>
@@ -9391,7 +9391,7 @@
         <v>70</v>
       </c>
       <c r="AH66" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI66" t="n">
         <v>32</v>
@@ -9412,7 +9412,7 @@
         <v>270</v>
       </c>
       <c r="AO66" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="67">
@@ -9442,19 +9442,19 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I67" t="n">
         <v>4.2</v>
       </c>
       <c r="J67" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K67" t="n">
         <v>3.9</v>
@@ -9475,7 +9475,7 @@
         <v>1.91</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R67" t="n">
         <v>1.35</v>
@@ -9490,7 +9490,7 @@
         <v>2.1</v>
       </c>
       <c r="V67" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W67" t="n">
         <v>1.84</v>
@@ -9577,16 +9577,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
         <v>2.14</v>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I68" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
         <v>3.4</v>
@@ -9595,13 +9595,13 @@
         <v>3.55</v>
       </c>
       <c r="L68" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="M68" t="n">
         <v>1.11</v>
       </c>
       <c r="N68" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O68" t="n">
         <v>1.52</v>
@@ -9610,7 +9610,7 @@
         <v>1.51</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R68" t="n">
         <v>1.18</v>
@@ -9625,10 +9625,10 @@
         <v>1.67</v>
       </c>
       <c r="V68" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W68" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X68" t="n">
         <v>9.800000000000001</v>
@@ -9637,13 +9637,13 @@
         <v>12</v>
       </c>
       <c r="Z68" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA68" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AB68" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC68" t="n">
         <v>8.4</v>
@@ -9652,7 +9652,7 @@
         <v>21</v>
       </c>
       <c r="AE68" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="AF68" t="n">
         <v>12</v>
@@ -9667,7 +9667,7 @@
         <v>120</v>
       </c>
       <c r="AJ68" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK68" t="n">
         <v>32</v>
@@ -9679,10 +9679,10 @@
         <v>270</v>
       </c>
       <c r="AN68" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO68" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69">
@@ -9730,7 +9730,7 @@
         <v>3.15</v>
       </c>
       <c r="L69" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="M69" t="n">
         <v>1.14</v>
@@ -9796,10 +9796,10 @@
         <v>15.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AI69" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AJ69" t="n">
         <v>65</v>
@@ -9808,16 +9808,16 @@
         <v>55</v>
       </c>
       <c r="AL69" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AM69" t="n">
         <v>270</v>
       </c>
       <c r="AN69" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AO69" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -9850,16 +9850,16 @@
         <v>2.12</v>
       </c>
       <c r="G70" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H70" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I70" t="n">
         <v>4.4</v>
       </c>
       <c r="J70" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K70" t="n">
         <v>3.6</v>
@@ -9868,16 +9868,16 @@
         <v>1.48</v>
       </c>
       <c r="M70" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N70" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O70" t="n">
         <v>1.43</v>
       </c>
       <c r="P70" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q70" t="n">
         <v>2.24</v>
@@ -9889,7 +9889,7 @@
         <v>4.3</v>
       </c>
       <c r="T70" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U70" t="n">
         <v>1.83</v>
@@ -9898,19 +9898,19 @@
         <v>1.29</v>
       </c>
       <c r="W70" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X70" t="n">
         <v>11</v>
       </c>
       <c r="Y70" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z70" t="n">
         <v>30</v>
       </c>
       <c r="AA70" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AB70" t="n">
         <v>8.6</v>
@@ -9919,7 +9919,7 @@
         <v>8</v>
       </c>
       <c r="AD70" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE70" t="n">
         <v>65</v>
@@ -9934,7 +9934,7 @@
         <v>25</v>
       </c>
       <c r="AI70" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AJ70" t="n">
         <v>38</v>
@@ -9952,7 +9952,7 @@
         <v>32</v>
       </c>
       <c r="AO70" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G71" t="n">
         <v>2.42</v>
@@ -9997,7 +9997,7 @@
         <v>3.05</v>
       </c>
       <c r="K71" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L71" t="n">
         <v>1.48</v>
@@ -10030,7 +10030,7 @@
         <v>1.86</v>
       </c>
       <c r="V71" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="W71" t="n">
         <v>1.7</v>
@@ -10039,7 +10039,7 @@
         <v>11</v>
       </c>
       <c r="Y71" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z71" t="n">
         <v>34</v>
@@ -10066,13 +10066,13 @@
         <v>14</v>
       </c>
       <c r="AH71" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI71" t="n">
         <v>90</v>
       </c>
       <c r="AJ71" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK71" t="n">
         <v>36</v>
@@ -10081,7 +10081,7 @@
         <v>55</v>
       </c>
       <c r="AM71" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="AN71" t="n">
         <v>32</v>
@@ -10117,13 +10117,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G72" t="n">
         <v>2.54</v>
       </c>
       <c r="H72" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I72" t="n">
         <v>3.9</v>
@@ -10132,16 +10132,16 @@
         <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L72" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M72" t="n">
         <v>1.09</v>
       </c>
       <c r="N72" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O72" t="n">
         <v>1.39</v>
@@ -10180,31 +10180,31 @@
         <v>980</v>
       </c>
       <c r="AA72" t="n">
-        <v>85</v>
+        <v>900</v>
       </c>
       <c r="AB72" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AC72" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD72" t="n">
         <v>1000</v>
       </c>
       <c r="AE72" t="n">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="AF72" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG72" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH72" t="n">
         <v>980</v>
       </c>
       <c r="AI72" t="n">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="AJ72" t="n">
         <v>980</v>
@@ -10213,16 +10213,16 @@
         <v>980</v>
       </c>
       <c r="AL72" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AM72" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN72" t="n">
         <v>980</v>
       </c>
       <c r="AO72" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73">
@@ -10252,22 +10252,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G73" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H73" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I73" t="n">
         <v>4</v>
       </c>
       <c r="J73" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K73" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K73" t="n">
-        <v>3.3</v>
       </c>
       <c r="L73" t="n">
         <v>1.49</v>
@@ -10285,7 +10285,7 @@
         <v>1.73</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R73" t="n">
         <v>1.27</v>
@@ -10312,7 +10312,7 @@
         <v>12.5</v>
       </c>
       <c r="Z73" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA73" t="n">
         <v>80</v>
@@ -10324,7 +10324,7 @@
         <v>7.4</v>
       </c>
       <c r="AD73" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE73" t="n">
         <v>55</v>
@@ -10399,10 +10399,10 @@
         <v>15.5</v>
       </c>
       <c r="J74" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="K74" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="L74" t="n">
         <v>1.21</v>
@@ -10411,25 +10411,25 @@
         <v>1.02</v>
       </c>
       <c r="N74" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O74" t="n">
         <v>1.12</v>
       </c>
       <c r="P74" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R74" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="S74" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T74" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U74" t="n">
         <v>2.02</v>
@@ -10441,7 +10441,7 @@
         <v>5.1</v>
       </c>
       <c r="X74" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y74" t="n">
         <v>60</v>
@@ -10456,10 +10456,10 @@
         <v>14.5</v>
       </c>
       <c r="AC74" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD74" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AE74" t="n">
         <v>210</v>
@@ -10471,7 +10471,7 @@
         <v>12</v>
       </c>
       <c r="AH74" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AI74" t="n">
         <v>150</v>
@@ -10483,7 +10483,7 @@
         <v>13.5</v>
       </c>
       <c r="AL74" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM74" t="n">
         <v>160</v>
@@ -10525,16 +10525,16 @@
         <v>5.1</v>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H75" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="I75" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="J75" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K75" t="n">
         <v>3.85</v>
@@ -10570,10 +10570,10 @@
         <v>1.84</v>
       </c>
       <c r="V75" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W75" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X75" t="n">
         <v>14</v>
@@ -10612,7 +10612,7 @@
         <v>55</v>
       </c>
       <c r="AJ75" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AK75" t="n">
         <v>100</v>
@@ -10657,22 +10657,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H76" t="n">
         <v>4.5</v>
       </c>
       <c r="I76" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J76" t="n">
         <v>3.5</v>
       </c>
       <c r="K76" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L76" t="n">
         <v>1.38</v>
@@ -10705,10 +10705,10 @@
         <v>1.87</v>
       </c>
       <c r="V76" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W76" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X76" t="n">
         <v>14.5</v>
@@ -10738,7 +10738,7 @@
         <v>13.5</v>
       </c>
       <c r="AG76" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH76" t="n">
         <v>1000</v>
@@ -10804,10 +10804,10 @@
         <v>3.65</v>
       </c>
       <c r="J77" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K77" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K77" t="n">
-        <v>3.4</v>
       </c>
       <c r="L77" t="n">
         <v>1.48</v>
@@ -10819,7 +10819,7 @@
         <v>3.35</v>
       </c>
       <c r="O77" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P77" t="n">
         <v>1.79</v>
@@ -10834,7 +10834,7 @@
         <v>4.2</v>
       </c>
       <c r="T77" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U77" t="n">
         <v>2.06</v>
@@ -10858,7 +10858,7 @@
         <v>70</v>
       </c>
       <c r="AB77" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC77" t="n">
         <v>7.2</v>
@@ -10897,7 +10897,7 @@
         <v>23</v>
       </c>
       <c r="AO77" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78">
@@ -10930,7 +10930,7 @@
         <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H78" t="n">
         <v>4.3</v>
@@ -10939,10 +10939,10 @@
         <v>4.6</v>
       </c>
       <c r="J78" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K78" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L78" t="n">
         <v>1.45</v>
@@ -10957,7 +10957,7 @@
         <v>1.38</v>
       </c>
       <c r="P78" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q78" t="n">
         <v>2.14</v>
@@ -10966,10 +10966,10 @@
         <v>1.28</v>
       </c>
       <c r="S78" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="T78" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U78" t="n">
         <v>1.9</v>
@@ -10978,34 +10978,34 @@
         <v>1.27</v>
       </c>
       <c r="W78" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y78" t="n">
         <v>15</v>
       </c>
       <c r="Z78" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA78" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB78" t="n">
         <v>8.4</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD78" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE78" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF78" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG78" t="n">
         <v>11</v>
@@ -11017,22 +11017,22 @@
         <v>80</v>
       </c>
       <c r="AJ78" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK78" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL78" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM78" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN78" t="n">
         <v>18.5</v>
       </c>
       <c r="AO78" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79">
@@ -11062,13 +11062,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G79" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H79" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I79" t="n">
         <v>3.45</v>
@@ -11086,13 +11086,13 @@
         <v>1.11</v>
       </c>
       <c r="N79" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O79" t="n">
         <v>1.5</v>
       </c>
       <c r="P79" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q79" t="n">
         <v>2.48</v>
@@ -11113,10 +11113,10 @@
         <v>1.4</v>
       </c>
       <c r="W79" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X79" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y79" t="n">
         <v>10.5</v>
@@ -11134,10 +11134,10 @@
         <v>7</v>
       </c>
       <c r="AD79" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE79" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF79" t="n">
         <v>14.5</v>
@@ -11167,7 +11167,7 @@
         <v>32</v>
       </c>
       <c r="AO79" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80">
@@ -11209,7 +11209,7 @@
         <v>4.2</v>
       </c>
       <c r="J80" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
         <v>3.15</v>
@@ -11242,7 +11242,7 @@
         <v>2.4</v>
       </c>
       <c r="U80" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V80" t="n">
         <v>1.31</v>
@@ -11263,7 +11263,7 @@
         <v>140</v>
       </c>
       <c r="AB80" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC80" t="n">
         <v>7.4</v>
@@ -11275,10 +11275,10 @@
         <v>100</v>
       </c>
       <c r="AF80" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="AG80" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH80" t="n">
         <v>980</v>
@@ -11335,7 +11335,7 @@
         <v>2.08</v>
       </c>
       <c r="G81" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H81" t="n">
         <v>4.2</v>
@@ -11362,19 +11362,19 @@
         <v>1.39</v>
       </c>
       <c r="P81" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q81" t="n">
         <v>2.14</v>
       </c>
       <c r="R81" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S81" t="n">
         <v>4</v>
       </c>
       <c r="T81" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U81" t="n">
         <v>2</v>
@@ -11383,7 +11383,7 @@
         <v>1.29</v>
       </c>
       <c r="W81" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X81" t="n">
         <v>14</v>
@@ -11404,7 +11404,7 @@
         <v>7.8</v>
       </c>
       <c r="AD81" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE81" t="n">
         <v>65</v>
@@ -11434,10 +11434,10 @@
         <v>140</v>
       </c>
       <c r="AN81" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO81" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82">
@@ -11467,22 +11467,22 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G82" t="n">
         <v>2.38</v>
       </c>
       <c r="H82" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I82" t="n">
         <v>3.9</v>
       </c>
       <c r="J82" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K82" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L82" t="n">
         <v>1.51</v>
@@ -11509,7 +11509,7 @@
         <v>4.5</v>
       </c>
       <c r="T82" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U82" t="n">
         <v>1.93</v>
@@ -11521,58 +11521,58 @@
         <v>1.72</v>
       </c>
       <c r="X82" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG82" t="n">
         <v>13</v>
       </c>
-      <c r="Y82" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z82" t="n">
+      <c r="AH82" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK82" t="n">
         <v>32</v>
       </c>
-      <c r="AA82" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE82" t="n">
+      <c r="AL82" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO82" t="n">
         <v>65</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL82" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM82" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN82" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO82" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="83">
@@ -11602,13 +11602,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G83" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H83" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="I83" t="n">
         <v>2.68</v>
@@ -11617,7 +11617,7 @@
         <v>3.15</v>
       </c>
       <c r="K83" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L83" t="n">
         <v>1.37</v>
@@ -11632,10 +11632,10 @@
         <v>1.39</v>
       </c>
       <c r="P83" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R83" t="n">
         <v>1.27</v>
@@ -11647,13 +11647,13 @@
         <v>1.81</v>
       </c>
       <c r="U83" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V83" t="n">
         <v>1.59</v>
       </c>
       <c r="W83" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X83" t="n">
         <v>12.5</v>
@@ -11692,7 +11692,7 @@
         <v>980</v>
       </c>
       <c r="AJ83" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AK83" t="n">
         <v>980</v>
@@ -11785,10 +11785,10 @@
         <v>1.96</v>
       </c>
       <c r="V84" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W84" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X84" t="n">
         <v>14</v>
@@ -11905,7 +11905,7 @@
         <v>3.1</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R85" t="n">
         <v>1.88</v>
@@ -11929,7 +11929,7 @@
         <v>980</v>
       </c>
       <c r="Y85" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z85" t="n">
         <v>17.5</v>
@@ -12016,13 +12016,13 @@
         <v>2.56</v>
       </c>
       <c r="I86" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J86" t="n">
         <v>3.45</v>
       </c>
       <c r="K86" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L86" t="n">
         <v>1.31</v>
@@ -12040,7 +12040,7 @@
         <v>2.06</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R86" t="n">
         <v>1.41</v>
@@ -12049,13 +12049,13 @@
         <v>3.05</v>
       </c>
       <c r="T86" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U86" t="n">
         <v>2.28</v>
       </c>
       <c r="V86" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W86" t="n">
         <v>1.52</v>
@@ -12097,7 +12097,7 @@
         <v>40</v>
       </c>
       <c r="AJ86" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK86" t="n">
         <v>32</v>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G87" t="n">
         <v>1.18</v>
@@ -12151,7 +12151,7 @@
         <v>22</v>
       </c>
       <c r="I87" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J87" t="n">
         <v>8.6</v>
@@ -12175,13 +12175,13 @@
         <v>2.66</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R87" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="S87" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T87" t="n">
         <v>2.5</v>
@@ -12190,7 +12190,7 @@
         <v>1.56</v>
       </c>
       <c r="V87" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W87" t="n">
         <v>6.4</v>
@@ -12202,7 +12202,7 @@
         <v>75</v>
       </c>
       <c r="Z87" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AA87" t="n">
         <v>1000</v>
@@ -12220,7 +12220,7 @@
         <v>1000</v>
       </c>
       <c r="AF87" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG87" t="n">
         <v>1000</v>
@@ -12244,7 +12244,7 @@
         <v>1000</v>
       </c>
       <c r="AN87" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO87" t="n">
         <v>1000</v>
@@ -12412,25 +12412,25 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G89" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H89" t="n">
         <v>3.1</v>
       </c>
       <c r="I89" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="J89" t="n">
         <v>3.1</v>
       </c>
       <c r="K89" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L89" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M89" t="n">
         <v>1.08</v>
@@ -12442,70 +12442,70 @@
         <v>1.37</v>
       </c>
       <c r="P89" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R89" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S89" t="n">
         <v>3.85</v>
       </c>
       <c r="T89" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U89" t="n">
         <v>1.99</v>
       </c>
       <c r="V89" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W89" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X89" t="n">
         <v>12.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AA89" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB89" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC89" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD89" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE89" t="n">
         <v>55</v>
       </c>
       <c r="AF89" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG89" t="n">
         <v>14.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI89" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ89" t="n">
         <v>44</v>
       </c>
       <c r="AK89" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL89" t="n">
         <v>55</v>
@@ -12517,7 +12517,7 @@
         <v>32</v>
       </c>
       <c r="AO89" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90">
@@ -12547,22 +12547,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G90" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H90" t="n">
         <v>2.06</v>
       </c>
       <c r="I90" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K90" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K90" t="n">
-        <v>3.6</v>
       </c>
       <c r="L90" t="n">
         <v>1.46</v>
@@ -12577,10 +12577,10 @@
         <v>1.38</v>
       </c>
       <c r="P90" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R90" t="n">
         <v>1.31</v>
@@ -12589,16 +12589,16 @@
         <v>3.95</v>
       </c>
       <c r="T90" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U90" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V90" t="n">
         <v>1.92</v>
       </c>
       <c r="W90" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X90" t="n">
         <v>12</v>
@@ -12649,10 +12649,10 @@
         <v>120</v>
       </c>
       <c r="AN90" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO90" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
@@ -12688,16 +12688,16 @@
         <v>1.8</v>
       </c>
       <c r="H91" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I91" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J91" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K91" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K91" t="n">
-        <v>3.65</v>
       </c>
       <c r="L91" t="n">
         <v>1.55</v>
@@ -12715,7 +12715,7 @@
         <v>1.62</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R91" t="n">
         <v>1.23</v>
@@ -12730,13 +12730,13 @@
         <v>1.71</v>
       </c>
       <c r="V91" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W91" t="n">
         <v>2.24</v>
       </c>
       <c r="X91" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y91" t="n">
         <v>15</v>
@@ -12781,7 +12781,7 @@
         <v>60</v>
       </c>
       <c r="AM91" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN91" t="n">
         <v>17.5</v>
@@ -12823,16 +12823,16 @@
         <v>3.55</v>
       </c>
       <c r="H92" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I92" t="n">
         <v>2.36</v>
       </c>
       <c r="J92" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K92" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L92" t="n">
         <v>1.43</v>
@@ -12841,7 +12841,7 @@
         <v>1.07</v>
       </c>
       <c r="N92" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O92" t="n">
         <v>1.34</v>
@@ -12859,10 +12859,10 @@
         <v>3.65</v>
       </c>
       <c r="T92" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U92" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V92" t="n">
         <v>1.73</v>
@@ -12886,7 +12886,7 @@
         <v>13</v>
       </c>
       <c r="AC92" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD92" t="n">
         <v>12</v>
@@ -12895,7 +12895,7 @@
         <v>26</v>
       </c>
       <c r="AF92" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AG92" t="n">
         <v>14.5</v>
@@ -12919,10 +12919,10 @@
         <v>100</v>
       </c>
       <c r="AN92" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AO92" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="93">
@@ -12952,16 +12952,16 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G93" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I93" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J93" t="n">
         <v>3.4</v>
@@ -12994,16 +12994,16 @@
         <v>4.8</v>
       </c>
       <c r="T93" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U93" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V93" t="n">
         <v>1.2</v>
       </c>
       <c r="W93" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X93" t="n">
         <v>12</v>
@@ -13087,112 +13087,112 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G94" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H94" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="I94" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="J94" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K94" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S94" t="n">
         <v>4.3</v>
       </c>
-      <c r="L94" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N94" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O94" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P94" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R94" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S94" t="n">
-        <v>3.2</v>
-      </c>
       <c r="T94" t="n">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="U94" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V94" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="W94" t="n">
         <v>1.23</v>
       </c>
       <c r="X94" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="Y94" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="Z94" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AA94" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB94" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC94" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE94" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF94" t="n">
         <v>38</v>
       </c>
       <c r="AG94" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH94" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO94" t="n">
         <v>21</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM94" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO94" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="95">
@@ -13222,31 +13222,31 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G95" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H95" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I95" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J95" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K95" t="n">
         <v>4.6</v>
       </c>
       <c r="L95" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M95" t="n">
         <v>1.05</v>
       </c>
       <c r="N95" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O95" t="n">
         <v>1.25</v>
@@ -13255,10 +13255,10 @@
         <v>2.06</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R95" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S95" t="n">
         <v>2.9</v>
@@ -13273,7 +13273,7 @@
         <v>1.18</v>
       </c>
       <c r="W95" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="X95" t="n">
         <v>22</v>
@@ -13291,7 +13291,7 @@
         <v>11.5</v>
       </c>
       <c r="AC95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD95" t="n">
         <v>25</v>
@@ -13300,7 +13300,7 @@
         <v>85</v>
       </c>
       <c r="AF95" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG95" t="n">
         <v>11</v>
@@ -13315,7 +13315,7 @@
         <v>20</v>
       </c>
       <c r="AK95" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AL95" t="n">
         <v>36</v>
@@ -13360,19 +13360,19 @@
         <v>1.86</v>
       </c>
       <c r="G96" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H96" t="n">
         <v>4</v>
       </c>
       <c r="I96" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K96" t="n">
         <v>4.6</v>
-      </c>
-      <c r="J96" t="n">
-        <v>4</v>
-      </c>
-      <c r="K96" t="n">
-        <v>4.5</v>
       </c>
       <c r="L96" t="n">
         <v>1.01</v>
@@ -13402,19 +13402,19 @@
         <v>1.86</v>
       </c>
       <c r="U96" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V96" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W96" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X96" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y96" t="n">
         <v>16</v>
-      </c>
-      <c r="Y96" t="n">
-        <v>16.5</v>
       </c>
       <c r="Z96" t="n">
         <v>34</v>
@@ -13426,7 +13426,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC96" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD96" t="n">
         <v>18.5</v>
@@ -13435,7 +13435,7 @@
         <v>60</v>
       </c>
       <c r="AF96" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG96" t="n">
         <v>10.5</v>
@@ -13447,7 +13447,7 @@
         <v>90</v>
       </c>
       <c r="AJ96" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK96" t="n">
         <v>21</v>
@@ -13459,7 +13459,7 @@
         <v>130</v>
       </c>
       <c r="AN96" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO96" t="n">
         <v>70</v>
@@ -13501,10 +13501,10 @@
         <v>4.4</v>
       </c>
       <c r="I97" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J97" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K97" t="n">
         <v>3.95</v>
@@ -13525,7 +13525,7 @@
         <v>1.84</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R97" t="n">
         <v>1.32</v>
@@ -13540,7 +13540,7 @@
         <v>1.99</v>
       </c>
       <c r="V97" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W97" t="n">
         <v>2.02</v>
@@ -13555,7 +13555,7 @@
         <v>38</v>
       </c>
       <c r="AA97" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AB97" t="n">
         <v>9</v>
@@ -13570,7 +13570,7 @@
         <v>70</v>
       </c>
       <c r="AF97" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG97" t="n">
         <v>11</v>
@@ -13582,7 +13582,7 @@
         <v>75</v>
       </c>
       <c r="AJ97" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK97" t="n">
         <v>22</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="G2" t="n">
         <v>6.8</v>
@@ -676,7 +676,7 @@
         <v>1.56</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="J2" t="n">
         <v>4.4</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="G3" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="I3" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="J3" t="n">
         <v>5.6</v>
@@ -826,34 +826,34 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V3" t="n">
         <v>4</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3.85</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -865,7 +865,7 @@
         <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -889,7 +889,7 @@
         <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H4" t="n">
         <v>5.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
         <v>1.43</v>
@@ -1078,52 +1078,52 @@
         <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.53</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.57</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="V5" t="n">
         <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X5" t="n">
         <v>28</v>
@@ -1162,10 +1162,10 @@
         <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AK5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>27</v>
@@ -1213,10 +1213,10 @@
         <v>5.3</v>
       </c>
       <c r="H6" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J6" t="n">
         <v>4.2</v>
@@ -1237,10 +1237,10 @@
         <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R6" t="n">
         <v>1.72</v>
@@ -1255,16 +1255,16 @@
         <v>2.62</v>
       </c>
       <c r="V6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W6" t="n">
         <v>1.23</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
         <v>13.5</v>
@@ -1288,13 +1288,13 @@
         <v>46</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH6" t="n">
         <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
         <v>120</v>
@@ -1303,7 +1303,7 @@
         <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
         <v>60</v>
@@ -1312,7 +1312,7 @@
         <v>42</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="7">
@@ -1345,7 +1345,7 @@
         <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
@@ -1360,7 +1360,7 @@
         <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M7" t="n">
         <v>1.13</v>
@@ -1375,10 +1375,10 @@
         <v>1.59</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
         <v>5.3</v>
@@ -1387,7 +1387,7 @@
         <v>2.16</v>
       </c>
       <c r="U7" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
         <v>1.31</v>
@@ -1417,7 +1417,7 @@
         <v>17.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1426,16 +1426,16 @@
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
@@ -1444,10 +1444,10 @@
         <v>180</v>
       </c>
       <c r="AN7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -1672,7 +1672,7 @@
         <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1690,10 +1690,10 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>32</v>
@@ -1702,10 +1702,10 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
         <v>55</v>
@@ -1750,7 +1750,7 @@
         <v>1.74</v>
       </c>
       <c r="G10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
         <v>5.5</v>
@@ -1780,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
         <v>1.37</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G11" t="n">
         <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.18</v>
+        <v>1.89</v>
       </c>
       <c r="I11" t="n">
         <v>44</v>
       </c>
       <c r="J11" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="K11" t="n">
         <v>4.7</v>
@@ -1906,22 +1906,22 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="O11" t="n">
         <v>1.03</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
         <v>1.04</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G12" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
         <v>2.68</v>
@@ -2041,7 +2041,7 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.28</v>
@@ -2062,13 +2062,13 @@
         <v>1.68</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
         <v>1.48</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2101,7 +2101,7 @@
         <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2155,7 +2155,7 @@
         <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H13" t="n">
         <v>3.55</v>
@@ -2188,7 +2188,7 @@
         <v>1.71</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
         <v>2.8</v>
@@ -2203,7 +2203,7 @@
         <v>1.36</v>
       </c>
       <c r="W13" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X13" t="n">
         <v>24</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G14" t="n">
         <v>2.3</v>
@@ -2302,7 +2302,7 @@
         <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G15" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
@@ -2437,13 +2437,13 @@
         <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
         <v>1.59</v>
       </c>
       <c r="M15" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
         <v>2.52</v>
@@ -2464,7 +2464,7 @@
         <v>5.6</v>
       </c>
       <c r="T15" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U15" t="n">
         <v>1.78</v>
@@ -2473,7 +2473,7 @@
         <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X15" t="n">
         <v>9.800000000000001</v>
@@ -2506,13 +2506,13 @@
         <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
         <v>460</v>
       </c>
       <c r="AJ15" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK15" t="n">
         <v>40</v>
@@ -2524,7 +2524,7 @@
         <v>220</v>
       </c>
       <c r="AN15" t="n">
-        <v>600</v>
+        <v>48</v>
       </c>
       <c r="AO15" t="n">
         <v>75</v>
@@ -2596,13 +2596,13 @@
         <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T16" t="n">
         <v>1.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V16" t="n">
         <v>1.51</v>
@@ -2635,7 +2635,7 @@
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
         <v>46</v>
@@ -2644,7 +2644,7 @@
         <v>55</v>
       </c>
       <c r="AI16" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="AJ16" t="n">
         <v>130</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
         <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="I17" t="n">
         <v>2.32</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q17" t="n">
         <v>1.63</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G18" t="n">
         <v>3.8</v>
@@ -2845,31 +2845,31 @@
         <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S18" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="T18" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U18" t="n">
         <v>2.52</v>
@@ -2884,7 +2884,7 @@
         <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
         <v>15.5</v>
@@ -2920,16 +2920,16 @@
         <v>65</v>
       </c>
       <c r="AK18" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="n">
         <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO18" t="n">
         <v>11</v>
@@ -2974,7 +2974,7 @@
         <v>2.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
         <v>3.85</v>
@@ -2992,7 +2992,7 @@
         <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q19" t="n">
         <v>1.78</v>
@@ -3010,13 +3010,13 @@
         <v>2.38</v>
       </c>
       <c r="V19" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
         <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
         <v>12</v>
@@ -3040,7 +3040,7 @@
         <v>22</v>
       </c>
       <c r="AF19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
         <v>14.5</v>
@@ -3067,7 +3067,7 @@
         <v>32</v>
       </c>
       <c r="AO19" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="J20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.55</v>
       </c>
       <c r="L20" t="n">
         <v>1.46</v>
@@ -3121,79 +3121,79 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.38</v>
       </c>
       <c r="P20" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q20" t="n">
         <v>2.12</v>
       </c>
       <c r="R20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S20" t="n">
         <v>3.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U20" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V20" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="W20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X20" t="n">
         <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
         <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK20" t="n">
         <v>42</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>48</v>
-      </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
         <v>110</v>
@@ -3202,7 +3202,7 @@
         <v>48</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -3241,7 +3241,7 @@
         <v>27</v>
       </c>
       <c r="I21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J21" t="n">
         <v>13</v>
@@ -3250,7 +3250,7 @@
         <v>16</v>
       </c>
       <c r="L21" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
@@ -3262,7 +3262,7 @@
         <v>1.06</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Q21" t="n">
         <v>1.2</v>
@@ -3277,13 +3277,13 @@
         <v>1.98</v>
       </c>
       <c r="U21" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V21" t="n">
         <v>1.03</v>
       </c>
       <c r="W21" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="X21" t="n">
         <v>110</v>
@@ -3301,22 +3301,22 @@
         <v>25</v>
       </c>
       <c r="AC21" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AD21" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG21" t="n">
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3325,7 +3325,7 @@
         <v>13</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL21" t="n">
         <v>40</v>
@@ -3370,10 +3370,10 @@
         <v>2.14</v>
       </c>
       <c r="G22" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I22" t="n">
         <v>3.5</v>
@@ -3391,34 +3391,34 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T22" t="n">
         <v>1.56</v>
       </c>
-      <c r="R22" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.57</v>
-      </c>
       <c r="U22" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="V22" t="n">
         <v>1.4</v>
       </c>
       <c r="W22" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="X22" t="n">
         <v>26</v>
@@ -3436,7 +3436,7 @@
         <v>14.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
         <v>15</v>
@@ -3505,13 +3505,13 @@
         <v>1.45</v>
       </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H23" t="n">
         <v>7.4</v>
       </c>
       <c r="I23" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
         <v>4.7</v>
@@ -3520,13 +3520,13 @@
         <v>5.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
@@ -3535,19 +3535,19 @@
         <v>2.26</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R23" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="n">
         <v>2.66</v>
       </c>
       <c r="T23" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U23" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
         <v>1.13</v>
@@ -3574,7 +3574,7 @@
         <v>16</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I24" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K24" t="n">
         <v>3.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3664,19 +3664,19 @@
         <v>3.8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P24" t="n">
         <v>1.99</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R24" t="n">
         <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T24" t="n">
         <v>1.76</v>
@@ -3685,19 +3685,19 @@
         <v>2.22</v>
       </c>
       <c r="V24" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="W24" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
         <v>36</v>
@@ -3709,40 +3709,40 @@
         <v>7.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF24" t="n">
         <v>22</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
         <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AJ24" t="n">
         <v>55</v>
       </c>
       <c r="AK24" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL24" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -3775,19 +3775,19 @@
         <v>1.84</v>
       </c>
       <c r="G25" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K25" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.2</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3913,22 +3913,22 @@
         <v>5.3</v>
       </c>
       <c r="H26" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I26" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K26" t="n">
         <v>4.2</v>
       </c>
-      <c r="K26" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
         <v>4.4</v>
@@ -3949,13 +3949,13 @@
         <v>3.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V26" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W26" t="n">
         <v>1.23</v>
@@ -3967,13 +3967,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA26" t="n">
         <v>17.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC26" t="n">
         <v>9</v>
@@ -3982,13 +3982,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG26" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
         <v>19</v>
@@ -4012,7 +4012,7 @@
         <v>65</v>
       </c>
       <c r="AO26" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="27">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G27" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
         <v>3.3</v>
@@ -4054,10 +4054,10 @@
         <v>3.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K27" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.46</v>
@@ -4075,10 +4075,10 @@
         <v>1.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R27" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S27" t="n">
         <v>4</v>
@@ -4090,10 +4090,10 @@
         <v>1.95</v>
       </c>
       <c r="V27" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W27" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X27" t="n">
         <v>12</v>
@@ -4102,31 +4102,31 @@
         <v>14.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA27" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AB27" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="n">
         <v>18</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
         <v>65</v>
@@ -4135,7 +4135,7 @@
         <v>36</v>
       </c>
       <c r="AK27" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL27" t="n">
         <v>60</v>
@@ -4183,10 +4183,10 @@
         <v>4.8</v>
       </c>
       <c r="H28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="J28" t="n">
         <v>3.25</v>
@@ -4195,7 +4195,7 @@
         <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="M28" t="n">
         <v>1.11</v>
@@ -4207,7 +4207,7 @@
         <v>1.47</v>
       </c>
       <c r="P28" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q28" t="n">
         <v>2.38</v>
@@ -4219,13 +4219,13 @@
         <v>4.7</v>
       </c>
       <c r="T28" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U28" t="n">
         <v>1.77</v>
       </c>
       <c r="V28" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W28" t="n">
         <v>1.27</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="G29" t="n">
         <v>1.45</v>
@@ -4330,13 +4330,13 @@
         <v>5.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O29" t="n">
         <v>1.36</v>
@@ -4447,64 +4447,64 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H30" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="I30" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K30" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L30" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O30" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P30" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R30" t="n">
         <v>1.26</v>
       </c>
       <c r="S30" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T30" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U30" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V30" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X30" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z30" t="n">
         <v>12</v>
@@ -4513,19 +4513,19 @@
         <v>24</v>
       </c>
       <c r="AB30" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF30" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG30" t="n">
         <v>21</v>
@@ -4534,16 +4534,16 @@
         <v>23</v>
       </c>
       <c r="AI30" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ30" t="n">
         <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
@@ -4552,7 +4552,7 @@
         <v>480</v>
       </c>
       <c r="AO30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -4636,7 +4636,7 @@
         <v>1.78</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y31" t="n">
         <v>14</v>
@@ -4651,7 +4651,7 @@
         <v>10.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
         <v>14.5</v>
@@ -4687,7 +4687,7 @@
         <v>16.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G32" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L32" t="n">
         <v>1.35</v>
@@ -4741,7 +4741,7 @@
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.25</v>
@@ -4750,13 +4750,13 @@
         <v>2.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R32" t="n">
         <v>1.48</v>
       </c>
       <c r="S32" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T32" t="n">
         <v>1.65</v>
@@ -4768,7 +4768,7 @@
         <v>1.79</v>
       </c>
       <c r="W32" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X32" t="n">
         <v>19</v>
@@ -4780,22 +4780,22 @@
         <v>15.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AB32" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC32" t="n">
         <v>8.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE32" t="n">
         <v>22</v>
       </c>
       <c r="AF32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG32" t="n">
         <v>14.5</v>
@@ -4807,22 +4807,22 @@
         <v>32</v>
       </c>
       <c r="AJ32" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="n">
         <v>36</v>
       </c>
       <c r="AL32" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM32" t="n">
         <v>75</v>
       </c>
       <c r="AN32" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G33" t="n">
         <v>1.76</v>
       </c>
       <c r="H33" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I33" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
         <v>4.4</v>
       </c>
       <c r="K33" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L33" t="n">
         <v>1.29</v>
@@ -4882,7 +4882,7 @@
         <v>1.19</v>
       </c>
       <c r="P33" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q33" t="n">
         <v>1.58</v>
@@ -4900,10 +4900,10 @@
         <v>2.46</v>
       </c>
       <c r="V33" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W33" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X33" t="n">
         <v>24</v>
@@ -4915,7 +4915,7 @@
         <v>44</v>
       </c>
       <c r="AA33" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB33" t="n">
         <v>12.5</v>
@@ -4927,7 +4927,7 @@
         <v>20</v>
       </c>
       <c r="AE33" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF33" t="n">
         <v>13</v>
@@ -4939,7 +4939,7 @@
         <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ33" t="n">
         <v>19</v>
@@ -4948,10 +4948,10 @@
         <v>15.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM33" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="AN33" t="n">
         <v>7</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G34" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H34" t="n">
         <v>2.56</v>
       </c>
       <c r="I34" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J34" t="n">
         <v>3.6</v>
@@ -5005,7 +5005,7 @@
         <v>3.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
@@ -5017,10 +5017,10 @@
         <v>1.24</v>
       </c>
       <c r="P34" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R34" t="n">
         <v>1.48</v>
@@ -5032,10 +5032,10 @@
         <v>1.6</v>
       </c>
       <c r="U34" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="V34" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W34" t="n">
         <v>1.51</v>
@@ -5047,7 +5047,7 @@
         <v>14</v>
       </c>
       <c r="Z34" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="n">
         <v>130</v>
@@ -5056,7 +5056,7 @@
         <v>15</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD34" t="n">
         <v>13</v>
@@ -5071,7 +5071,7 @@
         <v>13.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI34" t="n">
         <v>36</v>
@@ -5083,7 +5083,7 @@
         <v>75</v>
       </c>
       <c r="AL34" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AM34" t="n">
         <v>330</v>
@@ -5092,7 +5092,7 @@
         <v>22</v>
       </c>
       <c r="AO34" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="35">
@@ -5122,25 +5122,25 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="G35" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="H35" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I35" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J35" t="n">
         <v>2.9</v>
       </c>
       <c r="K35" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L35" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="M35" t="n">
         <v>1.13</v>
@@ -5155,34 +5155,34 @@
         <v>1.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R35" t="n">
         <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="T35" t="n">
         <v>2.12</v>
       </c>
       <c r="U35" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V35" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W35" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X35" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y35" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z35" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA35" t="n">
         <v>900</v>
@@ -5194,7 +5194,7 @@
         <v>7.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE35" t="n">
         <v>65</v>
@@ -5206,16 +5206,16 @@
         <v>13.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK35" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="n">
         <v>190</v>
@@ -5224,7 +5224,7 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO35" t="n">
         <v>110</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="G36" t="n">
         <v>1.77</v>
@@ -5272,7 +5272,7 @@
         <v>3.55</v>
       </c>
       <c r="K36" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L36" t="n">
         <v>1.44</v>
@@ -5299,10 +5299,10 @@
         <v>3.85</v>
       </c>
       <c r="T36" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U36" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V36" t="n">
         <v>1.16</v>
@@ -5317,16 +5317,16 @@
         <v>21</v>
       </c>
       <c r="Z36" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD36" t="n">
         <v>1000</v>
@@ -5353,7 +5353,7 @@
         <v>65</v>
       </c>
       <c r="AL36" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
@@ -5404,10 +5404,10 @@
         <v>980</v>
       </c>
       <c r="J37" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="K37" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,16 +5416,16 @@
         <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="P37" t="n">
         <v>1.25</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="R37" t="n">
         <v>1.18</v>
@@ -5476,7 +5476,7 @@
         <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
@@ -5491,10 +5491,10 @@
         <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5530,22 +5530,22 @@
         <v>3.6</v>
       </c>
       <c r="G38" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H38" t="n">
         <v>2.04</v>
       </c>
       <c r="I38" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J38" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K38" t="n">
         <v>3.8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M38" t="n">
         <v>1.07</v>
@@ -5566,7 +5566,7 @@
         <v>1.31</v>
       </c>
       <c r="S38" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T38" t="n">
         <v>1.78</v>
@@ -5575,10 +5575,10 @@
         <v>2.02</v>
       </c>
       <c r="V38" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W38" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X38" t="n">
         <v>21</v>
@@ -5596,7 +5596,7 @@
         <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD38" t="n">
         <v>13.5</v>
@@ -5680,7 +5680,7 @@
         <v>3.55</v>
       </c>
       <c r="L39" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M39" t="n">
         <v>1.08</v>
@@ -5689,19 +5689,19 @@
         <v>3.25</v>
       </c>
       <c r="O39" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P39" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R39" t="n">
         <v>1.29</v>
       </c>
       <c r="S39" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T39" t="n">
         <v>1.85</v>
@@ -5746,16 +5746,16 @@
         <v>18</v>
       </c>
       <c r="AH39" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI39" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ39" t="n">
         <v>85</v>
       </c>
       <c r="AK39" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL39" t="n">
         <v>70</v>
@@ -5764,7 +5764,7 @@
         <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="AO39" t="n">
         <v>28</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G40" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I40" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
@@ -5815,7 +5815,7 @@
         <v>3.05</v>
       </c>
       <c r="L40" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M40" t="n">
         <v>1.11</v>
@@ -5824,10 +5824,10 @@
         <v>3.05</v>
       </c>
       <c r="O40" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P40" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q40" t="n">
         <v>2.36</v>
@@ -5845,16 +5845,16 @@
         <v>1.98</v>
       </c>
       <c r="V40" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W40" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X40" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y40" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z40" t="n">
         <v>23</v>
@@ -5878,7 +5878,7 @@
         <v>18.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH40" t="n">
         <v>19</v>
@@ -5899,7 +5899,7 @@
         <v>150</v>
       </c>
       <c r="AN40" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AO40" t="n">
         <v>60</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G41" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H41" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I41" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J41" t="n">
         <v>4.6</v>
       </c>
       <c r="K41" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L41" t="n">
         <v>1.25</v>
@@ -5956,7 +5956,7 @@
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O41" t="n">
         <v>1.2</v>
@@ -5965,13 +5965,13 @@
         <v>2.36</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R41" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S41" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T41" t="n">
         <v>1.78</v>
@@ -5983,7 +5983,7 @@
         <v>1.15</v>
       </c>
       <c r="W41" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6025,7 +6025,7 @@
         <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AL41" t="n">
         <v>1000</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="G42" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H42" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I42" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J42" t="n">
         <v>3.55</v>
       </c>
       <c r="K42" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
         <v>1.31</v>
@@ -6091,34 +6091,34 @@
         <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O42" t="n">
         <v>1.28</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R42" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S42" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T42" t="n">
         <v>1.71</v>
       </c>
       <c r="U42" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V42" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W42" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X42" t="n">
         <v>19.5</v>
@@ -6139,7 +6139,7 @@
         <v>10.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AE42" t="n">
         <v>50</v>
@@ -6169,7 +6169,7 @@
         <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="AO42" t="n">
         <v>17</v>
@@ -6214,7 +6214,7 @@
         <v>2.58</v>
       </c>
       <c r="J43" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K43" t="n">
         <v>4.1</v>
@@ -6226,7 +6226,7 @@
         <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O43" t="n">
         <v>1.22</v>
@@ -6241,13 +6241,13 @@
         <v>1.5</v>
       </c>
       <c r="S43" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T43" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U43" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V43" t="n">
         <v>1.63</v>
@@ -6355,13 +6355,13 @@
         <v>3.25</v>
       </c>
       <c r="L44" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M44" t="n">
         <v>1.1</v>
       </c>
       <c r="N44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O44" t="n">
         <v>1.42</v>
@@ -6379,7 +6379,7 @@
         <v>4.3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U44" t="n">
         <v>2.02</v>
@@ -6442,7 +6442,7 @@
         <v>26</v>
       </c>
       <c r="AO44" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
@@ -6481,7 +6481,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J45" t="n">
         <v>3.5</v>
@@ -6574,7 +6574,7 @@
         <v>130</v>
       </c>
       <c r="AN45" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO45" t="n">
         <v>65</v>
@@ -6610,16 +6610,16 @@
         <v>2.06</v>
       </c>
       <c r="G46" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H46" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I46" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J46" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K46" t="n">
         <v>3.7</v>
@@ -6637,16 +6637,16 @@
         <v>1.34</v>
       </c>
       <c r="P46" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R46" t="n">
         <v>1.31</v>
       </c>
       <c r="S46" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T46" t="n">
         <v>1.82</v>
@@ -6655,10 +6655,10 @@
         <v>2</v>
       </c>
       <c r="V46" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W46" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X46" t="n">
         <v>16</v>
@@ -6673,7 +6673,7 @@
         <v>110</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC46" t="n">
         <v>8.4</v>
@@ -6691,10 +6691,10 @@
         <v>11.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AJ46" t="n">
         <v>27</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G47" t="n">
         <v>1.38</v>
@@ -6754,10 +6754,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K47" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L47" t="n">
         <v>1.25</v>
@@ -6781,10 +6781,10 @@
         <v>1.71</v>
       </c>
       <c r="S47" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T47" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U47" t="n">
         <v>2.06</v>
@@ -6796,10 +6796,10 @@
         <v>3.6</v>
       </c>
       <c r="X47" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="Y47" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Z47" t="n">
         <v>1000</v>
@@ -6808,7 +6808,7 @@
         <v>320</v>
       </c>
       <c r="AB47" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC47" t="n">
         <v>14.5</v>
@@ -6820,25 +6820,25 @@
         <v>130</v>
       </c>
       <c r="AF47" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG47" t="n">
         <v>10.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AI47" t="n">
         <v>100</v>
       </c>
       <c r="AJ47" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL47" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM47" t="n">
         <v>390</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H48" t="n">
         <v>2.88</v>
       </c>
-      <c r="G48" t="n">
+      <c r="I48" t="n">
         <v>3.05</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.98</v>
       </c>
       <c r="J48" t="n">
         <v>3.1</v>
@@ -7024,13 +7024,13 @@
         <v>2.36</v>
       </c>
       <c r="J49" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K49" t="n">
         <v>3.5</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M49" t="n">
         <v>1.09</v>
@@ -7045,19 +7045,19 @@
         <v>1.79</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R49" t="n">
         <v>1.29</v>
       </c>
       <c r="S49" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T49" t="n">
         <v>1.91</v>
       </c>
       <c r="U49" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
         <v>1.73</v>
@@ -7069,7 +7069,7 @@
         <v>12.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z49" t="n">
         <v>26</v>
@@ -7114,7 +7114,7 @@
         <v>580</v>
       </c>
       <c r="AN49" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AO49" t="n">
         <v>55</v>
@@ -7147,19 +7147,19 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G50" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H50" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="I50" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="J50" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
         <v>5.1</v>
@@ -7174,7 +7174,7 @@
         <v>10</v>
       </c>
       <c r="O50" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -7183,13 +7183,13 @@
         <v>1.31</v>
       </c>
       <c r="R50" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="S50" t="n">
         <v>1.77</v>
       </c>
       <c r="T50" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="U50" t="n">
         <v>3.5</v>
@@ -7198,7 +7198,7 @@
         <v>2.16</v>
       </c>
       <c r="W50" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X50" t="n">
         <v>55</v>
@@ -7231,7 +7231,7 @@
         <v>18</v>
       </c>
       <c r="AH50" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI50" t="n">
         <v>19</v>
@@ -7300,7 +7300,7 @@
         <v>4.5</v>
       </c>
       <c r="L51" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
@@ -7381,7 +7381,7 @@
         <v>380</v>
       </c>
       <c r="AM51" t="n">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="AN51" t="n">
         <v>260</v>
@@ -7420,7 +7420,7 @@
         <v>2.06</v>
       </c>
       <c r="G52" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H52" t="n">
         <v>3.25</v>
@@ -7435,7 +7435,7 @@
         <v>4.3</v>
       </c>
       <c r="L52" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
@@ -7453,7 +7453,7 @@
         <v>1.65</v>
       </c>
       <c r="R52" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S52" t="n">
         <v>2.38</v>
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H53" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="I53" t="n">
         <v>2.94</v>
@@ -7597,13 +7597,13 @@
         <v>1.96</v>
       </c>
       <c r="U53" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V53" t="n">
         <v>1.51</v>
       </c>
       <c r="W53" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X53" t="n">
         <v>11.5</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G54" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H54" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="I54" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J54" t="n">
         <v>3.3</v>
@@ -7711,49 +7711,49 @@
         <v>1.09</v>
       </c>
       <c r="N54" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O54" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P54" t="n">
         <v>1.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R54" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S54" t="n">
         <v>4.3</v>
       </c>
       <c r="T54" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U54" t="n">
         <v>1.96</v>
       </c>
       <c r="V54" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="W54" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X54" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y54" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z54" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AA54" t="n">
         <v>34</v>
       </c>
       <c r="AB54" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC54" t="n">
         <v>7.4</v>
@@ -7765,10 +7765,10 @@
         <v>29</v>
       </c>
       <c r="AF54" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH54" t="n">
         <v>19.5</v>
@@ -7777,10 +7777,10 @@
         <v>48</v>
       </c>
       <c r="AJ54" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK54" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL54" t="n">
         <v>65</v>
@@ -7789,7 +7789,7 @@
         <v>120</v>
       </c>
       <c r="AN54" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AO54" t="n">
         <v>25</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G55" t="n">
         <v>2.34</v>
@@ -7963,19 +7963,19 @@
         <v>3.25</v>
       </c>
       <c r="H56" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I56" t="n">
         <v>2.44</v>
       </c>
       <c r="J56" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K56" t="n">
         <v>3.7</v>
       </c>
       <c r="L56" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M56" t="n">
         <v>1.05</v>
@@ -7987,7 +7987,7 @@
         <v>1.25</v>
       </c>
       <c r="P56" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q56" t="n">
         <v>1.74</v>
@@ -8059,7 +8059,7 @@
         <v>200</v>
       </c>
       <c r="AN56" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO56" t="n">
         <v>16.5</v>
@@ -8095,10 +8095,10 @@
         <v>2.46</v>
       </c>
       <c r="G57" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H57" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I57" t="n">
         <v>3.1</v>
@@ -8107,7 +8107,7 @@
         <v>3.6</v>
       </c>
       <c r="K57" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L57" t="n">
         <v>1.25</v>
@@ -8116,28 +8116,28 @@
         <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O57" t="n">
         <v>1.21</v>
       </c>
       <c r="P57" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R57" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S57" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="T57" t="n">
         <v>1.57</v>
       </c>
       <c r="U57" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V57" t="n">
         <v>1.47</v>
@@ -8161,7 +8161,7 @@
         <v>15.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD57" t="n">
         <v>14.5</v>
@@ -8191,7 +8191,7 @@
         <v>60</v>
       </c>
       <c r="AM57" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN57" t="n">
         <v>15</v>
@@ -8230,7 +8230,7 @@
         <v>4.2</v>
       </c>
       <c r="G58" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H58" t="n">
         <v>1.86</v>
@@ -8278,7 +8278,7 @@
         <v>2.1</v>
       </c>
       <c r="W58" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X58" t="n">
         <v>21</v>
@@ -8371,7 +8371,7 @@
         <v>2.46</v>
       </c>
       <c r="I59" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J59" t="n">
         <v>3.75</v>
@@ -8392,13 +8392,13 @@
         <v>1.21</v>
       </c>
       <c r="P59" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q59" t="n">
         <v>1.65</v>
       </c>
       <c r="R59" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="S59" t="n">
         <v>2.58</v>
@@ -8407,10 +8407,10 @@
         <v>1.58</v>
       </c>
       <c r="U59" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V59" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="W59" t="n">
         <v>1.48</v>
@@ -8425,13 +8425,13 @@
         <v>18.5</v>
       </c>
       <c r="AA59" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AB59" t="n">
         <v>18</v>
       </c>
       <c r="AC59" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD59" t="n">
         <v>12</v>
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G60" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H60" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I60" t="n">
         <v>3.7</v>
       </c>
       <c r="J60" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K60" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L60" t="n">
         <v>1.41</v>
@@ -8530,7 +8530,7 @@
         <v>1.9</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R60" t="n">
         <v>1.34</v>
@@ -8539,7 +8539,7 @@
         <v>3.35</v>
       </c>
       <c r="T60" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U60" t="n">
         <v>2.1</v>
@@ -8548,37 +8548,37 @@
         <v>1.37</v>
       </c>
       <c r="W60" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X60" t="n">
         <v>17</v>
       </c>
       <c r="Y60" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AA60" t="n">
         <v>900</v>
       </c>
       <c r="AB60" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD60" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AE60" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AF60" t="n">
         <v>18</v>
       </c>
       <c r="AG60" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH60" t="n">
         <v>22</v>
@@ -8587,10 +8587,10 @@
         <v>150</v>
       </c>
       <c r="AJ60" t="n">
-        <v>38</v>
+        <v>900</v>
       </c>
       <c r="AK60" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AL60" t="n">
         <v>980</v>
@@ -8599,7 +8599,7 @@
         <v>1000</v>
       </c>
       <c r="AN60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO60" t="n">
         <v>1000</v>
@@ -8638,10 +8638,10 @@
         <v>2.4</v>
       </c>
       <c r="H61" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I61" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J61" t="n">
         <v>3.15</v>
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G62" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H62" t="n">
         <v>3.35</v>
       </c>
       <c r="I62" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J62" t="n">
         <v>3.55</v>
       </c>
       <c r="K62" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L62" t="n">
         <v>1.31</v>
@@ -8800,7 +8800,7 @@
         <v>2.02</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R62" t="n">
         <v>1.39</v>
@@ -8809,7 +8809,7 @@
         <v>3.05</v>
       </c>
       <c r="T62" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U62" t="n">
         <v>2.2</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G63" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H63" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I63" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J63" t="n">
         <v>3.65</v>
       </c>
       <c r="K63" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L63" t="n">
         <v>1.26</v>
@@ -8947,13 +8947,13 @@
         <v>1.58</v>
       </c>
       <c r="U63" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V63" t="n">
         <v>1.36</v>
       </c>
       <c r="W63" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X63" t="n">
         <v>26</v>
@@ -8986,19 +8986,19 @@
         <v>12</v>
       </c>
       <c r="AH63" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI63" t="n">
         <v>980</v>
       </c>
       <c r="AJ63" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AK63" t="n">
         <v>50</v>
       </c>
       <c r="AL63" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM63" t="n">
         <v>1000</v>
@@ -9037,112 +9037,112 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="G64" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I64" t="n">
         <v>2.9</v>
       </c>
-      <c r="H64" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2.94</v>
-      </c>
       <c r="J64" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K64" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L64" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M64" t="n">
         <v>1.08</v>
       </c>
       <c r="N64" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O64" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P64" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q64" t="n">
         <v>2</v>
       </c>
       <c r="R64" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S64" t="n">
         <v>3.6</v>
       </c>
       <c r="T64" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U64" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V64" t="n">
         <v>1.52</v>
       </c>
       <c r="W64" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y64" t="n">
         <v>12</v>
       </c>
       <c r="Z64" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="AB64" t="n">
         <v>12</v>
       </c>
       <c r="AC64" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD64" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF64" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="AJ64" t="n">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="AK64" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AL64" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM64" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="AN64" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AO64" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
@@ -9202,22 +9202,22 @@
         <v>1.22</v>
       </c>
       <c r="P65" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q65" t="n">
         <v>1.66</v>
       </c>
       <c r="R65" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S65" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T65" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U65" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="V65" t="n">
         <v>1.39</v>
@@ -9235,7 +9235,7 @@
         <v>28</v>
       </c>
       <c r="AA65" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB65" t="n">
         <v>13</v>
@@ -9247,7 +9247,7 @@
         <v>14.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF65" t="n">
         <v>16</v>
@@ -9265,10 +9265,10 @@
         <v>28</v>
       </c>
       <c r="AK65" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL65" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM65" t="n">
         <v>50</v>
@@ -9310,7 +9310,7 @@
         <v>20</v>
       </c>
       <c r="G66" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H66" t="n">
         <v>1.16</v>
@@ -9319,7 +9319,7 @@
         <v>1.17</v>
       </c>
       <c r="J66" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="K66" t="n">
         <v>11.5</v>
@@ -9331,10 +9331,10 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="O66" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P66" t="n">
         <v>4.3</v>
@@ -9346,25 +9346,25 @@
         <v>2.38</v>
       </c>
       <c r="S66" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="T66" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U66" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V66" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="W66" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="X66" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Y66" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z66" t="n">
         <v>11.5</v>
@@ -9376,7 +9376,7 @@
         <v>95</v>
       </c>
       <c r="AC66" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AD66" t="n">
         <v>14</v>
@@ -9391,7 +9391,7 @@
         <v>70</v>
       </c>
       <c r="AH66" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI66" t="n">
         <v>32</v>
@@ -9403,16 +9403,16 @@
         <v>300</v>
       </c>
       <c r="AL66" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM66" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN66" t="n">
         <v>270</v>
       </c>
       <c r="AO66" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="67">
@@ -9445,19 +9445,19 @@
         <v>2.06</v>
       </c>
       <c r="G67" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H67" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I67" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K67" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L67" t="n">
         <v>1.33</v>
@@ -9493,7 +9493,7 @@
         <v>1.33</v>
       </c>
       <c r="W67" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X67" t="n">
         <v>15.5</v>
@@ -9529,7 +9529,7 @@
         <v>18.5</v>
       </c>
       <c r="AI67" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ67" t="n">
         <v>28</v>
@@ -9541,7 +9541,7 @@
         <v>1000</v>
       </c>
       <c r="AM67" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN67" t="n">
         <v>16.5</v>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G68" t="n">
         <v>2.14</v>
@@ -9586,7 +9586,7 @@
         <v>4.1</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J68" t="n">
         <v>3.4</v>
@@ -9631,7 +9631,7 @@
         <v>1.89</v>
       </c>
       <c r="X68" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y68" t="n">
         <v>12</v>
@@ -9730,7 +9730,7 @@
         <v>3.15</v>
       </c>
       <c r="L69" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="M69" t="n">
         <v>1.14</v>
@@ -9907,7 +9907,7 @@
         <v>12.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA70" t="n">
         <v>900</v>
@@ -9925,13 +9925,13 @@
         <v>65</v>
       </c>
       <c r="AF70" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG70" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI70" t="n">
         <v>190</v>
@@ -10132,7 +10132,7 @@
         <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L72" t="n">
         <v>1.45</v>
@@ -10183,7 +10183,7 @@
         <v>900</v>
       </c>
       <c r="AB72" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AC72" t="n">
         <v>14</v>
@@ -10195,13 +10195,13 @@
         <v>240</v>
       </c>
       <c r="AF72" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG72" t="n">
         <v>970</v>
       </c>
       <c r="AH72" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI72" t="n">
         <v>380</v>
@@ -10255,7 +10255,7 @@
         <v>2.28</v>
       </c>
       <c r="G73" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H73" t="n">
         <v>3.9</v>
@@ -10276,34 +10276,34 @@
         <v>1.09</v>
       </c>
       <c r="N73" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O73" t="n">
         <v>1.42</v>
       </c>
       <c r="P73" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R73" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S73" t="n">
         <v>4.2</v>
       </c>
       <c r="T73" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U73" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V73" t="n">
         <v>1.33</v>
       </c>
       <c r="W73" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X73" t="n">
         <v>11</v>
@@ -10321,10 +10321,10 @@
         <v>8.4</v>
       </c>
       <c r="AC73" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD73" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE73" t="n">
         <v>55</v>
@@ -10351,10 +10351,10 @@
         <v>48</v>
       </c>
       <c r="AM73" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN73" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO73" t="n">
         <v>65</v>
@@ -10423,7 +10423,7 @@
         <v>1.38</v>
       </c>
       <c r="R74" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="S74" t="n">
         <v>2</v>
@@ -10432,7 +10432,7 @@
         <v>1.9</v>
       </c>
       <c r="U74" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="V74" t="n">
         <v>1.07</v>
@@ -10441,10 +10441,10 @@
         <v>5.1</v>
       </c>
       <c r="X74" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="Y74" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="Z74" t="n">
         <v>160</v>
@@ -10474,7 +10474,7 @@
         <v>36</v>
       </c>
       <c r="AI74" t="n">
-        <v>150</v>
+        <v>470</v>
       </c>
       <c r="AJ74" t="n">
         <v>11</v>
@@ -10483,10 +10483,10 @@
         <v>13.5</v>
       </c>
       <c r="AL74" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM74" t="n">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="AN74" t="n">
         <v>3.25</v>
@@ -10525,13 +10525,13 @@
         <v>5.1</v>
       </c>
       <c r="G75" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H75" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I75" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="J75" t="n">
         <v>3.5</v>
@@ -10570,7 +10570,7 @@
         <v>1.84</v>
       </c>
       <c r="V75" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W75" t="n">
         <v>1.22</v>
@@ -10582,7 +10582,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z75" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AA75" t="n">
         <v>25</v>
@@ -10594,7 +10594,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD75" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE75" t="n">
         <v>27</v>
@@ -10621,10 +10621,10 @@
         <v>110</v>
       </c>
       <c r="AM75" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN75" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="AO75" t="n">
         <v>19</v>
@@ -10660,7 +10660,7 @@
         <v>1.96</v>
       </c>
       <c r="G76" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>4.5</v>
@@ -10705,16 +10705,16 @@
         <v>1.87</v>
       </c>
       <c r="V76" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W76" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="X76" t="n">
         <v>14.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z76" t="n">
         <v>1000</v>
@@ -10738,19 +10738,19 @@
         <v>13.5</v>
       </c>
       <c r="AG76" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH76" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI76" t="n">
         <v>1000</v>
       </c>
       <c r="AJ76" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK76" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL76" t="n">
         <v>1000</v>
@@ -10759,7 +10759,7 @@
         <v>1000</v>
       </c>
       <c r="AN76" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO76" t="n">
         <v>1000</v>
@@ -10792,10 +10792,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G77" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H77" t="n">
         <v>3.6</v>
@@ -10843,7 +10843,7 @@
         <v>1.37</v>
       </c>
       <c r="W77" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X77" t="n">
         <v>11.5</v>
@@ -10861,13 +10861,13 @@
         <v>9</v>
       </c>
       <c r="AC77" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD77" t="n">
         <v>14.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF77" t="n">
         <v>14</v>
@@ -10927,16 +10927,16 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G78" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H78" t="n">
         <v>4.3</v>
       </c>
       <c r="I78" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J78" t="n">
         <v>3.55</v>
@@ -10951,7 +10951,7 @@
         <v>1.08</v>
       </c>
       <c r="N78" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O78" t="n">
         <v>1.38</v>
@@ -10960,7 +10960,7 @@
         <v>1.75</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R78" t="n">
         <v>1.28</v>
@@ -10972,13 +10972,13 @@
         <v>1.91</v>
       </c>
       <c r="U78" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V78" t="n">
         <v>1.27</v>
       </c>
       <c r="W78" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X78" t="n">
         <v>12</v>
@@ -10996,7 +10996,7 @@
         <v>8.4</v>
       </c>
       <c r="AC78" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD78" t="n">
         <v>19</v>
@@ -11062,10 +11062,10 @@
         </is>
       </c>
       <c r="F79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G79" t="n">
         <v>2.52</v>
-      </c>
-      <c r="G79" t="n">
-        <v>2.56</v>
       </c>
       <c r="H79" t="n">
         <v>3.35</v>
@@ -11092,7 +11092,7 @@
         <v>1.5</v>
       </c>
       <c r="P79" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q79" t="n">
         <v>2.48</v>
@@ -11104,7 +11104,7 @@
         <v>4.9</v>
       </c>
       <c r="T79" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U79" t="n">
         <v>1.9</v>
@@ -11113,13 +11113,13 @@
         <v>1.4</v>
       </c>
       <c r="W79" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X79" t="n">
         <v>9.4</v>
       </c>
       <c r="Y79" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z79" t="n">
         <v>22</v>
@@ -11197,13 +11197,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G80" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H80" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I80" t="n">
         <v>4.2</v>
@@ -11212,7 +11212,7 @@
         <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L80" t="n">
         <v>1.65</v>
@@ -11248,16 +11248,16 @@
         <v>1.31</v>
       </c>
       <c r="W80" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y80" t="n">
         <v>10.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AA80" t="n">
         <v>140</v>
@@ -11269,16 +11269,16 @@
         <v>7.4</v>
       </c>
       <c r="AD80" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE80" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AF80" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AG80" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AH80" t="n">
         <v>980</v>
@@ -11290,10 +11290,10 @@
         <v>980</v>
       </c>
       <c r="AK80" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AL80" t="n">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="AM80" t="n">
         <v>320</v>
@@ -11335,7 +11335,7 @@
         <v>2.08</v>
       </c>
       <c r="G81" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H81" t="n">
         <v>4.2</v>
@@ -11344,7 +11344,7 @@
         <v>4.5</v>
       </c>
       <c r="J81" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K81" t="n">
         <v>3.4</v>
@@ -11362,16 +11362,16 @@
         <v>1.39</v>
       </c>
       <c r="P81" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R81" t="n">
         <v>1.31</v>
       </c>
       <c r="S81" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T81" t="n">
         <v>1.89</v>
@@ -11386,16 +11386,16 @@
         <v>1.87</v>
       </c>
       <c r="X81" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y81" t="n">
         <v>14.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA81" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB81" t="n">
         <v>8.4</v>
@@ -11404,13 +11404,13 @@
         <v>7.8</v>
       </c>
       <c r="AD81" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE81" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF81" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG81" t="n">
         <v>11</v>
@@ -11422,16 +11422,16 @@
         <v>70</v>
       </c>
       <c r="AJ81" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK81" t="n">
         <v>24</v>
       </c>
       <c r="AL81" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM81" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN81" t="n">
         <v>18.5</v>
@@ -11470,19 +11470,19 @@
         <v>2.3</v>
       </c>
       <c r="G82" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H82" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I82" t="n">
         <v>3.9</v>
       </c>
       <c r="J82" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K82" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L82" t="n">
         <v>1.51</v>
@@ -11494,10 +11494,10 @@
         <v>3</v>
       </c>
       <c r="O82" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P82" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q82" t="n">
         <v>2.3</v>
@@ -11506,7 +11506,7 @@
         <v>1.25</v>
       </c>
       <c r="S82" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T82" t="n">
         <v>2.02</v>
@@ -11518,25 +11518,25 @@
         <v>1.34</v>
       </c>
       <c r="W82" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y82" t="n">
         <v>12</v>
       </c>
       <c r="Z82" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA82" t="n">
         <v>80</v>
       </c>
       <c r="AB82" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC82" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD82" t="n">
         <v>16</v>
@@ -11545,13 +11545,13 @@
         <v>55</v>
       </c>
       <c r="AF82" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH82" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI82" t="n">
         <v>75</v>
@@ -11569,7 +11569,7 @@
         <v>150</v>
       </c>
       <c r="AN82" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO82" t="n">
         <v>65</v>
@@ -11602,58 +11602,58 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G83" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H83" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I83" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J83" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K83" t="n">
         <v>3.2</v>
       </c>
       <c r="L83" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="M83" t="n">
         <v>1.09</v>
       </c>
       <c r="N83" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O83" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P83" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R83" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S83" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T83" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U83" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V83" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W83" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X83" t="n">
         <v>12.5</v>
@@ -11662,31 +11662,31 @@
         <v>10</v>
       </c>
       <c r="Z83" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA83" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB83" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC83" t="n">
         <v>7.8</v>
       </c>
       <c r="AD83" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE83" t="n">
         <v>980</v>
       </c>
       <c r="AF83" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AG83" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH83" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI83" t="n">
         <v>980</v>
@@ -11698,10 +11698,10 @@
         <v>980</v>
       </c>
       <c r="AL83" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AM83" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN83" t="n">
         <v>980</v>
@@ -11740,7 +11740,7 @@
         <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>4.5</v>
@@ -11749,13 +11749,13 @@
         <v>4.9</v>
       </c>
       <c r="J84" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K84" t="n">
         <v>3.55</v>
       </c>
       <c r="L84" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M84" t="n">
         <v>1.09</v>
@@ -11836,7 +11836,7 @@
         <v>50</v>
       </c>
       <c r="AM84" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN84" t="n">
         <v>23</v>
@@ -11890,7 +11890,7 @@
         <v>5.2</v>
       </c>
       <c r="L85" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="M85" t="n">
         <v>1.02</v>
@@ -11914,10 +11914,10 @@
         <v>1.93</v>
       </c>
       <c r="T85" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="U85" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="V85" t="n">
         <v>2.18</v>
@@ -11926,13 +11926,13 @@
         <v>1.25</v>
       </c>
       <c r="X85" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="Y85" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA85" t="n">
         <v>23</v>
@@ -11956,25 +11956,25 @@
         <v>20</v>
       </c>
       <c r="AH85" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI85" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AJ85" t="n">
         <v>110</v>
       </c>
       <c r="AK85" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL85" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM85" t="n">
-        <v>55</v>
+        <v>580</v>
       </c>
       <c r="AN85" t="n">
-        <v>980</v>
+        <v>270</v>
       </c>
       <c r="AO85" t="n">
         <v>6.2</v>
@@ -12019,13 +12019,13 @@
         <v>2.82</v>
       </c>
       <c r="J86" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K86" t="n">
         <v>3.9</v>
       </c>
       <c r="L86" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M86" t="n">
         <v>1.06</v>
@@ -12034,25 +12034,25 @@
         <v>4</v>
       </c>
       <c r="O86" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P86" t="n">
         <v>2.06</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="R86" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S86" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="T86" t="n">
         <v>1.7</v>
       </c>
       <c r="U86" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V86" t="n">
         <v>1.55</v>
@@ -12070,7 +12070,7 @@
         <v>19.5</v>
       </c>
       <c r="AA86" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB86" t="n">
         <v>13.5</v>
@@ -12082,7 +12082,7 @@
         <v>13</v>
       </c>
       <c r="AE86" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF86" t="n">
         <v>21</v>
@@ -12094,7 +12094,7 @@
         <v>17</v>
       </c>
       <c r="AI86" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ86" t="n">
         <v>44</v>
@@ -12103,16 +12103,16 @@
         <v>32</v>
       </c>
       <c r="AL86" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM86" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN86" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO86" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
@@ -12151,22 +12151,22 @@
         <v>22</v>
       </c>
       <c r="I87" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J87" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K87" t="n">
         <v>10</v>
       </c>
       <c r="L87" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M87" t="n">
         <v>1.03</v>
       </c>
       <c r="N87" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O87" t="n">
         <v>1.17</v>
@@ -12178,13 +12178,13 @@
         <v>1.51</v>
       </c>
       <c r="R87" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S87" t="n">
         <v>2.3</v>
       </c>
       <c r="T87" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="U87" t="n">
         <v>1.56</v>
@@ -12193,16 +12193,16 @@
         <v>1.04</v>
       </c>
       <c r="W87" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X87" t="n">
         <v>980</v>
       </c>
       <c r="Y87" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Z87" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AA87" t="n">
         <v>1000</v>
@@ -12214,13 +12214,13 @@
         <v>980</v>
       </c>
       <c r="AD87" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AE87" t="n">
         <v>1000</v>
       </c>
       <c r="AF87" t="n">
-        <v>22</v>
+        <v>7.6</v>
       </c>
       <c r="AG87" t="n">
         <v>1000</v>
@@ -12445,7 +12445,7 @@
         <v>1.73</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R89" t="n">
         <v>1.27</v>
@@ -12568,7 +12568,7 @@
         <v>1.46</v>
       </c>
       <c r="M90" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N90" t="n">
         <v>3.5</v>
@@ -12577,7 +12577,7 @@
         <v>1.38</v>
       </c>
       <c r="P90" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q90" t="n">
         <v>2.14</v>
@@ -12595,7 +12595,7 @@
         <v>2.06</v>
       </c>
       <c r="V90" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W90" t="n">
         <v>1.29</v>
@@ -12649,10 +12649,10 @@
         <v>120</v>
       </c>
       <c r="AN90" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO90" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="91">
@@ -12682,10 +12682,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H91" t="n">
         <v>6.2</v>
@@ -12694,10 +12694,10 @@
         <v>6.4</v>
       </c>
       <c r="J91" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K91" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L91" t="n">
         <v>1.55</v>
@@ -12706,13 +12706,13 @@
         <v>1.11</v>
       </c>
       <c r="N91" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O91" t="n">
         <v>1.51</v>
       </c>
       <c r="P91" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q91" t="n">
         <v>2.56</v>
@@ -12733,7 +12733,7 @@
         <v>1.18</v>
       </c>
       <c r="W91" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X91" t="n">
         <v>9.199999999999999</v>
@@ -12748,7 +12748,7 @@
         <v>230</v>
       </c>
       <c r="AB91" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC91" t="n">
         <v>8.199999999999999</v>
@@ -12769,7 +12769,7 @@
         <v>28</v>
       </c>
       <c r="AI91" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ91" t="n">
         <v>18</v>
@@ -12784,7 +12784,7 @@
         <v>230</v>
       </c>
       <c r="AN91" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO91" t="n">
         <v>240</v>
@@ -12952,16 +12952,16 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H93" t="n">
         <v>5.6</v>
       </c>
       <c r="I93" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J93" t="n">
         <v>3.4</v>
@@ -12982,19 +12982,19 @@
         <v>1.48</v>
       </c>
       <c r="P93" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R93" t="n">
         <v>1.23</v>
       </c>
       <c r="S93" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T93" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U93" t="n">
         <v>1.77</v>
@@ -13003,7 +13003,7 @@
         <v>1.2</v>
       </c>
       <c r="W93" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X93" t="n">
         <v>12</v>
@@ -13018,7 +13018,7 @@
         <v>200</v>
       </c>
       <c r="AB93" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC93" t="n">
         <v>8</v>
@@ -13054,7 +13054,7 @@
         <v>240</v>
       </c>
       <c r="AN93" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO93" t="n">
         <v>200</v>
@@ -13252,7 +13252,7 @@
         <v>1.25</v>
       </c>
       <c r="P95" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q95" t="n">
         <v>1.74</v>
@@ -13282,16 +13282,16 @@
         <v>24</v>
       </c>
       <c r="Z95" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA95" t="n">
         <v>180</v>
       </c>
       <c r="AB95" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC95" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD95" t="n">
         <v>25</v>
@@ -13312,7 +13312,7 @@
         <v>80</v>
       </c>
       <c r="AJ95" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK95" t="n">
         <v>17.5</v>
@@ -13324,7 +13324,7 @@
         <v>130</v>
       </c>
       <c r="AN95" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO95" t="n">
         <v>110</v>
@@ -13357,13 +13357,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="G96" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="H96" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I96" t="n">
         <v>4.7</v>
@@ -13375,7 +13375,7 @@
         <v>4.6</v>
       </c>
       <c r="L96" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M96" t="n">
         <v>1.06</v>
@@ -13399,22 +13399,22 @@
         <v>3.35</v>
       </c>
       <c r="T96" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U96" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V96" t="n">
         <v>1.27</v>
       </c>
       <c r="W96" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X96" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y96" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z96" t="n">
         <v>34</v>
@@ -13423,7 +13423,7 @@
         <v>110</v>
       </c>
       <c r="AB96" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC96" t="n">
         <v>8.800000000000001</v>
@@ -13435,19 +13435,19 @@
         <v>60</v>
       </c>
       <c r="AF96" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG96" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH96" t="n">
         <v>23</v>
       </c>
       <c r="AI96" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AJ96" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK96" t="n">
         <v>21</v>
@@ -13459,7 +13459,7 @@
         <v>130</v>
       </c>
       <c r="AN96" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO96" t="n">
         <v>70</v>
@@ -13501,13 +13501,13 @@
         <v>4.4</v>
       </c>
       <c r="I97" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J97" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K97" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L97" t="n">
         <v>1.4</v>
@@ -13525,7 +13525,7 @@
         <v>1.84</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R97" t="n">
         <v>1.32</v>
@@ -13594,7 +13594,7 @@
         <v>140</v>
       </c>
       <c r="AN97" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO97" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
         <v>6.8</v>
@@ -676,13 +676,13 @@
         <v>1.56</v>
       </c>
       <c r="I2" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="J2" t="n">
         <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="I3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="J3" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="K3" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="T3" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="V3" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="W3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
         <v>1.87</v>
@@ -949,31 +949,31 @@
         <v>5.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
         <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q4" t="n">
         <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
         <v>3.7</v>
@@ -982,7 +982,7 @@
         <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
         <v>1.22</v>
@@ -1012,7 +1012,7 @@
         <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>420</v>
+        <v>190</v>
       </c>
       <c r="AF4" t="n">
         <v>10.5</v>
@@ -1033,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
         <v>430</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
@@ -1090,34 +1090,34 @@
         <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="S5" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="U5" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="V5" t="n">
         <v>1.4</v>
@@ -1126,58 +1126,58 @@
         <v>1.84</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
         <v>16</v>
       </c>
-      <c r="AC5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
         <v>15.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO5" t="n">
-        <v>200</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="I6" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
         <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.17</v>
@@ -1243,37 +1243,37 @@
         <v>1.54</v>
       </c>
       <c r="R6" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S6" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U6" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V6" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="W6" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
         <v>10.5</v>
@@ -1285,7 +1285,7 @@
         <v>15.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AG6" t="n">
         <v>19.5</v>
@@ -1294,25 +1294,25 @@
         <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AK6" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
         <v>60</v>
       </c>
       <c r="AN6" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7">
@@ -1345,7 +1345,7 @@
         <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
@@ -1363,7 +1363,7 @@
         <v>1.57</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
         <v>2.8</v>
@@ -1375,10 +1375,10 @@
         <v>1.59</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="R7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
         <v>5.3</v>
@@ -1387,7 +1387,7 @@
         <v>2.16</v>
       </c>
       <c r="U7" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
         <v>1.31</v>
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
         <v>26</v>
@@ -1432,13 +1432,13 @@
         <v>90</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
         <v>180</v>
@@ -1480,16 +1480,16 @@
         <v>3.2</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
         <v>2.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K8" t="n">
         <v>3.4</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.9</v>
@@ -1636,28 +1636,28 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U9" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V9" t="n">
         <v>1.13</v>
@@ -1672,7 +1672,7 @@
         <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="H10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I10" t="n">
         <v>5.5</v>
       </c>
-      <c r="I10" t="n">
-        <v>5.7</v>
-      </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="T10" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W10" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="X10" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
         <v>42</v>
       </c>
       <c r="AA10" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC10" t="n">
         <v>8.6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9</v>
       </c>
       <c r="AD10" t="n">
         <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="n">
         <v>10.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="AN10" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1882,46 +1882,46 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.65</v>
+        <v>2.16</v>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>2.52</v>
       </c>
       <c r="H11" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>44</v>
+        <v>5.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.52</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
         <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>1.27</v>
+        <v>3.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.03</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.26</v>
+        <v>2.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.3</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
         <v>1.04</v>
@@ -1930,10 +1930,10 @@
         <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="W11" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
         <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="O12" t="n">
         <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V12" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2095,13 +2095,13 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AH12" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2113,13 +2113,13 @@
         <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,58 +2152,58 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
         <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="X13" t="n">
         <v>24</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
         <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
         <v>3.55</v>
@@ -2437,49 +2437,49 @@
         <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L15" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="M15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N15" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P15" t="n">
         <v>1.51</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T15" t="n">
         <v>2.14</v>
       </c>
       <c r="U15" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W15" t="n">
         <v>1.55</v>
       </c>
       <c r="X15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
         <v>21</v>
@@ -2494,13 +2494,13 @@
         <v>7.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>55</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG15" t="n">
         <v>13.5</v>
@@ -2512,19 +2512,19 @@
         <v>460</v>
       </c>
       <c r="AJ15" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL15" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AM15" t="n">
         <v>220</v>
       </c>
       <c r="AN15" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AO15" t="n">
         <v>75</v>
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G16" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
         <v>2.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J16" t="n">
         <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2587,16 +2587,16 @@
         <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T16" t="n">
         <v>1.63</v>
@@ -2605,64 +2605,64 @@
         <v>2.28</v>
       </c>
       <c r="V16" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W16" t="n">
         <v>1.53</v>
       </c>
       <c r="X16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
         <v>120</v>
       </c>
       <c r="AA16" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AG16" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AH16" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AI16" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
         <v>55</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2698,13 +2698,13 @@
         <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I17" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2830,13 +2830,13 @@
         <v>3.7</v>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H18" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J18" t="n">
         <v>3.9</v>
@@ -2845,94 +2845,94 @@
         <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="R18" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="S18" t="n">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="U18" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="V18" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W18" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA18" t="n">
         <v>26</v>
       </c>
       <c r="AB18" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
         <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
         <v>15.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ18" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AO18" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="G19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I19" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
@@ -2980,7 +2980,7 @@
         <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -2989,37 +2989,37 @@
         <v>4.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="R19" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S19" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U19" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X19" t="n">
         <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
         <v>15</v>
@@ -3028,19 +3028,19 @@
         <v>28</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>22</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
         <v>14.5</v>
@@ -3052,7 +3052,7 @@
         <v>32</v>
       </c>
       <c r="AJ19" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
         <v>38</v>
@@ -3067,7 +3067,7 @@
         <v>32</v>
       </c>
       <c r="AO19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -3097,64 +3097,64 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.4</v>
       </c>
-      <c r="G20" t="n">
+      <c r="K20" t="n">
         <v>3.5</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.38</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.4</v>
       </c>
       <c r="X20" t="n">
         <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Z20" t="n">
         <v>14</v>
@@ -3163,19 +3163,19 @@
         <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
         <v>14.5</v>
@@ -3190,10 +3190,10 @@
         <v>65</v>
       </c>
       <c r="AK20" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
         <v>110</v>
@@ -3202,7 +3202,7 @@
         <v>48</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -3271,7 +3271,7 @@
         <v>2.62</v>
       </c>
       <c r="S21" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="T21" t="n">
         <v>1.98</v>
@@ -3367,73 +3367,73 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G22" t="n">
         <v>2.2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K22" t="n">
         <v>4.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="T22" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="U22" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="V22" t="n">
         <v>1.4</v>
       </c>
       <c r="W22" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AA22" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AB22" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC22" t="n">
         <v>10.5</v>
@@ -3442,37 +3442,37 @@
         <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG22" t="n">
         <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AJ22" t="n">
         <v>27</v>
       </c>
       <c r="AK22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM22" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -3502,61 +3502,61 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G23" t="n">
         <v>1.51</v>
       </c>
       <c r="H23" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="J23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K23" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S23" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="T23" t="n">
         <v>1.83</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="X23" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
@@ -3574,16 +3574,16 @@
         <v>16</v>
       </c>
       <c r="AD23" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
         <v>1000</v>
@@ -3592,10 +3592,10 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>6.8</v>
+        <v>11.5</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G24" t="n">
         <v>3.2</v>
       </c>
       <c r="H24" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I24" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J24" t="n">
         <v>3.35</v>
@@ -3655,28 +3655,28 @@
         <v>3.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O24" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
         <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T24" t="n">
         <v>1.76</v>
@@ -3685,7 +3685,7 @@
         <v>2.22</v>
       </c>
       <c r="V24" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W24" t="n">
         <v>1.45</v>
@@ -3724,7 +3724,7 @@
         <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="n">
         <v>55</v>
@@ -3775,7 +3775,7 @@
         <v>1.84</v>
       </c>
       <c r="G25" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H25" t="n">
         <v>4.3</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q25" t="n">
         <v>1.64</v>
@@ -3916,22 +3916,22 @@
         <v>1.74</v>
       </c>
       <c r="I26" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.27</v>
@@ -3943,7 +3943,7 @@
         <v>1.81</v>
       </c>
       <c r="R26" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S26" t="n">
         <v>3.05</v>
@@ -3955,7 +3955,7 @@
         <v>2.18</v>
       </c>
       <c r="V26" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W26" t="n">
         <v>1.23</v>
@@ -3976,10 +3976,10 @@
         <v>20</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE26" t="n">
         <v>16.5</v>
@@ -3988,10 +3988,10 @@
         <v>40</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI26" t="n">
         <v>32</v>
@@ -4009,10 +4009,10 @@
         <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO26" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G27" t="n">
         <v>2.5</v>
@@ -4051,13 +4051,13 @@
         <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J27" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L27" t="n">
         <v>1.46</v>
@@ -4066,16 +4066,16 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O27" t="n">
         <v>1.39</v>
       </c>
       <c r="P27" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R27" t="n">
         <v>1.26</v>
@@ -4087,13 +4087,13 @@
         <v>1.86</v>
       </c>
       <c r="U27" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V27" t="n">
         <v>1.38</v>
       </c>
       <c r="W27" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X27" t="n">
         <v>12</v>
@@ -4108,10 +4108,10 @@
         <v>190</v>
       </c>
       <c r="AB27" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD27" t="n">
         <v>17</v>
@@ -4183,7 +4183,7 @@
         <v>4.8</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I28" t="n">
         <v>2.14</v>
@@ -4195,22 +4195,22 @@
         <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M28" t="n">
         <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="O28" t="n">
         <v>1.47</v>
       </c>
       <c r="P28" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R28" t="n">
         <v>1.21</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G29" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I29" t="n">
         <v>13</v>
@@ -4327,43 +4327,43 @@
         <v>4.4</v>
       </c>
       <c r="K29" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O29" t="n">
         <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R29" t="n">
         <v>1.29</v>
       </c>
       <c r="S29" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T29" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="U29" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="V29" t="n">
         <v>1.08</v>
       </c>
       <c r="W29" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="X29" t="n">
         <v>14</v>
@@ -4459,31 +4459,31 @@
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
         <v>3.75</v>
       </c>
       <c r="L30" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O30" t="n">
         <v>1.38</v>
       </c>
       <c r="P30" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R30" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S30" t="n">
         <v>3.95</v>
@@ -4585,7 +4585,7 @@
         <v>2.24</v>
       </c>
       <c r="G31" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H31" t="n">
         <v>3.55</v>
@@ -4612,19 +4612,19 @@
         <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R31" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S31" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T31" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U31" t="n">
         <v>2.26</v>
@@ -4633,7 +4633,7 @@
         <v>1.37</v>
       </c>
       <c r="W31" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X31" t="n">
         <v>16</v>
@@ -4657,7 +4657,7 @@
         <v>14.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF31" t="n">
         <v>14</v>
@@ -4669,7 +4669,7 @@
         <v>16.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ31" t="n">
         <v>28</v>
@@ -4684,10 +4684,10 @@
         <v>85</v>
       </c>
       <c r="AN31" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO31" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G32" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H32" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J32" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K32" t="n">
         <v>3.85</v>
@@ -4744,46 +4744,46 @@
         <v>4.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P32" t="n">
         <v>2.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="R32" t="n">
         <v>1.48</v>
       </c>
       <c r="S32" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="T32" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U32" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V32" t="n">
         <v>1.79</v>
       </c>
       <c r="W32" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X32" t="n">
         <v>19</v>
       </c>
       <c r="Y32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
         <v>15.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB32" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC32" t="n">
         <v>8.6</v>
@@ -4795,7 +4795,7 @@
         <v>22</v>
       </c>
       <c r="AF32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG32" t="n">
         <v>14.5</v>
@@ -4810,7 +4810,7 @@
         <v>60</v>
       </c>
       <c r="AK32" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AL32" t="n">
         <v>42</v>
@@ -4819,7 +4819,7 @@
         <v>75</v>
       </c>
       <c r="AN32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO32" t="n">
         <v>14</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G33" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H33" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I33" t="n">
         <v>4.9</v>
       </c>
-      <c r="I33" t="n">
-        <v>5</v>
-      </c>
       <c r="J33" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K33" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L33" t="n">
         <v>1.29</v>
@@ -4876,7 +4876,7 @@
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O33" t="n">
         <v>1.19</v>
@@ -4888,43 +4888,43 @@
         <v>1.58</v>
       </c>
       <c r="R33" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S33" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T33" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U33" t="n">
         <v>2.46</v>
       </c>
       <c r="V33" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W33" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="X33" t="n">
         <v>24</v>
       </c>
       <c r="Y33" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z33" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA33" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB33" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
         <v>10.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AE33" t="n">
         <v>50</v>
@@ -4945,16 +4945,16 @@
         <v>19</v>
       </c>
       <c r="AK33" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL33" t="n">
         <v>25</v>
       </c>
       <c r="AM33" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN33" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AO33" t="n">
         <v>40</v>
@@ -4987,61 +4987,61 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G34" t="n">
         <v>2.96</v>
       </c>
       <c r="H34" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="I34" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K34" t="n">
         <v>3.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R34" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="S34" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T34" t="n">
         <v>1.6</v>
       </c>
       <c r="U34" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V34" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W34" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X34" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Y34" t="n">
         <v>14</v>
@@ -5056,7 +5056,7 @@
         <v>15</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD34" t="n">
         <v>13</v>
@@ -5074,7 +5074,7 @@
         <v>16</v>
       </c>
       <c r="AI34" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AJ34" t="n">
         <v>46</v>
@@ -5089,10 +5089,10 @@
         <v>330</v>
       </c>
       <c r="AN34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO34" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="35">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G35" t="n">
         <v>2.68</v>
@@ -5131,22 +5131,22 @@
         <v>3.35</v>
       </c>
       <c r="I35" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J35" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="K35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="M35" t="n">
         <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="O35" t="n">
         <v>1.58</v>
@@ -5170,7 +5170,7 @@
         <v>1.7</v>
       </c>
       <c r="V35" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W35" t="n">
         <v>1.6</v>
@@ -5182,7 +5182,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z35" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA35" t="n">
         <v>900</v>
@@ -5260,43 +5260,43 @@
         <v>1.7</v>
       </c>
       <c r="G36" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H36" t="n">
         <v>5.9</v>
       </c>
       <c r="I36" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J36" t="n">
         <v>3.55</v>
       </c>
       <c r="K36" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L36" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P36" t="n">
         <v>1.74</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R36" t="n">
         <v>1.28</v>
       </c>
       <c r="S36" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T36" t="n">
         <v>1.99</v>
@@ -5305,19 +5305,19 @@
         <v>1.81</v>
       </c>
       <c r="V36" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W36" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X36" t="n">
         <v>24</v>
       </c>
       <c r="Y36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z36" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
@@ -5335,7 +5335,7 @@
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AG36" t="n">
         <v>12.5</v>
@@ -5347,13 +5347,13 @@
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK36" t="n">
         <v>65</v>
       </c>
       <c r="AL36" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
@@ -5395,7 +5395,7 @@
         <v>1.47</v>
       </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H37" t="n">
         <v>4.3</v>
@@ -5404,10 +5404,10 @@
         <v>980</v>
       </c>
       <c r="J37" t="n">
-        <v>2.54</v>
+        <v>3.55</v>
       </c>
       <c r="K37" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5419,13 +5419,13 @@
         <v>1.11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="P37" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R37" t="n">
         <v>1.18</v>
@@ -5437,13 +5437,13 @@
         <v>1.97</v>
       </c>
       <c r="U37" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V37" t="n">
         <v>1.08</v>
       </c>
       <c r="W37" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5527,88 +5527,88 @@
         </is>
       </c>
       <c r="F38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S38" t="n">
         <v>3.6</v>
       </c>
-      <c r="G38" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O38" t="n">
+      <c r="T38" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W38" t="n">
         <v>1.33</v>
       </c>
-      <c r="P38" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.31</v>
-      </c>
       <c r="X38" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA38" t="n">
         <v>900</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC38" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD38" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH38" t="n">
         <v>46</v>
@@ -5665,10 +5665,10 @@
         <v>3.5</v>
       </c>
       <c r="G39" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H39" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="I39" t="n">
         <v>2.36</v>
@@ -5686,22 +5686,22 @@
         <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O39" t="n">
         <v>1.38</v>
       </c>
       <c r="P39" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R39" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S39" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T39" t="n">
         <v>1.85</v>
@@ -5710,16 +5710,16 @@
         <v>2.02</v>
       </c>
       <c r="V39" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W39" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X39" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z39" t="n">
         <v>17</v>
@@ -5731,7 +5731,7 @@
         <v>14.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD39" t="n">
         <v>13</v>
@@ -5746,7 +5746,7 @@
         <v>18</v>
       </c>
       <c r="AH39" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI39" t="n">
         <v>50</v>
@@ -5755,7 +5755,7 @@
         <v>85</v>
       </c>
       <c r="AK39" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AL39" t="n">
         <v>70</v>
@@ -5767,7 +5767,7 @@
         <v>600</v>
       </c>
       <c r="AO39" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
@@ -5800,13 +5800,13 @@
         <v>2.5</v>
       </c>
       <c r="G40" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H40" t="n">
         <v>3.55</v>
       </c>
       <c r="I40" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
@@ -5815,13 +5815,13 @@
         <v>3.05</v>
       </c>
       <c r="L40" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M40" t="n">
         <v>1.11</v>
       </c>
       <c r="N40" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O40" t="n">
         <v>1.45</v>
@@ -5830,13 +5830,13 @@
         <v>1.68</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R40" t="n">
         <v>1.25</v>
       </c>
       <c r="S40" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T40" t="n">
         <v>1.94</v>
@@ -5851,7 +5851,7 @@
         <v>1.64</v>
       </c>
       <c r="X40" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y40" t="n">
         <v>11.5</v>
@@ -5866,7 +5866,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC40" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD40" t="n">
         <v>15.5</v>
@@ -5881,7 +5881,7 @@
         <v>12</v>
       </c>
       <c r="AH40" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI40" t="n">
         <v>70</v>
@@ -5899,7 +5899,7 @@
         <v>150</v>
       </c>
       <c r="AN40" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AO40" t="n">
         <v>60</v>
@@ -5932,52 +5932,52 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G41" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H41" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I41" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J41" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K41" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L41" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M41" t="n">
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O41" t="n">
         <v>1.2</v>
       </c>
       <c r="P41" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R41" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S41" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T41" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U41" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V41" t="n">
         <v>1.15</v>
@@ -6025,7 +6025,7 @@
         <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AL41" t="n">
         <v>1000</v>
@@ -6034,7 +6034,7 @@
         <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO41" t="n">
         <v>1000</v>
@@ -6070,7 +6070,7 @@
         <v>3.8</v>
       </c>
       <c r="G42" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
         <v>2.06</v>
@@ -6082,16 +6082,16 @@
         <v>3.55</v>
       </c>
       <c r="K42" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L42" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="M42" t="n">
         <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O42" t="n">
         <v>1.28</v>
@@ -6100,13 +6100,13 @@
         <v>2.02</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="R42" t="n">
         <v>1.4</v>
       </c>
       <c r="S42" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="T42" t="n">
         <v>1.71</v>
@@ -6121,7 +6121,7 @@
         <v>1.33</v>
       </c>
       <c r="X42" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
         <v>20</v>
@@ -6145,7 +6145,7 @@
         <v>50</v>
       </c>
       <c r="AF42" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AG42" t="n">
         <v>19</v>
@@ -6220,25 +6220,25 @@
         <v>4.1</v>
       </c>
       <c r="L43" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O43" t="n">
         <v>1.22</v>
       </c>
       <c r="P43" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R43" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S43" t="n">
         <v>2.66</v>
@@ -6265,7 +6265,7 @@
         <v>21</v>
       </c>
       <c r="AA43" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AB43" t="n">
         <v>15.5</v>
@@ -6286,7 +6286,7 @@
         <v>13.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI43" t="n">
         <v>70</v>
@@ -6295,19 +6295,19 @@
         <v>240</v>
       </c>
       <c r="AK43" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AL43" t="n">
         <v>36</v>
       </c>
       <c r="AM43" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN43" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G44" t="n">
         <v>2.52</v>
@@ -6355,7 +6355,7 @@
         <v>3.25</v>
       </c>
       <c r="L44" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M44" t="n">
         <v>1.1</v>
@@ -6370,13 +6370,13 @@
         <v>1.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R44" t="n">
         <v>1.28</v>
       </c>
       <c r="S44" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T44" t="n">
         <v>1.92</v>
@@ -6442,7 +6442,7 @@
         <v>26</v>
       </c>
       <c r="AO44" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G45" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I45" t="n">
         <v>4</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4.1</v>
       </c>
       <c r="J45" t="n">
         <v>3.5</v>
@@ -6496,13 +6496,13 @@
         <v>1.09</v>
       </c>
       <c r="N45" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O45" t="n">
         <v>1.41</v>
       </c>
       <c r="P45" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q45" t="n">
         <v>2.24</v>
@@ -6514,22 +6514,22 @@
         <v>4.2</v>
       </c>
       <c r="T45" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U45" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V45" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W45" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="X45" t="n">
         <v>11.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z45" t="n">
         <v>28</v>
@@ -6538,16 +6538,16 @@
         <v>90</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC45" t="n">
         <v>7.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE45" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF45" t="n">
         <v>12</v>
@@ -6565,7 +6565,7 @@
         <v>26</v>
       </c>
       <c r="AK45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL45" t="n">
         <v>44</v>
@@ -6613,10 +6613,10 @@
         <v>2.14</v>
       </c>
       <c r="H46" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J46" t="n">
         <v>3.5</v>
@@ -6625,43 +6625,43 @@
         <v>3.7</v>
       </c>
       <c r="L46" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M46" t="n">
         <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O46" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P46" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R46" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S46" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T46" t="n">
         <v>1.82</v>
       </c>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V46" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W46" t="n">
         <v>1.87</v>
       </c>
       <c r="X46" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y46" t="n">
         <v>14.5</v>
@@ -6682,7 +6682,7 @@
         <v>17.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AF46" t="n">
         <v>13.5</v>
@@ -6700,19 +6700,19 @@
         <v>27</v>
       </c>
       <c r="AK46" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL46" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM46" t="n">
         <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47">
@@ -6742,13 +6742,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G47" t="n">
         <v>1.38</v>
       </c>
       <c r="H47" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I47" t="n">
         <v>9.800000000000001</v>
@@ -6760,7 +6760,7 @@
         <v>6.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -6772,34 +6772,34 @@
         <v>1.16</v>
       </c>
       <c r="P47" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R47" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S47" t="n">
         <v>2.3</v>
       </c>
       <c r="T47" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U47" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V47" t="n">
         <v>1.11</v>
       </c>
       <c r="W47" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="X47" t="n">
         <v>30</v>
       </c>
       <c r="Y47" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z47" t="n">
         <v>1000</v>
@@ -6811,16 +6811,16 @@
         <v>11.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD47" t="n">
         <v>34</v>
       </c>
       <c r="AE47" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF47" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG47" t="n">
         <v>10.5</v>
@@ -6829,7 +6829,7 @@
         <v>26</v>
       </c>
       <c r="AI47" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AJ47" t="n">
         <v>11.5</v>
@@ -6847,7 +6847,7 @@
         <v>4.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
     </row>
     <row r="48">
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="G48" t="n">
         <v>2.98</v>
       </c>
       <c r="H48" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I48" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
         <v>3.1</v>
       </c>
       <c r="K48" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -7012,64 +7012,64 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G49" t="n">
         <v>3.55</v>
       </c>
       <c r="H49" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I49" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J49" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K49" t="n">
         <v>3.5</v>
       </c>
       <c r="L49" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M49" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="O49" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="P49" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="R49" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="T49" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V49" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W49" t="n">
         <v>1.39</v>
       </c>
       <c r="X49" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z49" t="n">
         <v>26</v>
@@ -7078,13 +7078,13 @@
         <v>980</v>
       </c>
       <c r="AB49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD49" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE49" t="n">
         <v>65</v>
@@ -7114,7 +7114,7 @@
         <v>580</v>
       </c>
       <c r="AN49" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AO49" t="n">
         <v>55</v>
@@ -7147,112 +7147,112 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G50" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H50" t="n">
         <v>1.84</v>
       </c>
       <c r="I50" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="J50" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="K50" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L50" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M50" t="n">
         <v>1.02</v>
       </c>
       <c r="N50" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="O50" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="R50" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
-        <v>1.77</v>
+        <v>1.97</v>
       </c>
       <c r="T50" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="U50" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="V50" t="n">
         <v>2.16</v>
       </c>
       <c r="W50" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X50" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Y50" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AA50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB50" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AC50" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE50" t="n">
         <v>16</v>
       </c>
       <c r="AF50" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AG50" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH50" t="n">
         <v>14.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ50" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK50" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL50" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM50" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AN50" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="51">
@@ -7285,10 +7285,10 @@
         <v>6.8</v>
       </c>
       <c r="G51" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="I51" t="n">
         <v>1.65</v>
@@ -7300,7 +7300,7 @@
         <v>4.5</v>
       </c>
       <c r="L51" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
@@ -7315,7 +7315,7 @@
         <v>1.79</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R51" t="n">
         <v>1.29</v>
@@ -7324,7 +7324,7 @@
         <v>3.75</v>
       </c>
       <c r="T51" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U51" t="n">
         <v>1.75</v>
@@ -7333,40 +7333,40 @@
         <v>2.52</v>
       </c>
       <c r="W51" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X51" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="Y51" t="n">
-        <v>13.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z51" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AA51" t="n">
-        <v>17.5</v>
+        <v>50</v>
       </c>
       <c r="AB51" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AC51" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD51" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AF51" t="n">
         <v>150</v>
       </c>
       <c r="AG51" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AH51" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AI51" t="n">
         <v>980</v>
@@ -7387,7 +7387,7 @@
         <v>260</v>
       </c>
       <c r="AO51" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -7417,46 +7417,46 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G52" t="n">
         <v>2.18</v>
       </c>
       <c r="H52" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I52" t="n">
         <v>3.65</v>
       </c>
       <c r="J52" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K52" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L52" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O52" t="n">
         <v>1.18</v>
       </c>
       <c r="P52" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R52" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S52" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="T52" t="n">
         <v>1.57</v>
@@ -7474,7 +7474,7 @@
         <v>30</v>
       </c>
       <c r="Y52" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z52" t="n">
         <v>36</v>
@@ -7492,7 +7492,7 @@
         <v>18</v>
       </c>
       <c r="AE52" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF52" t="n">
         <v>20</v>
@@ -7513,13 +7513,13 @@
         <v>21</v>
       </c>
       <c r="AL52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM52" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN52" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO52" t="n">
         <v>28</v>
@@ -7561,70 +7561,70 @@
         <v>2.82</v>
       </c>
       <c r="I53" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J53" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
         <v>3.2</v>
       </c>
       <c r="L53" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="M53" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N53" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="O53" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P53" t="n">
         <v>1.6</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="R53" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S53" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="T53" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U53" t="n">
         <v>1.9</v>
       </c>
       <c r="V53" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W53" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X53" t="n">
         <v>11.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z53" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA53" t="n">
         <v>130</v>
       </c>
       <c r="AB53" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD53" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE53" t="n">
         <v>980</v>
@@ -7657,7 +7657,7 @@
         <v>980</v>
       </c>
       <c r="AO53" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54">
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G54" t="n">
         <v>3.55</v>
       </c>
-      <c r="G54" t="n">
-        <v>3.75</v>
-      </c>
       <c r="H54" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I54" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="J54" t="n">
         <v>3.3</v>
@@ -7705,43 +7705,43 @@
         <v>3.4</v>
       </c>
       <c r="L54" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N54" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O54" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P54" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R54" t="n">
         <v>1.26</v>
       </c>
       <c r="S54" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T54" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="U54" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V54" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="W54" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X54" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y54" t="n">
         <v>8.800000000000001</v>
@@ -7753,7 +7753,7 @@
         <v>34</v>
       </c>
       <c r="AB54" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC54" t="n">
         <v>7.4</v>
@@ -7765,7 +7765,7 @@
         <v>29</v>
       </c>
       <c r="AF54" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG54" t="n">
         <v>15</v>
@@ -7777,7 +7777,7 @@
         <v>48</v>
       </c>
       <c r="AJ54" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK54" t="n">
         <v>48</v>
@@ -7789,7 +7789,7 @@
         <v>120</v>
       </c>
       <c r="AN54" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AO54" t="n">
         <v>25</v>
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G55" t="n">
         <v>2.34</v>
       </c>
       <c r="H55" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J55" t="n">
         <v>3.2</v>
@@ -7840,28 +7840,28 @@
         <v>3.25</v>
       </c>
       <c r="L55" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M55" t="n">
         <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O55" t="n">
         <v>1.41</v>
       </c>
       <c r="P55" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R55" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T55" t="n">
         <v>1.88</v>
@@ -7879,25 +7879,25 @@
         <v>14</v>
       </c>
       <c r="Y55" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA55" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AB55" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC55" t="n">
         <v>8</v>
       </c>
       <c r="AD55" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF55" t="n">
         <v>14.5</v>
@@ -7909,19 +7909,19 @@
         <v>21</v>
       </c>
       <c r="AI55" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ55" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK55" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL55" t="n">
         <v>60</v>
       </c>
       <c r="AM55" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN55" t="n">
         <v>25</v>
@@ -7960,13 +7960,13 @@
         <v>3.1</v>
       </c>
       <c r="G56" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H56" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I56" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J56" t="n">
         <v>3.55</v>
@@ -7975,43 +7975,43 @@
         <v>3.7</v>
       </c>
       <c r="L56" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N56" t="n">
         <v>4.4</v>
       </c>
       <c r="O56" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P56" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="R56" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S56" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="T56" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="U56" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V56" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W56" t="n">
         <v>1.45</v>
       </c>
       <c r="X56" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y56" t="n">
         <v>13</v>
@@ -8023,10 +8023,10 @@
         <v>34</v>
       </c>
       <c r="AB56" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD56" t="n">
         <v>12</v>
@@ -8035,10 +8035,10 @@
         <v>25</v>
       </c>
       <c r="AF56" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG56" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH56" t="n">
         <v>16.5</v>
@@ -8047,7 +8047,7 @@
         <v>34</v>
       </c>
       <c r="AJ56" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AK56" t="n">
         <v>34</v>
@@ -8059,10 +8059,10 @@
         <v>200</v>
       </c>
       <c r="AN56" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO56" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -8092,49 +8092,49 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G57" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H57" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J57" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K57" t="n">
         <v>3.8</v>
       </c>
       <c r="L57" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="M57" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N57" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O57" t="n">
         <v>1.21</v>
       </c>
       <c r="P57" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R57" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T57" t="n">
         <v>1.56</v>
-      </c>
-      <c r="S57" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1.57</v>
       </c>
       <c r="U57" t="n">
         <v>2.6</v>
@@ -8143,31 +8143,31 @@
         <v>1.47</v>
       </c>
       <c r="W57" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X57" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y57" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z57" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA57" t="n">
-        <v>290</v>
+        <v>980</v>
       </c>
       <c r="AB57" t="n">
         <v>15.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD57" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE57" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AF57" t="n">
         <v>20</v>
@@ -8176,13 +8176,13 @@
         <v>13</v>
       </c>
       <c r="AH57" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI57" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AJ57" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AK57" t="n">
         <v>25</v>
@@ -8191,13 +8191,13 @@
         <v>60</v>
       </c>
       <c r="AM57" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN57" t="n">
         <v>15</v>
       </c>
       <c r="AO57" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G58" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H58" t="n">
         <v>1.86</v>
@@ -8242,7 +8242,7 @@
         <v>4.1</v>
       </c>
       <c r="K58" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L58" t="n">
         <v>1.31</v>
@@ -8251,28 +8251,28 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O58" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P58" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q58" t="n">
         <v>1.65</v>
       </c>
       <c r="R58" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S58" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T58" t="n">
         <v>1.63</v>
       </c>
       <c r="U58" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="V58" t="n">
         <v>2.1</v>
@@ -8311,13 +8311,13 @@
         <v>18</v>
       </c>
       <c r="AH58" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI58" t="n">
         <v>28</v>
       </c>
       <c r="AJ58" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK58" t="n">
         <v>48</v>
@@ -8326,7 +8326,7 @@
         <v>48</v>
       </c>
       <c r="AM58" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AN58" t="n">
         <v>38</v>
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="G59" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I59" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="J59" t="n">
         <v>3.75</v>
@@ -8380,55 +8380,55 @@
         <v>3.8</v>
       </c>
       <c r="L59" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M59" t="n">
         <v>1.04</v>
       </c>
       <c r="N59" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O59" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P59" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R59" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="S59" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T59" t="n">
         <v>1.58</v>
       </c>
       <c r="U59" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="V59" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W59" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X59" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y59" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AA59" t="n">
         <v>36</v>
       </c>
       <c r="AB59" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC59" t="n">
         <v>8.800000000000001</v>
@@ -8440,31 +8440,31 @@
         <v>23</v>
       </c>
       <c r="AF59" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG59" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AI59" t="n">
         <v>30</v>
       </c>
       <c r="AJ59" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK59" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL59" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM59" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN59" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO59" t="n">
         <v>14</v>
@@ -8500,64 +8500,64 @@
         <v>2.26</v>
       </c>
       <c r="G60" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I60" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="J60" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K60" t="n">
         <v>4</v>
       </c>
       <c r="L60" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O60" t="n">
         <v>1.32</v>
       </c>
       <c r="P60" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R60" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S60" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T60" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U60" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V60" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W60" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X60" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Y60" t="n">
         <v>13.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA60" t="n">
         <v>900</v>
@@ -8566,31 +8566,31 @@
         <v>10.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD60" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE60" t="n">
         <v>980</v>
       </c>
       <c r="AF60" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AI60" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AJ60" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="AK60" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AL60" t="n">
         <v>980</v>
@@ -8599,7 +8599,7 @@
         <v>1000</v>
       </c>
       <c r="AN60" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AO60" t="n">
         <v>1000</v>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G61" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="H61" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I61" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J61" t="n">
         <v>3.15</v>
@@ -8650,46 +8650,46 @@
         <v>3.35</v>
       </c>
       <c r="L61" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M61" t="n">
         <v>1.1</v>
       </c>
       <c r="N61" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="O61" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P61" t="n">
         <v>1.61</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R61" t="n">
         <v>1.22</v>
       </c>
       <c r="S61" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T61" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="U61" t="n">
         <v>1.84</v>
       </c>
       <c r="V61" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W61" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X61" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y61" t="n">
         <v>11</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>11.5</v>
       </c>
       <c r="Z61" t="n">
         <v>25</v>
@@ -8698,10 +8698,10 @@
         <v>500</v>
       </c>
       <c r="AB61" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC61" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD61" t="n">
         <v>16</v>
@@ -8710,7 +8710,7 @@
         <v>55</v>
       </c>
       <c r="AF61" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG61" t="n">
         <v>12.5</v>
@@ -8722,7 +8722,7 @@
         <v>380</v>
       </c>
       <c r="AJ61" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK61" t="n">
         <v>34</v>
@@ -8737,7 +8737,7 @@
         <v>32</v>
       </c>
       <c r="AO61" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62">
@@ -8770,13 +8770,13 @@
         <v>2.18</v>
       </c>
       <c r="G62" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H62" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I62" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J62" t="n">
         <v>3.55</v>
@@ -8785,7 +8785,7 @@
         <v>3.8</v>
       </c>
       <c r="L62" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
@@ -8797,31 +8797,31 @@
         <v>1.28</v>
       </c>
       <c r="P62" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R62" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S62" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T62" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U62" t="n">
         <v>2.2</v>
       </c>
       <c r="V62" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W62" t="n">
         <v>1.76</v>
       </c>
       <c r="X62" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Y62" t="n">
         <v>26</v>
@@ -8845,7 +8845,7 @@
         <v>980</v>
       </c>
       <c r="AF62" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AG62" t="n">
         <v>11.5</v>
@@ -8902,10 +8902,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G63" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H63" t="n">
         <v>3.4</v>
@@ -8914,49 +8914,49 @@
         <v>3.8</v>
       </c>
       <c r="J63" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K63" t="n">
         <v>3.95</v>
       </c>
       <c r="L63" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M63" t="n">
         <v>1.04</v>
       </c>
       <c r="N63" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O63" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P63" t="n">
         <v>2.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R63" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S63" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="T63" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U63" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V63" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W63" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X63" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y63" t="n">
         <v>34</v>
@@ -8974,13 +8974,13 @@
         <v>11</v>
       </c>
       <c r="AD63" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AE63" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF63" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG63" t="n">
         <v>12</v>
@@ -8992,10 +8992,10 @@
         <v>980</v>
       </c>
       <c r="AJ63" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AK63" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL63" t="n">
         <v>1000</v>
@@ -9004,7 +9004,7 @@
         <v>1000</v>
       </c>
       <c r="AN63" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO63" t="n">
         <v>1000</v>
@@ -9040,13 +9040,13 @@
         <v>2.8</v>
       </c>
       <c r="G64" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I64" t="n">
         <v>2.88</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2.9</v>
       </c>
       <c r="J64" t="n">
         <v>3.35</v>
@@ -9061,31 +9061,31 @@
         <v>1.08</v>
       </c>
       <c r="N64" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="O64" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P64" t="n">
         <v>1.94</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R64" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S64" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T64" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U64" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V64" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W64" t="n">
         <v>1.53</v>
@@ -9100,13 +9100,13 @@
         <v>19.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="AB64" t="n">
         <v>12</v>
       </c>
       <c r="AC64" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD64" t="n">
         <v>12.5</v>
@@ -9115,7 +9115,7 @@
         <v>32</v>
       </c>
       <c r="AF64" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG64" t="n">
         <v>12.5</v>
@@ -9127,7 +9127,7 @@
         <v>44</v>
       </c>
       <c r="AJ64" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="n">
         <v>32</v>
@@ -9139,10 +9139,10 @@
         <v>380</v>
       </c>
       <c r="AN64" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO64" t="n">
         <v>28</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="65">
@@ -9172,16 +9172,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I65" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.55</v>
       </c>
       <c r="J65" t="n">
         <v>3.8</v>
@@ -9190,19 +9190,19 @@
         <v>3.85</v>
       </c>
       <c r="L65" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M65" t="n">
         <v>1.05</v>
       </c>
       <c r="N65" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O65" t="n">
         <v>1.22</v>
       </c>
       <c r="P65" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q65" t="n">
         <v>1.66</v>
@@ -9211,19 +9211,19 @@
         <v>1.59</v>
       </c>
       <c r="S65" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T65" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U65" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V65" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W65" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X65" t="n">
         <v>20</v>
@@ -9235,22 +9235,22 @@
         <v>28</v>
       </c>
       <c r="AA65" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB65" t="n">
         <v>13</v>
       </c>
       <c r="AC65" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD65" t="n">
         <v>14.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF65" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG65" t="n">
         <v>10.5</v>
@@ -9259,13 +9259,13 @@
         <v>14</v>
       </c>
       <c r="AI65" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ65" t="n">
         <v>28</v>
       </c>
       <c r="AK65" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL65" t="n">
         <v>26</v>
@@ -9277,7 +9277,7 @@
         <v>11.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
@@ -9310,7 +9310,7 @@
         <v>20</v>
       </c>
       <c r="G66" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H66" t="n">
         <v>1.16</v>
@@ -9322,73 +9322,73 @@
         <v>10.5</v>
       </c>
       <c r="K66" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="L66" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O66" t="n">
         <v>1.09</v>
       </c>
       <c r="P66" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="R66" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="S66" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="T66" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="U66" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V66" t="n">
         <v>6.8</v>
       </c>
       <c r="W66" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="X66" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Y66" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Z66" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA66" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB66" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AC66" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD66" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE66" t="n">
         <v>13.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AG66" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AH66" t="n">
         <v>40</v>
@@ -9400,19 +9400,19 @@
         <v>1000</v>
       </c>
       <c r="AK66" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AL66" t="n">
-        <v>460</v>
+        <v>170</v>
       </c>
       <c r="AM66" t="n">
         <v>150</v>
       </c>
       <c r="AN66" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AO66" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="67">
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G67" t="n">
         <v>2.16</v>
@@ -9460,31 +9460,31 @@
         <v>3.85</v>
       </c>
       <c r="L67" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M67" t="n">
         <v>1.06</v>
       </c>
       <c r="N67" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="O67" t="n">
         <v>1.3</v>
       </c>
       <c r="P67" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R67" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S67" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T67" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U67" t="n">
         <v>2.1</v>
@@ -9493,7 +9493,7 @@
         <v>1.33</v>
       </c>
       <c r="W67" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X67" t="n">
         <v>15.5</v>
@@ -9508,7 +9508,7 @@
         <v>1000</v>
       </c>
       <c r="AB67" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC67" t="n">
         <v>8.6</v>
@@ -9520,7 +9520,7 @@
         <v>1000</v>
       </c>
       <c r="AF67" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG67" t="n">
         <v>11.5</v>
@@ -9532,7 +9532,7 @@
         <v>150</v>
       </c>
       <c r="AJ67" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AK67" t="n">
         <v>24</v>
@@ -9577,16 +9577,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="G68" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="H68" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I68" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
         <v>3.4</v>
@@ -9595,46 +9595,46 @@
         <v>3.55</v>
       </c>
       <c r="L68" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="M68" t="n">
         <v>1.11</v>
       </c>
       <c r="N68" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="O68" t="n">
         <v>1.52</v>
       </c>
       <c r="P68" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="R68" t="n">
         <v>1.18</v>
       </c>
       <c r="S68" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="T68" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U68" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V68" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W68" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="X68" t="n">
         <v>10</v>
       </c>
       <c r="Y68" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z68" t="n">
         <v>36</v>
@@ -9643,7 +9643,7 @@
         <v>900</v>
       </c>
       <c r="AB68" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC68" t="n">
         <v>8.4</v>
@@ -9652,37 +9652,37 @@
         <v>21</v>
       </c>
       <c r="AE68" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="AF68" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG68" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI68" t="n">
         <v>120</v>
       </c>
       <c r="AJ68" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK68" t="n">
         <v>29</v>
       </c>
-      <c r="AK68" t="n">
-        <v>32</v>
-      </c>
       <c r="AL68" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AM68" t="n">
         <v>270</v>
       </c>
       <c r="AN68" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO68" t="n">
-        <v>210</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69">
@@ -9712,40 +9712,40 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G69" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H69" t="n">
         <v>2.84</v>
       </c>
       <c r="I69" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J69" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="K69" t="n">
         <v>3.15</v>
       </c>
       <c r="L69" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="M69" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N69" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="O69" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P69" t="n">
         <v>1.44</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="R69" t="n">
         <v>1.18</v>
@@ -9760,10 +9760,10 @@
         <v>1.69</v>
       </c>
       <c r="V69" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W69" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X69" t="n">
         <v>7.8</v>
@@ -9814,10 +9814,10 @@
         <v>270</v>
       </c>
       <c r="AN69" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="AO69" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70">
@@ -9847,67 +9847,67 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="G70" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="H70" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I70" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="J70" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K70" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L70" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="M70" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N70" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O70" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P70" t="n">
         <v>1.6</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="R70" t="n">
         <v>1.22</v>
       </c>
       <c r="S70" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T70" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U70" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V70" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="W70" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="X70" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA70" t="n">
         <v>900</v>
@@ -9916,28 +9916,28 @@
         <v>8.6</v>
       </c>
       <c r="AC70" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD70" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE70" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF70" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG70" t="n">
         <v>12.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI70" t="n">
         <v>190</v>
       </c>
       <c r="AJ70" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AK70" t="n">
         <v>32</v>
@@ -9946,13 +9946,13 @@
         <v>55</v>
       </c>
       <c r="AM70" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN70" t="n">
-        <v>32</v>
+        <v>600</v>
       </c>
       <c r="AO70" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71">
@@ -9982,58 +9982,58 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G71" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H71" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I71" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J71" t="n">
         <v>3.05</v>
       </c>
       <c r="K71" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L71" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M71" t="n">
         <v>1.1</v>
       </c>
       <c r="N71" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="O71" t="n">
         <v>1.43</v>
       </c>
       <c r="P71" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R71" t="n">
         <v>1.23</v>
       </c>
       <c r="S71" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T71" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U71" t="n">
         <v>1.86</v>
       </c>
       <c r="V71" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W71" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="X71" t="n">
         <v>11</v>
@@ -10048,10 +10048,10 @@
         <v>110</v>
       </c>
       <c r="AB71" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC71" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD71" t="n">
         <v>20</v>
@@ -10060,7 +10060,7 @@
         <v>70</v>
       </c>
       <c r="AF71" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG71" t="n">
         <v>14</v>
@@ -10072,10 +10072,10 @@
         <v>90</v>
       </c>
       <c r="AJ71" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK71" t="n">
         <v>34</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>36</v>
       </c>
       <c r="AL71" t="n">
         <v>55</v>
@@ -10084,10 +10084,10 @@
         <v>500</v>
       </c>
       <c r="AN71" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AO71" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
     </row>
     <row r="72">
@@ -10117,40 +10117,40 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G72" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H72" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I72" t="n">
         <v>3.9</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K72" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L72" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M72" t="n">
         <v>1.09</v>
       </c>
       <c r="N72" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="O72" t="n">
         <v>1.39</v>
       </c>
       <c r="P72" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R72" t="n">
         <v>1.26</v>
@@ -10159,16 +10159,16 @@
         <v>4</v>
       </c>
       <c r="T72" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U72" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V72" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W72" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X72" t="n">
         <v>17</v>
@@ -10183,7 +10183,7 @@
         <v>900</v>
       </c>
       <c r="AB72" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AC72" t="n">
         <v>14</v>
@@ -10195,10 +10195,10 @@
         <v>240</v>
       </c>
       <c r="AF72" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AG72" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH72" t="n">
         <v>60</v>
@@ -10213,16 +10213,16 @@
         <v>980</v>
       </c>
       <c r="AL72" t="n">
-        <v>290</v>
+        <v>980</v>
       </c>
       <c r="AM72" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN72" t="n">
         <v>980</v>
       </c>
       <c r="AO72" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
     </row>
     <row r="73">
@@ -10252,10 +10252,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G73" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H73" t="n">
         <v>3.9</v>
@@ -10270,31 +10270,31 @@
         <v>3.25</v>
       </c>
       <c r="L73" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M73" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N73" t="n">
         <v>3.2</v>
       </c>
       <c r="O73" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P73" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="R73" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S73" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T73" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="U73" t="n">
         <v>1.98</v>
@@ -10303,10 +10303,10 @@
         <v>1.33</v>
       </c>
       <c r="W73" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y73" t="n">
         <v>12.5</v>
@@ -10324,7 +10324,7 @@
         <v>7.2</v>
       </c>
       <c r="AD73" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE73" t="n">
         <v>55</v>
@@ -10354,10 +10354,10 @@
         <v>130</v>
       </c>
       <c r="AN73" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO73" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74">
@@ -10387,13 +10387,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="G74" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H74" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="I74" t="n">
         <v>15.5</v>
@@ -10402,7 +10402,7 @@
         <v>7.8</v>
       </c>
       <c r="K74" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L74" t="n">
         <v>1.21</v>
@@ -10411,34 +10411,34 @@
         <v>1.02</v>
       </c>
       <c r="N74" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="O74" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P74" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="R74" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="S74" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T74" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U74" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="V74" t="n">
         <v>1.07</v>
       </c>
       <c r="W74" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="X74" t="n">
         <v>980</v>
@@ -10450,10 +10450,10 @@
         <v>160</v>
       </c>
       <c r="AA74" t="n">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="AB74" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC74" t="n">
         <v>20</v>
@@ -10462,10 +10462,10 @@
         <v>980</v>
       </c>
       <c r="AE74" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF74" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG74" t="n">
         <v>12</v>
@@ -10489,10 +10489,10 @@
         <v>390</v>
       </c>
       <c r="AN74" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO74" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75">
@@ -10525,28 +10525,28 @@
         <v>5.1</v>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H75" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I75" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J75" t="n">
         <v>3.5</v>
       </c>
       <c r="K75" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L75" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M75" t="n">
         <v>1.09</v>
       </c>
       <c r="N75" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O75" t="n">
         <v>1.39</v>
@@ -10555,16 +10555,16 @@
         <v>1.71</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R75" t="n">
         <v>1.26</v>
       </c>
       <c r="S75" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T75" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U75" t="n">
         <v>1.84</v>
@@ -10573,40 +10573,40 @@
         <v>2.12</v>
       </c>
       <c r="W75" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X75" t="n">
         <v>14</v>
       </c>
       <c r="Y75" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z75" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA75" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB75" t="n">
         <v>18.5</v>
       </c>
       <c r="AC75" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD75" t="n">
         <v>11</v>
       </c>
       <c r="AE75" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF75" t="n">
         <v>48</v>
       </c>
       <c r="AG75" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH75" t="n">
         <v>26</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>27</v>
       </c>
       <c r="AI75" t="n">
         <v>55</v>
@@ -10627,7 +10627,7 @@
         <v>310</v>
       </c>
       <c r="AO75" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="76">
@@ -10666,7 +10666,7 @@
         <v>4.5</v>
       </c>
       <c r="I76" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
         <v>3.5</v>
@@ -10675,34 +10675,34 @@
         <v>3.75</v>
       </c>
       <c r="L76" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="M76" t="n">
         <v>1.08</v>
       </c>
       <c r="N76" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O76" t="n">
         <v>1.38</v>
       </c>
       <c r="P76" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R76" t="n">
         <v>1.27</v>
       </c>
       <c r="S76" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T76" t="n">
         <v>1.95</v>
       </c>
       <c r="U76" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V76" t="n">
         <v>1.26</v>
@@ -10810,34 +10810,34 @@
         <v>3.35</v>
       </c>
       <c r="L77" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M77" t="n">
         <v>1.09</v>
       </c>
       <c r="N77" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O77" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P77" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R77" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S77" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T77" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U77" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V77" t="n">
         <v>1.37</v>
@@ -10846,7 +10846,7 @@
         <v>1.72</v>
       </c>
       <c r="X77" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y77" t="n">
         <v>12</v>
@@ -10858,16 +10858,16 @@
         <v>70</v>
       </c>
       <c r="AB77" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC77" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD77" t="n">
         <v>14.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF77" t="n">
         <v>14</v>
@@ -10894,10 +10894,10 @@
         <v>120</v>
       </c>
       <c r="AN77" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO77" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78">
@@ -10927,13 +10927,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="G78" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H78" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I78" t="n">
         <v>4.7</v>
@@ -10942,25 +10942,25 @@
         <v>3.55</v>
       </c>
       <c r="K78" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L78" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M78" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N78" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O78" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P78" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R78" t="n">
         <v>1.28</v>
@@ -10969,19 +10969,19 @@
         <v>4.2</v>
       </c>
       <c r="T78" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="U78" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V78" t="n">
         <v>1.27</v>
       </c>
       <c r="W78" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X78" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y78" t="n">
         <v>15</v>
@@ -10990,10 +10990,10 @@
         <v>32</v>
       </c>
       <c r="AA78" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB78" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC78" t="n">
         <v>7.8</v>
@@ -11002,13 +11002,13 @@
         <v>19</v>
       </c>
       <c r="AE78" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF78" t="n">
         <v>11.5</v>
       </c>
       <c r="AG78" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH78" t="n">
         <v>21</v>
@@ -11017,19 +11017,19 @@
         <v>80</v>
       </c>
       <c r="AJ78" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK78" t="n">
         <v>24</v>
       </c>
       <c r="AL78" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM78" t="n">
         <v>140</v>
       </c>
       <c r="AN78" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO78" t="n">
         <v>85</v>
@@ -11062,10 +11062,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G79" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H79" t="n">
         <v>3.35</v>
@@ -11074,52 +11074,52 @@
         <v>3.45</v>
       </c>
       <c r="J79" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K79" t="n">
         <v>3.25</v>
       </c>
       <c r="L79" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M79" t="n">
         <v>1.11</v>
       </c>
       <c r="N79" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O79" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P79" t="n">
         <v>1.64</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R79" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S79" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="T79" t="n">
         <v>2.06</v>
       </c>
       <c r="U79" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V79" t="n">
         <v>1.4</v>
       </c>
       <c r="W79" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X79" t="n">
         <v>9.4</v>
       </c>
       <c r="Y79" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z79" t="n">
         <v>22</v>
@@ -11158,13 +11158,13 @@
         <v>32</v>
       </c>
       <c r="AL79" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM79" t="n">
         <v>150</v>
       </c>
       <c r="AN79" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO79" t="n">
         <v>60</v>
@@ -11212,25 +11212,25 @@
         <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L80" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="M80" t="n">
         <v>1.15</v>
       </c>
       <c r="N80" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="O80" t="n">
         <v>1.66</v>
       </c>
       <c r="P80" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="R80" t="n">
         <v>1.16</v>
@@ -11242,7 +11242,7 @@
         <v>2.4</v>
       </c>
       <c r="U80" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V80" t="n">
         <v>1.31</v>
@@ -11251,16 +11251,16 @@
         <v>1.74</v>
       </c>
       <c r="X80" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="Y80" t="n">
         <v>10.5</v>
       </c>
       <c r="Z80" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA80" t="n">
         <v>110</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>140</v>
       </c>
       <c r="AB80" t="n">
         <v>6.4</v>
@@ -11269,40 +11269,40 @@
         <v>7.4</v>
       </c>
       <c r="AD80" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK80" t="n">
         <v>36</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>140</v>
       </c>
       <c r="AL80" t="n">
         <v>460</v>
       </c>
       <c r="AM80" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="AN80" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AO80" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81">
@@ -11332,16 +11332,16 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G81" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H81" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I81" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J81" t="n">
         <v>3.35</v>
@@ -11350,46 +11350,46 @@
         <v>3.4</v>
       </c>
       <c r="L81" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M81" t="n">
         <v>1.09</v>
       </c>
       <c r="N81" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O81" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P81" t="n">
         <v>1.81</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R81" t="n">
         <v>1.31</v>
       </c>
       <c r="S81" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T81" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U81" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V81" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W81" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="X81" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z81" t="n">
         <v>30</v>
@@ -11398,7 +11398,7 @@
         <v>100</v>
       </c>
       <c r="AB81" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC81" t="n">
         <v>7.8</v>
@@ -11407,7 +11407,7 @@
         <v>17</v>
       </c>
       <c r="AE81" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF81" t="n">
         <v>12</v>
@@ -11416,13 +11416,13 @@
         <v>11</v>
       </c>
       <c r="AH81" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI81" t="n">
         <v>70</v>
       </c>
       <c r="AJ81" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK81" t="n">
         <v>24</v>
@@ -11431,13 +11431,13 @@
         <v>42</v>
       </c>
       <c r="AM81" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN81" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO81" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82">
@@ -11467,16 +11467,16 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G82" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H82" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I82" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J82" t="n">
         <v>3.2</v>
@@ -11485,43 +11485,43 @@
         <v>3.3</v>
       </c>
       <c r="L82" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M82" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N82" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O82" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P82" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R82" t="n">
         <v>1.25</v>
       </c>
       <c r="S82" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T82" t="n">
         <v>2.02</v>
       </c>
       <c r="U82" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V82" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W82" t="n">
         <v>1.74</v>
       </c>
       <c r="X82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y82" t="n">
         <v>12</v>
@@ -11533,7 +11533,7 @@
         <v>80</v>
       </c>
       <c r="AB82" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC82" t="n">
         <v>7.2</v>
@@ -11545,10 +11545,10 @@
         <v>55</v>
       </c>
       <c r="AF82" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG82" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH82" t="n">
         <v>22</v>
@@ -11572,7 +11572,7 @@
         <v>27</v>
       </c>
       <c r="AO82" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83">
@@ -11602,22 +11602,22 @@
         </is>
       </c>
       <c r="F83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J83" t="n">
         <v>3.2</v>
       </c>
-      <c r="G83" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J83" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K83" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="L83" t="n">
         <v>1.46</v>
@@ -11626,34 +11626,34 @@
         <v>1.09</v>
       </c>
       <c r="N83" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O83" t="n">
         <v>1.38</v>
       </c>
       <c r="P83" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R83" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S83" t="n">
         <v>3.9</v>
       </c>
       <c r="T83" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="U83" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V83" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W83" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X83" t="n">
         <v>12.5</v>
@@ -11662,7 +11662,7 @@
         <v>10</v>
       </c>
       <c r="Z83" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AA83" t="n">
         <v>900</v>
@@ -11680,7 +11680,7 @@
         <v>980</v>
       </c>
       <c r="AF83" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AG83" t="n">
         <v>27</v>
@@ -11692,7 +11692,7 @@
         <v>980</v>
       </c>
       <c r="AJ83" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="AK83" t="n">
         <v>980</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G84" t="n">
         <v>2.1</v>
@@ -11749,34 +11749,34 @@
         <v>4.9</v>
       </c>
       <c r="J84" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K84" t="n">
         <v>3.55</v>
       </c>
       <c r="L84" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M84" t="n">
         <v>1.09</v>
       </c>
       <c r="N84" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O84" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P84" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R84" t="n">
         <v>1.29</v>
       </c>
       <c r="S84" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T84" t="n">
         <v>1.88</v>
@@ -11818,7 +11818,7 @@
         <v>15</v>
       </c>
       <c r="AG84" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH84" t="n">
         <v>24</v>
@@ -11836,7 +11836,7 @@
         <v>50</v>
       </c>
       <c r="AM84" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN84" t="n">
         <v>23</v>
@@ -11872,25 +11872,25 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G85" t="n">
         <v>4.9</v>
       </c>
       <c r="H85" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="I85" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="J85" t="n">
         <v>4.4</v>
       </c>
       <c r="K85" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L85" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="M85" t="n">
         <v>1.02</v>
@@ -11905,25 +11905,25 @@
         <v>3.1</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="R85" t="n">
         <v>1.88</v>
       </c>
       <c r="S85" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="T85" t="n">
         <v>1.48</v>
       </c>
       <c r="U85" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="V85" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="W85" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X85" t="n">
         <v>95</v>
@@ -11935,13 +11935,13 @@
         <v>17</v>
       </c>
       <c r="AA85" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB85" t="n">
         <v>980</v>
       </c>
       <c r="AC85" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD85" t="n">
         <v>12</v>
@@ -11953,7 +11953,7 @@
         <v>980</v>
       </c>
       <c r="AG85" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH85" t="n">
         <v>16</v>
@@ -11965,7 +11965,7 @@
         <v>110</v>
       </c>
       <c r="AK85" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL85" t="n">
         <v>40</v>
@@ -12007,13 +12007,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G86" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H86" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I86" t="n">
         <v>2.82</v>
@@ -12022,31 +12022,31 @@
         <v>3.5</v>
       </c>
       <c r="K86" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L86" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="M86" t="n">
         <v>1.06</v>
       </c>
       <c r="N86" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O86" t="n">
         <v>1.27</v>
       </c>
       <c r="P86" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R86" t="n">
         <v>1.43</v>
       </c>
       <c r="S86" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="T86" t="n">
         <v>1.7</v>
@@ -12142,109 +12142,109 @@
         </is>
       </c>
       <c r="F87" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G87" t="n">
         <v>1.17</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1.18</v>
       </c>
       <c r="H87" t="n">
         <v>22</v>
       </c>
       <c r="I87" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J87" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="K87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L87" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M87" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N87" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U87" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V87" t="n">
         <v>1.03</v>
       </c>
-      <c r="N87" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O87" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P87" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R87" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S87" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T87" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U87" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V87" t="n">
-        <v>1.04</v>
-      </c>
       <c r="W87" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="X87" t="n">
         <v>980</v>
       </c>
       <c r="Y87" t="n">
-        <v>65</v>
+        <v>340</v>
       </c>
       <c r="Z87" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AA87" t="n">
         <v>1000</v>
       </c>
       <c r="AB87" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC87" t="n">
         <v>980</v>
       </c>
       <c r="AD87" t="n">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="AE87" t="n">
         <v>1000</v>
       </c>
       <c r="AF87" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG87" t="n">
         <v>1000</v>
       </c>
       <c r="AH87" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AI87" t="n">
         <v>1000</v>
       </c>
       <c r="AJ87" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AK87" t="n">
         <v>1000</v>
       </c>
       <c r="AL87" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="AM87" t="n">
         <v>1000</v>
       </c>
       <c r="AN87" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AO87" t="n">
         <v>1000</v>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G88" t="n">
         <v>2.02</v>
@@ -12307,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="Q88" t="n">
         <v>1.91</v>
@@ -12412,46 +12412,46 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G89" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H89" t="n">
         <v>3.1</v>
       </c>
       <c r="I89" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J89" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K89" t="n">
         <v>3.6</v>
       </c>
       <c r="L89" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M89" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N89" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O89" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P89" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R89" t="n">
         <v>1.27</v>
       </c>
       <c r="S89" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T89" t="n">
         <v>1.83</v>
@@ -12460,13 +12460,13 @@
         <v>1.99</v>
       </c>
       <c r="V89" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W89" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="X89" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y89" t="n">
         <v>13.5</v>
@@ -12511,13 +12511,13 @@
         <v>55</v>
       </c>
       <c r="AM89" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN89" t="n">
         <v>32</v>
       </c>
       <c r="AO89" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
     </row>
     <row r="90">
@@ -12565,46 +12565,46 @@
         <v>3.55</v>
       </c>
       <c r="L90" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M90" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N90" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O90" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P90" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="R90" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="S90" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="T90" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V90" t="n">
         <v>1.92</v>
-      </c>
-      <c r="U90" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V90" t="n">
-        <v>1.93</v>
       </c>
       <c r="W90" t="n">
         <v>1.29</v>
       </c>
       <c r="X90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y90" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z90" t="n">
         <v>12</v>
@@ -12613,46 +12613,46 @@
         <v>24</v>
       </c>
       <c r="AB90" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC90" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD90" t="n">
         <v>10.5</v>
       </c>
       <c r="AE90" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF90" t="n">
         <v>30</v>
       </c>
       <c r="AG90" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI90" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AJ90" t="n">
         <v>95</v>
       </c>
       <c r="AK90" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL90" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM90" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN90" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AO90" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="91">
@@ -12685,7 +12685,7 @@
         <v>1.77</v>
       </c>
       <c r="G91" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="H91" t="n">
         <v>6.2</v>
@@ -12700,34 +12700,34 @@
         <v>3.65</v>
       </c>
       <c r="L91" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M91" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N91" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="O91" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="P91" t="n">
         <v>1.61</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="R91" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S91" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T91" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="U91" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V91" t="n">
         <v>1.18</v>
@@ -12736,7 +12736,7 @@
         <v>2.26</v>
       </c>
       <c r="X91" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y91" t="n">
         <v>15</v>
@@ -12748,7 +12748,7 @@
         <v>230</v>
       </c>
       <c r="AB91" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC91" t="n">
         <v>8.199999999999999</v>
@@ -12766,7 +12766,7 @@
         <v>11</v>
       </c>
       <c r="AH91" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI91" t="n">
         <v>150</v>
@@ -12781,10 +12781,10 @@
         <v>60</v>
       </c>
       <c r="AM91" t="n">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="AN91" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO91" t="n">
         <v>240</v>
@@ -12817,16 +12817,16 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="G92" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="H92" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I92" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="J92" t="n">
         <v>3.45</v>
@@ -12835,10 +12835,10 @@
         <v>3.55</v>
       </c>
       <c r="L92" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M92" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N92" t="n">
         <v>3.7</v>
@@ -12847,16 +12847,16 @@
         <v>1.34</v>
       </c>
       <c r="P92" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R92" t="n">
         <v>1.35</v>
       </c>
       <c r="S92" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T92" t="n">
         <v>1.81</v>
@@ -12865,64 +12865,64 @@
         <v>2.14</v>
       </c>
       <c r="V92" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="W92" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="X92" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB92" t="n">
         <v>14</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>13</v>
       </c>
       <c r="AC92" t="n">
         <v>7.6</v>
       </c>
       <c r="AD92" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE92" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AF92" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG92" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH92" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI92" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ92" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK92" t="n">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AL92" t="n">
         <v>55</v>
       </c>
       <c r="AM92" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN92" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AO92" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
@@ -12970,55 +12970,55 @@
         <v>3.55</v>
       </c>
       <c r="L93" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M93" t="n">
         <v>1.11</v>
       </c>
       <c r="N93" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O93" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P93" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R93" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S93" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T93" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U93" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="V93" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W93" t="n">
         <v>2.12</v>
       </c>
       <c r="X93" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="Y93" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z93" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AA93" t="n">
         <v>200</v>
       </c>
       <c r="AB93" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC93" t="n">
         <v>8</v>
@@ -13051,7 +13051,7 @@
         <v>55</v>
       </c>
       <c r="AM93" t="n">
-        <v>240</v>
+        <v>580</v>
       </c>
       <c r="AN93" t="n">
         <v>19.5</v>
@@ -13087,37 +13087,37 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G94" t="n">
         <v>5.3</v>
       </c>
       <c r="H94" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="I94" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="J94" t="n">
         <v>3.15</v>
       </c>
       <c r="K94" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L94" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M94" t="n">
         <v>1.09</v>
       </c>
       <c r="N94" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="O94" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P94" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Q94" t="n">
         <v>2.2</v>
@@ -13126,16 +13126,16 @@
         <v>1.24</v>
       </c>
       <c r="S94" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T94" t="n">
         <v>1.98</v>
       </c>
       <c r="U94" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V94" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="W94" t="n">
         <v>1.23</v>
@@ -13222,58 +13222,58 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G95" t="n">
         <v>1.72</v>
       </c>
       <c r="H95" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I95" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J95" t="n">
         <v>4</v>
       </c>
       <c r="K95" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L95" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M95" t="n">
         <v>1.05</v>
       </c>
       <c r="N95" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O95" t="n">
         <v>1.25</v>
       </c>
       <c r="P95" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R95" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S95" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="T95" t="n">
         <v>1.78</v>
       </c>
       <c r="U95" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V95" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W95" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X95" t="n">
         <v>22</v>
@@ -13285,10 +13285,10 @@
         <v>55</v>
       </c>
       <c r="AA95" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB95" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC95" t="n">
         <v>10.5</v>
@@ -13297,19 +13297,19 @@
         <v>25</v>
       </c>
       <c r="AE95" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF95" t="n">
         <v>11</v>
       </c>
       <c r="AG95" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI95" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ95" t="n">
         <v>19.5</v>
@@ -13318,16 +13318,16 @@
         <v>17.5</v>
       </c>
       <c r="AL95" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM95" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN95" t="n">
         <v>10</v>
       </c>
       <c r="AO95" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
@@ -13357,112 +13357,112 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G96" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H96" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I96" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J96" t="n">
         <v>3.95</v>
       </c>
       <c r="K96" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="L96" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="M96" t="n">
         <v>1.06</v>
       </c>
       <c r="N96" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="O96" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P96" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="Q96" t="n">
         <v>1.89</v>
       </c>
       <c r="R96" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="S96" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="T96" t="n">
-        <v>1.85</v>
+        <v>1.04</v>
       </c>
       <c r="U96" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="V96" t="n">
         <v>1.27</v>
       </c>
       <c r="W96" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X96" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y96" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="Z96" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA96" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AB96" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AC96" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD96" t="n">
         <v>18.5</v>
       </c>
       <c r="AE96" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF96" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AG96" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH96" t="n">
         <v>23</v>
       </c>
       <c r="AI96" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ96" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AK96" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AL96" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM96" t="n">
         <v>130</v>
       </c>
       <c r="AN96" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO96" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97">
@@ -13495,13 +13495,13 @@
         <v>1.91</v>
       </c>
       <c r="G97" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H97" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I97" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J97" t="n">
         <v>3.45</v>
@@ -13510,91 +13510,91 @@
         <v>3.9</v>
       </c>
       <c r="L97" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M97" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N97" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O97" t="n">
         <v>1.34</v>
       </c>
       <c r="P97" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R97" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S97" t="n">
         <v>3.4</v>
       </c>
       <c r="T97" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="U97" t="n">
-        <v>1.99</v>
+        <v>1.04</v>
       </c>
       <c r="V97" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W97" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X97" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y97" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z97" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA97" t="n">
         <v>900</v>
       </c>
       <c r="AB97" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC97" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD97" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE97" t="n">
         <v>70</v>
       </c>
       <c r="AF97" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG97" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH97" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI97" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ97" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AK97" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL97" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM97" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN97" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO97" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="G2" t="n">
         <v>6.8</v>
@@ -676,7 +676,7 @@
         <v>1.56</v>
       </c>
       <c r="I2" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="J2" t="n">
         <v>4.4</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="G3" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="I3" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="J3" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="L3" t="n">
         <v>1.35</v>
@@ -826,46 +826,46 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="U3" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="V3" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="W3" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H4" t="n">
         <v>5.2</v>
@@ -949,10 +949,10 @@
         <v>5.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -961,7 +961,7 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.35</v>
@@ -979,10 +979,10 @@
         <v>3.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
         <v>1.22</v>
@@ -991,10 +991,10 @@
         <v>2.16</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>100</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC4" t="n">
         <v>8.6</v>
@@ -1012,10 +1012,10 @@
         <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>190</v>
+        <v>420</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
@@ -1024,7 +1024,7 @@
         <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AJ4" t="n">
         <v>19.5</v>
@@ -1033,16 +1033,16 @@
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
         <v>13.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G5" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
@@ -1084,49 +1084,49 @@
         <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
         <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O5" t="n">
         <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R5" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S5" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="T5" t="n">
         <v>1.51</v>
       </c>
       <c r="U5" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="V5" t="n">
         <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y5" t="n">
         <v>23</v>
@@ -1147,10 +1147,10 @@
         <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG5" t="n">
         <v>12.5</v>
@@ -1171,13 +1171,13 @@
         <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G6" t="n">
         <v>4.5</v>
       </c>
-      <c r="G6" t="n">
-        <v>4.7</v>
-      </c>
       <c r="H6" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="I6" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="J6" t="n">
         <v>4.3</v>
@@ -1249,31 +1249,31 @@
         <v>2.34</v>
       </c>
       <c r="T6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U6" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="V6" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="W6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X6" t="n">
         <v>28</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC6" t="n">
         <v>10.5</v>
@@ -1282,37 +1282,37 @@
         <v>10.5</v>
       </c>
       <c r="AE6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH6" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>16</v>
       </c>
       <c r="AI6" t="n">
         <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK6" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM6" t="n">
         <v>60</v>
       </c>
       <c r="AN6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="7">
@@ -1342,61 +1342,61 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G7" t="n">
         <v>2.24</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>4.2</v>
       </c>
       <c r="J7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.25</v>
       </c>
-      <c r="K7" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="O7" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P7" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="T7" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
         <v>1.31</v>
       </c>
       <c r="W7" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
@@ -1408,13 +1408,13 @@
         <v>95</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC7" t="n">
         <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
         <v>70</v>
@@ -1429,25 +1429,25 @@
         <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK7" t="n">
         <v>30</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>28</v>
       </c>
       <c r="AL7" t="n">
         <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO7" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1489,7 @@
         <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K8" t="n">
         <v>3.4</v>
@@ -1615,19 +1615,19 @@
         <v>1.58</v>
       </c>
       <c r="G9" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
         <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J9" t="n">
         <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1654,10 +1654,10 @@
         <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U9" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
         <v>1.13</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="G10" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="H10" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
         <v>3.75</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.55</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="V10" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z10" t="n">
         <v>42</v>
       </c>
       <c r="AA10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
         <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="n">
         <v>10.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AJ10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK10" t="n">
         <v>19</v>
       </c>
-      <c r="AK10" t="n">
-        <v>20</v>
-      </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>430</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G11" t="n">
         <v>2.52</v>
@@ -1900,28 +1900,28 @@
         <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T11" t="n">
         <v>1.04</v>
@@ -1930,7 +1930,7 @@
         <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W11" t="n">
         <v>1.67</v>
@@ -2017,76 +2017,76 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="H12" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>2.22</v>
+        <v>1.06</v>
       </c>
       <c r="V12" t="n">
         <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2095,13 +2095,13 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2113,13 +2113,13 @@
         <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2158,7 +2158,7 @@
         <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
         <v>3.65</v>
@@ -2176,7 +2176,7 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.24</v>
@@ -2185,19 +2185,19 @@
         <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
         <v>2.84</v>
       </c>
       <c r="T13" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V13" t="n">
         <v>1.37</v>
@@ -2206,7 +2206,7 @@
         <v>1.85</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2257,7 +2257,7 @@
         <v>55</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2290,19 +2290,19 @@
         <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
         <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>2.72</v>
       </c>
       <c r="G15" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
@@ -2434,10 +2434,10 @@
         <v>3.45</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K15" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
         <v>1.62</v>
@@ -2446,13 +2446,13 @@
         <v>1.14</v>
       </c>
       <c r="N15" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O15" t="n">
         <v>1.57</v>
       </c>
       <c r="P15" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
         <v>2.78</v>
@@ -2461,13 +2461,13 @@
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U15" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
         <v>1.41</v>
@@ -2476,28 +2476,28 @@
         <v>1.55</v>
       </c>
       <c r="X15" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z15" t="n">
         <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>900</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="n">
         <v>8</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="n">
         <v>16.5</v>
@@ -2509,25 +2509,25 @@
         <v>24</v>
       </c>
       <c r="AI15" t="n">
-        <v>460</v>
+        <v>85</v>
       </c>
       <c r="AJ15" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AK15" t="n">
         <v>42</v>
       </c>
       <c r="AL15" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="n">
         <v>220</v>
       </c>
       <c r="AN15" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
-        <v>75</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16">
@@ -2557,34 +2557,34 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="G16" t="n">
         <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I16" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
         <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
         <v>2.08</v>
@@ -2593,22 +2593,22 @@
         <v>1.79</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T16" t="n">
-        <v>1.63</v>
+        <v>1.04</v>
       </c>
       <c r="U16" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="V16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.52</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.53</v>
       </c>
       <c r="X16" t="n">
         <v>21</v>
@@ -2623,40 +2623,40 @@
         <v>280</v>
       </c>
       <c r="AB16" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH16" t="n">
         <v>26</v>
       </c>
-      <c r="AH16" t="n">
-        <v>30</v>
-      </c>
       <c r="AI16" t="n">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="AJ16" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
         <v>55</v>
@@ -2698,13 +2698,13 @@
         <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="I17" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q17" t="n">
         <v>1.64</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
         <v>2.08</v>
@@ -2839,10 +2839,10 @@
         <v>2.12</v>
       </c>
       <c r="J18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.95</v>
       </c>
       <c r="L18" t="n">
         <v>1.37</v>
@@ -2860,7 +2860,7 @@
         <v>2.18</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
         <v>1.47</v>
@@ -2872,7 +2872,7 @@
         <v>1.71</v>
       </c>
       <c r="U18" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V18" t="n">
         <v>1.89</v>
@@ -2887,10 +2887,10 @@
         <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB18" t="n">
         <v>16.5</v>
@@ -2920,7 +2920,7 @@
         <v>70</v>
       </c>
       <c r="AK18" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="n">
         <v>46</v>
@@ -2932,7 +2932,7 @@
         <v>36</v>
       </c>
       <c r="AO18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
         <v>3.6</v>
@@ -2971,7 +2971,7 @@
         <v>2.18</v>
       </c>
       <c r="I19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
@@ -2980,34 +2980,34 @@
         <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="R19" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U19" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="V19" t="n">
         <v>1.81</v>
@@ -3028,13 +3028,13 @@
         <v>28</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE19" t="n">
         <v>22</v>
@@ -3046,28 +3046,28 @@
         <v>14.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="20">
@@ -3097,76 +3097,76 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="G20" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H20" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="I20" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
         <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P20" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S20" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V20" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="W20" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="n">
         <v>12.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
         <v>11.5</v>
@@ -3175,34 +3175,34 @@
         <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="G21" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H21" t="n">
         <v>27</v>
@@ -3244,10 +3244,10 @@
         <v>34</v>
       </c>
       <c r="J21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L21" t="n">
         <v>1.14</v>
@@ -3256,13 +3256,13 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
         <v>1.06</v>
       </c>
       <c r="P21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
         <v>1.2</v>
@@ -3271,25 +3271,25 @@
         <v>2.62</v>
       </c>
       <c r="S21" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="T21" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U21" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V21" t="n">
         <v>1.03</v>
       </c>
       <c r="W21" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X21" t="n">
         <v>110</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
@@ -3298,10 +3298,10 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC21" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AD21" t="n">
         <v>130</v>
@@ -3313,28 +3313,28 @@
         <v>13.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="J22" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="U22" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="V22" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W22" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="X22" t="n">
         <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AA22" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AB22" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
         <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF22" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AK22" t="n">
         <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM22" t="n">
-        <v>580</v>
+        <v>55</v>
       </c>
       <c r="AN22" t="n">
         <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="23">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G23" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
         <v>7.2</v>
       </c>
       <c r="I23" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J23" t="n">
         <v>4.8</v>
@@ -3526,7 +3526,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
@@ -3538,22 +3538,22 @@
         <v>1.67</v>
       </c>
       <c r="R23" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S23" t="n">
         <v>2.72</v>
       </c>
       <c r="T23" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W23" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X23" t="n">
         <v>90</v>
@@ -3568,7 +3568,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC23" t="n">
         <v>16</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,76 +3637,76 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="I24" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="J24" t="n">
         <v>3.35</v>
       </c>
       <c r="K24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L24" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="S24" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="T24" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U24" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="V24" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W24" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
         <v>14.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA24" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
         <v>12</v>
@@ -3715,31 +3715,31 @@
         <v>28</v>
       </c>
       <c r="AF24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AK24" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AM24" t="n">
-        <v>580</v>
+        <v>85</v>
       </c>
       <c r="AN24" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
         <v>23</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="G25" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="H25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G26" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I26" t="n">
         <v>1.74</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.75</v>
       </c>
       <c r="J26" t="n">
         <v>4.2</v>
@@ -3925,55 +3925,55 @@
         <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O26" t="n">
         <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R26" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S26" t="n">
         <v>3.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U26" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V26" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W26" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X26" t="n">
         <v>18</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA26" t="n">
         <v>17.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC26" t="n">
         <v>9.199999999999999</v>
@@ -3985,7 +3985,7 @@
         <v>16.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG26" t="n">
         <v>19.5</v>
@@ -4012,7 +4012,7 @@
         <v>70</v>
       </c>
       <c r="AO26" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G27" t="n">
         <v>2.5</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I27" t="n">
         <v>3.75</v>
@@ -4090,7 +4090,7 @@
         <v>1.94</v>
       </c>
       <c r="V27" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W27" t="n">
         <v>1.68</v>
@@ -4105,7 +4105,7 @@
         <v>30</v>
       </c>
       <c r="AA27" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AB27" t="n">
         <v>9.199999999999999</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G28" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H28" t="n">
         <v>2.02</v>
@@ -4192,16 +4192,16 @@
         <v>3.25</v>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L28" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M28" t="n">
         <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O28" t="n">
         <v>1.47</v>
@@ -4210,7 +4210,7 @@
         <v>1.59</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R28" t="n">
         <v>1.21</v>
@@ -4237,10 +4237,10 @@
         <v>7.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB28" t="n">
         <v>13</v>
@@ -4249,16 +4249,16 @@
         <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF28" t="n">
         <v>34</v>
       </c>
       <c r="AG28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH28" t="n">
         <v>24</v>
@@ -4273,16 +4273,16 @@
         <v>80</v>
       </c>
       <c r="AL28" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -4312,25 +4312,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G29" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J29" t="n">
         <v>4.4</v>
       </c>
       <c r="K29" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -4345,7 +4345,7 @@
         <v>1.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R29" t="n">
         <v>1.29</v>
@@ -4360,7 +4360,7 @@
         <v>1.6</v>
       </c>
       <c r="V29" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W29" t="n">
         <v>3.15</v>
@@ -4408,7 +4408,7 @@
         <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
@@ -4459,7 +4459,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K30" t="n">
         <v>3.75</v>
@@ -4549,7 +4549,7 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="AO30" t="n">
         <v>20</v>
@@ -4582,13 +4582,13 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G31" t="n">
         <v>2.24</v>
       </c>
-      <c r="G31" t="n">
-        <v>2.26</v>
-      </c>
       <c r="H31" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
         <v>3.65</v>
@@ -4612,19 +4612,19 @@
         <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R31" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S31" t="n">
         <v>3.35</v>
       </c>
       <c r="T31" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U31" t="n">
         <v>2.26</v>
@@ -4633,10 +4633,10 @@
         <v>1.37</v>
       </c>
       <c r="W31" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X31" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y31" t="n">
         <v>14</v>
@@ -4651,7 +4651,7 @@
         <v>10.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD31" t="n">
         <v>14.5</v>
@@ -4669,10 +4669,10 @@
         <v>16.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK31" t="n">
         <v>23</v>
@@ -4681,10 +4681,10 @@
         <v>36</v>
       </c>
       <c r="AM31" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AN31" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO31" t="n">
         <v>38</v>
@@ -4717,64 +4717,64 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I32" t="n">
         <v>2.24</v>
       </c>
       <c r="J32" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
         <v>3.85</v>
       </c>
       <c r="L32" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
         <v>4.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P32" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R32" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S32" t="n">
         <v>3</v>
       </c>
       <c r="T32" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U32" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V32" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W32" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y32" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z32" t="n">
         <v>15.5</v>
@@ -4783,7 +4783,7 @@
         <v>28</v>
       </c>
       <c r="AB32" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC32" t="n">
         <v>8.6</v>
@@ -4801,28 +4801,28 @@
         <v>14.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI32" t="n">
         <v>32</v>
       </c>
       <c r="AJ32" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK32" t="n">
         <v>40</v>
       </c>
       <c r="AL32" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="n">
         <v>75</v>
       </c>
       <c r="AN32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="33">
@@ -4858,13 +4858,13 @@
         <v>1.77</v>
       </c>
       <c r="H33" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I33" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K33" t="n">
         <v>4.6</v>
@@ -4876,7 +4876,7 @@
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="O33" t="n">
         <v>1.19</v>
@@ -4894,13 +4894,13 @@
         <v>2.46</v>
       </c>
       <c r="T33" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U33" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="V33" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W33" t="n">
         <v>2.28</v>
@@ -4918,7 +4918,7 @@
         <v>95</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC33" t="n">
         <v>10.5</v>
@@ -4990,16 +4990,16 @@
         <v>2.8</v>
       </c>
       <c r="G34" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H34" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="I34" t="n">
         <v>2.64</v>
       </c>
       <c r="J34" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K34" t="n">
         <v>3.9</v>
@@ -5011,25 +5011,25 @@
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P34" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R34" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S34" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="T34" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U34" t="n">
         <v>2.52</v>
@@ -5044,13 +5044,13 @@
         <v>21</v>
       </c>
       <c r="Y34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z34" t="n">
         <v>20</v>
       </c>
       <c r="AA34" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AB34" t="n">
         <v>15</v>
@@ -5059,7 +5059,7 @@
         <v>9</v>
       </c>
       <c r="AD34" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE34" t="n">
         <v>26</v>
@@ -5074,25 +5074,25 @@
         <v>16</v>
       </c>
       <c r="AI34" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AJ34" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AK34" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="n">
         <v>36</v>
       </c>
       <c r="AM34" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN34" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G35" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="H35" t="n">
         <v>3.35</v>
       </c>
       <c r="I35" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J35" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L35" t="n">
         <v>1.61</v>
@@ -5146,7 +5146,7 @@
         <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="O35" t="n">
         <v>1.58</v>
@@ -5155,25 +5155,25 @@
         <v>1.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="R35" t="n">
         <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="T35" t="n">
         <v>2.12</v>
       </c>
       <c r="U35" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="V35" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W35" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="X35" t="n">
         <v>8.4</v>
@@ -5191,7 +5191,7 @@
         <v>7.6</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD35" t="n">
         <v>19</v>
@@ -5200,13 +5200,13 @@
         <v>65</v>
       </c>
       <c r="AF35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG35" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
@@ -5215,7 +5215,7 @@
         <v>42</v>
       </c>
       <c r="AK35" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AL35" t="n">
         <v>190</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="G36" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H36" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J36" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K36" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L36" t="n">
         <v>1.47</v>
@@ -5287,7 +5287,7 @@
         <v>1.38</v>
       </c>
       <c r="P36" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q36" t="n">
         <v>2.16</v>
@@ -5299,22 +5299,22 @@
         <v>3.9</v>
       </c>
       <c r="T36" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="U36" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V36" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W36" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X36" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y36" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
@@ -5323,43 +5323,43 @@
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG36" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AK36" t="n">
         <v>65</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5395,7 +5395,7 @@
         <v>1.47</v>
       </c>
       <c r="G37" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="H37" t="n">
         <v>4.3</v>
@@ -5404,10 +5404,10 @@
         <v>980</v>
       </c>
       <c r="J37" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K37" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,7 +5416,7 @@
         <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="O37" t="n">
         <v>1.32</v>
@@ -5425,7 +5425,7 @@
         <v>1.24</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="R37" t="n">
         <v>1.18</v>
@@ -5440,10 +5440,10 @@
         <v>1.72</v>
       </c>
       <c r="V37" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W37" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5476,7 +5476,7 @@
         <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H38" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I38" t="n">
         <v>2.32</v>
       </c>
       <c r="J38" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K38" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L38" t="n">
         <v>1.43</v>
@@ -5554,10 +5554,10 @@
         <v>3.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P38" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q38" t="n">
         <v>2.02</v>
@@ -5569,7 +5569,7 @@
         <v>3.6</v>
       </c>
       <c r="T38" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="U38" t="n">
         <v>2.06</v>
@@ -5578,61 +5578,61 @@
         <v>1.75</v>
       </c>
       <c r="W38" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB38" t="n">
         <v>13.5</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>22</v>
       </c>
       <c r="AC38" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF38" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AG38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH38" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO38" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="G39" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H39" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I39" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="J39" t="n">
         <v>3.35</v>
       </c>
       <c r="K39" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L39" t="n">
         <v>1.46</v>
@@ -5704,43 +5704,43 @@
         <v>3.9</v>
       </c>
       <c r="T39" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U39" t="n">
         <v>2.02</v>
       </c>
       <c r="V39" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="W39" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X39" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Y39" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z39" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA39" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AB39" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC39" t="n">
         <v>8.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF39" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG39" t="n">
         <v>18</v>
@@ -5749,7 +5749,7 @@
         <v>23</v>
       </c>
       <c r="AI39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ39" t="n">
         <v>85</v>
@@ -5758,7 +5758,7 @@
         <v>60</v>
       </c>
       <c r="AL39" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AM39" t="n">
         <v>580</v>
@@ -5767,7 +5767,7 @@
         <v>600</v>
       </c>
       <c r="AO39" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G40" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H40" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K40" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L40" t="n">
         <v>1.53</v>
@@ -5824,13 +5824,13 @@
         <v>3.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P40" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R40" t="n">
         <v>1.25</v>
@@ -5839,22 +5839,22 @@
         <v>4.6</v>
       </c>
       <c r="T40" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U40" t="n">
         <v>1.98</v>
       </c>
       <c r="V40" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W40" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X40" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y40" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z40" t="n">
         <v>23</v>
@@ -5863,7 +5863,7 @@
         <v>530</v>
       </c>
       <c r="AB40" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC40" t="n">
         <v>6.8</v>
@@ -5872,34 +5872,34 @@
         <v>15.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF40" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI40" t="n">
         <v>70</v>
       </c>
       <c r="AJ40" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AK40" t="n">
         <v>32</v>
       </c>
       <c r="AL40" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AM40" t="n">
         <v>150</v>
       </c>
       <c r="AN40" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AO40" t="n">
         <v>60</v>
@@ -5935,10 +5935,10 @@
         <v>1.49</v>
       </c>
       <c r="G41" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="H41" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I41" t="n">
         <v>7.8</v>
@@ -5977,13 +5977,13 @@
         <v>1.79</v>
       </c>
       <c r="U41" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V41" t="n">
         <v>1.15</v>
       </c>
       <c r="W41" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6070,7 +6070,7 @@
         <v>3.8</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H42" t="n">
         <v>2.06</v>
@@ -6094,7 +6094,7 @@
         <v>4</v>
       </c>
       <c r="O42" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P42" t="n">
         <v>2.02</v>
@@ -6106,13 +6106,13 @@
         <v>1.4</v>
       </c>
       <c r="S42" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="U42" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V42" t="n">
         <v>1.87</v>
@@ -6124,16 +6124,16 @@
         <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Z42" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AA42" t="n">
         <v>32</v>
       </c>
       <c r="AB42" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC42" t="n">
         <v>10.5</v>
@@ -6142,16 +6142,16 @@
         <v>40</v>
       </c>
       <c r="AE42" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF42" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AG42" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AI42" t="n">
         <v>980</v>
@@ -6163,7 +6163,7 @@
         <v>980</v>
       </c>
       <c r="AL42" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="AM42" t="n">
         <v>580</v>
@@ -6172,7 +6172,7 @@
         <v>600</v>
       </c>
       <c r="AO42" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
@@ -6211,7 +6211,7 @@
         <v>2.54</v>
       </c>
       <c r="I43" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J43" t="n">
         <v>3.75</v>
@@ -6259,19 +6259,19 @@
         <v>22</v>
       </c>
       <c r="Y43" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z43" t="n">
         <v>21</v>
       </c>
       <c r="AA43" t="n">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="AB43" t="n">
         <v>15.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD43" t="n">
         <v>13</v>
@@ -6292,16 +6292,16 @@
         <v>70</v>
       </c>
       <c r="AJ43" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AL43" t="n">
         <v>36</v>
       </c>
       <c r="AM43" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN43" t="n">
         <v>18.5</v>
@@ -6340,13 +6340,13 @@
         <v>2.48</v>
       </c>
       <c r="G44" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H44" t="n">
         <v>3.45</v>
       </c>
       <c r="I44" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J44" t="n">
         <v>3.2</v>
@@ -6367,25 +6367,25 @@
         <v>1.42</v>
       </c>
       <c r="P44" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R44" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S44" t="n">
         <v>4.4</v>
       </c>
       <c r="T44" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U44" t="n">
         <v>2.02</v>
       </c>
       <c r="V44" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W44" t="n">
         <v>1.66</v>
@@ -6394,7 +6394,7 @@
         <v>11</v>
       </c>
       <c r="Y44" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z44" t="n">
         <v>22</v>
@@ -6439,7 +6439,7 @@
         <v>130</v>
       </c>
       <c r="AN44" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO44" t="n">
         <v>55</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="G45" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="H45" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J45" t="n">
         <v>3.5</v>
@@ -6496,7 +6496,7 @@
         <v>1.09</v>
       </c>
       <c r="N45" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O45" t="n">
         <v>1.41</v>
@@ -6514,22 +6514,22 @@
         <v>4.2</v>
       </c>
       <c r="T45" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U45" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V45" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W45" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="X45" t="n">
         <v>11.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z45" t="n">
         <v>28</v>
@@ -6538,16 +6538,16 @@
         <v>90</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC45" t="n">
         <v>7.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE45" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF45" t="n">
         <v>12</v>
@@ -6562,10 +6562,10 @@
         <v>70</v>
       </c>
       <c r="AJ45" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK45" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL45" t="n">
         <v>44</v>
@@ -6574,10 +6574,10 @@
         <v>130</v>
       </c>
       <c r="AN45" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO45" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
@@ -6619,7 +6619,7 @@
         <v>4.2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K46" t="n">
         <v>3.7</v>
@@ -6628,7 +6628,7 @@
         <v>1.44</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
         <v>3.55</v>
@@ -6640,7 +6640,7 @@
         <v>1.86</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R46" t="n">
         <v>1.32</v>
@@ -6658,10 +6658,10 @@
         <v>1.32</v>
       </c>
       <c r="W46" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X46" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y46" t="n">
         <v>14.5</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G47" t="n">
         <v>1.38</v>
@@ -6781,13 +6781,13 @@
         <v>1.72</v>
       </c>
       <c r="S47" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T47" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U47" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V47" t="n">
         <v>1.11</v>
@@ -6802,7 +6802,7 @@
         <v>42</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA47" t="n">
         <v>320</v>
@@ -6811,16 +6811,16 @@
         <v>11.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD47" t="n">
         <v>34</v>
       </c>
       <c r="AE47" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF47" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG47" t="n">
         <v>10.5</v>
@@ -6829,7 +6829,7 @@
         <v>26</v>
       </c>
       <c r="AI47" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="AJ47" t="n">
         <v>11.5</v>
@@ -6841,7 +6841,7 @@
         <v>28</v>
       </c>
       <c r="AM47" t="n">
-        <v>390</v>
+        <v>150</v>
       </c>
       <c r="AN47" t="n">
         <v>4.5</v>
@@ -6877,19 +6877,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="G48" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="H48" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K48" t="n">
         <v>3.2</v>
@@ -7021,7 +7021,7 @@
         <v>2.32</v>
       </c>
       <c r="I49" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J49" t="n">
         <v>3.45</v>
@@ -7030,58 +7030,58 @@
         <v>3.5</v>
       </c>
       <c r="L49" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M49" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N49" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="O49" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P49" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="R49" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="S49" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T49" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U49" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V49" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W49" t="n">
         <v>1.39</v>
       </c>
       <c r="X49" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y49" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z49" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AA49" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AB49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC49" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD49" t="n">
         <v>11</v>
@@ -7096,10 +7096,10 @@
         <v>27</v>
       </c>
       <c r="AH49" t="n">
-        <v>50</v>
+        <v>19.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ49" t="n">
         <v>500</v>
@@ -7117,7 +7117,7 @@
         <v>980</v>
       </c>
       <c r="AO49" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="H50" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="I50" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="J50" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K50" t="n">
         <v>4.8</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4.9</v>
       </c>
       <c r="L50" t="n">
         <v>1.22</v>
@@ -7171,16 +7171,16 @@
         <v>1.02</v>
       </c>
       <c r="N50" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O50" t="n">
         <v>1.12</v>
       </c>
       <c r="P50" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R50" t="n">
         <v>2</v>
@@ -7189,16 +7189,16 @@
         <v>1.97</v>
       </c>
       <c r="T50" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="U50" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="V50" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W50" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X50" t="n">
         <v>44</v>
@@ -7213,46 +7213,46 @@
         <v>23</v>
       </c>
       <c r="AB50" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC50" t="n">
         <v>12.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE50" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG50" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH50" t="n">
         <v>14.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ50" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="n">
         <v>36</v>
       </c>
       <c r="AL50" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM50" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AN50" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="51">
@@ -7282,88 +7282,88 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="G51" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="H51" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="I51" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="J51" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="K51" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O51" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P51" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="R51" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S51" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T51" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="U51" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V51" t="n">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="W51" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="X51" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y51" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z51" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA51" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="AB51" t="n">
         <v>980</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD51" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AE51" t="n">
         <v>65</v>
       </c>
       <c r="AF51" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AG51" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AH51" t="n">
         <v>980</v>
@@ -7372,7 +7372,7 @@
         <v>980</v>
       </c>
       <c r="AJ51" t="n">
-        <v>330</v>
+        <v>900</v>
       </c>
       <c r="AK51" t="n">
         <v>480</v>
@@ -7384,10 +7384,10 @@
         <v>580</v>
       </c>
       <c r="AN51" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="AO51" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -7423,7 +7423,7 @@
         <v>2.18</v>
       </c>
       <c r="H52" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I52" t="n">
         <v>3.65</v>
@@ -7447,7 +7447,7 @@
         <v>1.18</v>
       </c>
       <c r="P52" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q52" t="n">
         <v>1.62</v>
@@ -7456,13 +7456,13 @@
         <v>1.62</v>
       </c>
       <c r="S52" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T52" t="n">
         <v>1.57</v>
       </c>
       <c r="U52" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V52" t="n">
         <v>1.38</v>
@@ -7471,7 +7471,7 @@
         <v>1.84</v>
       </c>
       <c r="X52" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y52" t="n">
         <v>21</v>
@@ -7486,7 +7486,7 @@
         <v>17</v>
       </c>
       <c r="AC52" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD52" t="n">
         <v>18</v>
@@ -7498,13 +7498,13 @@
         <v>20</v>
       </c>
       <c r="AG52" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH52" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI52" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="n">
         <v>28</v>
@@ -7522,7 +7522,7 @@
         <v>10.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G53" t="n">
         <v>3.15</v>
@@ -7561,70 +7561,70 @@
         <v>2.82</v>
       </c>
       <c r="I53" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K53" t="n">
         <v>3.2</v>
       </c>
       <c r="L53" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="M53" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N53" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="O53" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P53" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="R53" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S53" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="T53" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="U53" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V53" t="n">
         <v>1.52</v>
       </c>
       <c r="W53" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X53" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y53" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z53" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA53" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AB53" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AC53" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AD53" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE53" t="n">
         <v>980</v>
@@ -7636,28 +7636,28 @@
         <v>1000</v>
       </c>
       <c r="AH53" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI53" t="n">
         <v>170</v>
       </c>
       <c r="AJ53" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="AK53" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AL53" t="n">
         <v>160</v>
       </c>
       <c r="AM53" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN53" t="n">
         <v>980</v>
       </c>
       <c r="AO53" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
     </row>
     <row r="54">
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G54" t="n">
         <v>3.55</v>
       </c>
       <c r="H54" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I54" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J54" t="n">
         <v>3.3</v>
@@ -7708,43 +7708,43 @@
         <v>1.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N54" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O54" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P54" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="R54" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S54" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T54" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="U54" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V54" t="n">
         <v>1.69</v>
       </c>
       <c r="W54" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X54" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z54" t="n">
         <v>14</v>
@@ -7753,7 +7753,7 @@
         <v>34</v>
       </c>
       <c r="AB54" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC54" t="n">
         <v>7.4</v>
@@ -7762,34 +7762,34 @@
         <v>11.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF54" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG54" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI54" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ54" t="n">
         <v>65</v>
       </c>
       <c r="AK54" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AL54" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM54" t="n">
         <v>120</v>
       </c>
       <c r="AN54" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO54" t="n">
         <v>25</v>
@@ -7849,7 +7849,7 @@
         <v>3.3</v>
       </c>
       <c r="O55" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P55" t="n">
         <v>1.74</v>
@@ -7861,13 +7861,13 @@
         <v>1.28</v>
       </c>
       <c r="S55" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T55" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U55" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V55" t="n">
         <v>1.35</v>
@@ -7906,7 +7906,7 @@
         <v>12</v>
       </c>
       <c r="AH55" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI55" t="n">
         <v>65</v>
@@ -7915,19 +7915,19 @@
         <v>34</v>
       </c>
       <c r="AK55" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL55" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM55" t="n">
         <v>580</v>
       </c>
       <c r="AN55" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO55" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="G56" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="I56" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="J56" t="n">
         <v>3.55</v>
       </c>
       <c r="K56" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L56" t="n">
         <v>1.37</v>
@@ -7993,7 +7993,7 @@
         <v>1.83</v>
       </c>
       <c r="R56" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S56" t="n">
         <v>3.1</v>
@@ -8005,64 +8005,64 @@
         <v>2.32</v>
       </c>
       <c r="V56" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="W56" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X56" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AA56" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB56" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD56" t="n">
         <v>12</v>
       </c>
       <c r="AE56" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF56" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG56" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH56" t="n">
         <v>16.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ56" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="AK56" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL56" t="n">
         <v>100</v>
       </c>
       <c r="AM56" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AN56" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO56" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
@@ -8092,19 +8092,19 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="G57" t="n">
-        <v>2.54</v>
+        <v>2.34</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I57" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="J57" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K57" t="n">
         <v>3.8</v>
@@ -8113,79 +8113,79 @@
         <v>1.32</v>
       </c>
       <c r="M57" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O57" t="n">
         <v>1.21</v>
       </c>
       <c r="P57" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R57" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T57" t="n">
         <v>1.57</v>
-      </c>
-      <c r="S57" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1.56</v>
       </c>
       <c r="U57" t="n">
         <v>2.6</v>
       </c>
       <c r="V57" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="W57" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="X57" t="n">
         <v>22</v>
       </c>
       <c r="Y57" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AA57" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB57" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD57" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC57" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD57" t="n">
+      <c r="AE57" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH57" t="n">
         <v>15</v>
       </c>
-      <c r="AE57" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>14</v>
-      </c>
       <c r="AI57" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AJ57" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AK57" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL57" t="n">
         <v>60</v>
@@ -8194,10 +8194,10 @@
         <v>580</v>
       </c>
       <c r="AN57" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
@@ -8227,19 +8227,19 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="G58" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="I58" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J58" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K58" t="n">
         <v>4.3</v>
@@ -8251,88 +8251,88 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O58" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P58" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q58" t="n">
         <v>1.65</v>
       </c>
       <c r="R58" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S58" t="n">
         <v>2.62</v>
       </c>
       <c r="T58" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="U58" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V58" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="W58" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="X58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y58" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z58" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA58" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD58" t="n">
         <v>10.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AF58" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AG58" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI58" t="n">
         <v>28</v>
       </c>
       <c r="AJ58" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AL58" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM58" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="AN58" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AO58" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="59">
@@ -8362,13 +8362,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H59" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I59" t="n">
         <v>2.56</v>
@@ -8377,58 +8377,58 @@
         <v>3.75</v>
       </c>
       <c r="K59" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L59" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M59" t="n">
         <v>1.04</v>
       </c>
       <c r="N59" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="O59" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P59" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R59" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="S59" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="T59" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U59" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="V59" t="n">
         <v>1.64</v>
       </c>
       <c r="W59" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X59" t="n">
         <v>21</v>
       </c>
       <c r="Y59" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z59" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA59" t="n">
         <v>36</v>
       </c>
       <c r="AB59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC59" t="n">
         <v>8.800000000000001</v>
@@ -8437,10 +8437,10 @@
         <v>12</v>
       </c>
       <c r="AE59" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF59" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG59" t="n">
         <v>13.5</v>
@@ -8449,7 +8449,7 @@
         <v>14.5</v>
       </c>
       <c r="AI59" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ59" t="n">
         <v>46</v>
@@ -8464,10 +8464,10 @@
         <v>60</v>
       </c>
       <c r="AN59" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO59" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="60">
@@ -8509,10 +8509,10 @@
         <v>3.55</v>
       </c>
       <c r="J60" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K60" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L60" t="n">
         <v>1.42</v>
@@ -8527,7 +8527,7 @@
         <v>1.32</v>
       </c>
       <c r="P60" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q60" t="n">
         <v>1.98</v>
@@ -8536,10 +8536,10 @@
         <v>1.35</v>
       </c>
       <c r="S60" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T60" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U60" t="n">
         <v>2.12</v>
@@ -8551,10 +8551,10 @@
         <v>1.72</v>
       </c>
       <c r="X60" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y60" t="n">
-        <v>13.5</v>
+        <v>28</v>
       </c>
       <c r="Z60" t="n">
         <v>1000</v>
@@ -8563,7 +8563,7 @@
         <v>900</v>
       </c>
       <c r="AB60" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC60" t="n">
         <v>8.6</v>
@@ -8575,7 +8575,7 @@
         <v>980</v>
       </c>
       <c r="AF60" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="AG60" t="n">
         <v>11.5</v>
@@ -8602,7 +8602,7 @@
         <v>55</v>
       </c>
       <c r="AO60" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61">
@@ -8632,25 +8632,25 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G61" t="n">
         <v>2.44</v>
       </c>
       <c r="H61" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I61" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J61" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K61" t="n">
         <v>3.35</v>
       </c>
       <c r="L61" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M61" t="n">
         <v>1.1</v>
@@ -8659,7 +8659,7 @@
         <v>2.88</v>
       </c>
       <c r="O61" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P61" t="n">
         <v>1.61</v>
@@ -8671,19 +8671,19 @@
         <v>1.22</v>
       </c>
       <c r="S61" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T61" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="U61" t="n">
         <v>1.84</v>
       </c>
       <c r="V61" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W61" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X61" t="n">
         <v>10.5</v>
@@ -8698,7 +8698,7 @@
         <v>500</v>
       </c>
       <c r="AB61" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC61" t="n">
         <v>7.6</v>
@@ -8710,7 +8710,7 @@
         <v>55</v>
       </c>
       <c r="AF61" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG61" t="n">
         <v>12.5</v>
@@ -8722,7 +8722,7 @@
         <v>380</v>
       </c>
       <c r="AJ61" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK61" t="n">
         <v>34</v>
@@ -8737,7 +8737,7 @@
         <v>32</v>
       </c>
       <c r="AO61" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62">
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G62" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H62" t="n">
         <v>3.4</v>
       </c>
       <c r="I62" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J62" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K62" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L62" t="n">
         <v>1.38</v>
@@ -8797,7 +8797,7 @@
         <v>1.28</v>
       </c>
       <c r="P62" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q62" t="n">
         <v>1.87</v>
@@ -8809,13 +8809,13 @@
         <v>3.15</v>
       </c>
       <c r="T62" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U62" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V62" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W62" t="n">
         <v>1.76</v>
@@ -8824,7 +8824,7 @@
         <v>28</v>
       </c>
       <c r="Y62" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Z62" t="n">
         <v>70</v>
@@ -8836,7 +8836,7 @@
         <v>19</v>
       </c>
       <c r="AC62" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD62" t="n">
         <v>27</v>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G63" t="n">
         <v>2.22</v>
@@ -8911,13 +8911,13 @@
         <v>3.4</v>
       </c>
       <c r="I63" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J63" t="n">
         <v>3.8</v>
       </c>
-      <c r="J63" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K63" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L63" t="n">
         <v>1.33</v>
@@ -8935,19 +8935,19 @@
         <v>2.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R63" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S63" t="n">
         <v>2.68</v>
       </c>
       <c r="T63" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U63" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V63" t="n">
         <v>1.37</v>
@@ -8956,7 +8956,7 @@
         <v>1.81</v>
       </c>
       <c r="X63" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Y63" t="n">
         <v>34</v>
@@ -8974,13 +8974,13 @@
         <v>11</v>
       </c>
       <c r="AD63" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AE63" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF63" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AG63" t="n">
         <v>12</v>
@@ -8989,7 +8989,7 @@
         <v>25</v>
       </c>
       <c r="AI63" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ63" t="n">
         <v>110</v>
@@ -8998,16 +8998,16 @@
         <v>40</v>
       </c>
       <c r="AL63" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM63" t="n">
         <v>1000</v>
       </c>
       <c r="AN63" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO63" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="64">
@@ -9067,10 +9067,10 @@
         <v>1.33</v>
       </c>
       <c r="P64" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R64" t="n">
         <v>1.37</v>
@@ -9079,7 +9079,7 @@
         <v>3.55</v>
       </c>
       <c r="T64" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U64" t="n">
         <v>2.2</v>
@@ -9136,13 +9136,13 @@
         <v>44</v>
       </c>
       <c r="AM64" t="n">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="AN64" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO64" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
@@ -9172,31 +9172,31 @@
         </is>
       </c>
       <c r="F65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G65" t="n">
         <v>2.22</v>
       </c>
-      <c r="G65" t="n">
-        <v>2.24</v>
-      </c>
       <c r="H65" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I65" t="n">
         <v>3.5</v>
       </c>
       <c r="J65" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K65" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L65" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M65" t="n">
         <v>1.05</v>
       </c>
       <c r="N65" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O65" t="n">
         <v>1.22</v>
@@ -9208,13 +9208,13 @@
         <v>1.66</v>
       </c>
       <c r="R65" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S65" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="T65" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U65" t="n">
         <v>2.64</v>
@@ -9223,7 +9223,7 @@
         <v>1.4</v>
       </c>
       <c r="W65" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="X65" t="n">
         <v>20</v>
@@ -9232,7 +9232,7 @@
         <v>18</v>
       </c>
       <c r="Z65" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA65" t="n">
         <v>60</v>
@@ -9244,7 +9244,7 @@
         <v>9</v>
       </c>
       <c r="AD65" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE65" t="n">
         <v>32</v>
@@ -9262,7 +9262,7 @@
         <v>34</v>
       </c>
       <c r="AJ65" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK65" t="n">
         <v>19</v>
@@ -9274,10 +9274,10 @@
         <v>50</v>
       </c>
       <c r="AN65" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO65" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
@@ -9310,7 +9310,7 @@
         <v>20</v>
       </c>
       <c r="G66" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H66" t="n">
         <v>1.16</v>
@@ -9325,13 +9325,13 @@
         <v>11</v>
       </c>
       <c r="L66" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O66" t="n">
         <v>1.09</v>
@@ -9343,22 +9343,22 @@
         <v>1.3</v>
       </c>
       <c r="R66" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="S66" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="T66" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U66" t="n">
         <v>1.97</v>
-      </c>
-      <c r="U66" t="n">
-        <v>1.98</v>
       </c>
       <c r="V66" t="n">
         <v>6.8</v>
       </c>
       <c r="W66" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="X66" t="n">
         <v>65</v>
@@ -9367,16 +9367,16 @@
         <v>16</v>
       </c>
       <c r="Z66" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA66" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AB66" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AC66" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD66" t="n">
         <v>13</v>
@@ -9388,10 +9388,10 @@
         <v>250</v>
       </c>
       <c r="AG66" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AH66" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI66" t="n">
         <v>32</v>
@@ -9403,16 +9403,16 @@
         <v>290</v>
       </c>
       <c r="AL66" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AM66" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN66" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AO66" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="67">
@@ -9442,10 +9442,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G67" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H67" t="n">
         <v>3.7</v>
@@ -9454,10 +9454,10 @@
         <v>4</v>
       </c>
       <c r="J67" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K67" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L67" t="n">
         <v>1.4</v>
@@ -9472,13 +9472,13 @@
         <v>1.3</v>
       </c>
       <c r="P67" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q67" t="n">
         <v>1.94</v>
       </c>
       <c r="R67" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S67" t="n">
         <v>3.35</v>
@@ -9487,7 +9487,7 @@
         <v>1.75</v>
       </c>
       <c r="U67" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V67" t="n">
         <v>1.33</v>
@@ -9514,7 +9514,7 @@
         <v>8.6</v>
       </c>
       <c r="AD67" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE67" t="n">
         <v>1000</v>
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="G68" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H68" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J68" t="n">
         <v>3.4</v>
       </c>
       <c r="K68" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L68" t="n">
         <v>1.58</v>
@@ -9604,58 +9604,58 @@
         <v>2.62</v>
       </c>
       <c r="O68" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P68" t="n">
         <v>1.54</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="R68" t="n">
         <v>1.18</v>
       </c>
       <c r="S68" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T68" t="n">
         <v>2.16</v>
       </c>
       <c r="U68" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V68" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W68" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="X68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y68" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z68" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA68" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AB68" t="n">
         <v>6.6</v>
       </c>
       <c r="AC68" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD68" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE68" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF68" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG68" t="n">
         <v>11.5</v>
@@ -9667,22 +9667,22 @@
         <v>120</v>
       </c>
       <c r="AJ68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK68" t="n">
         <v>29</v>
       </c>
       <c r="AL68" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AM68" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AN68" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO68" t="n">
-        <v>600</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69">
@@ -9721,7 +9721,7 @@
         <v>2.84</v>
       </c>
       <c r="I69" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J69" t="n">
         <v>2.8</v>
@@ -9730,7 +9730,7 @@
         <v>3.15</v>
       </c>
       <c r="L69" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M69" t="n">
         <v>1.15</v>
@@ -9739,25 +9739,25 @@
         <v>2.38</v>
       </c>
       <c r="O69" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P69" t="n">
         <v>1.44</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="R69" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S69" t="n">
         <v>6</v>
       </c>
       <c r="T69" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U69" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V69" t="n">
         <v>1.46</v>
@@ -9847,40 +9847,40 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="G70" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="H70" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I70" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J70" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K70" t="n">
         <v>3.45</v>
       </c>
       <c r="L70" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M70" t="n">
         <v>1.1</v>
       </c>
       <c r="N70" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="O70" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P70" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R70" t="n">
         <v>1.22</v>
@@ -9895,10 +9895,10 @@
         <v>1.86</v>
       </c>
       <c r="V70" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W70" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="X70" t="n">
         <v>10.5</v>
@@ -9907,28 +9907,28 @@
         <v>11.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AA70" t="n">
         <v>900</v>
       </c>
       <c r="AB70" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC70" t="n">
         <v>7.6</v>
       </c>
       <c r="AD70" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AF70" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG70" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH70" t="n">
         <v>22</v>
@@ -9937,7 +9937,7 @@
         <v>190</v>
       </c>
       <c r="AJ70" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AK70" t="n">
         <v>32</v>
@@ -9949,10 +9949,10 @@
         <v>170</v>
       </c>
       <c r="AN70" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO70" t="n">
         <v>600</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="71">
@@ -9982,13 +9982,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G71" t="n">
         <v>2.4</v>
       </c>
       <c r="H71" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I71" t="n">
         <v>4.1</v>
@@ -10000,7 +10000,7 @@
         <v>3.45</v>
       </c>
       <c r="L71" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M71" t="n">
         <v>1.1</v>
@@ -10015,7 +10015,7 @@
         <v>1.64</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R71" t="n">
         <v>1.23</v>
@@ -10027,7 +10027,7 @@
         <v>1.94</v>
       </c>
       <c r="U71" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V71" t="n">
         <v>1.33</v>
@@ -10057,7 +10057,7 @@
         <v>20</v>
       </c>
       <c r="AE71" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF71" t="n">
         <v>16</v>
@@ -10117,40 +10117,40 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="G72" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="H72" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I72" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J72" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="K72" t="n">
         <v>3.6</v>
       </c>
       <c r="L72" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M72" t="n">
         <v>1.09</v>
       </c>
       <c r="N72" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O72" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P72" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R72" t="n">
         <v>1.26</v>
@@ -10159,16 +10159,16 @@
         <v>4</v>
       </c>
       <c r="T72" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U72" t="n">
         <v>1.94</v>
       </c>
       <c r="V72" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W72" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="X72" t="n">
         <v>17</v>
@@ -10192,16 +10192,16 @@
         <v>1000</v>
       </c>
       <c r="AE72" t="n">
-        <v>240</v>
+        <v>980</v>
       </c>
       <c r="AF72" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG72" t="n">
         <v>1000</v>
       </c>
       <c r="AH72" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AI72" t="n">
         <v>380</v>
@@ -10252,16 +10252,16 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G73" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H73" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J73" t="n">
         <v>3.15</v>
@@ -10276,10 +10276,10 @@
         <v>1.1</v>
       </c>
       <c r="N73" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O73" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P73" t="n">
         <v>1.73</v>
@@ -10291,19 +10291,19 @@
         <v>1.27</v>
       </c>
       <c r="S73" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T73" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U73" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V73" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W73" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="X73" t="n">
         <v>10</v>
@@ -10312,7 +10312,7 @@
         <v>12.5</v>
       </c>
       <c r="Z73" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA73" t="n">
         <v>80</v>
@@ -10324,10 +10324,10 @@
         <v>7.2</v>
       </c>
       <c r="AD73" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AE73" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF73" t="n">
         <v>13.5</v>
@@ -10351,13 +10351,13 @@
         <v>48</v>
       </c>
       <c r="AM73" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AN73" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AO73" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74">
@@ -10396,16 +10396,16 @@
         <v>12.5</v>
       </c>
       <c r="I74" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="J74" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K74" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L74" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M74" t="n">
         <v>1.02</v>
@@ -10414,85 +10414,85 @@
         <v>8.6</v>
       </c>
       <c r="O74" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P74" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R74" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S74" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="T74" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="U74" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="V74" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W74" t="n">
         <v>5</v>
       </c>
       <c r="X74" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="Y74" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="Z74" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA74" t="n">
-        <v>510</v>
+        <v>440</v>
       </c>
       <c r="AB74" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC74" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AD74" t="n">
         <v>980</v>
       </c>
       <c r="AE74" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AF74" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG74" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AI74" t="n">
         <v>470</v>
       </c>
       <c r="AJ74" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK74" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AL74" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM74" t="n">
         <v>390</v>
       </c>
       <c r="AN74" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="AO74" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75">
@@ -10522,16 +10522,16 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G75" t="n">
         <v>5.9</v>
       </c>
       <c r="H75" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I75" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="J75" t="n">
         <v>3.5</v>
@@ -10549,25 +10549,25 @@
         <v>3.2</v>
       </c>
       <c r="O75" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P75" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R75" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S75" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T75" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U75" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V75" t="n">
         <v>2.12</v>
@@ -10594,7 +10594,7 @@
         <v>9.4</v>
       </c>
       <c r="AD75" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE75" t="n">
         <v>26</v>
@@ -10660,19 +10660,19 @@
         <v>1.96</v>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H76" t="n">
         <v>4.5</v>
       </c>
       <c r="I76" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J76" t="n">
         <v>3.5</v>
       </c>
       <c r="K76" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L76" t="n">
         <v>1.47</v>
@@ -10681,25 +10681,25 @@
         <v>1.08</v>
       </c>
       <c r="N76" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O76" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P76" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R76" t="n">
         <v>1.27</v>
       </c>
       <c r="S76" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T76" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U76" t="n">
         <v>1.89</v>
@@ -10735,10 +10735,10 @@
         <v>1000</v>
       </c>
       <c r="AF76" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AG76" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH76" t="n">
         <v>48</v>
@@ -10747,7 +10747,7 @@
         <v>1000</v>
       </c>
       <c r="AJ76" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK76" t="n">
         <v>65</v>
@@ -10792,16 +10792,16 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G77" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H77" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I77" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J77" t="n">
         <v>3.3</v>
@@ -10816,16 +10816,16 @@
         <v>1.09</v>
       </c>
       <c r="N77" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O77" t="n">
         <v>1.42</v>
       </c>
       <c r="P77" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R77" t="n">
         <v>1.28</v>
@@ -10834,22 +10834,22 @@
         <v>4.3</v>
       </c>
       <c r="T77" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U77" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V77" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W77" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X77" t="n">
         <v>11</v>
       </c>
       <c r="Y77" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z77" t="n">
         <v>23</v>
@@ -10879,13 +10879,13 @@
         <v>19</v>
       </c>
       <c r="AI77" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ77" t="n">
         <v>32</v>
       </c>
       <c r="AK77" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL77" t="n">
         <v>46</v>
@@ -10894,7 +10894,7 @@
         <v>120</v>
       </c>
       <c r="AN77" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO77" t="n">
         <v>55</v>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G78" t="n">
         <v>2.02</v>
@@ -10945,7 +10945,7 @@
         <v>3.65</v>
       </c>
       <c r="L78" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M78" t="n">
         <v>1.09</v>
@@ -10954,13 +10954,13 @@
         <v>3.3</v>
       </c>
       <c r="O78" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P78" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R78" t="n">
         <v>1.28</v>
@@ -10969,10 +10969,10 @@
         <v>4.2</v>
       </c>
       <c r="T78" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="U78" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V78" t="n">
         <v>1.27</v>
@@ -10984,7 +10984,7 @@
         <v>11.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z78" t="n">
         <v>32</v>
@@ -10993,7 +10993,7 @@
         <v>110</v>
       </c>
       <c r="AB78" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC78" t="n">
         <v>7.8</v>
@@ -11023,13 +11023,13 @@
         <v>24</v>
       </c>
       <c r="AL78" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AM78" t="n">
         <v>140</v>
       </c>
       <c r="AN78" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AO78" t="n">
         <v>85</v>
@@ -11074,13 +11074,13 @@
         <v>3.45</v>
       </c>
       <c r="J79" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K79" t="n">
         <v>3.25</v>
       </c>
       <c r="L79" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M79" t="n">
         <v>1.11</v>
@@ -11098,7 +11098,7 @@
         <v>2.52</v>
       </c>
       <c r="R79" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S79" t="n">
         <v>5.1</v>
@@ -11116,10 +11116,10 @@
         <v>1.64</v>
       </c>
       <c r="X79" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y79" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z79" t="n">
         <v>22</v>
@@ -11146,7 +11146,7 @@
         <v>12</v>
       </c>
       <c r="AH79" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI79" t="n">
         <v>70</v>
@@ -11155,10 +11155,10 @@
         <v>36</v>
       </c>
       <c r="AK79" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL79" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM79" t="n">
         <v>150</v>
@@ -11215,7 +11215,7 @@
         <v>3.05</v>
       </c>
       <c r="L80" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="M80" t="n">
         <v>1.15</v>
@@ -11227,7 +11227,7 @@
         <v>1.66</v>
       </c>
       <c r="P80" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q80" t="n">
         <v>3.05</v>
@@ -11293,13 +11293,13 @@
         <v>36</v>
       </c>
       <c r="AL80" t="n">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="AM80" t="n">
         <v>290</v>
       </c>
       <c r="AN80" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AO80" t="n">
         <v>140</v>
@@ -11332,22 +11332,22 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="G81" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="H81" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I81" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J81" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K81" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L81" t="n">
         <v>1.47</v>
@@ -11356,13 +11356,13 @@
         <v>1.09</v>
       </c>
       <c r="N81" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O81" t="n">
         <v>1.38</v>
       </c>
       <c r="P81" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q81" t="n">
         <v>2.16</v>
@@ -11371,73 +11371,73 @@
         <v>1.31</v>
       </c>
       <c r="S81" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T81" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="U81" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V81" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W81" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="X81" t="n">
         <v>11.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA81" t="n">
         <v>100</v>
       </c>
       <c r="AB81" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC81" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD81" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE81" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF81" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG81" t="n">
         <v>11</v>
       </c>
       <c r="AH81" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI81" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ81" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK81" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL81" t="n">
         <v>42</v>
       </c>
       <c r="AM81" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN81" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO81" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82">
@@ -11467,112 +11467,112 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="G82" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="H82" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I82" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="J82" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K82" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="L82" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="M82" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N82" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="O82" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P82" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="R82" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S82" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="T82" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="U82" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="V82" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W82" t="n">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="X82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y82" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z82" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK82" t="n">
         <v>26</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>32</v>
       </c>
       <c r="AL82" t="n">
         <v>55</v>
       </c>
       <c r="AM82" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AN82" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AO82" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83">
@@ -11602,19 +11602,19 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G83" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H83" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="I83" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="J83" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K83" t="n">
         <v>3.45</v>
@@ -11623,40 +11623,40 @@
         <v>1.46</v>
       </c>
       <c r="M83" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N83" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O83" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P83" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="Q83" t="n">
         <v>2.14</v>
       </c>
       <c r="R83" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S83" t="n">
         <v>3.9</v>
       </c>
       <c r="T83" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U83" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V83" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="W83" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X83" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="Y83" t="n">
         <v>10</v>
@@ -11668,10 +11668,10 @@
         <v>900</v>
       </c>
       <c r="AB83" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC83" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD83" t="n">
         <v>23</v>
@@ -11683,7 +11683,7 @@
         <v>70</v>
       </c>
       <c r="AG83" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH83" t="n">
         <v>50</v>
@@ -11740,19 +11740,19 @@
         <v>2.02</v>
       </c>
       <c r="G84" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H84" t="n">
         <v>4.5</v>
       </c>
       <c r="I84" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J84" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K84" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L84" t="n">
         <v>1.47</v>
@@ -11761,7 +11761,7 @@
         <v>1.09</v>
       </c>
       <c r="N84" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O84" t="n">
         <v>1.4</v>
@@ -11770,31 +11770,31 @@
         <v>1.76</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R84" t="n">
         <v>1.29</v>
       </c>
       <c r="S84" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T84" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="U84" t="n">
         <v>1.96</v>
       </c>
       <c r="V84" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W84" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X84" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y84" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z84" t="n">
         <v>36</v>
@@ -11803,46 +11803,46 @@
         <v>110</v>
       </c>
       <c r="AB84" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AC84" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD84" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE84" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF84" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG84" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI84" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ84" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AK84" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM84" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN84" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AO84" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85">
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G85" t="n">
         <v>4.9</v>
@@ -11881,10 +11881,10 @@
         <v>1.71</v>
       </c>
       <c r="I85" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J85" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K85" t="n">
         <v>5.1</v>
@@ -11902,22 +11902,22 @@
         <v>1.13</v>
       </c>
       <c r="P85" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q85" t="n">
         <v>1.41</v>
       </c>
       <c r="R85" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S85" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="T85" t="n">
         <v>1.48</v>
       </c>
       <c r="U85" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="V85" t="n">
         <v>2.26</v>
@@ -11977,7 +11977,7 @@
         <v>270</v>
       </c>
       <c r="AO85" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="86">
@@ -12007,19 +12007,19 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G86" t="n">
         <v>2.92</v>
       </c>
       <c r="H86" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I86" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="J86" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K86" t="n">
         <v>3.85</v>
@@ -12031,16 +12031,16 @@
         <v>1.06</v>
       </c>
       <c r="N86" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O86" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P86" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R86" t="n">
         <v>1.43</v>
@@ -12055,13 +12055,13 @@
         <v>2.3</v>
       </c>
       <c r="V86" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W86" t="n">
         <v>1.52</v>
       </c>
       <c r="X86" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y86" t="n">
         <v>13</v>
@@ -12079,10 +12079,10 @@
         <v>8.6</v>
       </c>
       <c r="AD86" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE86" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF86" t="n">
         <v>21</v>
@@ -12091,7 +12091,7 @@
         <v>13.5</v>
       </c>
       <c r="AH86" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI86" t="n">
         <v>38</v>
@@ -12112,7 +12112,7 @@
         <v>24</v>
       </c>
       <c r="AO86" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
@@ -12145,13 +12145,13 @@
         <v>1.15</v>
       </c>
       <c r="G87" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H87" t="n">
         <v>22</v>
       </c>
       <c r="I87" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J87" t="n">
         <v>9.4</v>
@@ -12172,22 +12172,22 @@
         <v>1.16</v>
       </c>
       <c r="P87" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q87" t="n">
         <v>1.5</v>
       </c>
       <c r="R87" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S87" t="n">
         <v>2.28</v>
       </c>
       <c r="T87" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="U87" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="V87" t="n">
         <v>1.03</v>
@@ -12202,7 +12202,7 @@
         <v>340</v>
       </c>
       <c r="Z87" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AA87" t="n">
         <v>1000</v>
@@ -12244,7 +12244,7 @@
         <v>1000</v>
       </c>
       <c r="AN87" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO87" t="n">
         <v>1000</v>
@@ -12412,22 +12412,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G89" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H89" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I89" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J89" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K89" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L89" t="n">
         <v>1.47</v>
@@ -12451,13 +12451,13 @@
         <v>1.27</v>
       </c>
       <c r="S89" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T89" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U89" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V89" t="n">
         <v>1.41</v>
@@ -12469,55 +12469,55 @@
         <v>12</v>
       </c>
       <c r="Y89" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z89" t="n">
         <v>24</v>
       </c>
       <c r="AA89" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AB89" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC89" t="n">
         <v>7.8</v>
       </c>
       <c r="AD89" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE89" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AF89" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG89" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI89" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="AJ89" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AK89" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AL89" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM89" t="n">
         <v>580</v>
       </c>
       <c r="AN89" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO89" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90">
@@ -12547,16 +12547,16 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G90" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H90" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="J90" t="n">
         <v>3.5</v>
@@ -12571,7 +12571,7 @@
         <v>1.1</v>
       </c>
       <c r="N90" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O90" t="n">
         <v>1.44</v>
@@ -12589,34 +12589,34 @@
         <v>4.5</v>
       </c>
       <c r="T90" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U90" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="V90" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="W90" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X90" t="n">
         <v>11</v>
       </c>
       <c r="Y90" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Z90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA90" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB90" t="n">
         <v>13</v>
       </c>
       <c r="AC90" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD90" t="n">
         <v>10.5</v>
@@ -12625,34 +12625,34 @@
         <v>24</v>
       </c>
       <c r="AF90" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG90" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI90" t="n">
         <v>46</v>
       </c>
       <c r="AJ90" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AK90" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL90" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM90" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN90" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AO90" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
@@ -12682,19 +12682,19 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G91" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="H91" t="n">
+        <v>6</v>
+      </c>
+      <c r="I91" t="n">
         <v>6.2</v>
       </c>
-      <c r="I91" t="n">
-        <v>6.4</v>
-      </c>
       <c r="J91" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K91" t="n">
         <v>3.65</v>
@@ -12721,31 +12721,31 @@
         <v>1.22</v>
       </c>
       <c r="S91" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T91" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U91" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V91" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W91" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="X91" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y91" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z91" t="n">
         <v>48</v>
       </c>
       <c r="AA91" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AB91" t="n">
         <v>6.2</v>
@@ -12754,7 +12754,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD91" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE91" t="n">
         <v>130</v>
@@ -12766,16 +12766,16 @@
         <v>11</v>
       </c>
       <c r="AH91" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI91" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ91" t="n">
         <v>18</v>
       </c>
       <c r="AK91" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL91" t="n">
         <v>60</v>
@@ -12784,10 +12784,10 @@
         <v>580</v>
       </c>
       <c r="AN91" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO91" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92">
@@ -12817,112 +12817,112 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="G92" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H92" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="I92" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="J92" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K92" t="n">
         <v>3.55</v>
       </c>
       <c r="L92" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M92" t="n">
         <v>1.08</v>
       </c>
       <c r="N92" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O92" t="n">
         <v>1.34</v>
       </c>
       <c r="P92" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R92" t="n">
         <v>1.35</v>
       </c>
       <c r="S92" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T92" t="n">
         <v>1.81</v>
       </c>
       <c r="U92" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V92" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="W92" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="X92" t="n">
         <v>13</v>
       </c>
       <c r="Y92" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z92" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA92" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="AB92" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC92" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD92" t="n">
         <v>11</v>
       </c>
       <c r="AE92" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL92" t="n">
         <v>60</v>
       </c>
-      <c r="AF92" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>170</v>
-      </c>
-      <c r="AL92" t="n">
+      <c r="AM92" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN92" t="n">
         <v>55</v>
       </c>
-      <c r="AM92" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>46</v>
-      </c>
       <c r="AO92" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93">
@@ -12970,31 +12970,31 @@
         <v>3.55</v>
       </c>
       <c r="L93" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="M93" t="n">
         <v>1.11</v>
       </c>
       <c r="N93" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O93" t="n">
         <v>1.5</v>
       </c>
       <c r="P93" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="R93" t="n">
         <v>1.22</v>
       </c>
       <c r="S93" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T93" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U93" t="n">
         <v>1.75</v>
@@ -13006,7 +13006,7 @@
         <v>2.12</v>
       </c>
       <c r="X93" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="Y93" t="n">
         <v>14.5</v>
@@ -13027,7 +13027,7 @@
         <v>23</v>
       </c>
       <c r="AE93" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="AF93" t="n">
         <v>10</v>
@@ -13093,7 +13093,7 @@
         <v>5.3</v>
       </c>
       <c r="H94" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I94" t="n">
         <v>2.1</v>
@@ -13114,13 +13114,13 @@
         <v>3</v>
       </c>
       <c r="O94" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P94" t="n">
         <v>1.67</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R94" t="n">
         <v>1.24</v>
@@ -13132,7 +13132,7 @@
         <v>1.98</v>
       </c>
       <c r="U94" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V94" t="n">
         <v>1.91</v>
@@ -13141,19 +13141,19 @@
         <v>1.23</v>
       </c>
       <c r="X94" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y94" t="n">
         <v>7.6</v>
       </c>
       <c r="Z94" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA94" t="n">
         <v>26</v>
       </c>
       <c r="AB94" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC94" t="n">
         <v>8.199999999999999</v>
@@ -13171,7 +13171,7 @@
         <v>21</v>
       </c>
       <c r="AH94" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI94" t="n">
         <v>50</v>
@@ -13180,10 +13180,10 @@
         <v>1000</v>
       </c>
       <c r="AK94" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="AL94" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM94" t="n">
         <v>1000</v>
@@ -13225,13 +13225,13 @@
         <v>1.65</v>
       </c>
       <c r="G95" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H95" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="I95" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J95" t="n">
         <v>4</v>
@@ -13246,34 +13246,34 @@
         <v>1.05</v>
       </c>
       <c r="N95" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O95" t="n">
         <v>1.25</v>
       </c>
       <c r="P95" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R95" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S95" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T95" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U95" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="V95" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W95" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="X95" t="n">
         <v>22</v>
@@ -13282,13 +13282,13 @@
         <v>24</v>
       </c>
       <c r="Z95" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA95" t="n">
         <v>900</v>
       </c>
       <c r="AB95" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC95" t="n">
         <v>10.5</v>
@@ -13297,7 +13297,7 @@
         <v>25</v>
       </c>
       <c r="AE95" t="n">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="AF95" t="n">
         <v>11</v>
@@ -13309,19 +13309,19 @@
         <v>21</v>
       </c>
       <c r="AI95" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AK95" t="n">
         <v>17.5</v>
       </c>
       <c r="AL95" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AM95" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN95" t="n">
         <v>10</v>
@@ -13357,7 +13357,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G96" t="n">
         <v>1.98</v>
@@ -13366,19 +13366,19 @@
         <v>3.75</v>
       </c>
       <c r="I96" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J96" t="n">
         <v>3.95</v>
       </c>
       <c r="K96" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L96" t="n">
         <v>1.41</v>
       </c>
       <c r="M96" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N96" t="n">
         <v>3.35</v>
@@ -13405,37 +13405,37 @@
         <v>1.04</v>
       </c>
       <c r="V96" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W96" t="n">
         <v>2.02</v>
       </c>
       <c r="X96" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y96" t="n">
         <v>20</v>
       </c>
       <c r="Z96" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AA96" t="n">
         <v>140</v>
       </c>
       <c r="AB96" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC96" t="n">
         <v>10</v>
       </c>
       <c r="AD96" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AE96" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF96" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AG96" t="n">
         <v>10.5</v>
@@ -13447,10 +13447,10 @@
         <v>80</v>
       </c>
       <c r="AJ96" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK96" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL96" t="n">
         <v>46</v>
@@ -13459,10 +13459,10 @@
         <v>130</v>
       </c>
       <c r="AN96" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO96" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97">
@@ -13495,16 +13495,16 @@
         <v>1.91</v>
       </c>
       <c r="G97" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H97" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I97" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J97" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K97" t="n">
         <v>3.9</v>
@@ -13540,10 +13540,10 @@
         <v>1.04</v>
       </c>
       <c r="V97" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W97" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X97" t="n">
         <v>1000</v>
@@ -13561,13 +13561,13 @@
         <v>1000</v>
       </c>
       <c r="AC97" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD97" t="n">
         <v>1000</v>
       </c>
       <c r="AE97" t="n">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="AF97" t="n">
         <v>1000</v>
@@ -13591,10 +13591,10 @@
         <v>980</v>
       </c>
       <c r="AM97" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN97" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO97" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,411 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-12-21</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>18:30:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>LDU</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Univ Catolica (Ecu)</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="H2" t="n">
-        <v>260</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>50</v>
-      </c>
-      <c r="K2" t="n">
-        <v>160</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="S2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>6</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>50</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>160</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-21</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>18:30:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Independiente (Ecu)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Barcelona (Ecu)</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>32</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-21</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>18:30:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Orense Sporting Club</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Libertad FC</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
